--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1B2437-B2BD-D043-B742-941D3823677D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B76A3E-BE7C-7A40-B78A-D96AEF4D9DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8200" yWindow="500" windowWidth="27640" windowHeight="16860" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="147">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -472,6 +472,9 @@
   </si>
   <si>
     <t>Sing Along With This Note</t>
+  </si>
+  <si>
+    <t>Microphone</t>
   </si>
 </sst>
 </file>
@@ -880,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="92" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:B77"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="92" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1510,6 +1513,14 @@
         <v>145</v>
       </c>
     </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>146</v>
+      </c>
+      <c r="B78" t="s">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B76A3E-BE7C-7A40-B78A-D96AEF4D9DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE2FFC4-D813-0941-BF36-7891B3A1E658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8200" yWindow="500" windowWidth="27640" windowHeight="16860" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="148">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -475,6 +475,9 @@
   </si>
   <si>
     <t>Microphone</t>
+  </si>
+  <si>
+    <t>de</t>
   </si>
 </sst>
 </file>
@@ -571,7 +574,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -587,7 +590,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -885,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="92" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="92" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -895,515 +898,707 @@
     <col min="2" max="2" width="155.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="306" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B38" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B39" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B40" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B41" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B42" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B43" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B44" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B45" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B46" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B47" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>89</v>
       </c>
       <c r="B48" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>90</v>
       </c>
       <c r="B49" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>91</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>93</v>
       </c>
       <c r="B51" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>94</v>
       </c>
       <c r="B52" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>95</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>96</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>97</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>98</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>99</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>101</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>103</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>105</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>100</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>113</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C63" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1414,6 +1609,9 @@
       <c r="B65" s="2" t="s">
         <v>115</v>
       </c>
+      <c r="C65" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -1422,6 +1620,9 @@
       <c r="B66" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="C66" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
@@ -1430,6 +1631,9 @@
       <c r="B67" t="s">
         <v>122</v>
       </c>
+      <c r="C67" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
@@ -1438,7 +1642,9 @@
       <c r="B68" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C68" s="10"/>
+      <c r="C68" s="6" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
@@ -1447,7 +1653,9 @@
       <c r="B69" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C69" s="10"/>
+      <c r="C69" s="6" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
@@ -1456,6 +1664,9 @@
       <c r="B70" t="s">
         <v>131</v>
       </c>
+      <c r="C70" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
@@ -1464,6 +1675,9 @@
       <c r="B71" t="s">
         <v>132</v>
       </c>
+      <c r="C71" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
@@ -1472,6 +1686,9 @@
       <c r="B72" s="9" t="s">
         <v>134</v>
       </c>
+      <c r="C72" s="9" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
@@ -1480,6 +1697,9 @@
       <c r="B73" t="s">
         <v>135</v>
       </c>
+      <c r="C73" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
@@ -1488,6 +1708,9 @@
       <c r="B74" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="C74" s="2" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
@@ -1496,6 +1719,9 @@
       <c r="B75" t="s">
         <v>141</v>
       </c>
+      <c r="C75" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
@@ -1504,6 +1730,9 @@
       <c r="B76" t="s">
         <v>142</v>
       </c>
+      <c r="C76" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
@@ -1512,12 +1741,18 @@
       <c r="B77" s="2" t="s">
         <v>145</v>
       </c>
+      <c r="C77" s="2" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>146</v>
       </c>
       <c r="B78" t="s">
+        <v>146</v>
+      </c>
+      <c r="C78" t="s">
         <v>146</v>
       </c>
     </row>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE2FFC4-D813-0941-BF36-7891B3A1E658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49D6568-07E4-2449-A617-ACDC90D907DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8200" yWindow="500" windowWidth="27640" windowHeight="16860" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="149">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -478,6 +478,9 @@
   </si>
   <si>
     <t>de</t>
+  </si>
+  <si>
+    <t>Stop</t>
   </si>
 </sst>
 </file>
@@ -886,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="92" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="92" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1756,6 +1759,17 @@
         <v>146</v>
       </c>
     </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>148</v>
+      </c>
+      <c r="B79" t="s">
+        <v>148</v>
+      </c>
+      <c r="C79" t="s">
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49D6568-07E4-2449-A617-ACDC90D907DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1624061A-243D-E047-A6B0-E256020705AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8200" yWindow="500" windowWidth="27640" windowHeight="16860" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="2520" yWindow="500" windowWidth="27640" windowHeight="16860" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="150">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -57,15 +57,6 @@
     <t>Microphone Test</t>
   </si>
   <si>
-    <t>When you are ready, click on the microphone image. Click Allow on the popup message.</t>
-  </si>
-  <si>
-    <t>Noise Test</t>
-  </si>
-  <si>
-    <t>We need to record 5 seconds of your room with you being quiet to see what your background noise is like.</t>
-  </si>
-  <si>
     <t>When you are ready to record your environment for 5 seconds, press the button below.</t>
   </si>
   <si>
@@ -129,9 +120,6 @@
     <t>browser_requirements2</t>
   </si>
   <si>
-    <t>Unfortunately, the test will not work in Safari or Internet Explorer.</t>
-  </si>
-  <si>
     <t>check_browser_button</t>
   </si>
   <si>
@@ -447,9 +435,6 @@
     <t>Browser_Requirements</t>
   </si>
   <si>
-    <t>When you are ready, press Record and  hum into your microphone for 5 seconds.</t>
-  </si>
-  <si>
     <t>When you see this image, your input will be recorded, so please try and complete the instructions when this appears.</t>
   </si>
   <si>
@@ -481,13 +466,31 @@
   </si>
   <si>
     <t>Stop</t>
+  </si>
+  <si>
+    <t>When you are ready, click on the microphone image. If you see a popup message that says “Allow”,  click “Allow”.</t>
+  </si>
+  <si>
+    <t>We need to record 5 seconds of the background sound level of the room while you are quiet.</t>
+  </si>
+  <si>
+    <t>When you are ready to record the background sound level, press the button below.</t>
+  </si>
+  <si>
+    <t>Vocal Signal Sound Level Test</t>
+  </si>
+  <si>
+    <t>When you are ready, click on “Record” and for about 5 seconds please hum, directed toward your microphone for 5 seconds.  (to “hum”, put your lips together and make a sound with your voice.)</t>
+  </si>
+  <si>
+    <t>Unfortunately, the test will not work in Safari or Internet Explorer and potentially other browsers too.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -532,6 +535,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -559,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -575,6 +585,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -891,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="92" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="92" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -903,13 +916,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -925,7 +938,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -936,7 +949,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -947,7 +960,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -958,7 +971,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -969,18 +982,18 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -991,783 +1004,783 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>144</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>7</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>68</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>9</v>
+        <v>145</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="306" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B42" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C42" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B48" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B49" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C49" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B51" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B52" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C52" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C67" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B70" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C70" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B71" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C71" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B73" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C73" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B75" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C75" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B76" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C76" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B78" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C78" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B79" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C79" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1624061A-243D-E047-A6B0-E256020705AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CA4861-8B26-AB42-AA2D-494CC4806870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2520" yWindow="500" windowWidth="27640" windowHeight="16860" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="153">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -484,6 +484,15 @@
   </si>
   <si>
     <t>Unfortunately, the test will not work in Safari or Internet Explorer and potentially other browsers too.</t>
+  </si>
+  <si>
+    <t>The test will not work in Safari or Internet Explorer and potentially other browsers.</t>
+  </si>
+  <si>
+    <t>Please play/sing the lowest comfortable note on your instrument/voice. Press Stop when you are finished.</t>
+  </si>
+  <si>
+    <t>Please play/sing the highest comfortable  note on your instrument/voice. Press Stop when you are finished.</t>
   </si>
 </sst>
 </file>
@@ -904,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="92" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="92" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1205,7 +1214,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>149</v>
@@ -1436,7 +1445,7 @@
         <v>85</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="C48" t="s">
         <v>124</v>
@@ -1447,7 +1456,7 @@
         <v>86</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="C49" t="s">
         <v>125</v>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CA4861-8B26-AB42-AA2D-494CC4806870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E296631C-1464-3A46-AE3D-46D021BE0FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="500" windowWidth="27640" windowHeight="16860" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="2500" yWindow="500" windowWidth="33340" windowHeight="16860" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="161">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -493,6 +493,30 @@
   </si>
   <si>
     <t>Please play/sing the highest comfortable  note on your instrument/voice. Press Stop when you are finished.</t>
+  </si>
+  <si>
+    <t>other_please_state</t>
+  </si>
+  <si>
+    <t>Other (please state)</t>
+  </si>
+  <si>
+    <t>instrument_selection_message</t>
+  </si>
+  <si>
+    <t>Please select which instrument you will use.</t>
+  </si>
+  <si>
+    <t>attempts_remaining_several.2.forced</t>
+  </si>
+  <si>
+    <t>attempts remaining.</t>
+  </si>
+  <si>
+    <t>attempts_remaining_1.forced</t>
+  </si>
+  <si>
+    <t>You have one attempt remaining.</t>
   </si>
 </sst>
 </file>
@@ -911,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="92" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="92" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1552,244 +1576,288 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>97</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>98</v>
+        <v>157</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>99</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>100</v>
+        <v>159</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>103</v>
+      <c r="A61" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>109</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B64" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>119</v>
+      <c r="A66" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B69" t="s">
         <v>118</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C69" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="6" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B70" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C70" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="6" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B71" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C71" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>126</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B72" t="s">
         <v>127</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C72" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>128</v>
-      </c>
-      <c r="B71" t="s">
-        <v>128</v>
-      </c>
-      <c r="C71" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B73" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C73" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>133</v>
+      <c r="A74" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>132</v>
+      </c>
+      <c r="B75" t="s">
+        <v>131</v>
+      </c>
+      <c r="C75" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>135</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B77" t="s">
         <v>136</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C77" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>138</v>
-      </c>
-      <c r="B76" t="s">
-        <v>137</v>
-      </c>
-      <c r="C76" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>138</v>
+      </c>
+      <c r="B78" t="s">
+        <v>137</v>
+      </c>
+      <c r="C78" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>141</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B80" t="s">
         <v>141</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C80" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>143</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B81" t="s">
         <v>143</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C81" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" t="s">
+        <v>154</v>
+      </c>
+      <c r="C82" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>155</v>
+      </c>
+      <c r="B83" t="s">
+        <v>156</v>
+      </c>
+      <c r="C83" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E296631C-1464-3A46-AE3D-46D021BE0FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC90048-F830-4D44-8FB4-955AB5E3CFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2500" yWindow="500" windowWidth="33340" windowHeight="16860" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="164">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -517,6 +517,15 @@
   </si>
   <si>
     <t>You have one attempt remaining.</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Nein</t>
+  </si>
+  <si>
+    <t>oder</t>
   </si>
 </sst>
 </file>
@@ -937,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
   <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="92" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="92" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1362,7 +1371,7 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1373,7 +1382,7 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1384,7 +1393,7 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC90048-F830-4D44-8FB4-955AB5E3CFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED46A39C-ADD2-7740-948F-B21BB5F2FAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="500" windowWidth="33340" windowHeight="16860" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="3460" yWindow="1100" windowWidth="33340" windowHeight="16860" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="165">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -526,6 +526,9 @@
   </si>
   <si>
     <t>oder</t>
+  </si>
+  <si>
+    <t>Bitte wählen Sie, welches Instrument Sie benuzten werden.</t>
   </si>
 </sst>
 </file>
@@ -946,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
   <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="92" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="92" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1866,7 +1869,7 @@
         <v>156</v>
       </c>
       <c r="C83" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED46A39C-ADD2-7740-948F-B21BB5F2FAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4ED5A9B-FCDD-2C41-A41E-A0E48B43F69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="1100" windowWidth="33340" windowHeight="16860" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="3780" yWindow="500" windowWidth="35580" windowHeight="17200" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="221">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Microphone Test</t>
   </si>
   <si>
-    <t>When you are ready to record your environment for 5 seconds, press the button below.</t>
-  </si>
-  <si>
     <t>Please try not to make a noise!</t>
   </si>
   <si>
@@ -201,15 +198,9 @@
     <t>comfortable_volume</t>
   </si>
   <si>
-    <t>The volume is comfortable</t>
-  </si>
-  <si>
     <t>microphone_calibration_button</t>
   </si>
   <si>
-    <t>I can see activity in the box.</t>
-  </si>
-  <si>
     <t>microphone_calibration_message_1</t>
   </si>
   <si>
@@ -225,9 +216,6 @@
     <t xml:space="preserve">Please make sure your microphone is plugged in (if using an external microphone). </t>
   </si>
   <si>
-    <t>Wait a few seconds. You should see a black box appear. If you see activity inside the box when you make noise, then the microphone is working. Otherwise, it is not.</t>
-  </si>
-  <si>
     <t>record_bg</t>
   </si>
   <si>
@@ -408,12 +396,6 @@
     <t>If you have any questions, please ask the researcher before proceeding.</t>
   </si>
   <si>
-    <t>Please play/sing the lowest note on your instrument/voice. Press Stop when you are finished.</t>
-  </si>
-  <si>
-    <t>Please play/sing the highest note on your instrument/voice. Press Stop when you are finished.</t>
-  </si>
-  <si>
     <t>Try_Again</t>
   </si>
   <si>
@@ -468,18 +450,12 @@
     <t>Stop</t>
   </si>
   <si>
-    <t>When you are ready, click on the microphone image. If you see a popup message that says “Allow”,  click “Allow”.</t>
-  </si>
-  <si>
     <t>We need to record 5 seconds of the background sound level of the room while you are quiet.</t>
   </si>
   <si>
     <t>When you are ready to record the background sound level, press the button below.</t>
   </si>
   <si>
-    <t>Vocal Signal Sound Level Test</t>
-  </si>
-  <si>
     <t>When you are ready, click on “Record” and for about 5 seconds please hum, directed toward your microphone for 5 seconds.  (to “hum”, put your lips together and make a sound with your voice.)</t>
   </si>
   <si>
@@ -489,12 +465,6 @@
     <t>The test will not work in Safari or Internet Explorer and potentially other browsers.</t>
   </si>
   <si>
-    <t>Please play/sing the lowest comfortable note on your instrument/voice. Press Stop when you are finished.</t>
-  </si>
-  <si>
-    <t>Please play/sing the highest comfortable  note on your instrument/voice. Press Stop when you are finished.</t>
-  </si>
-  <si>
     <t>other_please_state</t>
   </si>
   <si>
@@ -529,13 +499,211 @@
   </si>
   <si>
     <t>Bitte wählen Sie, welches Instrument Sie benuzten werden.</t>
+  </si>
+  <si>
+    <t>select_midi_device_title</t>
+  </si>
+  <si>
+    <t>Select MIDI device</t>
+  </si>
+  <si>
+    <t>MIDI-Gerät auswählen.</t>
+  </si>
+  <si>
+    <t>select_midi_device_message</t>
+  </si>
+  <si>
+    <t>Your device should have been plugged in before you reached this page. It may take a moment to appear.</t>
+  </si>
+  <si>
+    <t>Ihr Gerät sollte bereits angeschlossen gewesen sein bevor Sie diese Seite erreichen haben. Es kann einen Moment dauern bis es erscheint.</t>
+  </si>
+  <si>
+    <t>no_midi_device_found</t>
+  </si>
+  <si>
+    <t>No MIDI device found.</t>
+  </si>
+  <si>
+    <t>Kein MIDI-Gerät gefunden.</t>
+  </si>
+  <si>
+    <t>range_explanation_voice</t>
+  </si>
+  <si>
+    <t>We will now find your approximate voice range. You will be asked first to sing your lowest comfortable note.  The computer will then analyse this note and it will be played back to you. You will be asked to decide if this is a good match to your lowest note. Sometimes the computer can make a large error. You should know when that happens, and you will have an opportunity to sing your  note again, and give the computer another chance.</t>
+  </si>
+  <si>
+    <t>range_explanation_instrument</t>
+  </si>
+  <si>
+    <t>We will now find your approximate instrument range. You will be asked to play your lowest comfortable note, then highest comfortable note.</t>
+  </si>
+  <si>
+    <t>get_range_low</t>
+  </si>
+  <si>
+    <t>get_range_low_note_voice</t>
+  </si>
+  <si>
+    <t>get_range_high_note_voice</t>
+  </si>
+  <si>
+    <t>Please play the lowest comfortable note on your instrument. Press Stop when you are finished.</t>
+  </si>
+  <si>
+    <t>Please play the highest comfortable  note on your instrument. Press Stop when you are finished.</t>
+  </si>
+  <si>
+    <t>Please sing your lowest comfortable note. Press Stop when you are finished.</t>
+  </si>
+  <si>
+    <t>Please sing your highest comfortable note. Press Stop when you are finished.</t>
+  </si>
+  <si>
+    <t>audio_error_suggestion</t>
+  </si>
+  <si>
+    <t>Perhaps you are too quiet, or you have a noisy computer fan.</t>
+  </si>
+  <si>
+    <t>hear_range</t>
+  </si>
+  <si>
+    <t>range_adjust_message</t>
+  </si>
+  <si>
+    <t>You can click below to hear your range.</t>
+  </si>
+  <si>
+    <t>Please note, we may have changed the range to be slightly higher or lower than you actually sang.</t>
+  </si>
+  <si>
+    <t>sing_hbd</t>
+  </si>
+  <si>
+    <t>Please sing Happy Birthday.</t>
+  </si>
+  <si>
+    <t>Please note, we may have changed the range to be slightly higher or lower than you actually played.</t>
+  </si>
+  <si>
+    <t>range_adjust_message_voice</t>
+  </si>
+  <si>
+    <t>first_note_is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The first note is: </t>
+  </si>
+  <si>
+    <t>play_first_note</t>
+  </si>
+  <si>
+    <t>Play First Note</t>
+  </si>
+  <si>
+    <t>transposed</t>
+  </si>
+  <si>
+    <t>Please note, this is transposed for your instrument.</t>
+  </si>
+  <si>
+    <t>Make a sound (e.g., hum, clap, sing).  If you see activity  (moving coloured lines) inside the meter when you make a sound, then the microphone is working. Otherwise, it is not.</t>
+  </si>
+  <si>
+    <t>I can see activity on the meter.</t>
+  </si>
+  <si>
+    <t>long_tone_text</t>
+  </si>
+  <si>
+    <t>Sing along with the tone for 5 seconds.</t>
+  </si>
+  <si>
+    <t>you_have_completed_the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have completed the </t>
+  </si>
+  <si>
+    <t>Click to proceed to the next test.</t>
+  </si>
+  <si>
+    <t>proceed_next_test</t>
+  </si>
+  <si>
+    <t>Ich kann die Musik hören, bitte fortfahren.</t>
+  </si>
+  <si>
+    <t>Kopfhörertest</t>
+  </si>
+  <si>
+    <t>Sie sollten jetzt Audio spielen hören.</t>
+  </si>
+  <si>
+    <t>Bitte passen Sie die Kopfhörerlautstärke auf ein komfortables Level an.</t>
+  </si>
+  <si>
+    <t>Wenn es Ihnen nicht möglich ist die Kopfhörerlautstärke auf ein komfortables Level anzupassen, fahren Sie bitte nicht fort.</t>
+  </si>
+  <si>
+    <t>Die Lautstärke ist angenehm.</t>
+  </si>
+  <si>
+    <t>The volume is comfortable.</t>
+  </si>
+  <si>
+    <t>Mikrofontest</t>
+  </si>
+  <si>
+    <t>Bitte stellen Sie sicher, dass Ihr Mikrofon angeschlossen ist (wenn Sie ein externes Mikrofon benutzten).</t>
+  </si>
+  <si>
+    <t>Klicken Sie auf den "Start test" Knopf. Wenn die Nachricht "Zulassen" erscheint, klicken Sie "Zulassen".</t>
+  </si>
+  <si>
+    <t>Click on the "Start test" button. If you see a popup message that says "Allow", click "Allow".</t>
+  </si>
+  <si>
+    <t>Machen Sie ein Geräusch (z.B. summen, klatschen, singen). Wenn Sie, während Sie das Geräusch machen, innerhalb des Geräuschpegelfensters Bewegung sehen (farbige Linien die sich bewegen), dann funktioniert das Mikrofon. Andernfalls funktioniert es nicht.</t>
+  </si>
+  <si>
+    <t>Signal Volume Test</t>
+  </si>
+  <si>
+    <t>Signalvolumentest</t>
+  </si>
+  <si>
+    <t>Auf der nächsten Seite testen wie ob ihr Hintergrund zu laut war oder nicht. Wenn Ihr Hintergrund zu laut ist, können Sie den Test leider nicht durchführen. Es kann einige Sekunden dauern, die Seite zu laden.</t>
+  </si>
+  <si>
+    <t>Wir müssen jetzt 5 Sekunden des Hintergrundgeräuschpegels in ihrem Raum aufnehmen während Sie sich still verhalten.</t>
+  </si>
+  <si>
+    <t>Wenn Sie bereit sind, Ihre Hintergrundgeräusche für 5 Sekunden aufzunehmen, drücken Sie den Knopf unten.</t>
+  </si>
+  <si>
+    <t>Bitte versuchen Sie keine Geräusche zu machen!</t>
+  </si>
+  <si>
+    <t>Ich Bin Bereit Meine Hintergrundgeräusche Aufzunehmen</t>
+  </si>
+  <si>
+    <t>Weiter</t>
+  </si>
+  <si>
+    <t>Setup Bereit</t>
+  </si>
+  <si>
+    <t>Okay, jetzt ist alles eingestellt. Klick um zu den Hauptaufgaben fortzufahren.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -580,15 +748,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -599,6 +760,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -614,15 +781,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -630,9 +794,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -947,27 +1120,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="92" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.6640625" customWidth="1"/>
     <col min="2" max="2" width="155.5" customWidth="1"/>
+    <col min="3" max="3" width="175.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -978,898 +1152,1107 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>205</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>144</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>191</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>63</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>147</v>
+        <v>64</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>70</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>145</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>7</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>9</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>10</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="306" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="15" customFormat="1" ht="306" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>18</v>
+      <c r="C22" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="C28" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C29" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="C30" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="C31" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="C32" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="C36" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C37" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B42" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C42" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B48" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="C48" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="C49" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>88</v>
+      <c r="A50" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="C51" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>90</v>
-      </c>
-      <c r="B52" t="s">
-        <v>90</v>
-      </c>
-      <c r="C52" t="s">
-        <v>90</v>
+      <c r="A52" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>91</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>107</v>
+        <v>85</v>
+      </c>
+      <c r="B53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>92</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>106</v>
+        <v>86</v>
+      </c>
+      <c r="B54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>93</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>108</v>
+        <v>87</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>94</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>104</v>
+        <v>88</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>95</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>105</v>
+        <v>89</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>157</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>158</v>
+        <v>90</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>159</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>160</v>
+        <v>91</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>99</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>100</v>
+        <v>149</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>101</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>102</v>
+        <v>93</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="7" t="s">
+      <c r="A63" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="C63" s="7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>109</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>110</v>
+        <v>97</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>113</v>
+      <c r="A65" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>112</v>
+      <c r="A66" t="s">
+        <v>105</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>119</v>
+      <c r="B68" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B71" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C72" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C69" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="6" t="s">
+      <c r="B73" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>120</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B74" t="s">
         <v>121</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C74" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>126</v>
-      </c>
-      <c r="B72" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>128</v>
-      </c>
-      <c r="B73" t="s">
-        <v>128</v>
-      </c>
-      <c r="C73" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B75" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C75" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>133</v>
+      <c r="A76" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B77" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C77" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>138</v>
-      </c>
-      <c r="B78" t="s">
-        <v>137</v>
-      </c>
-      <c r="C78" t="s">
-        <v>137</v>
+      <c r="A78" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>140</v>
+      <c r="A79" t="s">
+        <v>129</v>
+      </c>
+      <c r="B79" t="s">
+        <v>168</v>
+      </c>
+      <c r="C79" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B80" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C80" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>143</v>
-      </c>
-      <c r="B81" t="s">
-        <v>143</v>
-      </c>
-      <c r="C81" t="s">
-        <v>143</v>
+      <c r="A81" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>153</v>
-      </c>
-      <c r="B82" t="s">
-        <v>154</v>
-      </c>
-      <c r="C82" t="s">
-        <v>154</v>
+      <c r="A82" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>135</v>
+      </c>
+      <c r="B83" t="s">
+        <v>135</v>
+      </c>
+      <c r="C83" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>137</v>
+      </c>
+      <c r="B84" t="s">
+        <v>137</v>
+      </c>
+      <c r="C84" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>143</v>
+      </c>
+      <c r="B85" t="s">
+        <v>144</v>
+      </c>
+      <c r="C85" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>145</v>
+      </c>
+      <c r="B86" t="s">
+        <v>146</v>
+      </c>
+      <c r="C86" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B87" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C87" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>164</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>166</v>
+      </c>
+      <c r="B91" t="s">
+        <v>167</v>
+      </c>
+      <c r="C91" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>175</v>
+      </c>
+      <c r="B92" t="s">
+        <v>176</v>
+      </c>
+      <c r="C92" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>177</v>
+      </c>
+      <c r="B93" t="s">
+        <v>179</v>
+      </c>
+      <c r="C93" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>184</v>
+      </c>
+      <c r="B94" t="s">
+        <v>180</v>
+      </c>
+      <c r="C94" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>178</v>
+      </c>
+      <c r="B95" t="s">
+        <v>183</v>
+      </c>
+      <c r="C95" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>181</v>
+      </c>
+      <c r="B96" t="s">
+        <v>182</v>
+      </c>
+      <c r="C96" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>185</v>
+      </c>
+      <c r="B97" t="s">
+        <v>186</v>
+      </c>
+      <c r="C97" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>187</v>
+      </c>
+      <c r="B98" t="s">
+        <v>188</v>
+      </c>
+      <c r="C98" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>189</v>
+      </c>
+      <c r="B99" t="s">
+        <v>190</v>
+      </c>
+      <c r="C99" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>86</v>
+      </c>
+      <c r="B100" t="s">
+        <v>86</v>
+      </c>
+      <c r="C100" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>195</v>
+      </c>
+      <c r="B101" t="s">
+        <v>196</v>
+      </c>
+      <c r="C101" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>198</v>
+      </c>
+      <c r="B102" t="s">
+        <v>197</v>
+      </c>
+      <c r="C102" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4ED5A9B-FCDD-2C41-A41E-A0E48B43F69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C88FAD2-158E-DD47-9936-88F8DE589556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="500" windowWidth="35580" windowHeight="17200" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="260" yWindow="500" windowWidth="35580" windowHeight="17200" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="220">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -538,9 +538,6 @@
   </si>
   <si>
     <t>We will now find your approximate instrument range. You will be asked to play your lowest comfortable note, then highest comfortable note.</t>
-  </si>
-  <si>
-    <t>get_range_low</t>
   </si>
   <si>
     <t>get_range_low_note_voice</t>
@@ -1123,7 +1120,7 @@
   <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A63" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1152,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1163,7 +1160,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1174,7 +1171,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1185,7 +1182,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1196,7 +1193,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1204,10 +1201,10 @@
         <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1218,7 +1215,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1229,7 +1226,7 @@
         <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1237,10 +1234,10 @@
         <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1248,10 +1245,10 @@
         <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1259,10 +1256,10 @@
         <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1270,10 +1267,10 @@
         <v>64</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>211</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1284,7 +1281,7 @@
         <v>66</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1295,7 +1292,7 @@
         <v>138</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1306,7 +1303,7 @@
         <v>139</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1317,7 +1314,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1328,7 +1325,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1339,7 +1336,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1350,7 +1347,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1361,7 +1358,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="15" customFormat="1" ht="306" x14ac:dyDescent="0.2">
@@ -1655,10 +1652,10 @@
         <v>81</v>
       </c>
       <c r="B48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1666,32 +1663,32 @@
         <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1996,7 +1993,7 @@
         <v>129</v>
       </c>
       <c r="B79" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="C79" t="s">
         <v>130</v>
@@ -2026,13 +2023,13 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="C82" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -2136,90 +2133,90 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>174</v>
+      </c>
+      <c r="B92" t="s">
         <v>175</v>
       </c>
-      <c r="B92" t="s">
-        <v>176</v>
-      </c>
       <c r="C92" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B93" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C93" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B94" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C94" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B95" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C95" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>180</v>
+      </c>
+      <c r="B96" t="s">
         <v>181</v>
       </c>
-      <c r="B96" t="s">
-        <v>182</v>
-      </c>
       <c r="C96" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>184</v>
+      </c>
+      <c r="B97" t="s">
         <v>185</v>
       </c>
-      <c r="B97" t="s">
-        <v>186</v>
-      </c>
       <c r="C97" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>186</v>
+      </c>
+      <c r="B98" t="s">
         <v>187</v>
       </c>
-      <c r="B98" t="s">
-        <v>188</v>
-      </c>
       <c r="C98" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>188</v>
+      </c>
+      <c r="B99" t="s">
         <v>189</v>
       </c>
-      <c r="B99" t="s">
-        <v>190</v>
-      </c>
       <c r="C99" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -2235,24 +2232,24 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>194</v>
+      </c>
+      <c r="B101" t="s">
         <v>195</v>
       </c>
-      <c r="B101" t="s">
-        <v>196</v>
-      </c>
       <c r="C101" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B102" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C102" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/Downloads/retranslations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C88FAD2-158E-DD47-9936-88F8DE589556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2EE08B-752B-594D-A2BE-036F321B0115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="500" windowWidth="35580" windowHeight="17200" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="2800" yWindow="500" windowWidth="35840" windowHeight="19620" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="299">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Headphone Test</t>
   </si>
   <si>
-    <t>You should hear some audio playing.</t>
-  </si>
-  <si>
-    <t>Please adjust the volume to a comfortable level before continuing.</t>
-  </si>
-  <si>
     <t>If you cannot make the audio play at a comfortable level, please do not continue.</t>
   </si>
   <si>
@@ -267,18 +261,12 @@
     <t>incorrect_browser</t>
   </si>
   <si>
-    <t>Sorry, your browser does not have the have requirements to complete the test. Please download the latest version of Google Chrome to complete the experiment.</t>
-  </si>
-  <si>
     <t>have_following</t>
   </si>
   <si>
     <t>Do you have the requirements listed above?</t>
   </si>
   <si>
-    <t>*NB: A microphone built into your computer is acceptable, but please use a plugged-in microphone, distanced quite close to the sound source, if you can.</t>
-  </si>
-  <si>
     <t>get_range_low_note</t>
   </si>
   <si>
@@ -408,9 +396,6 @@
     <t>happy_with_response_message</t>
   </si>
   <si>
-    <t>If you were happy with your response, please click to continue, otherwise please click to try again.</t>
-  </si>
-  <si>
     <t>Browser Requirements</t>
   </si>
   <si>
@@ -426,9 +411,6 @@
     <t>Range_Test</t>
   </si>
   <si>
-    <t>Range Test</t>
-  </si>
-  <si>
     <t>Copy the melody you hear</t>
   </si>
   <si>
@@ -459,9 +441,6 @@
     <t>When you are ready, click on “Record” and for about 5 seconds please hum, directed toward your microphone for 5 seconds.  (to “hum”, put your lips together and make a sound with your voice.)</t>
   </si>
   <si>
-    <t>Unfortunately, the test will not work in Safari or Internet Explorer and potentially other browsers too.</t>
-  </si>
-  <si>
     <t>The test will not work in Safari or Internet Explorer and potentially other browsers.</t>
   </si>
   <si>
@@ -516,9 +495,6 @@
     <t>Your device should have been plugged in before you reached this page. It may take a moment to appear.</t>
   </si>
   <si>
-    <t>Ihr Gerät sollte bereits angeschlossen gewesen sein bevor Sie diese Seite erreichen haben. Es kann einen Moment dauern bis es erscheint.</t>
-  </si>
-  <si>
     <t>no_midi_device_found</t>
   </si>
   <si>
@@ -540,6 +516,9 @@
     <t>We will now find your approximate instrument range. You will be asked to play your lowest comfortable note, then highest comfortable note.</t>
   </si>
   <si>
+    <t>get_range_low</t>
+  </si>
+  <si>
     <t>get_range_low_note_voice</t>
   </si>
   <si>
@@ -606,9 +585,6 @@
     <t>Please note, this is transposed for your instrument.</t>
   </si>
   <si>
-    <t>Make a sound (e.g., hum, clap, sing).  If you see activity  (moving coloured lines) inside the meter when you make a sound, then the microphone is working. Otherwise, it is not.</t>
-  </si>
-  <si>
     <t>I can see activity on the meter.</t>
   </si>
   <si>
@@ -642,9 +618,6 @@
     <t>Bitte passen Sie die Kopfhörerlautstärke auf ein komfortables Level an.</t>
   </si>
   <si>
-    <t>Wenn es Ihnen nicht möglich ist die Kopfhörerlautstärke auf ein komfortables Level anzupassen, fahren Sie bitte nicht fort.</t>
-  </si>
-  <si>
     <t>Die Lautstärke ist angenehm.</t>
   </si>
   <si>
@@ -654,18 +627,12 @@
     <t>Mikrofontest</t>
   </si>
   <si>
-    <t>Bitte stellen Sie sicher, dass Ihr Mikrofon angeschlossen ist (wenn Sie ein externes Mikrofon benutzten).</t>
-  </si>
-  <si>
     <t>Klicken Sie auf den "Start test" Knopf. Wenn die Nachricht "Zulassen" erscheint, klicken Sie "Zulassen".</t>
   </si>
   <si>
     <t>Click on the "Start test" button. If you see a popup message that says "Allow", click "Allow".</t>
   </si>
   <si>
-    <t>Machen Sie ein Geräusch (z.B. summen, klatschen, singen). Wenn Sie, während Sie das Geräusch machen, innerhalb des Geräuschpegelfensters Bewegung sehen (farbige Linien die sich bewegen), dann funktioniert das Mikrofon. Andernfalls funktioniert es nicht.</t>
-  </si>
-  <si>
     <t>Signal Volume Test</t>
   </si>
   <si>
@@ -675,12 +642,6 @@
     <t>Auf der nächsten Seite testen wie ob ihr Hintergrund zu laut war oder nicht. Wenn Ihr Hintergrund zu laut ist, können Sie den Test leider nicht durchführen. Es kann einige Sekunden dauern, die Seite zu laden.</t>
   </si>
   <si>
-    <t>Wir müssen jetzt 5 Sekunden des Hintergrundgeräuschpegels in ihrem Raum aufnehmen während Sie sich still verhalten.</t>
-  </si>
-  <si>
-    <t>Wenn Sie bereit sind, Ihre Hintergrundgeräusche für 5 Sekunden aufzunehmen, drücken Sie den Knopf unten.</t>
-  </si>
-  <si>
     <t>Bitte versuchen Sie keine Geräusche zu machen!</t>
   </si>
   <si>
@@ -693,14 +654,290 @@
     <t>Setup Bereit</t>
   </si>
   <si>
-    <t>Okay, jetzt ist alles eingestellt. Klick um zu den Hauptaufgaben fortzufahren.</t>
+    <t>Leider funktioniert der Test nicht mit Safari oder Internet Explorer und eventuell auch andere Browser.</t>
+  </si>
+  <si>
+    <t>Browser testen</t>
+  </si>
+  <si>
+    <t>Einen ruhigen Raum</t>
+  </si>
+  <si>
+    <t>Ein paar Kopfhörer</t>
+  </si>
+  <si>
+    <t>Ein Mikrofon*</t>
+  </si>
+  <si>
+    <t>Angesteckt</t>
+  </si>
+  <si>
+    <t>Eingebaut</t>
+  </si>
+  <si>
+    <t>. Es muss höher als 14 sein um fortzufahren.</t>
+  </si>
+  <si>
+    <t>) ist ausreichend um den Test durchzuführen.</t>
+  </si>
+  <si>
+    <t>Sorry, your browser does not have the requirements to complete the test. Please download the latest version of Google Chrome to complete the experiment.</t>
+  </si>
+  <si>
+    <t>Es wurde noch kein MIDI-gerät ausgewählt.</t>
+  </si>
+  <si>
+    <t>Aufnehmen</t>
+  </si>
+  <si>
+    <t>Spielen</t>
+  </si>
+  <si>
+    <t>War das der richtige Ton?</t>
+  </si>
+  <si>
+    <t>Versuche übrig.</t>
+  </si>
+  <si>
+    <t>Abschluss</t>
+  </si>
+  <si>
+    <t>Wenn es Ihnen nicht möglich ist, die Kopfhörerlautstärke auf ein komfortables Level anzupassen, fahren Sie bitte nicht fort.</t>
+  </si>
+  <si>
+    <t>Bitte stellen Sie sicher, dass Ihr Mikrofon angeschlossen ist (insofern Sie ein externes Mikrofon benutzten).</t>
+  </si>
+  <si>
+    <t>Machen Sie ein Geräusch (z.B. summen, klatschen, singen). Wenn Sie während Sie das Geräusch machen innerhalb des Geräuschpegelfensters Bewegung sehen (farbige Linien die sich bewegen), dann funktioniert das Mikrofon. Andernfalls funktioniert es nicht.</t>
+  </si>
+  <si>
+    <t>Ich kann innerhalb des Geräuschpegelfensters Bewegung sehen.</t>
+  </si>
+  <si>
+    <t>Wir müssen jetzt für 5 Sekunden den Hintergrundgeräuschpegel in ihrem Raum aufnehmen während Sie sich still verhalten.</t>
+  </si>
+  <si>
+    <t>Wenn Sie bereit sind Ihre Hintergrundgeräusche für 5 Sekunden aufzunehmen, drücken Sie den Knopf unten.</t>
+  </si>
+  <si>
+    <t>Okay, jetzt ist alles eingestellt. Klicken Sie hier um zu den Hauptaufgaben fortzufahren.</t>
+  </si>
+  <si>
+    <t>Um diesen Test durchzuführen, brauchen Sie einen modernen Internetbrowser. Bitte nutzen Sie nicht Ihr Smartphone. Wir empfehlen die folgenden Browserversionen (oder neuere):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie brauchen Folgendes: </t>
+  </si>
+  <si>
+    <t>*Das in den Computer eingebaute Mikrofon ist ausreichend, aber wenn möglich, dann benutzen Sie bitte ein extern-angestecktes Mikrofon in kurzer Distanz zu Ihrer Soundquelle.</t>
+  </si>
+  <si>
+    <t>Stehen Ihnen die oben genannten Vorraussetzungen zur Verfügung?</t>
+  </si>
+  <si>
+    <t>Benutzen Sie ein angestecktes oder ein eingebautes Mikrofon?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenn Sie bereit sind, klicken Sie auf "Aufnehmen" und summen Sie für ca. 5 Sekunden direkt in Ihr Mikrofon. (Um zu summen, schliessen Sie entspannt Ihre Lippen und erzeugen Sie einen fortwährenden Ton mit Ihrer Stimme.) </t>
+  </si>
+  <si>
+    <t>Ihr Signal-zu-Geräusch-Verhältnis ist</t>
+  </si>
+  <si>
+    <t>Ihr Pegel von Hintergrundgeräuschen (Signal-zu-Geräusch-Verhältnis =</t>
+  </si>
+  <si>
+    <t>Entschuldigung, Ihr Browser bietet nicht die nötigen Vorraussetzungen um den Test durchzuführen. Bitte laden Sie die neuste Version von Google Chrome herunter um das Experiment durchzuführen.</t>
+  </si>
+  <si>
+    <t>Bitte spielen Sie den tiefsten angenehm zu spielenden Ton auf Ihrem Instrument. Klicken Sie "Stop" wenn Sie fertig sind.</t>
+  </si>
+  <si>
+    <t>Bitte spielen Sie den höchsten angenehm zu spielenden Ton auf Ihrem Instrument. Klicken Sie "Stop" wenn Sie fertig sind.</t>
+  </si>
+  <si>
+    <t>Bitte singen Sie Ihren tiefsten angenehm zu singenden Ton. Klicken Sie "Stop" wenn Sie fertig sind.</t>
+  </si>
+  <si>
+    <t>Bitte singen Sie Ihren höchsten angenehm zu singenden Ton. Klicken Sie "Stop" wenn Sie fertig sind.</t>
+  </si>
+  <si>
+    <t>Sie haben noch nichts eingegeben!</t>
+  </si>
+  <si>
+    <t>Dies ist Ihr Tonumfang:</t>
+  </si>
+  <si>
+    <t>Bitte spielen Sie den tiefsten Ton auf Ihrem MIDI-keyboard.</t>
+  </si>
+  <si>
+    <t>Bitte spielen Sie den höchsten Ton auf Ihrem MIDI-keyboard.</t>
+  </si>
+  <si>
+    <t>Sie haben noch einen Versuch übrig.</t>
+  </si>
+  <si>
+    <t>Sie haben</t>
+  </si>
+  <si>
+    <t>Versuche übrig, wenn Sie möchten.</t>
+  </si>
+  <si>
+    <t>Sie haben noch einen Versuch übrig, wenn Sie möchten.</t>
+  </si>
+  <si>
+    <t>Sie haben keine Versuche mehr übrig. Klicken Sie hier um die nächste Melodie zu hören.</t>
+  </si>
+  <si>
+    <t>Jetzt können Sie ein paar Übungsversuche ausprobieren.</t>
+  </si>
+  <si>
+    <t>Singen Sie die Melodie</t>
+  </si>
+  <si>
+    <t>Klicken Sie unten um die Melodie zu hören. Singen Sie die Melodie nach. Klicken Sie "Stop" wenn Sie fertig sind.</t>
+  </si>
+  <si>
+    <t>Super, gut gemacht! Jetzt sollten Sie für den richtigen Test bereit sein.</t>
+  </si>
+  <si>
+    <t>Wenn Sie noch Fragen haben, wenden Sie sich bitte an den Forscher bevor Sie weitermachen.</t>
+  </si>
+  <si>
+    <t>Nochmal versuchen</t>
+  </si>
+  <si>
+    <t>Weitermachen</t>
+  </si>
+  <si>
+    <t>Wenn Sie mit Ihren Antworten zufrieden waren, klicken Sie auf "weiter", andernfalls klicken Sie "nochmal versuchen".</t>
+  </si>
+  <si>
+    <t>If you were happy with your response, please click to "continue", otherwise please click to "try again".</t>
+  </si>
+  <si>
+    <t>Browservorraussetzungen</t>
+  </si>
+  <si>
+    <t>Wenn Sie dieses Bild sehen wird Ihre Eingabe aufgenommen, versuchen Sie dann also bitte den Angaben genau zu folgen.</t>
+  </si>
+  <si>
+    <t>Stimmumfangtest</t>
+  </si>
+  <si>
+    <t>Singen Sie die Melodie nach, die Sie hören.</t>
+  </si>
+  <si>
+    <t>Singen Sie mit diesem Ton mit.</t>
+  </si>
+  <si>
+    <t>Singen Sie 5 Sekunden lang mit dem Tom mit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mikrofon </t>
+  </si>
+  <si>
+    <t>Ihr Gerät sollte bereits angeschlossen gewesen sein bevor Sie diese Seite erreicht haben. Es kann einen Moment dauern bis es erscheint.</t>
+  </si>
+  <si>
+    <t>Wir werden jetzt Ihren ungefähren Stimmumfang feststellen. Als erstes werden Sie gebeten, den tiefsten Ton zu singen der Ihnen angenehm ist. Der Computer wird diesen Ton dann analysieren und Ihnen wiederspielen. Sie sollen dann entscheiden, ob dieser eine gute Reflektion Ihres tiefsten Tones ist. Manchmal kann der Computer stark abweichen. Sie werden es deutlich merken können wenn dies passiert und Sie werden die Möglichkeit haben Ihren Ton nochmals einzusingen um dem Computer eine weitere Chance zu geben.</t>
+  </si>
+  <si>
+    <t>Wir werden jetzt den ungefähren Tonumfang Ihres Instrumentes feststellen. Sie werde gleich gebeten werden den tiefsten und höchsten Ton zu spielen, den Sie komfortabel erreichen können.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vielleicht sind Sie zu leise oder Sie Ihr Computerventilator ist zu laut. </t>
+  </si>
+  <si>
+    <t>Sie können unten klicken um Ihren Tonumfang zu hören.</t>
+  </si>
+  <si>
+    <t>Bitte beachten Sie, dass wir Ihren Stimmumfang möglicherweise etwas höher oder tiefer veranschlagt haben, als Sie ihn eigentlich gesungen haben.</t>
+  </si>
+  <si>
+    <t>Bitte beachten Sie, dass wir Ihren Tonumfang möglicherweise etwas höher oder tiefer veranschlagt haben, als Sie ihn eigentlich gespielt haben.</t>
+  </si>
+  <si>
+    <t>Bitte singen Sie Happy Birthday.</t>
+  </si>
+  <si>
+    <t>Der erste Ton ist:</t>
+  </si>
+  <si>
+    <t>Spielen Sie den ersten Ton</t>
+  </si>
+  <si>
+    <t>Bitte beachten Sie, dies ist für Ihr Instrument transponiert.</t>
+  </si>
+  <si>
+    <t>Klicken Sie hier um mit dem nächsten Test fortzufahren.</t>
+  </si>
+  <si>
+    <t>abgeschlossen. Toll gemacht!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danke! Sie haben den </t>
+  </si>
+  <si>
+    <t>Andere (bitte angeben)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie beendeten den </t>
+  </si>
+  <si>
+    <t>*NB: A microphone built into your computer is fine, but please use a plugged-in microphone, positioned close to your mouth, if you can.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You should hear some audio playing. You can start and stop this audio by clicking on the triangle </t>
+  </si>
+  <si>
+    <t>If the volume is not comfortable, please adjust it to a comfortable level using your normal way of changing loudness on your computer.</t>
+  </si>
+  <si>
+    <t>Please click below if the volume is comfortable.</t>
+  </si>
+  <si>
+    <t>headphone_test4</t>
+  </si>
+  <si>
+    <t>meter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please see the meter below: </t>
+  </si>
+  <si>
+    <t>Make a sound (e.g., hum, clap, sing).  If you see activity  (moving coloured bar) inside the meter when you make a sound, then the microphone is working. Otherwise, it is not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the note seems out of your voice range, sing a note that is in your range that best matches the note, for example, in a different octave. </t>
+  </si>
+  <si>
+    <t>long_tone_instruction_3</t>
+  </si>
+  <si>
+    <t>Bitte versuchen Sie, genau den selben Ton zu singen und halten Sie ihn.</t>
+  </si>
+  <si>
+    <t>Please try and sing the exact same note and hold.</t>
+  </si>
+  <si>
+    <t>long_tone_instruction_2</t>
+  </si>
+  <si>
+    <t>Wenn Sie den "Abspielen"-knopf in der nächsten Gruppe von Aufgaben drücken, werden Sie einen 5-sekündigen Ton hören.</t>
+  </si>
+  <si>
+    <t>When you click the Play button in the next set of trials, you will hear a 5-second note.</t>
+  </si>
+  <si>
+    <t>long_tone_instruction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -745,8 +982,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -765,8 +1022,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -774,11 +1037,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -798,11 +1081,32 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1117,10 +1421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1132,13 +1436,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1149,106 +1453,106 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>48</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>284</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>49</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>285</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>203</v>
+        <v>287</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>195</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>206</v>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>207</v>
+      <c r="A10" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>190</v>
+        <v>57</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1256,1000 +1560,1044 @@
         <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>211</v>
+        <v>56</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>183</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>213</v>
+        <v>62</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>216</v>
+        <v>59</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>217</v>
+        <v>60</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>218</v>
+        <v>61</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="15" customFormat="1" ht="306" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="18" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>36</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>80</v>
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>79</v>
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>39</v>
+      <c r="A35" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>41</v>
+        <v>75</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" t="s">
-        <v>151</v>
+        <v>38</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" t="s">
-        <v>152</v>
+        <v>40</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="C44" t="s">
-        <v>71</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>73</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C46" t="s">
-        <v>75</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>81</v>
+      <c r="A48" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B48" t="s">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>82</v>
+      <c r="A49" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B49" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="C49" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="B50" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C50" t="s">
-        <v>172</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="B51" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C51" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>84</v>
+      <c r="A52" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" t="s">
+        <v>165</v>
+      </c>
+      <c r="C52" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="C53" t="s">
-        <v>85</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>86</v>
-      </c>
-      <c r="B54" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" t="s">
-        <v>86</v>
+      <c r="A54" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>87</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>103</v>
+        <v>81</v>
+      </c>
+      <c r="B55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>88</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>102</v>
+        <v>82</v>
+      </c>
+      <c r="B56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>89</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>104</v>
+        <v>83</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>100</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>91</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>101</v>
+        <v>85</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>147</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>148</v>
+        <v>86</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>150</v>
+        <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>93</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>94</v>
+        <v>140</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>95</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>96</v>
+        <v>142</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>98</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
+      <c r="A65" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>99</v>
+      <c r="C65" s="7" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>106</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>109</v>
+      <c r="A67" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>108</v>
+      <c r="A68" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>115</v>
+      <c r="B70" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B73" t="s">
+        <v>110</v>
+      </c>
+      <c r="C73" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C74" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C71" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="5" t="s">
+      <c r="B75" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>116</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B76" t="s">
         <v>117</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>120</v>
-      </c>
-      <c r="B74" t="s">
-        <v>121</v>
-      </c>
-      <c r="C74" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>122</v>
-      </c>
-      <c r="B75" t="s">
-        <v>122</v>
-      </c>
-      <c r="C75" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>124</v>
+      <c r="C76" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B77" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C77" t="s">
-        <v>125</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>127</v>
+      <c r="A78" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" t="s">
+        <v>120</v>
+      </c>
+      <c r="C79" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>124</v>
+      </c>
+      <c r="B81" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>126</v>
+      </c>
+      <c r="B82" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B87" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="C87" s="27" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>129</v>
       </c>
-      <c r="B79" t="s">
-        <v>130</v>
-      </c>
-      <c r="C79" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>132</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="B88" t="s">
+        <v>129</v>
+      </c>
+      <c r="C88" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>131</v>
       </c>
-      <c r="C80" t="s">
+      <c r="B89" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>135</v>
-      </c>
-      <c r="B83" t="s">
-        <v>135</v>
-      </c>
-      <c r="C83" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="C89" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>136</v>
+      </c>
+      <c r="B90" t="s">
         <v>137</v>
       </c>
-      <c r="B84" t="s">
-        <v>137</v>
-      </c>
-      <c r="C84" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>143</v>
-      </c>
-      <c r="B85" t="s">
-        <v>144</v>
-      </c>
-      <c r="C85" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>145</v>
-      </c>
-      <c r="B86" t="s">
-        <v>146</v>
-      </c>
-      <c r="C86" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>164</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>165</v>
+      <c r="C90" s="22" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="B91" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="C91" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>174</v>
-      </c>
-      <c r="B92" t="s">
-        <v>175</v>
-      </c>
-      <c r="C92" t="s">
-        <v>175</v>
+      <c r="A92" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>176</v>
-      </c>
-      <c r="B93" t="s">
-        <v>178</v>
-      </c>
-      <c r="C93" t="s">
-        <v>178</v>
+      <c r="A93" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>183</v>
-      </c>
-      <c r="B94" t="s">
-        <v>179</v>
-      </c>
-      <c r="C94" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>177</v>
-      </c>
-      <c r="B95" t="s">
-        <v>182</v>
-      </c>
-      <c r="C95" t="s">
-        <v>182</v>
+        <v>156</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="B96" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="C96" t="s">
-        <v>181</v>
+        <v>269</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="B97" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="C97" t="s">
-        <v>185</v>
+        <v>270</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="B98" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C98" t="s">
-        <v>187</v>
+        <v>271</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B99" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="C99" t="s">
-        <v>189</v>
+        <v>272</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="B100" t="s">
-        <v>86</v>
+        <v>175</v>
       </c>
       <c r="C100" t="s">
-        <v>86</v>
+        <v>273</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="B101" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="C101" t="s">
-        <v>195</v>
+        <v>274</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="B102" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="C102" t="s">
-        <v>196</v>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>179</v>
+      </c>
+      <c r="B103" t="s">
+        <v>180</v>
+      </c>
+      <c r="C103" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>181</v>
+      </c>
+      <c r="B104" t="s">
+        <v>182</v>
+      </c>
+      <c r="C104" s="22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>186</v>
+      </c>
+      <c r="B105" t="s">
+        <v>187</v>
+      </c>
+      <c r="C105" s="22" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>189</v>
+      </c>
+      <c r="B106" t="s">
+        <v>188</v>
+      </c>
+      <c r="C106" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/Downloads/retranslations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2EE08B-752B-594D-A2BE-036F321B0115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EB01DE-0EC7-E145-8E0E-DF8881691006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="500" windowWidth="35840" windowHeight="19620" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19620" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -516,9 +516,6 @@
     <t>We will now find your approximate instrument range. You will be asked to play your lowest comfortable note, then highest comfortable note.</t>
   </si>
   <si>
-    <t>get_range_low</t>
-  </si>
-  <si>
     <t>get_range_low_note_voice</t>
   </si>
   <si>
@@ -931,6 +928,9 @@
   </si>
   <si>
     <t>long_tone_instruction</t>
+  </si>
+  <si>
+    <t>Range Test</t>
   </si>
 </sst>
 </file>
@@ -1423,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
   <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1453,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1464,7 +1464,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1472,10 +1472,10 @@
         <v>48</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1483,10 +1483,10 @@
         <v>49</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1497,18 +1497,18 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1516,10 +1516,10 @@
         <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1530,18 +1530,18 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B10" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>289</v>
-      </c>
       <c r="C10" s="26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1552,7 +1552,7 @@
         <v>57</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1560,10 +1560,10 @@
         <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1571,10 +1571,10 @@
         <v>56</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1582,10 +1582,10 @@
         <v>52</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1593,10 +1593,10 @@
         <v>62</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1607,7 +1607,7 @@
         <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1618,7 +1618,7 @@
         <v>132</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1629,7 +1629,7 @@
         <v>133</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1640,7 +1640,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1651,7 +1651,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1662,7 +1662,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1673,7 +1673,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -1684,7 +1684,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="18" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -1695,7 +1695,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1750,7 +1750,7 @@
         <v>135</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1761,7 +1761,7 @@
         <v>26</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1772,7 +1772,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1783,7 +1783,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1794,7 +1794,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1805,7 +1805,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1813,10 +1813,10 @@
         <v>35</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1827,7 +1827,7 @@
         <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1838,7 +1838,7 @@
         <v>37</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1849,7 +1849,7 @@
         <v>39</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1860,7 +1860,7 @@
         <v>41</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1915,7 +1915,7 @@
         <v>134</v>
       </c>
       <c r="C44" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1926,7 +1926,7 @@
         <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1937,7 +1937,7 @@
         <v>69</v>
       </c>
       <c r="C46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1948,7 +1948,7 @@
         <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1959,7 +1959,7 @@
         <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1967,10 +1967,10 @@
         <v>74</v>
       </c>
       <c r="B49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1978,10 +1978,10 @@
         <v>77</v>
       </c>
       <c r="B50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1989,32 +1989,32 @@
         <v>78</v>
       </c>
       <c r="B51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C52" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C53" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -2025,7 +2025,7 @@
         <v>80</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -2036,7 +2036,7 @@
         <v>81</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -2047,7 +2047,7 @@
         <v>82</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -2058,7 +2058,7 @@
         <v>99</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -2069,7 +2069,7 @@
         <v>98</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -2080,7 +2080,7 @@
         <v>100</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -2091,7 +2091,7 @@
         <v>96</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -2102,7 +2102,7 @@
         <v>97</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -2113,7 +2113,7 @@
         <v>141</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -2124,7 +2124,7 @@
         <v>143</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -2135,7 +2135,7 @@
         <v>90</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -2146,7 +2146,7 @@
         <v>92</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -2157,7 +2157,7 @@
         <v>94</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -2168,7 +2168,7 @@
         <v>95</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -2179,7 +2179,7 @@
         <v>102</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -2190,7 +2190,7 @@
         <v>105</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -2201,7 +2201,7 @@
         <v>104</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -2212,7 +2212,7 @@
         <v>103</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -2223,7 +2223,7 @@
         <v>111</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -2234,7 +2234,7 @@
         <v>110</v>
       </c>
       <c r="C73" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -2245,7 +2245,7 @@
         <v>113</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -2256,7 +2256,7 @@
         <v>115</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -2267,7 +2267,7 @@
         <v>117</v>
       </c>
       <c r="C76" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -2278,7 +2278,7 @@
         <v>118</v>
       </c>
       <c r="C77" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -2286,10 +2286,10 @@
         <v>119</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -2300,7 +2300,7 @@
         <v>120</v>
       </c>
       <c r="C79" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -2311,7 +2311,7 @@
         <v>122</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -2319,10 +2319,10 @@
         <v>124</v>
       </c>
       <c r="B81" t="s">
-        <v>160</v>
+        <v>298</v>
       </c>
       <c r="C81" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -2333,7 +2333,7 @@
         <v>125</v>
       </c>
       <c r="C82" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -2344,51 +2344,51 @@
         <v>128</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="C84" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -2399,7 +2399,7 @@
         <v>129</v>
       </c>
       <c r="C88" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -2421,7 +2421,7 @@
         <v>137</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -2454,7 +2454,7 @@
         <v>152</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -2476,7 +2476,7 @@
         <v>157</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -2487,117 +2487,117 @@
         <v>159</v>
       </c>
       <c r="C96" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>166</v>
+      </c>
+      <c r="B97" t="s">
         <v>167</v>
       </c>
-      <c r="B97" t="s">
-        <v>168</v>
-      </c>
       <c r="C97" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B98" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C98" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B99" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C99" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B100" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C100" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>172</v>
+      </c>
+      <c r="B101" t="s">
         <v>173</v>
       </c>
-      <c r="B101" t="s">
-        <v>174</v>
-      </c>
       <c r="C101" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>176</v>
+      </c>
+      <c r="B102" t="s">
         <v>177</v>
       </c>
-      <c r="B102" t="s">
-        <v>178</v>
-      </c>
       <c r="C102" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>178</v>
+      </c>
+      <c r="B103" t="s">
         <v>179</v>
       </c>
-      <c r="B103" t="s">
-        <v>180</v>
-      </c>
       <c r="C103" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>180</v>
+      </c>
+      <c r="B104" t="s">
         <v>181</v>
       </c>
-      <c r="B104" t="s">
-        <v>182</v>
-      </c>
       <c r="C104" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>185</v>
+      </c>
+      <c r="B105" t="s">
         <v>186</v>
       </c>
-      <c r="B105" t="s">
-        <v>187</v>
-      </c>
       <c r="C105" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B106" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C106" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EB01DE-0EC7-E145-8E0E-DF8881691006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847623A8-A323-4E4D-97F0-49EEC649CCBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19620" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
@@ -411,9 +411,6 @@
     <t>Range_Test</t>
   </si>
   <si>
-    <t>Copy the melody you hear</t>
-  </si>
-  <si>
     <t>copy_melody_title</t>
   </si>
   <si>
@@ -801,18 +798,9 @@
     <t>Wenn Sie noch Fragen haben, wenden Sie sich bitte an den Forscher bevor Sie weitermachen.</t>
   </si>
   <si>
-    <t>Nochmal versuchen</t>
-  </si>
-  <si>
     <t>Weitermachen</t>
   </si>
   <si>
-    <t>Wenn Sie mit Ihren Antworten zufrieden waren, klicken Sie auf "weiter", andernfalls klicken Sie "nochmal versuchen".</t>
-  </si>
-  <si>
-    <t>If you were happy with your response, please click to "continue", otherwise please click to "try again".</t>
-  </si>
-  <si>
     <t>Browservorraussetzungen</t>
   </si>
   <si>
@@ -931,6 +919,18 @@
   </si>
   <si>
     <t>Range Test</t>
+  </si>
+  <si>
+    <t>If you were happy with your response, please click to "Continue", otherwise please click to "Try Again".</t>
+  </si>
+  <si>
+    <t>Wenn Sie mit Ihren Antworten zufrieden waren, klicken Sie auf "Weiter", andernfalls klicken Sie "Nochmal Versuchen".</t>
+  </si>
+  <si>
+    <t>Nochmal Versuchen</t>
+  </si>
+  <si>
+    <t>Copy The Melody You Hear</t>
   </si>
 </sst>
 </file>
@@ -1423,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
   <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1442,7 +1442,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1453,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1464,7 +1464,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1472,10 +1472,10 @@
         <v>48</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1483,10 +1483,10 @@
         <v>49</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1497,18 +1497,18 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1516,10 +1516,10 @@
         <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1530,18 +1530,18 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1552,7 +1552,7 @@
         <v>57</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1560,10 +1560,10 @@
         <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1571,10 +1571,10 @@
         <v>56</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1582,10 +1582,10 @@
         <v>52</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1593,10 +1593,10 @@
         <v>62</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1607,7 +1607,7 @@
         <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1615,10 +1615,10 @@
         <v>58</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1626,10 +1626,10 @@
         <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1640,7 +1640,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1651,7 +1651,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1662,7 +1662,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1673,7 +1673,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -1684,7 +1684,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="18" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -1695,7 +1695,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1747,10 +1747,10 @@
         <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1761,7 +1761,7 @@
         <v>26</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1772,7 +1772,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1783,7 +1783,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1794,7 +1794,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1805,7 +1805,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1813,10 +1813,10 @@
         <v>35</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1827,7 +1827,7 @@
         <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1838,7 +1838,7 @@
         <v>37</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1849,7 +1849,7 @@
         <v>39</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1860,7 +1860,7 @@
         <v>41</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1871,7 +1871,7 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1882,7 +1882,7 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1893,7 +1893,7 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1912,10 +1912,10 @@
         <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1926,7 +1926,7 @@
         <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1937,7 +1937,7 @@
         <v>69</v>
       </c>
       <c r="C46" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1948,7 +1948,7 @@
         <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1959,7 +1959,7 @@
         <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1967,10 +1967,10 @@
         <v>74</v>
       </c>
       <c r="B49" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1978,10 +1978,10 @@
         <v>77</v>
       </c>
       <c r="B50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C50" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1989,32 +1989,32 @@
         <v>78</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C52" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C53" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -2025,7 +2025,7 @@
         <v>80</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -2036,7 +2036,7 @@
         <v>81</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -2047,7 +2047,7 @@
         <v>82</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -2058,7 +2058,7 @@
         <v>99</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -2069,7 +2069,7 @@
         <v>98</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -2080,7 +2080,7 @@
         <v>100</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -2091,7 +2091,7 @@
         <v>96</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -2102,29 +2102,29 @@
         <v>97</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>139</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="C62" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>143</v>
-      </c>
       <c r="C63" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -2135,7 +2135,7 @@
         <v>90</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -2146,7 +2146,7 @@
         <v>92</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -2157,7 +2157,7 @@
         <v>94</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -2168,7 +2168,7 @@
         <v>95</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -2179,7 +2179,7 @@
         <v>102</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -2190,7 +2190,7 @@
         <v>105</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -2201,7 +2201,7 @@
         <v>104</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -2212,7 +2212,7 @@
         <v>103</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -2223,7 +2223,7 @@
         <v>111</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -2234,7 +2234,7 @@
         <v>110</v>
       </c>
       <c r="C73" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -2245,7 +2245,7 @@
         <v>113</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -2256,7 +2256,7 @@
         <v>115</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -2267,7 +2267,7 @@
         <v>117</v>
       </c>
       <c r="C76" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -2278,7 +2278,7 @@
         <v>118</v>
       </c>
       <c r="C77" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -2286,10 +2286,10 @@
         <v>119</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>257</v>
+        <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -2300,7 +2300,7 @@
         <v>120</v>
       </c>
       <c r="C79" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -2311,7 +2311,7 @@
         <v>122</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -2319,285 +2319,285 @@
         <v>124</v>
       </c>
       <c r="B81" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C81" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B82" t="s">
-        <v>125</v>
+        <v>298</v>
       </c>
       <c r="C82" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="C83" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="C84" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B88" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C88" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B89" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C89" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>135</v>
+      </c>
+      <c r="B90" t="s">
         <v>136</v>
       </c>
-      <c r="B90" t="s">
-        <v>137</v>
-      </c>
       <c r="C90" s="22" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>137</v>
+      </c>
+      <c r="B91" t="s">
         <v>138</v>
       </c>
-      <c r="B91" t="s">
-        <v>139</v>
-      </c>
       <c r="C91" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B92" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="C92" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B93" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B93" s="8" t="s">
-        <v>152</v>
-      </c>
       <c r="C93" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="C94" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>155</v>
+      </c>
+      <c r="B95" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="B95" s="11" t="s">
-        <v>157</v>
-      </c>
       <c r="C95" s="21" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>157</v>
+      </c>
+      <c r="B96" t="s">
         <v>158</v>
       </c>
-      <c r="B96" t="s">
-        <v>159</v>
-      </c>
       <c r="C96" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>165</v>
+      </c>
+      <c r="B97" t="s">
         <v>166</v>
       </c>
-      <c r="B97" t="s">
-        <v>167</v>
-      </c>
       <c r="C97" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B98" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C98" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B99" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C99" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B100" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C100" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>171</v>
+      </c>
+      <c r="B101" t="s">
         <v>172</v>
       </c>
-      <c r="B101" t="s">
-        <v>173</v>
-      </c>
       <c r="C101" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>175</v>
+      </c>
+      <c r="B102" t="s">
         <v>176</v>
       </c>
-      <c r="B102" t="s">
-        <v>177</v>
-      </c>
       <c r="C102" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>177</v>
+      </c>
+      <c r="B103" t="s">
         <v>178</v>
       </c>
-      <c r="B103" t="s">
-        <v>179</v>
-      </c>
       <c r="C103" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>179</v>
+      </c>
+      <c r="B104" t="s">
         <v>180</v>
       </c>
-      <c r="B104" t="s">
-        <v>181</v>
-      </c>
       <c r="C104" s="22" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>184</v>
+      </c>
+      <c r="B105" t="s">
         <v>185</v>
       </c>
-      <c r="B105" t="s">
-        <v>186</v>
-      </c>
       <c r="C105" s="22" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B106" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C106" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847623A8-A323-4E4D-97F0-49EEC649CCBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346BFD7E-3E67-8742-82D7-CCEE79DD4E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19620" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
@@ -870,9 +870,6 @@
     <t xml:space="preserve">Sie beendeten den </t>
   </si>
   <si>
-    <t>*NB: A microphone built into your computer is fine, but please use a plugged-in microphone, positioned close to your mouth, if you can.</t>
-  </si>
-  <si>
     <t xml:space="preserve">You should hear some audio playing. You can start and stop this audio by clicking on the triangle </t>
   </si>
   <si>
@@ -931,6 +928,9 @@
   </si>
   <si>
     <t>Copy The Melody You Hear</t>
+  </si>
+  <si>
+    <t>*NB: A microphone built into your computer is fine, but please use a plugged-in microphone, positioned close to your sound source, if you can.</t>
   </si>
 </sst>
 </file>
@@ -1423,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
   <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1472,7 +1472,7 @@
         <v>48</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>190</v>
@@ -1483,7 +1483,7 @@
         <v>49</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>191</v>
@@ -1502,13 +1502,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1535,13 +1535,13 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>284</v>
-      </c>
       <c r="C10" s="26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1571,7 +1571,7 @@
         <v>56</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>222</v>
@@ -1813,7 +1813,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="C35" s="24" t="s">
         <v>229</v>
@@ -2267,7 +2267,7 @@
         <v>117</v>
       </c>
       <c r="C76" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -2286,10 +2286,10 @@
         <v>119</v>
       </c>
       <c r="B78" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C78" s="8" t="s">
         <v>295</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -2319,7 +2319,7 @@
         <v>124</v>
       </c>
       <c r="B81" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C81" t="s">
         <v>257</v>
@@ -2330,7 +2330,7 @@
         <v>125</v>
       </c>
       <c r="B82" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C82" t="s">
         <v>258</v>
@@ -2360,35 +2360,35 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346BFD7E-3E67-8742-82D7-CCEE79DD4E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73B10B4-3FF9-E340-969B-EF9F81832C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19620" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17000" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="397">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -931,6 +931,300 @@
   </si>
   <si>
     <t>*NB: A microphone built into your computer is fine, but please use a plugged-in microphone, positioned close to your sound source, if you can.</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>Sento la canzone, andiamo avanti.</t>
+  </si>
+  <si>
+    <t>Dovresti sentire dell'audio in riproduzione. Puoi iniziare e stoppare l'audio cliccando sul triangolo.</t>
+  </si>
+  <si>
+    <t>Se il volume non è comodo, regolalo a un livello confortevole attraverso il tuo modo normale di cambiare il volume sul tuo computer.</t>
+  </si>
+  <si>
+    <t>Se non riesci a riprodurre l'audio a un livello confortevole, non continuare.</t>
+  </si>
+  <si>
+    <t>Se il volume ti è comodo, clicca in basso.</t>
+  </si>
+  <si>
+    <t>Il volume è comodo.</t>
+  </si>
+  <si>
+    <t>Prova Microfono</t>
+  </si>
+  <si>
+    <t>Prova Cuffie</t>
+  </si>
+  <si>
+    <t>Per favore, guarda il metro in basso:</t>
+  </si>
+  <si>
+    <t>Assicurati che il microfono sia collegato (se utilizzi un microfono esterno).</t>
+  </si>
+  <si>
+    <t>Fare clic sul pulsante "Avvia test". Se vedi un messaggio popup che dice "Consenti", fai clic su "Consenti".</t>
+  </si>
+  <si>
+    <t>Vedo l'attività sul metro.</t>
+  </si>
+  <si>
+    <t>Prova del volume del segnale</t>
+  </si>
+  <si>
+    <t>Nella pagina successiva, controlleremo se la tua stanza è troppo rumorosa o meno. Se è troppo rumoroso, non sarai in grado di completare il test. Il caricamento potrebbe richiedere alcuni secondi.</t>
+  </si>
+  <si>
+    <t>Abbiamo bisogno di registrare 5 secondi del livello sonoro di sottofondo della stanza mentre sei in silenzio.</t>
+  </si>
+  <si>
+    <t>Quando sei pronto per registrare il livello del suono di sottofondo, premi il pulsante in basso.</t>
+  </si>
+  <si>
+    <t>Per favore, cerca di non fare rumore!</t>
+  </si>
+  <si>
+    <t>Sono pronto per registrare il livello sonoro del mio ambiente.</t>
+  </si>
+  <si>
+    <t>Continua</t>
+  </si>
+  <si>
+    <t>Emetti un suono (ad esempio, canticchia a bocca chiusa, batti le mani, canta). Se vedi attività (barra colorata in movimento) all'interno del misuratore quando emetti un suono, significa che il microfono funziona. Altrimenti, non sta funzionando.</t>
+  </si>
+  <si>
+    <t>Installazione completata</t>
+  </si>
+  <si>
+    <t>Ok, ora è tutto pronto! Fare clic per procedere alle attività principali.</t>
+  </si>
+  <si>
+    <t>Per completare questo test, avrai bisogno di un browser Internet attualizzato. Si prega di non utilizzare uno smartphone. Si consigliano le seguenti versioni di browser (o successive):</t>
+  </si>
+  <si>
+    <t>Il test non funzionerà in Safari o Internet Explorer e potenzialmente in altri browser.</t>
+  </si>
+  <si>
+    <t>Verifica il browser</t>
+  </si>
+  <si>
+    <t>Avrai bisogno delle seguenti cose:</t>
+  </si>
+  <si>
+    <t>Uno spazio silenzioso</t>
+  </si>
+  <si>
+    <t>Un paio di cuffie</t>
+  </si>
+  <si>
+    <t>Un microfono</t>
+  </si>
+  <si>
+    <t>Possiedi le cose sopra elencate?</t>
+  </si>
+  <si>
+    <t>Integrato</t>
+  </si>
+  <si>
+    <t>*NB: un microfono integrato nel tuo computer va bene, ma se puoi meglio usare un microfono esterno, posizionato vicino alla tua sorgente sonora.</t>
+  </si>
+  <si>
+    <t>Esterno</t>
+  </si>
+  <si>
+    <t>Stai usando un microfono esterno o un microfono integrato?</t>
+  </si>
+  <si>
+    <t>Sì</t>
+  </si>
+  <si>
+    <t>Oppure</t>
+  </si>
+  <si>
+    <t>Tastiera MIDI</t>
+  </si>
+  <si>
+    <t>Quando sei pronto, fai clic su "Registra" e canticchia, diretto verso il tuo microfono, per circa 5 secondi (per "canticchiare", unisci le labbra e emetti un suono con la tua voce.)</t>
+  </si>
+  <si>
+    <t>Il tuo rapporto segnale-rumore è</t>
+  </si>
+  <si>
+    <t>Deve essere superiore a 14 per continuare.</t>
+  </si>
+  <si>
+    <t>Il tuo livello di rumore di fondo (rapporto segnale-rumore =</t>
+  </si>
+  <si>
+    <t>) è adeguato per eseguire il test.</t>
+  </si>
+  <si>
+    <t>Spiacenti, il tuo browser non ha i requisiti per completare il test. Scarica l'ultima versione di Google Chrome per completare l'esperimento.</t>
+  </si>
+  <si>
+    <t>Per favore, suona la nota comoda più acuta sul tuo strumento. Premi Stop quando hai finito.</t>
+  </si>
+  <si>
+    <t>Per favore, suona la nota comoda più grave sul tuo strumento. Premi Stop quando hai finito.</t>
+  </si>
+  <si>
+    <t>Nessun dispositivo MIDI è stato selezionato.</t>
+  </si>
+  <si>
+    <t>Registra</t>
+  </si>
+  <si>
+    <t>Per favore, canta la tua nota grave più comoda. Premi Stop quando hai finito.</t>
+  </si>
+  <si>
+    <t>Per favore, canta la tua nota acuta più comoda. Premi Stop quando hai finito.</t>
+  </si>
+  <si>
+    <t>Non hai inserito niente!</t>
+  </si>
+  <si>
+    <t>Qual è la nota corretta?</t>
+  </si>
+  <si>
+    <t>Questa è la tua estensione:</t>
+  </si>
+  <si>
+    <t>Suonare la nota più bassa della tastiera MIDI.</t>
+  </si>
+  <si>
+    <t>Suonare la nota più alta della tastiera MIDI.</t>
+  </si>
+  <si>
+    <t>Tentativi rimanenti:</t>
+  </si>
+  <si>
+    <t>Hai</t>
+  </si>
+  <si>
+    <t>Hai un tentativo rimanente.</t>
+  </si>
+  <si>
+    <t>tentativi rimanenti, se lo desideri.</t>
+  </si>
+  <si>
+    <t>Non ci sono più tentativi. Fare clic per ascoltare la prossima melodia.</t>
+  </si>
+  <si>
+    <t>Hai un  tentativo rimanente, se lo desideri.</t>
+  </si>
+  <si>
+    <t>Adesso farai qualche prova pratica.</t>
+  </si>
+  <si>
+    <t>Canta la Melodia</t>
+  </si>
+  <si>
+    <t>Fai clic qui sotto per ascoltare la melodia. Canta la melodia. Fai clic su Stop al termine.</t>
+  </si>
+  <si>
+    <t>Completamento</t>
+  </si>
+  <si>
+    <t>Grazie! Hai completato il</t>
+  </si>
+  <si>
+    <t>Ben fatto!</t>
+  </si>
+  <si>
+    <t>Ottimo, ben fatto! Ora dovresti essere pronto/a per il vero test.</t>
+  </si>
+  <si>
+    <t>Se hai domande, chiedete al ricercatore prima di procedere.</t>
+  </si>
+  <si>
+    <t>Prova di nuovo</t>
+  </si>
+  <si>
+    <t>Se la risposta è stata soddisfacente, fare clic su "Continua", altrimenti fare clic su "Riprova".</t>
+  </si>
+  <si>
+    <t>Requisiti del Browser</t>
+  </si>
+  <si>
+    <t>Quando viene visualizzata questa immagine, il tuo input viene registrato, quindi cerca di completare le istruzioni quando appare questa immagine.</t>
+  </si>
+  <si>
+    <t>Test di intervallo</t>
+  </si>
+  <si>
+    <t>Riproduci la melodia che senti</t>
+  </si>
+  <si>
+    <t>Canta insieme a questa nota</t>
+  </si>
+  <si>
+    <t>Canta insieme al tono per 5 secondi.</t>
+  </si>
+  <si>
+    <t>Quando fai clic sul pulsante Play nella serie successiva di prove, ascolterai una nota di 5 secondi.</t>
+  </si>
+  <si>
+    <t>Per favore, prova a cantare la stessa identica nota e tieni premuto.</t>
+  </si>
+  <si>
+    <t>Microfono</t>
+  </si>
+  <si>
+    <t>Altro (per favore indica)</t>
+  </si>
+  <si>
+    <t>Per favore, seleziona quale strumento userai</t>
+  </si>
+  <si>
+    <t>Seleziona dispositivo MIDI</t>
+  </si>
+  <si>
+    <t>Il dispositivo dovrebbe essere stato collegato prima di raggiungere questa pagina. La sua visualizzazione potrebbe richiedere qualche istante.</t>
+  </si>
+  <si>
+    <t>Nessun dispositivo MIDI trovato.</t>
+  </si>
+  <si>
+    <t>Ora troveremo l'estensione approssimativa del vostro strumento. Vi verrà chiesto di suonare la vostra nota più grave e comoda, poi quella più acuta.</t>
+  </si>
+  <si>
+    <t>Ora troveremo la vostra estensione vocale approssimativa. Per prima cosa, vi verrà chiesto di cantare la vostra nota più grave e comoda.  Il computer analizzerà questa nota e ve la riproporrà. Vi verrà chiesto di decidere se questa nota corrisponde alla vostra nota più grave. A volte il computer può commettere un grosso errore. Quando ciò accade, si deve sapere che si ha l'opportunità di cantare di nuovo la propria nota e di dare al computer un'altra possibilità.</t>
+  </si>
+  <si>
+    <t>Se la nota ti sembra fuori dalla tua estensione vocale, canta il suono che corrisponde meglio alla nota nella tua estensione, ad esempio, in un'ottava diversa.</t>
+  </si>
+  <si>
+    <t>Forse sei troppo silenzioso/a o avete una ventola del computer rumorosa.</t>
+  </si>
+  <si>
+    <t>Puoi cliccare qui sotto per ascoltare la tua estensione.</t>
+  </si>
+  <si>
+    <t>È possibile che l'estensione sia stata modificata in modo da risultare leggermente più alta o più bassa di quella effettivamente cantata.</t>
+  </si>
+  <si>
+    <t>È possibile che la gamma sia stata modificata in modo da risultare leggermente più alta o più bassa di quella effettivamente suonata.</t>
+  </si>
+  <si>
+    <t>Per favore, canta Buon Compleanno</t>
+  </si>
+  <si>
+    <t>La prima nota è:</t>
+  </si>
+  <si>
+    <t>Riproduci la prima nota</t>
+  </si>
+  <si>
+    <t>Si prega di notare che si tratta di una trasposizione per il vostro strumento.</t>
+  </si>
+  <si>
+    <t>Hai completato il</t>
+  </si>
+  <si>
+    <t>Cicca per proseguire col prossimo test.</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1089,12 +1383,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1421,20 +1709,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="B95" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.6640625" customWidth="1"/>
-    <col min="2" max="2" width="155.5" customWidth="1"/>
-    <col min="3" max="3" width="175.5" customWidth="1"/>
+    <col min="2" max="3" width="155.5" customWidth="1"/>
+    <col min="4" max="4" width="175.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -1442,10 +1730,13 @@
         <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1453,65 +1744,83 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="19" t="s">
         <v>278</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
@@ -1519,10 +1828,13 @@
         <v>193</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>55</v>
       </c>
@@ -1530,21 +1842,27 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
@@ -1552,10 +1870,13 @@
         <v>57</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
@@ -1563,21 +1884,27 @@
         <v>196</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
@@ -1585,10 +1912,13 @@
         <v>181</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
@@ -1596,10 +1926,13 @@
         <v>197</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -1607,10 +1940,13 @@
         <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>58</v>
       </c>
@@ -1618,10 +1954,13 @@
         <v>131</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>59</v>
       </c>
@@ -1629,10 +1968,13 @@
         <v>132</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>60</v>
       </c>
@@ -1640,10 +1982,13 @@
         <v>5</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
@@ -1651,10 +1996,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -1662,10 +2010,13 @@
         <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -1673,10 +2024,13 @@
         <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>10</v>
       </c>
@@ -1684,10 +2038,13 @@
         <v>11</v>
       </c>
       <c r="C23" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="18" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" s="18" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>14</v>
       </c>
@@ -1695,10 +2052,13 @@
         <v>15</v>
       </c>
       <c r="C24" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -1708,8 +2068,11 @@
       <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
@@ -1719,8 +2082,11 @@
       <c r="C26" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
@@ -1730,8 +2096,11 @@
       <c r="C27" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1741,8 +2110,11 @@
       <c r="C28" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1750,10 +2122,13 @@
         <v>134</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1761,10 +2136,13 @@
         <v>26</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
@@ -1772,10 +2150,13 @@
         <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -1783,10 +2164,13 @@
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1794,10 +2178,13 @@
         <v>32</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -1805,21 +2192,27 @@
         <v>34</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="D35" s="20" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>75</v>
       </c>
@@ -1827,10 +2220,13 @@
         <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -1838,10 +2234,13 @@
         <v>37</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -1849,10 +2248,13 @@
         <v>39</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -1860,10 +2262,13 @@
         <v>41</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
@@ -1871,10 +2276,13 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
+        <v>334</v>
+      </c>
+      <c r="D40" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
@@ -1882,10 +2290,13 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
@@ -1893,10 +2304,13 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
+        <v>335</v>
+      </c>
+      <c r="D42" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
@@ -1904,10 +2318,13 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
+        <v>336</v>
+      </c>
+      <c r="D43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>63</v>
       </c>
@@ -1915,10 +2332,13 @@
         <v>133</v>
       </c>
       <c r="C44" t="s">
+        <v>337</v>
+      </c>
+      <c r="D44" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>66</v>
       </c>
@@ -1926,10 +2346,13 @@
         <v>67</v>
       </c>
       <c r="C45" t="s">
+        <v>338</v>
+      </c>
+      <c r="D45" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>68</v>
       </c>
@@ -1937,10 +2360,13 @@
         <v>69</v>
       </c>
       <c r="C46" t="s">
+        <v>339</v>
+      </c>
+      <c r="D46" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>70</v>
       </c>
@@ -1948,10 +2374,13 @@
         <v>71</v>
       </c>
       <c r="C47" t="s">
+        <v>340</v>
+      </c>
+      <c r="D47" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>72</v>
       </c>
@@ -1959,10 +2388,13 @@
         <v>73</v>
       </c>
       <c r="C48" t="s">
+        <v>341</v>
+      </c>
+      <c r="D48" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>74</v>
       </c>
@@ -1970,10 +2402,13 @@
         <v>213</v>
       </c>
       <c r="C49" t="s">
+        <v>342</v>
+      </c>
+      <c r="D49" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -1981,10 +2416,13 @@
         <v>161</v>
       </c>
       <c r="C50" t="s">
+        <v>344</v>
+      </c>
+      <c r="D50" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>78</v>
       </c>
@@ -1992,10 +2430,13 @@
         <v>162</v>
       </c>
       <c r="C51" t="s">
+        <v>343</v>
+      </c>
+      <c r="D51" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>159</v>
       </c>
@@ -2003,10 +2444,13 @@
         <v>163</v>
       </c>
       <c r="C52" t="s">
+        <v>347</v>
+      </c>
+      <c r="D52" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>160</v>
       </c>
@@ -2014,43 +2458,55 @@
         <v>164</v>
       </c>
       <c r="C53" t="s">
+        <v>348</v>
+      </c>
+      <c r="D53" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" t="s">
+        <v>345</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>81</v>
       </c>
       <c r="B55" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>82</v>
       </c>
       <c r="B56" t="s">
         <v>82</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D56" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>83</v>
       </c>
@@ -2058,10 +2514,13 @@
         <v>99</v>
       </c>
       <c r="C57" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>84</v>
       </c>
@@ -2069,10 +2528,13 @@
         <v>98</v>
       </c>
       <c r="C58" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>85</v>
       </c>
@@ -2080,10 +2542,13 @@
         <v>100</v>
       </c>
       <c r="C59" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="D59" s="8" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>86</v>
       </c>
@@ -2091,10 +2556,13 @@
         <v>96</v>
       </c>
       <c r="C60" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>87</v>
       </c>
@@ -2102,10 +2570,13 @@
         <v>97</v>
       </c>
       <c r="C61" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>139</v>
       </c>
@@ -2113,10 +2584,13 @@
         <v>140</v>
       </c>
       <c r="C62" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="D62" s="7" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>141</v>
       </c>
@@ -2124,10 +2598,13 @@
         <v>142</v>
       </c>
       <c r="C63" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>89</v>
       </c>
@@ -2135,10 +2612,13 @@
         <v>90</v>
       </c>
       <c r="C64" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>91</v>
       </c>
@@ -2146,10 +2626,13 @@
         <v>92</v>
       </c>
       <c r="C65" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>93</v>
       </c>
@@ -2157,10 +2640,13 @@
         <v>94</v>
       </c>
       <c r="C66" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>88</v>
       </c>
@@ -2168,10 +2654,13 @@
         <v>95</v>
       </c>
       <c r="C67" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>101</v>
       </c>
@@ -2179,10 +2668,13 @@
         <v>102</v>
       </c>
       <c r="C68" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>106</v>
       </c>
@@ -2190,10 +2682,13 @@
         <v>105</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>107</v>
       </c>
@@ -2201,32 +2696,41 @@
         <v>104</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="C71" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C72" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>109</v>
       </c>
@@ -2234,10 +2738,13 @@
         <v>110</v>
       </c>
       <c r="C73" t="s">
+        <v>365</v>
+      </c>
+      <c r="D73" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>112</v>
       </c>
@@ -2245,21 +2752,27 @@
         <v>113</v>
       </c>
       <c r="C74" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D74" s="5" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>114</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>116</v>
       </c>
@@ -2267,10 +2780,13 @@
         <v>117</v>
       </c>
       <c r="C76" t="s">
+        <v>368</v>
+      </c>
+      <c r="D76" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>118</v>
       </c>
@@ -2278,10 +2794,13 @@
         <v>118</v>
       </c>
       <c r="C77" t="s">
+        <v>318</v>
+      </c>
+      <c r="D77" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
         <v>119</v>
       </c>
@@ -2289,10 +2808,13 @@
         <v>294</v>
       </c>
       <c r="C78" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="D78" s="8" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>121</v>
       </c>
@@ -2300,10 +2822,13 @@
         <v>120</v>
       </c>
       <c r="C79" t="s">
+        <v>370</v>
+      </c>
+      <c r="D79" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>123</v>
       </c>
@@ -2311,10 +2836,13 @@
         <v>122</v>
       </c>
       <c r="C80" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>124</v>
       </c>
@@ -2322,10 +2850,13 @@
         <v>293</v>
       </c>
       <c r="C81" t="s">
+        <v>372</v>
+      </c>
+      <c r="D81" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>125</v>
       </c>
@@ -2333,10 +2864,13 @@
         <v>297</v>
       </c>
       <c r="C82" t="s">
+        <v>373</v>
+      </c>
+      <c r="D82" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>126</v>
       </c>
@@ -2344,10 +2878,13 @@
         <v>127</v>
       </c>
       <c r="C83" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>182</v>
       </c>
@@ -2355,10 +2892,13 @@
         <v>183</v>
       </c>
       <c r="C84" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>292</v>
       </c>
@@ -2366,10 +2906,13 @@
         <v>291</v>
       </c>
       <c r="C85" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>289</v>
       </c>
@@ -2377,87 +2920,111 @@
         <v>288</v>
       </c>
       <c r="C86" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B87" s="28" t="s">
+      <c r="B87" s="24" t="s">
         <v>285</v>
       </c>
-      <c r="C87" s="27" t="s">
+      <c r="C87" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="D87" s="23" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>128</v>
       </c>
       <c r="B88" t="s">
         <v>128</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D88" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>130</v>
       </c>
       <c r="B89" t="s">
         <v>130</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>135</v>
       </c>
       <c r="B90" t="s">
         <v>136</v>
       </c>
-      <c r="C90" s="22" t="s">
+      <c r="C90" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D90" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>137</v>
       </c>
       <c r="B91" t="s">
         <v>138</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D91" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>147</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="D92" s="9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C93" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D93" s="9" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>152</v>
       </c>
@@ -2465,21 +3032,27 @@
         <v>153</v>
       </c>
       <c r="C94" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>155</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C95" s="21" t="s">
+      <c r="C95" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="D95" s="11" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>157</v>
       </c>
@@ -2487,10 +3060,13 @@
         <v>158</v>
       </c>
       <c r="C96" t="s">
+        <v>384</v>
+      </c>
+      <c r="D96" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>165</v>
       </c>
@@ -2498,10 +3074,13 @@
         <v>166</v>
       </c>
       <c r="C97" t="s">
+        <v>387</v>
+      </c>
+      <c r="D97" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>167</v>
       </c>
@@ -2509,10 +3088,13 @@
         <v>169</v>
       </c>
       <c r="C98" t="s">
+        <v>388</v>
+      </c>
+      <c r="D98" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>174</v>
       </c>
@@ -2520,10 +3102,13 @@
         <v>170</v>
       </c>
       <c r="C99" t="s">
+        <v>389</v>
+      </c>
+      <c r="D99" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>168</v>
       </c>
@@ -2531,10 +3116,13 @@
         <v>173</v>
       </c>
       <c r="C100" t="s">
+        <v>390</v>
+      </c>
+      <c r="D100" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>171</v>
       </c>
@@ -2542,10 +3130,13 @@
         <v>172</v>
       </c>
       <c r="C101" t="s">
+        <v>391</v>
+      </c>
+      <c r="D101" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>175</v>
       </c>
@@ -2553,10 +3144,13 @@
         <v>176</v>
       </c>
       <c r="C102" t="s">
+        <v>392</v>
+      </c>
+      <c r="D102" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>177</v>
       </c>
@@ -2564,32 +3158,41 @@
         <v>178</v>
       </c>
       <c r="C103" t="s">
+        <v>393</v>
+      </c>
+      <c r="D103" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>179</v>
       </c>
       <c r="B104" t="s">
         <v>180</v>
       </c>
-      <c r="C104" s="22" t="s">
+      <c r="C104" t="s">
+        <v>394</v>
+      </c>
+      <c r="D104" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>184</v>
       </c>
       <c r="B105" t="s">
         <v>185</v>
       </c>
-      <c r="C105" s="22" t="s">
+      <c r="C105" t="s">
+        <v>395</v>
+      </c>
+      <c r="D105" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>187</v>
       </c>
@@ -2597,6 +3200,9 @@
         <v>186</v>
       </c>
       <c r="C106" t="s">
+        <v>396</v>
+      </c>
+      <c r="D106" t="s">
         <v>273</v>
       </c>
     </row>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73B10B4-3FF9-E340-969B-EF9F81832C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1EC6BB-97D6-D24B-AB3B-DB074131BEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17000" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="4460" yWindow="1520" windowWidth="28800" windowHeight="17000" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$D$136</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="464">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -330,9 +333,6 @@
     <t>Please play the highest note on your MIDI keyboard.</t>
   </si>
   <si>
-    <t>Was this the correct note?</t>
-  </si>
-  <si>
     <t>You didn't enter anything!</t>
   </si>
   <si>
@@ -1225,6 +1225,210 @@
   </si>
   <si>
     <t>Cicca per proseguire col prossimo test.</t>
+  </si>
+  <si>
+    <t>browser_recommendation</t>
+  </si>
+  <si>
+    <t>For best results, run this test in Google Chrome or Opera browsers. Other browsers may still work.</t>
+  </si>
+  <si>
+    <t>Now let's set things up.</t>
+  </si>
+  <si>
+    <t>setup_intro</t>
+  </si>
+  <si>
+    <t>Please provide an anonymous identifier that only you will know, in case something goes wrong.</t>
+  </si>
+  <si>
+    <t>anon_id</t>
+  </si>
+  <si>
+    <t>Thank_you</t>
+  </si>
+  <si>
+    <t>Thank you</t>
+  </si>
+  <si>
+    <t>Danke</t>
+  </si>
+  <si>
+    <t>concise_headphone_wording</t>
+  </si>
+  <si>
+    <t>Please make sure your headphones are working and adjust the volume to a good level.</t>
+  </si>
+  <si>
+    <t>normal_loudness</t>
+  </si>
+  <si>
+    <t>Use your normal way of changing loudness on your computer to do this</t>
+  </si>
+  <si>
+    <t>Microphone Type</t>
+  </si>
+  <si>
+    <t>Microphone_Type</t>
+  </si>
+  <si>
+    <t>Are you using an internal (in-built) or external (plugged-in) microphone?</t>
+  </si>
+  <si>
+    <t>plugged_vs_external_mic</t>
+  </si>
+  <si>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>External</t>
+  </si>
+  <si>
+    <t>Not_sure</t>
+  </si>
+  <si>
+    <t>SNR_failure</t>
+  </si>
+  <si>
+    <t>Your vocal signal compared to the background noise is not sufficient for testing. Please find a quieter space, get closer to the mic, or adjust the volume and we will measure the vocal signal sound level again. If neither of these is possible for you, please email sebsilas@gmail.com with 'weak signal' in the subject space, and you will be contacted within 24 hours to troubleshoot this problem. You may also end the program and attempt to adjust your microphone volume and start the program again.</t>
+  </si>
+  <si>
+    <t>Not sure</t>
+  </si>
+  <si>
+    <t>Your response was not understood. Perhaps your microphone is not setup correctly.</t>
+  </si>
+  <si>
+    <t>check_of_bg_noise</t>
+  </si>
+  <si>
+    <t>Check of background noise level</t>
+  </si>
+  <si>
+    <t>Your background noise level is good</t>
+  </si>
+  <si>
+    <t>bg_noise_level_good</t>
+  </si>
+  <si>
+    <t>response_not_understood</t>
+  </si>
+  <si>
+    <t>If a message pops up, click Allow. Click Start Test to see if your microphone is working. Make some sound.</t>
+  </si>
+  <si>
+    <t>You should see colours moving on the meter if it is working. If not, try and setup your mic again and rejoin the test.</t>
+  </si>
+  <si>
+    <t>microphone_calibration_concise_message_1</t>
+  </si>
+  <si>
+    <t>microphone_calibration_concise_message_2</t>
+  </si>
+  <si>
+    <t>microphone_calibration_concise_message_3</t>
+  </si>
+  <si>
+    <t>If the meter is red when you play your instrument. Do not proceed. Turn down your microphone input volume or get further away from it.</t>
+  </si>
+  <si>
+    <t>Start test</t>
+  </si>
+  <si>
+    <t>Start_test</t>
+  </si>
+  <si>
+    <t>When you are ready, click on “Record” and for about 5 seconds please hum, directed toward your microphone for 5 seconds.  (to “hum”, put your lips together and make a sound with your voice.</t>
+  </si>
+  <si>
+    <t>record_signal_message</t>
+  </si>
+  <si>
+    <t>We will now find your approximate voice range. You will first be asked  to sing the lowest comfortable note for your voice, then the highest. Each time you try, the computer will analyse the note you sang. If you don't think it recorded the right note, you can try again.</t>
+  </si>
+  <si>
+    <t>range_explanation_voice_concise</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>Section_Progress</t>
+  </si>
+  <si>
+    <t>Section Progress</t>
+  </si>
+  <si>
+    <t>Sing the Melody</t>
+  </si>
+  <si>
+    <t>Sing_the_Melody</t>
+  </si>
+  <si>
+    <t>sing_melody_page_text</t>
+  </si>
+  <si>
+    <t>sing_melody_instruction_text</t>
+  </si>
+  <si>
+    <t>Now you will hear some melodies. Please try and sing the melodies.</t>
+  </si>
+  <si>
+    <t>Record_audio</t>
+  </si>
+  <si>
+    <t>Record audio</t>
+  </si>
+  <si>
+    <t>Click record to record some audio</t>
+  </si>
+  <si>
+    <t>click_to_record_audio</t>
+  </si>
+  <si>
+    <t>were_you_happy</t>
+  </si>
+  <si>
+    <t>'If you were happy with your response, please click to "Continue", otherwise please click to "Try Again".'</t>
+  </si>
+  <si>
+    <t>You_have</t>
+  </si>
+  <si>
+    <t>You have</t>
+  </si>
+  <si>
+    <t>attempts_remaining_if_like</t>
+  </si>
+  <si>
+    <t>no_more_attempts_next</t>
+  </si>
+  <si>
+    <t>attempts_remaining_1_max_goes_forced</t>
+  </si>
+  <si>
+    <t>attempts_remaining_several.2_max_goes_forced</t>
+  </si>
+  <si>
+    <t>attempts_remaining_several</t>
+  </si>
+  <si>
+    <t>Click below to hear the melody. Sing back the melody plus rhythm. Click Stop when finished.</t>
+  </si>
+  <si>
+    <t>sing_rhythmic_melodies_page_text</t>
+  </si>
+  <si>
+    <t>Sing the melody and the rhythms</t>
+  </si>
+  <si>
+    <t>sing_rhythmic_melodies_page_title</t>
+  </si>
+  <si>
+    <t>sing_rhythmic_melodies_instruction_text</t>
+  </si>
+  <si>
+    <t>Now you will hear some melodies with rhythms. Please try and sing the melodies with their rhythms.</t>
   </si>
 </sst>
 </file>
@@ -1297,7 +1501,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1319,6 +1523,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1355,7 +1565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1374,16 +1584,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1392,8 +1598,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1709,10 +1941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B95" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1730,342 +1962,342 @@
         <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="D4" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="C5" t="s">
-        <v>302</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>303</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="D10" s="18" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D9" s="1" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="B10" s="22" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C13" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="C13" s="20" t="s">
+      <c r="C15" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="D22" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="14" t="s">
+    <row r="24" spans="1:4" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D24" s="14" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="18" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>227</v>
-      </c>
-    </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2073,13 +2305,13 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="22" t="s">
         <v>19</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -2087,13 +2319,13 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -2101,13 +2333,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="22" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -2115,1098 +2347,1526 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="3" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D31" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D31" s="2" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="D35" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="3" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D36" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="2" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D38" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="2" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="D40" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="23" t="s">
         <v>335</v>
-      </c>
-      <c r="D42" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" t="s">
-        <v>336</v>
       </c>
       <c r="D43" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B44" t="s">
-        <v>133</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B44" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="D44" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="23" t="s">
         <v>338</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="D47" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B46" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" t="s">
-        <v>339</v>
-      </c>
-      <c r="D46" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="D48" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47" t="s">
-        <v>340</v>
-      </c>
-      <c r="D47" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="D49" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B48" t="s">
-        <v>73</v>
-      </c>
-      <c r="C48" t="s">
-        <v>341</v>
-      </c>
-      <c r="D48" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="D50" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="D51" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="D52" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="D53" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C49" t="s">
-        <v>342</v>
-      </c>
-      <c r="D49" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" t="s">
-        <v>161</v>
-      </c>
-      <c r="C50" t="s">
-        <v>344</v>
-      </c>
-      <c r="D50" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" t="s">
-        <v>162</v>
-      </c>
-      <c r="C51" t="s">
-        <v>343</v>
-      </c>
-      <c r="D51" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>159</v>
-      </c>
-      <c r="B52" t="s">
-        <v>163</v>
-      </c>
-      <c r="C52" t="s">
-        <v>347</v>
-      </c>
-      <c r="D52" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>160</v>
-      </c>
-      <c r="B53" t="s">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="D56" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="D73" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B74" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B75" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="D76" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="D77" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B78" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="C78" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="D79" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B81" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="C81" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="D81" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="D82" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="B87" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="C87" s="35" t="s">
+        <v>385</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B88" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="D88" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B89" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D89" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B90" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="D90" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B91" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="D91" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="B92" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C92" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B93" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C93" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B94" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C94" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A95" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="B95" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C95" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B96" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C96" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="D96" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="C53" t="s">
-        <v>348</v>
-      </c>
-      <c r="D53" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C54" t="s">
-        <v>345</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>81</v>
-      </c>
-      <c r="B55" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" t="s">
-        <v>81</v>
-      </c>
-      <c r="D55" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>82</v>
-      </c>
-      <c r="B56" t="s">
-        <v>82</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="D56" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>83</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>84</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>85</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>86</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>87</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="B97" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C97" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="D97" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B98" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C98" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="D98" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="B99" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C99" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="D99" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B100" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C100" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="D100" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B101" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C101" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="D101" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B102" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C102" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="D102" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B103" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C103" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="D103" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B104" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="C104" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="D104" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="B105" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C105" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="D105" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="B106" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C106" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="D106" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="B107" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="C107" s="23"/>
+      <c r="D107" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="B108" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="C108" s="23"/>
+      <c r="D108" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="B109" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="C109" s="23"/>
+      <c r="D109" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="B110" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="C110" s="23"/>
+      <c r="D110" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="B111" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="C111" s="23"/>
+      <c r="D111" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="B112" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="C112" s="23"/>
+      <c r="D112" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="B113" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="C113" s="23"/>
+      <c r="D113" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="B114" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="C114" s="23"/>
+      <c r="D114" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="B115" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="C115" s="23"/>
+      <c r="D115" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="B116" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="C116" s="23"/>
+      <c r="D116" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="B117" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="C117" s="23"/>
+      <c r="D117" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A118" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="B118" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="C118" s="23"/>
+      <c r="D118" s="11" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>424</v>
+      </c>
+      <c r="B119" t="s">
+        <v>419</v>
+      </c>
+      <c r="D119" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>420</v>
+      </c>
+      <c r="B120" t="s">
+        <v>421</v>
+      </c>
+      <c r="D120" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>423</v>
+      </c>
+      <c r="B121" t="s">
+        <v>422</v>
+      </c>
+      <c r="D121" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="B122" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="C122" s="20"/>
+      <c r="D122" s="20"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="B123" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="C123" s="20"/>
+      <c r="D123" s="20"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="B124" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="C124" s="20"/>
+      <c r="D124" s="20"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="B125" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="C125" s="20"/>
+      <c r="D125" s="20"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="B126" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="C126" s="20"/>
+      <c r="D126" s="20"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="B127" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="C127" s="20"/>
+      <c r="D127" s="20"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="B128" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="C128" s="20"/>
+      <c r="D128" s="20"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B129" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C129" s="20"/>
+      <c r="D129" s="20"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="B130" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="C130" s="20"/>
+      <c r="D130" s="20"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="B131" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="C131" s="20"/>
+      <c r="D131" s="20"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="B132" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C132" s="20"/>
+      <c r="D132" s="20"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="B133" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="C133" s="20"/>
+      <c r="D133" s="20"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="B134" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="C134" s="20"/>
+      <c r="D134" s="20"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="B135" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="C135" s="20"/>
+      <c r="D135" s="20"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="B136" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="C136" s="20"/>
+      <c r="D136" s="20"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="B137" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="C137" s="20"/>
+      <c r="D137" s="20"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="20" t="s">
+        <v>453</v>
+      </c>
+      <c r="B138" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C138" s="20"/>
+      <c r="D138" s="20"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="B139" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C139" s="20"/>
+      <c r="D139" s="20"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="B140" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C140" s="20"/>
+      <c r="D140" s="20"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="B141" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>141</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>89</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>91</v>
-      </c>
-      <c r="B65" s="7" t="s">
+      <c r="C141" s="20"/>
+      <c r="D141" s="20"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B142" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C142" s="20"/>
+      <c r="D142" s="20"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="B143" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>93</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>101</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B73" t="s">
-        <v>110</v>
-      </c>
-      <c r="C73" t="s">
-        <v>365</v>
-      </c>
-      <c r="D73" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>116</v>
-      </c>
-      <c r="B76" t="s">
-        <v>117</v>
-      </c>
-      <c r="C76" t="s">
-        <v>368</v>
-      </c>
-      <c r="D76" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>118</v>
-      </c>
-      <c r="B77" t="s">
-        <v>118</v>
-      </c>
-      <c r="C77" t="s">
-        <v>318</v>
-      </c>
-      <c r="D77" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>121</v>
-      </c>
-      <c r="B79" t="s">
-        <v>120</v>
-      </c>
-      <c r="C79" t="s">
-        <v>370</v>
-      </c>
-      <c r="D79" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>124</v>
-      </c>
-      <c r="B81" t="s">
-        <v>293</v>
-      </c>
-      <c r="C81" t="s">
-        <v>372</v>
-      </c>
-      <c r="D81" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>125</v>
-      </c>
-      <c r="B82" t="s">
-        <v>297</v>
-      </c>
-      <c r="C82" t="s">
-        <v>373</v>
-      </c>
-      <c r="D82" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B87" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="C87" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="D87" s="23" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>128</v>
-      </c>
-      <c r="B88" t="s">
-        <v>128</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="D88" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>130</v>
-      </c>
-      <c r="B89" t="s">
-        <v>130</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D89" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>135</v>
-      </c>
-      <c r="B90" t="s">
-        <v>136</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D90" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>137</v>
-      </c>
-      <c r="B91" t="s">
-        <v>138</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D91" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>155</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C95" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>157</v>
-      </c>
-      <c r="B96" t="s">
-        <v>158</v>
-      </c>
-      <c r="C96" t="s">
-        <v>384</v>
-      </c>
-      <c r="D96" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>165</v>
-      </c>
-      <c r="B97" t="s">
-        <v>166</v>
-      </c>
-      <c r="C97" t="s">
-        <v>387</v>
-      </c>
-      <c r="D97" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>167</v>
-      </c>
-      <c r="B98" t="s">
-        <v>169</v>
-      </c>
-      <c r="C98" t="s">
-        <v>388</v>
-      </c>
-      <c r="D98" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>174</v>
-      </c>
-      <c r="B99" t="s">
-        <v>170</v>
-      </c>
-      <c r="C99" t="s">
-        <v>389</v>
-      </c>
-      <c r="D99" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>168</v>
-      </c>
-      <c r="B100" t="s">
-        <v>173</v>
-      </c>
-      <c r="C100" t="s">
-        <v>390</v>
-      </c>
-      <c r="D100" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>171</v>
-      </c>
-      <c r="B101" t="s">
-        <v>172</v>
-      </c>
-      <c r="C101" t="s">
-        <v>391</v>
-      </c>
-      <c r="D101" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>175</v>
-      </c>
-      <c r="B102" t="s">
-        <v>176</v>
-      </c>
-      <c r="C102" t="s">
-        <v>392</v>
-      </c>
-      <c r="D102" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>177</v>
-      </c>
-      <c r="B103" t="s">
-        <v>178</v>
-      </c>
-      <c r="C103" t="s">
-        <v>393</v>
-      </c>
-      <c r="D103" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>179</v>
-      </c>
-      <c r="B104" t="s">
-        <v>180</v>
-      </c>
-      <c r="C104" t="s">
-        <v>394</v>
-      </c>
-      <c r="D104" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>184</v>
-      </c>
-      <c r="B105" t="s">
-        <v>185</v>
-      </c>
-      <c r="C105" t="s">
-        <v>395</v>
-      </c>
-      <c r="D105" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>187</v>
-      </c>
-      <c r="B106" t="s">
-        <v>186</v>
-      </c>
-      <c r="C106" t="s">
-        <v>396</v>
-      </c>
-      <c r="D106" t="s">
-        <v>273</v>
-      </c>
+      <c r="C143" s="20"/>
+      <c r="D143" s="20"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="20" t="s">
+        <v>459</v>
+      </c>
+      <c r="B144" s="20" t="s">
+        <v>458</v>
+      </c>
+      <c r="C144" s="20"/>
+      <c r="D144" s="20"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="B145" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="C145" s="20"/>
+      <c r="D145" s="20"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="20" t="s">
+        <v>462</v>
+      </c>
+      <c r="B146" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="C146" s="20"/>
+      <c r="D146" s="20"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D136" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1EC6BB-97D6-D24B-AB3B-DB074131BEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E7B691-3F78-C542-A0DB-6E0CB839FC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4460" yWindow="1520" windowWidth="28800" windowHeight="17000" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="462">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -1251,9 +1251,6 @@
     <t>Thank you</t>
   </si>
   <si>
-    <t>Danke</t>
-  </si>
-  <si>
     <t>concise_headphone_wording</t>
   </si>
   <si>
@@ -1291,9 +1288,6 @@
   </si>
   <si>
     <t>Your vocal signal compared to the background noise is not sufficient for testing. Please find a quieter space, get closer to the mic, or adjust the volume and we will measure the vocal signal sound level again. If neither of these is possible for you, please email sebsilas@gmail.com with 'weak signal' in the subject space, and you will be contacted within 24 hours to troubleshoot this problem. You may also end the program and attempt to adjust your microphone volume and start the program again.</t>
-  </si>
-  <si>
-    <t>Not sure</t>
   </si>
   <si>
     <t>Your response was not understood. Perhaps your microphone is not setup correctly.</t>
@@ -1565,7 +1559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1599,33 +1593,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1943,8 +1921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
   <dimension ref="A1:D146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="B95" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="J144" sqref="J144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1969,13 +1947,13 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="1" t="s">
         <v>299</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1983,13 +1961,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="2" t="s">
         <v>306</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1997,13 +1975,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="1" t="s">
         <v>300</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2011,13 +1989,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" t="s">
         <v>301</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -2025,13 +2003,13 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" t="s">
         <v>302</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -2039,13 +2017,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="21" t="s">
         <v>303</v>
       </c>
       <c r="D7" s="17" t="s">
@@ -2053,13 +2031,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="1" t="s">
         <v>304</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -2067,13 +2045,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="1" t="s">
         <v>305</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -2081,13 +2059,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="22" t="s">
         <v>307</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -2095,13 +2073,13 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="2" t="s">
         <v>308</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -2109,13 +2087,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="2" t="s">
         <v>309</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -2123,13 +2101,13 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="2" t="s">
         <v>318</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -2137,13 +2115,13 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="2" t="s">
         <v>310</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2151,13 +2129,13 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="10" t="s">
         <v>311</v>
       </c>
       <c r="D15" s="10" t="s">
@@ -2165,13 +2143,13 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="2" t="s">
         <v>312</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -2179,13 +2157,13 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="2" t="s">
         <v>313</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -2193,13 +2171,13 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -2207,13 +2185,13 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="2" t="s">
         <v>315</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -2221,13 +2199,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="3" t="s">
         <v>316</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -2235,13 +2213,13 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="3" t="s">
         <v>317</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -2249,13 +2227,13 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="2" t="s">
         <v>319</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2263,13 +2241,13 @@
       </c>
     </row>
     <row r="23" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="12" t="s">
         <v>320</v>
       </c>
       <c r="D23" s="12" t="s">
@@ -2277,13 +2255,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="25" t="s">
         <v>321</v>
       </c>
       <c r="D24" s="14" t="s">
@@ -2291,13 +2269,13 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2305,13 +2283,13 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -2319,13 +2297,13 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -2333,13 +2311,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -2347,13 +2325,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="2" t="s">
         <v>322</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -2361,13 +2339,13 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="3" t="s">
         <v>323</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -2375,13 +2353,13 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="2" t="s">
         <v>324</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -2389,13 +2367,13 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="3" t="s">
         <v>325</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -2403,13 +2381,13 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="3" t="s">
         <v>326</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -2417,13 +2395,13 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="3" t="s">
         <v>327</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -2431,13 +2409,13 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="2" t="s">
         <v>330</v>
       </c>
       <c r="D35" s="16" t="s">
@@ -2445,13 +2423,13 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -2459,13 +2437,13 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="1" t="s">
         <v>331</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -2473,13 +2451,13 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="3" t="s">
         <v>329</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -2487,13 +2465,13 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="2" t="s">
         <v>332</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -2501,13 +2479,13 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" t="s">
         <v>333</v>
       </c>
       <c r="D40" t="s">
@@ -2515,13 +2493,13 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" t="s">
         <v>43</v>
       </c>
       <c r="D41" t="s">
@@ -2529,13 +2507,13 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" t="s">
         <v>334</v>
       </c>
       <c r="D42" t="s">
@@ -2543,13 +2521,13 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" t="s">
         <v>335</v>
       </c>
       <c r="D43" t="s">
@@ -2557,13 +2535,13 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" t="s">
         <v>132</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" t="s">
         <v>336</v>
       </c>
       <c r="D44" t="s">
@@ -2571,13 +2549,13 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C45" t="s">
         <v>337</v>
       </c>
       <c r="D45" t="s">
@@ -2585,13 +2563,13 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" t="s">
         <v>338</v>
       </c>
       <c r="D46" t="s">
@@ -2599,13 +2577,13 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B47" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" t="s">
         <v>339</v>
       </c>
       <c r="D47" t="s">
@@ -2613,13 +2591,13 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" t="s">
         <v>340</v>
       </c>
       <c r="D48" t="s">
@@ -2627,13 +2605,13 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" t="s">
         <v>212</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C49" t="s">
         <v>341</v>
       </c>
       <c r="D49" t="s">
@@ -2641,13 +2619,13 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="23" t="s">
+      <c r="A50" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B50" t="s">
         <v>160</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" t="s">
         <v>343</v>
       </c>
       <c r="D50" t="s">
@@ -2655,13 +2633,13 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="23" t="s">
+      <c r="A51" t="s">
         <v>78</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" t="s">
         <v>161</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" t="s">
         <v>342</v>
       </c>
       <c r="D51" t="s">
@@ -2669,13 +2647,13 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="23" t="s">
+      <c r="A52" t="s">
         <v>158</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" t="s">
         <v>162</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C52" t="s">
         <v>346</v>
       </c>
       <c r="D52" t="s">
@@ -2683,13 +2661,13 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="23" t="s">
+      <c r="A53" t="s">
         <v>159</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" t="s">
         <v>163</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" t="s">
         <v>347</v>
       </c>
       <c r="D53" t="s">
@@ -2697,13 +2675,13 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="32" t="s">
+      <c r="A54" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" t="s">
         <v>344</v>
       </c>
       <c r="D54" s="5" t="s">
@@ -2711,13 +2689,13 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="23" t="s">
+      <c r="A55" t="s">
         <v>81</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="B55" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C55" t="s">
         <v>81</v>
       </c>
       <c r="D55" t="s">
@@ -2725,13 +2703,13 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="23" t="s">
+      <c r="A56" t="s">
         <v>82</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" t="s">
         <v>82</v>
       </c>
-      <c r="C56" s="32" t="s">
+      <c r="C56" s="5" t="s">
         <v>345</v>
       </c>
       <c r="D56" t="s">
@@ -2739,13 +2717,13 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="23" t="s">
+      <c r="A57" t="s">
         <v>83</v>
       </c>
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="32" t="s">
+      <c r="C57" s="5" t="s">
         <v>348</v>
       </c>
       <c r="D57" s="5" t="s">
@@ -2753,13 +2731,13 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="23" t="s">
+      <c r="A58" t="s">
         <v>84</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" t="s">
         <v>349</v>
       </c>
       <c r="D58" s="6" t="s">
@@ -2767,13 +2745,13 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="23" t="s">
+      <c r="A59" t="s">
         <v>85</v>
       </c>
-      <c r="B59" s="33" t="s">
+      <c r="B59" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C59" s="33" t="s">
+      <c r="C59" s="9" t="s">
         <v>350</v>
       </c>
       <c r="D59" s="8" t="s">
@@ -2781,13 +2759,13 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="23" t="s">
+      <c r="A60" t="s">
         <v>86</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" t="s">
         <v>96</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C60" t="s">
         <v>351</v>
       </c>
       <c r="D60" s="6" t="s">
@@ -2795,13 +2773,13 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="23" t="s">
+      <c r="A61" t="s">
         <v>87</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" t="s">
         <v>97</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C61" t="s">
         <v>352</v>
       </c>
       <c r="D61" s="6" t="s">
@@ -2809,13 +2787,13 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="23" t="s">
+      <c r="A62" t="s">
         <v>138</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="B62" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="C62" s="26" t="s">
         <v>353</v>
       </c>
       <c r="D62" s="7" t="s">
@@ -2823,13 +2801,13 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="23" t="s">
+      <c r="A63" t="s">
         <v>140</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" t="s">
         <v>141</v>
       </c>
-      <c r="C63" s="23" t="s">
+      <c r="C63" t="s">
         <v>355</v>
       </c>
       <c r="D63" s="6" t="s">
@@ -2837,13 +2815,13 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="23" t="s">
+      <c r="A64" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B64" t="s">
         <v>90</v>
       </c>
-      <c r="C64" s="23" t="s">
+      <c r="C64" t="s">
         <v>354</v>
       </c>
       <c r="D64" s="6" t="s">
@@ -2851,13 +2829,13 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="23" t="s">
+      <c r="A65" t="s">
         <v>91</v>
       </c>
-      <c r="B65" s="34" t="s">
+      <c r="B65" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="C65" s="34" t="s">
+      <c r="C65" s="26" t="s">
         <v>356</v>
       </c>
       <c r="D65" s="7" t="s">
@@ -2865,13 +2843,13 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="23" t="s">
+      <c r="A66" t="s">
         <v>93</v>
       </c>
-      <c r="B66" s="23" t="s">
+      <c r="B66" t="s">
         <v>94</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C66" t="s">
         <v>358</v>
       </c>
       <c r="D66" s="6" t="s">
@@ -2879,13 +2857,13 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="23" t="s">
+      <c r="A67" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="23" t="s">
+      <c r="B67" t="s">
         <v>95</v>
       </c>
-      <c r="C67" s="23" t="s">
+      <c r="C67" t="s">
         <v>357</v>
       </c>
       <c r="D67" s="6" t="s">
@@ -2893,13 +2871,13 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="23" t="s">
+      <c r="A68" t="s">
         <v>100</v>
       </c>
-      <c r="B68" s="23" t="s">
+      <c r="B68" t="s">
         <v>101</v>
       </c>
-      <c r="C68" s="23" t="s">
+      <c r="C68" t="s">
         <v>359</v>
       </c>
       <c r="D68" s="6" t="s">
@@ -2907,13 +2885,13 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="27" t="s">
+      <c r="A69" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B69" s="21" t="s">
+      <c r="B69" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="1" t="s">
         <v>360</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -2921,13 +2899,13 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="27" t="s">
+      <c r="A70" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B70" s="21" t="s">
+      <c r="B70" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="1" t="s">
         <v>361</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -2935,13 +2913,13 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="27" t="s">
+      <c r="A71" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C71" s="2" t="s">
         <v>362</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -2949,13 +2927,13 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="21" t="s">
+      <c r="A72" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B72" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C72" s="2" t="s">
         <v>363</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -2963,13 +2941,13 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="27" t="s">
+      <c r="A73" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B73" s="23" t="s">
+      <c r="B73" t="s">
         <v>109</v>
       </c>
-      <c r="C73" s="23" t="s">
+      <c r="C73" t="s">
         <v>364</v>
       </c>
       <c r="D73" t="s">
@@ -2977,13 +2955,13 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="32" t="s">
+      <c r="A74" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C74" s="32" t="s">
+      <c r="C74" s="5" t="s">
         <v>365</v>
       </c>
       <c r="D74" s="5" t="s">
@@ -2991,13 +2969,13 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="32" t="s">
+      <c r="A75" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B75" s="32" t="s">
+      <c r="B75" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C75" s="32" t="s">
+      <c r="C75" s="5" t="s">
         <v>366</v>
       </c>
       <c r="D75" s="5" t="s">
@@ -3005,13 +2983,13 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="23" t="s">
+      <c r="A76" t="s">
         <v>115</v>
       </c>
-      <c r="B76" s="23" t="s">
+      <c r="B76" t="s">
         <v>116</v>
       </c>
-      <c r="C76" s="23" t="s">
+      <c r="C76" t="s">
         <v>367</v>
       </c>
       <c r="D76" t="s">
@@ -3019,13 +2997,13 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="23" t="s">
+      <c r="A77" t="s">
         <v>117</v>
       </c>
-      <c r="B77" s="23" t="s">
+      <c r="B77" t="s">
         <v>117</v>
       </c>
-      <c r="C77" s="23" t="s">
+      <c r="C77" t="s">
         <v>317</v>
       </c>
       <c r="D77" t="s">
@@ -3033,13 +3011,13 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="33" t="s">
+      <c r="A78" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B78" s="33" t="s">
+      <c r="B78" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="C78" s="33" t="s">
+      <c r="C78" s="9" t="s">
         <v>368</v>
       </c>
       <c r="D78" s="8" t="s">
@@ -3047,13 +3025,13 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="23" t="s">
+      <c r="A79" t="s">
         <v>120</v>
       </c>
-      <c r="B79" s="23" t="s">
+      <c r="B79" t="s">
         <v>119</v>
       </c>
-      <c r="C79" s="23" t="s">
+      <c r="C79" t="s">
         <v>369</v>
       </c>
       <c r="D79" t="s">
@@ -3061,13 +3039,13 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="21" t="s">
+      <c r="A80" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B80" s="22" t="s">
+      <c r="B80" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C80" s="22" t="s">
+      <c r="C80" s="2" t="s">
         <v>370</v>
       </c>
       <c r="D80" s="2" t="s">
@@ -3075,13 +3053,13 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="23" t="s">
+      <c r="A81" t="s">
         <v>123</v>
       </c>
-      <c r="B81" s="23" t="s">
+      <c r="B81" t="s">
         <v>292</v>
       </c>
-      <c r="C81" s="23" t="s">
+      <c r="C81" t="s">
         <v>371</v>
       </c>
       <c r="D81" t="s">
@@ -3089,13 +3067,13 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="23" t="s">
+      <c r="A82" t="s">
         <v>124</v>
       </c>
-      <c r="B82" s="23" t="s">
+      <c r="B82" t="s">
         <v>296</v>
       </c>
-      <c r="C82" s="23" t="s">
+      <c r="C82" t="s">
         <v>372</v>
       </c>
       <c r="D82" t="s">
@@ -3103,13 +3081,13 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="27" t="s">
+      <c r="A83" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B83" s="22" t="s">
+      <c r="B83" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C83" s="22" t="s">
+      <c r="C83" s="2" t="s">
         <v>373</v>
       </c>
       <c r="D83" s="2" t="s">
@@ -3117,13 +3095,13 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="27" t="s">
+      <c r="A84" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B84" s="22" t="s">
+      <c r="B84" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C84" s="22" t="s">
+      <c r="C84" s="2" t="s">
         <v>374</v>
       </c>
       <c r="D84" s="2" t="s">
@@ -3131,13 +3109,13 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="27" t="s">
+      <c r="A85" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B85" s="22" t="s">
+      <c r="B85" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C85" s="22" t="s">
+      <c r="C85" s="2" t="s">
         <v>375</v>
       </c>
       <c r="D85" s="2" t="s">
@@ -3145,13 +3123,13 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="27" t="s">
+      <c r="A86" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B86" s="22" t="s">
+      <c r="B86" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C86" s="22" t="s">
+      <c r="C86" s="2" t="s">
         <v>376</v>
       </c>
       <c r="D86" s="2" t="s">
@@ -3159,13 +3137,13 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="27" t="s">
+      <c r="A87" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B87" s="35" t="s">
+      <c r="B87" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="C87" s="35" t="s">
+      <c r="C87" s="19" t="s">
         <v>385</v>
       </c>
       <c r="D87" s="19" t="s">
@@ -3173,13 +3151,13 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="23" t="s">
+      <c r="A88" t="s">
         <v>127</v>
       </c>
-      <c r="B88" s="23" t="s">
+      <c r="B88" t="s">
         <v>127</v>
       </c>
-      <c r="C88" s="22" t="s">
+      <c r="C88" s="2" t="s">
         <v>377</v>
       </c>
       <c r="D88" t="s">
@@ -3187,13 +3165,13 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="23" t="s">
+      <c r="A89" t="s">
         <v>129</v>
       </c>
-      <c r="B89" s="23" t="s">
+      <c r="B89" t="s">
         <v>129</v>
       </c>
-      <c r="C89" s="22" t="s">
+      <c r="C89" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D89" t="s">
@@ -3201,13 +3179,13 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="23" t="s">
+      <c r="A90" t="s">
         <v>134</v>
       </c>
-      <c r="B90" s="23" t="s">
+      <c r="B90" t="s">
         <v>135</v>
       </c>
-      <c r="C90" s="22" t="s">
+      <c r="C90" s="2" t="s">
         <v>378</v>
       </c>
       <c r="D90" t="s">
@@ -3215,13 +3193,13 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="23" t="s">
+      <c r="A91" t="s">
         <v>136</v>
       </c>
-      <c r="B91" s="23" t="s">
+      <c r="B91" t="s">
         <v>137</v>
       </c>
-      <c r="C91" s="22" t="s">
+      <c r="C91" s="2" t="s">
         <v>379</v>
       </c>
       <c r="D91" t="s">
@@ -3229,13 +3207,13 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B92" s="33" t="s">
+      <c r="B92" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="33" t="s">
+      <c r="C92" s="9" t="s">
         <v>380</v>
       </c>
       <c r="D92" s="9" t="s">
@@ -3243,13 +3221,13 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="33" t="s">
+      <c r="A93" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B93" s="33" t="s">
+      <c r="B93" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C93" s="33" t="s">
+      <c r="C93" s="9" t="s">
         <v>381</v>
       </c>
       <c r="D93" s="9" t="s">
@@ -3257,13 +3235,13 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="32" t="s">
+      <c r="A94" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B94" s="32" t="s">
+      <c r="B94" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C94" s="32" t="s">
+      <c r="C94" s="5" t="s">
         <v>382</v>
       </c>
       <c r="D94" s="5" t="s">
@@ -3271,13 +3249,13 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A95" s="23" t="s">
+      <c r="A95" t="s">
         <v>154</v>
       </c>
-      <c r="B95" s="36" t="s">
+      <c r="B95" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C95" s="36" t="s">
+      <c r="C95" s="11" t="s">
         <v>384</v>
       </c>
       <c r="D95" s="11" t="s">
@@ -3285,13 +3263,13 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="23" t="s">
+      <c r="A96" t="s">
         <v>156</v>
       </c>
-      <c r="B96" s="23" t="s">
+      <c r="B96" t="s">
         <v>157</v>
       </c>
-      <c r="C96" s="23" t="s">
+      <c r="C96" t="s">
         <v>383</v>
       </c>
       <c r="D96" t="s">
@@ -3299,13 +3277,13 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="23" t="s">
+      <c r="A97" t="s">
         <v>164</v>
       </c>
-      <c r="B97" s="23" t="s">
+      <c r="B97" t="s">
         <v>165</v>
       </c>
-      <c r="C97" s="23" t="s">
+      <c r="C97" t="s">
         <v>386</v>
       </c>
       <c r="D97" t="s">
@@ -3313,13 +3291,13 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="23" t="s">
+      <c r="A98" t="s">
         <v>166</v>
       </c>
-      <c r="B98" s="23" t="s">
+      <c r="B98" t="s">
         <v>168</v>
       </c>
-      <c r="C98" s="23" t="s">
+      <c r="C98" t="s">
         <v>387</v>
       </c>
       <c r="D98" t="s">
@@ -3327,13 +3305,13 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="23" t="s">
+      <c r="A99" t="s">
         <v>173</v>
       </c>
-      <c r="B99" s="23" t="s">
+      <c r="B99" t="s">
         <v>169</v>
       </c>
-      <c r="C99" s="23" t="s">
+      <c r="C99" t="s">
         <v>388</v>
       </c>
       <c r="D99" t="s">
@@ -3341,13 +3319,13 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="23" t="s">
+      <c r="A100" t="s">
         <v>167</v>
       </c>
-      <c r="B100" s="23" t="s">
+      <c r="B100" t="s">
         <v>172</v>
       </c>
-      <c r="C100" s="23" t="s">
+      <c r="C100" t="s">
         <v>389</v>
       </c>
       <c r="D100" t="s">
@@ -3355,13 +3333,13 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="23" t="s">
+      <c r="A101" t="s">
         <v>170</v>
       </c>
-      <c r="B101" s="23" t="s">
+      <c r="B101" t="s">
         <v>171</v>
       </c>
-      <c r="C101" s="23" t="s">
+      <c r="C101" t="s">
         <v>390</v>
       </c>
       <c r="D101" t="s">
@@ -3369,13 +3347,13 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="23" t="s">
+      <c r="A102" t="s">
         <v>174</v>
       </c>
-      <c r="B102" s="23" t="s">
+      <c r="B102" t="s">
         <v>175</v>
       </c>
-      <c r="C102" s="23" t="s">
+      <c r="C102" t="s">
         <v>391</v>
       </c>
       <c r="D102" t="s">
@@ -3383,13 +3361,13 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="23" t="s">
+      <c r="A103" t="s">
         <v>176</v>
       </c>
-      <c r="B103" s="23" t="s">
+      <c r="B103" t="s">
         <v>177</v>
       </c>
-      <c r="C103" s="23" t="s">
+      <c r="C103" t="s">
         <v>392</v>
       </c>
       <c r="D103" t="s">
@@ -3397,13 +3375,13 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="23" t="s">
+      <c r="A104" t="s">
         <v>178</v>
       </c>
-      <c r="B104" s="23" t="s">
+      <c r="B104" t="s">
         <v>179</v>
       </c>
-      <c r="C104" s="23" t="s">
+      <c r="C104" t="s">
         <v>393</v>
       </c>
       <c r="D104" t="s">
@@ -3411,13 +3389,13 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="23" t="s">
+      <c r="A105" t="s">
         <v>183</v>
       </c>
-      <c r="B105" s="23" t="s">
+      <c r="B105" t="s">
         <v>184</v>
       </c>
-      <c r="C105" s="23" t="s">
+      <c r="C105" t="s">
         <v>394</v>
       </c>
       <c r="D105" t="s">
@@ -3425,13 +3403,13 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="23" t="s">
+      <c r="A106" t="s">
         <v>186</v>
       </c>
-      <c r="B106" s="23" t="s">
+      <c r="B106" t="s">
         <v>185</v>
       </c>
-      <c r="C106" s="23" t="s">
+      <c r="C106" t="s">
         <v>395</v>
       </c>
       <c r="D106" t="s">
@@ -3439,251 +3417,312 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="23" t="s">
+      <c r="A107" t="s">
         <v>396</v>
       </c>
-      <c r="B107" s="23" t="s">
+      <c r="B107" t="s">
         <v>397</v>
       </c>
-      <c r="C107" s="23"/>
+      <c r="C107" t="s">
+        <v>397</v>
+      </c>
       <c r="D107" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="23" t="s">
+      <c r="A108" t="s">
         <v>399</v>
       </c>
-      <c r="B108" s="23" t="s">
+      <c r="B108" t="s">
         <v>398</v>
       </c>
-      <c r="C108" s="23"/>
+      <c r="C108" t="s">
+        <v>398</v>
+      </c>
       <c r="D108" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="23" t="s">
+      <c r="A109" t="s">
         <v>401</v>
       </c>
-      <c r="B109" s="23" t="s">
+      <c r="B109" t="s">
         <v>400</v>
       </c>
-      <c r="C109" s="23"/>
+      <c r="C109" t="s">
+        <v>400</v>
+      </c>
       <c r="D109" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="23" t="s">
+      <c r="A110" t="s">
         <v>402</v>
       </c>
-      <c r="B110" s="23" t="s">
+      <c r="B110" t="s">
         <v>403</v>
       </c>
-      <c r="C110" s="23"/>
+      <c r="C110" t="s">
+        <v>403</v>
+      </c>
       <c r="D110" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="23" t="s">
+      <c r="B111" t="s">
         <v>405</v>
       </c>
-      <c r="B111" s="23" t="s">
+      <c r="C111" t="s">
+        <v>405</v>
+      </c>
+      <c r="D111" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>406</v>
       </c>
-      <c r="C111" s="23"/>
-      <c r="D111" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="23" t="s">
+      <c r="B112" t="s">
         <v>407</v>
       </c>
-      <c r="B112" s="23" t="s">
+      <c r="C112" t="s">
+        <v>407</v>
+      </c>
+      <c r="D112" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>409</v>
+      </c>
+      <c r="B113" t="s">
         <v>408</v>
       </c>
-      <c r="C112" s="23"/>
-      <c r="D112" t="s">
+      <c r="C113" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="23" t="s">
+      <c r="D113" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>411</v>
+      </c>
+      <c r="B114" t="s">
         <v>410</v>
       </c>
-      <c r="B113" s="23" t="s">
-        <v>409</v>
-      </c>
-      <c r="C113" s="23"/>
-      <c r="D113" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="23" t="s">
+      <c r="C114" t="s">
+        <v>410</v>
+      </c>
+      <c r="D114" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
         <v>412</v>
       </c>
-      <c r="B114" s="23" t="s">
-        <v>411</v>
-      </c>
-      <c r="C114" s="23"/>
-      <c r="D114" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="23" t="s">
+      <c r="B115" t="s">
+        <v>412</v>
+      </c>
+      <c r="C115" t="s">
+        <v>412</v>
+      </c>
+      <c r="D115" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>413</v>
       </c>
-      <c r="B115" s="23" t="s">
+      <c r="B116" t="s">
         <v>413</v>
       </c>
-      <c r="C115" s="23"/>
-      <c r="D115" t="s">
+      <c r="C116" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="23" t="s">
+      <c r="D116" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>414</v>
       </c>
-      <c r="B116" s="23" t="s">
+      <c r="B117" t="s">
         <v>414</v>
       </c>
-      <c r="C116" s="23"/>
-      <c r="D116" t="s">
+      <c r="C117" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="23" t="s">
+      <c r="D117" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
         <v>415</v>
       </c>
-      <c r="B117" s="23" t="s">
-        <v>415</v>
-      </c>
-      <c r="C117" s="23"/>
-      <c r="D117" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A118" s="23" t="s">
+      <c r="B118" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="B118" s="36" t="s">
-        <v>417</v>
-      </c>
-      <c r="C118" s="23"/>
+      <c r="C118" s="11" t="s">
+        <v>416</v>
+      </c>
       <c r="D118" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B119" t="s">
-        <v>419</v>
+        <v>417</v>
+      </c>
+      <c r="C119" t="s">
+        <v>417</v>
       </c>
       <c r="D119" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B120" t="s">
-        <v>421</v>
+        <v>419</v>
+      </c>
+      <c r="C120" t="s">
+        <v>419</v>
       </c>
       <c r="D120" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B121" t="s">
-        <v>422</v>
+        <v>420</v>
+      </c>
+      <c r="C121" t="s">
+        <v>420</v>
       </c>
       <c r="D121" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="20" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>425</v>
-      </c>
-      <c r="C122" s="20"/>
-      <c r="D122" s="20"/>
+        <v>423</v>
+      </c>
+      <c r="C122" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="D122" s="20" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="20" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="C123" s="20"/>
-      <c r="D123" s="20"/>
+        <v>424</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="D123" s="20" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="20" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="C124" s="20"/>
-      <c r="D124" s="20"/>
+        <v>428</v>
+      </c>
+      <c r="C124" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="D124" s="20" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="20" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="C125" s="20"/>
-      <c r="D125" s="20"/>
+        <v>429</v>
+      </c>
+      <c r="C125" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="D125" s="20" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="20" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>433</v>
-      </c>
-      <c r="C126" s="20"/>
-      <c r="D126" s="20"/>
+        <v>431</v>
+      </c>
+      <c r="C126" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="D126" s="20" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="20" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>435</v>
-      </c>
-      <c r="C127" s="20"/>
-      <c r="D127" s="20"/>
+        <v>433</v>
+      </c>
+      <c r="C127" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="D127" s="20" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="20" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>437</v>
-      </c>
-      <c r="C128" s="20"/>
-      <c r="D128" s="20"/>
+        <v>435</v>
+      </c>
+      <c r="C128" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="D128" s="20" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="20" t="s">
@@ -3692,128 +3731,180 @@
       <c r="B129" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C129" s="20"/>
-      <c r="D129" s="20"/>
+      <c r="C129" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D129" s="20" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="20" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>439</v>
-      </c>
-      <c r="C130" s="20"/>
-      <c r="D130" s="20"/>
+        <v>437</v>
+      </c>
+      <c r="C130" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="D130" s="20" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="20" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>440</v>
-      </c>
-      <c r="C131" s="20"/>
-      <c r="D131" s="20"/>
+        <v>438</v>
+      </c>
+      <c r="C131" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="D131" s="20" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="20" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B132" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C132" s="20"/>
-      <c r="D132" s="20"/>
+      <c r="C132" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D132" s="20" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="20" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>444</v>
-      </c>
-      <c r="C133" s="20"/>
-      <c r="D133" s="20"/>
+        <v>442</v>
+      </c>
+      <c r="C133" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="D133" s="20" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="20" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="C134" s="20"/>
-      <c r="D134" s="20"/>
+        <v>444</v>
+      </c>
+      <c r="C134" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="D134" s="20" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="20" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>447</v>
-      </c>
-      <c r="C135" s="20"/>
-      <c r="D135" s="20"/>
+        <v>445</v>
+      </c>
+      <c r="C135" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="D135" s="20" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="20" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>450</v>
-      </c>
-      <c r="C136" s="20"/>
-      <c r="D136" s="20"/>
+        <v>448</v>
+      </c>
+      <c r="C136" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="D136" s="20" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="20" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>452</v>
-      </c>
-      <c r="C137" s="20"/>
-      <c r="D137" s="20"/>
+        <v>450</v>
+      </c>
+      <c r="C137" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="D137" s="20" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="20" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B138" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C138" s="20"/>
-      <c r="D138" s="20"/>
+      <c r="C138" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D138" s="20" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="20" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B139" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C139" s="20"/>
-      <c r="D139" s="20"/>
+      <c r="C139" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D139" s="20" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="20" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B140" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="C140" s="20"/>
-      <c r="D140" s="20"/>
+      <c r="C140" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D140" s="20" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="20" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B141" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C141" s="20"/>
-      <c r="D141" s="20"/>
+      <c r="C141" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D141" s="20" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="20" t="s">
@@ -3822,48 +3913,68 @@
       <c r="B142" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C142" s="20"/>
-      <c r="D142" s="20"/>
+      <c r="C142" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D142" s="20" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B143" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C143" s="20"/>
-      <c r="D143" s="20"/>
+      <c r="C143" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D143" s="20" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="20" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>458</v>
-      </c>
-      <c r="C144" s="20"/>
-      <c r="D144" s="20"/>
+        <v>456</v>
+      </c>
+      <c r="C144" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="D144" s="20" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="20" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>460</v>
-      </c>
-      <c r="C145" s="20"/>
-      <c r="D145" s="20"/>
+        <v>458</v>
+      </c>
+      <c r="C145" s="20" t="s">
+        <v>458</v>
+      </c>
+      <c r="D145" s="20" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="20" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="C146" s="20"/>
-      <c r="D146" s="20"/>
+        <v>461</v>
+      </c>
+      <c r="C146" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="D146" s="20" t="s">
+        <v>461</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D136" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}"/>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E7B691-3F78-C542-A0DB-6E0CB839FC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE32D59-A4EE-2340-BA1F-4001A61CDA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4460" yWindow="1520" windowWidth="28800" windowHeight="17000" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="2560" yWindow="500" windowWidth="28800" windowHeight="17000" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$D$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$D$135</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="462">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -414,9 +414,6 @@
     <t>copy_melody_title</t>
   </si>
   <si>
-    <t>long_tone_heading</t>
-  </si>
-  <si>
     <t>Sing Along With This Note</t>
   </si>
   <si>
@@ -1423,6 +1420,9 @@
   </si>
   <si>
     <t>Now you will hear some melodies with rhythms. Please try and sing the melodies with their rhythms.</t>
+  </si>
+  <si>
+    <t>long_tone_title</t>
   </si>
 </sst>
 </file>
@@ -1919,10 +1919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
-  <dimension ref="A1:D146"/>
+  <dimension ref="A1:D145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B95" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="J144" sqref="J144"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1940,10 +1940,10 @@
         <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1954,10 +1954,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1968,10 +1968,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1979,13 +1979,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1993,13 +1993,13 @@
         <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2010,24 +2010,24 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2035,13 +2035,13 @@
         <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2052,24 +2052,24 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>282</v>
-      </c>
       <c r="C10" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2080,10 +2080,10 @@
         <v>57</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2091,13 +2091,13 @@
         <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2105,13 +2105,13 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2119,13 +2119,13 @@
         <v>52</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2133,13 +2133,13 @@
         <v>62</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>196</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2150,10 +2150,10 @@
         <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2161,13 +2161,13 @@
         <v>58</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2175,13 +2175,13 @@
         <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2192,10 +2192,10 @@
         <v>5</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2206,10 +2206,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2220,10 +2220,10 @@
         <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2234,10 +2234,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -2248,10 +2248,10 @@
         <v>11</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -2262,10 +2262,10 @@
         <v>15</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -2329,13 +2329,13 @@
         <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -2346,10 +2346,10 @@
         <v>26</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -2360,10 +2360,10 @@
         <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -2374,10 +2374,10 @@
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -2388,10 +2388,10 @@
         <v>32</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -2402,10 +2402,10 @@
         <v>34</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -2413,13 +2413,13 @@
         <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -2430,10 +2430,10 @@
         <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -2444,10 +2444,10 @@
         <v>37</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -2458,10 +2458,10 @@
         <v>39</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -2472,10 +2472,10 @@
         <v>41</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -2486,10 +2486,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -2503,7 +2503,7 @@
         <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -2514,10 +2514,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -2528,7 +2528,7 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D43" t="s">
         <v>45</v>
@@ -2539,13 +2539,13 @@
         <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C44" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -2556,10 +2556,10 @@
         <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -2570,10 +2570,10 @@
         <v>69</v>
       </c>
       <c r="C46" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -2584,10 +2584,10 @@
         <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -2598,10 +2598,10 @@
         <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -2609,13 +2609,13 @@
         <v>74</v>
       </c>
       <c r="B49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C49" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D49" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -2623,13 +2623,13 @@
         <v>77</v>
       </c>
       <c r="B50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C50" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -2637,41 +2637,41 @@
         <v>78</v>
       </c>
       <c r="B51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C51" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D51" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C52" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C53" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2682,10 +2682,10 @@
         <v>80</v>
       </c>
       <c r="C54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -2699,7 +2699,7 @@
         <v>81</v>
       </c>
       <c r="D55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2710,10 +2710,10 @@
         <v>82</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D56" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2724,10 +2724,10 @@
         <v>98</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2738,10 +2738,10 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2752,10 +2752,10 @@
         <v>99</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2766,10 +2766,10 @@
         <v>96</v>
       </c>
       <c r="C60" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2780,38 +2780,38 @@
         <v>97</v>
       </c>
       <c r="C61" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>137</v>
+      </c>
+      <c r="B62" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="B62" s="26" t="s">
-        <v>139</v>
-      </c>
       <c r="C62" s="26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63" t="s">
         <v>140</v>
       </c>
-      <c r="B63" t="s">
-        <v>141</v>
-      </c>
       <c r="C63" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2822,10 +2822,10 @@
         <v>90</v>
       </c>
       <c r="C64" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -2836,10 +2836,10 @@
         <v>92</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2850,10 +2850,10 @@
         <v>94</v>
       </c>
       <c r="C66" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2864,10 +2864,10 @@
         <v>95</v>
       </c>
       <c r="C67" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -2878,10 +2878,10 @@
         <v>101</v>
       </c>
       <c r="C68" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -2892,10 +2892,10 @@
         <v>104</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2906,10 +2906,10 @@
         <v>103</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -2920,10 +2920,10 @@
         <v>102</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2934,10 +2934,10 @@
         <v>110</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2948,10 +2948,10 @@
         <v>109</v>
       </c>
       <c r="C73" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D73" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2962,10 +2962,10 @@
         <v>112</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2976,10 +2976,10 @@
         <v>114</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2990,10 +2990,10 @@
         <v>116</v>
       </c>
       <c r="C76" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D76" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -3004,10 +3004,10 @@
         <v>117</v>
       </c>
       <c r="C77" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -3015,13 +3015,13 @@
         <v>118</v>
       </c>
       <c r="B78" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="D78" s="8" t="s">
         <v>293</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -3032,10 +3032,10 @@
         <v>119</v>
       </c>
       <c r="C79" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D79" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -3046,10 +3046,10 @@
         <v>121</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -3057,13 +3057,13 @@
         <v>123</v>
       </c>
       <c r="B81" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C81" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D81" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -3071,676 +3071,676 @@
         <v>124</v>
       </c>
       <c r="B82" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C82" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D82" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="C83" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="C84" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B88" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D88" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B89" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D89" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>133</v>
+      </c>
+      <c r="B90" t="s">
         <v>134</v>
       </c>
-      <c r="B90" t="s">
-        <v>135</v>
-      </c>
       <c r="C90" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D90" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>135</v>
+      </c>
+      <c r="B91" t="s">
         <v>136</v>
       </c>
-      <c r="B91" t="s">
-        <v>137</v>
-      </c>
       <c r="C91" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D91" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B92" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="C92" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="D92" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B93" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B93" s="9" t="s">
-        <v>150</v>
-      </c>
       <c r="C93" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="C94" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>153</v>
+      </c>
+      <c r="B95" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B95" s="11" t="s">
-        <v>155</v>
-      </c>
       <c r="C95" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>155</v>
+      </c>
+      <c r="B96" t="s">
         <v>156</v>
       </c>
-      <c r="B96" t="s">
-        <v>157</v>
-      </c>
       <c r="C96" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D96" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>163</v>
+      </c>
+      <c r="B97" t="s">
         <v>164</v>
       </c>
-      <c r="B97" t="s">
-        <v>165</v>
-      </c>
       <c r="C97" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D97" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B98" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C98" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D98" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B99" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C99" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D99" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B100" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C100" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D100" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>169</v>
+      </c>
+      <c r="B101" t="s">
         <v>170</v>
       </c>
-      <c r="B101" t="s">
-        <v>171</v>
-      </c>
       <c r="C101" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D101" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>173</v>
+      </c>
+      <c r="B102" t="s">
         <v>174</v>
       </c>
-      <c r="B102" t="s">
-        <v>175</v>
-      </c>
       <c r="C102" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D102" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>175</v>
+      </c>
+      <c r="B103" t="s">
         <v>176</v>
       </c>
-      <c r="B103" t="s">
-        <v>177</v>
-      </c>
       <c r="C103" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D103" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>177</v>
+      </c>
+      <c r="B104" t="s">
         <v>178</v>
       </c>
-      <c r="B104" t="s">
-        <v>179</v>
-      </c>
       <c r="C104" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D104" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>182</v>
+      </c>
+      <c r="B105" t="s">
         <v>183</v>
       </c>
-      <c r="B105" t="s">
-        <v>184</v>
-      </c>
       <c r="C105" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D105" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B106" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C106" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D106" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>395</v>
+      </c>
+      <c r="B107" t="s">
         <v>396</v>
       </c>
-      <c r="B107" t="s">
-        <v>397</v>
-      </c>
       <c r="C107" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D107" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B108" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C108" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D108" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B109" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C109" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D109" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>401</v>
+      </c>
+      <c r="B110" t="s">
         <v>402</v>
       </c>
-      <c r="B110" t="s">
-        <v>403</v>
-      </c>
       <c r="C110" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D110" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>403</v>
+      </c>
+      <c r="B111" t="s">
         <v>404</v>
       </c>
-      <c r="B111" t="s">
-        <v>405</v>
-      </c>
       <c r="C111" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D111" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>405</v>
+      </c>
+      <c r="B112" t="s">
         <v>406</v>
       </c>
-      <c r="B112" t="s">
-        <v>407</v>
-      </c>
       <c r="C112" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D112" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B113" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C113" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D113" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B114" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C114" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D114" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B115" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C115" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D115" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B116" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C116" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D116" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B117" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C117" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D117" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>414</v>
+      </c>
+      <c r="B118" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="B118" s="11" t="s">
-        <v>416</v>
-      </c>
       <c r="C118" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B119" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C119" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D119" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>417</v>
+      </c>
+      <c r="B120" t="s">
         <v>418</v>
       </c>
-      <c r="B120" t="s">
-        <v>419</v>
-      </c>
       <c r="C120" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D120" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B121" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C121" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D121" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D122" s="20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D123" s="20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="B124" s="20" t="s">
         <v>427</v>
       </c>
-      <c r="B124" s="20" t="s">
-        <v>428</v>
-      </c>
       <c r="C124" s="20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D124" s="20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D125" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="20" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D126" s="20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D127" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D128" s="20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="20" t="s">
-        <v>93</v>
+        <v>435</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>126</v>
+        <v>436</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>126</v>
+        <v>436</v>
       </c>
       <c r="D129" s="20" t="s">
-        <v>126</v>
+        <v>436</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="20" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B130" s="20" t="s">
         <v>437</v>
@@ -3757,13 +3757,13 @@
         <v>439</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>438</v>
+        <v>103</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>438</v>
+        <v>103</v>
       </c>
       <c r="D131" s="20" t="s">
-        <v>438</v>
+        <v>103</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -3771,32 +3771,32 @@
         <v>440</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>103</v>
+        <v>441</v>
       </c>
       <c r="C132" s="20" t="s">
-        <v>103</v>
+        <v>441</v>
       </c>
       <c r="D132" s="20" t="s">
-        <v>103</v>
+        <v>441</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="20" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C133" s="20" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D133" s="20" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="20" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B134" s="20" t="s">
         <v>444</v>
@@ -3813,41 +3813,41 @@
         <v>446</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D135" s="20" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="20" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D136" s="20" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="20" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>450</v>
+        <v>92</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>450</v>
+        <v>92</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>450</v>
+        <v>92</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -3855,13 +3855,13 @@
         <v>451</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D138" s="20" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -3869,13 +3869,13 @@
         <v>452</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="D139" s="20" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -3883,69 +3883,69 @@
         <v>453</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D140" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="20" t="s">
-        <v>454</v>
+        <v>93</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="D141" s="20" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="20" t="s">
-        <v>93</v>
+        <v>454</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D142" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="B143" s="20" t="s">
         <v>455</v>
       </c>
-      <c r="B143" s="20" t="s">
-        <v>92</v>
-      </c>
       <c r="C143" s="20" t="s">
-        <v>92</v>
+        <v>455</v>
       </c>
       <c r="D143" s="20" t="s">
-        <v>92</v>
+        <v>455</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="20" t="s">
+        <v>458</v>
+      </c>
+      <c r="B144" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="B144" s="20" t="s">
-        <v>456</v>
-      </c>
       <c r="C144" s="20" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D144" s="20" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -3953,31 +3953,17 @@
         <v>459</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="20" t="s">
         <v>460</v>
       </c>
-      <c r="B146" s="20" t="s">
-        <v>461</v>
-      </c>
-      <c r="C146" s="20" t="s">
-        <v>461</v>
-      </c>
-      <c r="D146" s="20" t="s">
-        <v>461</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D136" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}"/>
+  <autoFilter ref="A1:D135" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE32D59-A4EE-2340-BA1F-4001A61CDA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657622C7-F8BF-104B-AF58-080D4211D9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="500" windowWidth="28800" windowHeight="17000" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="5600" yWindow="500" windowWidth="28800" windowHeight="17000" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="470">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -1423,6 +1423,30 @@
   </si>
   <si>
     <t>long_tone_title</t>
+  </si>
+  <si>
+    <t>long_tone_title_call_and_response</t>
+  </si>
+  <si>
+    <t>long_tone_text_call_and_response</t>
+  </si>
+  <si>
+    <t>long_tone_instruction_call_and_response</t>
+  </si>
+  <si>
+    <t>long_tone_instruction_call_and_response_2</t>
+  </si>
+  <si>
+    <t>long_tone_instruction_call_and_response_3</t>
+  </si>
+  <si>
+    <t>Sing Back The Note After Your Hear It</t>
+  </si>
+  <si>
+    <t>Sing back the note for 5 seconds after you hear it.</t>
+  </si>
+  <si>
+    <t>Please try and sing the exact same note and hold after you hear it.</t>
   </si>
 </sst>
 </file>
@@ -1919,15 +1943,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
-  <dimension ref="A1:D145"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" topLeftCell="C128" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" customWidth="1"/>
+    <col min="1" max="1" width="57" customWidth="1"/>
     <col min="2" max="3" width="155.5" customWidth="1"/>
     <col min="4" max="4" width="175.5" customWidth="1"/>
   </cols>
@@ -3962,6 +3986,76 @@
         <v>460</v>
       </c>
     </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B150" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="C150" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D150" s="21" t="s">
+        <v>283</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D135" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657622C7-F8BF-104B-AF58-080D4211D9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65974C08-73EA-E847-8FDC-A6EE4C02008A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="500" windowWidth="28800" windowHeight="17000" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20880" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$D$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$D$136</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="500">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -414,6 +414,9 @@
     <t>copy_melody_title</t>
   </si>
   <si>
+    <t>long_tone_heading</t>
+  </si>
+  <si>
     <t>Sing Along With This Note</t>
   </si>
   <si>
@@ -939,9 +942,6 @@
     <t>Dovresti sentire dell'audio in riproduzione. Puoi iniziare e stoppare l'audio cliccando sul triangolo.</t>
   </si>
   <si>
-    <t>Se il volume non è comodo, regolalo a un livello confortevole attraverso il tuo modo normale di cambiare il volume sul tuo computer.</t>
-  </si>
-  <si>
     <t>Se non riesci a riprodurre l'audio a un livello confortevole, non continuare.</t>
   </si>
   <si>
@@ -990,9 +990,6 @@
     <t>Continua</t>
   </si>
   <si>
-    <t>Emetti un suono (ad esempio, canticchia a bocca chiusa, batti le mani, canta). Se vedi attività (barra colorata in movimento) all'interno del misuratore quando emetti un suono, significa che il microfono funziona. Altrimenti, non sta funzionando.</t>
-  </si>
-  <si>
     <t>Installazione completata</t>
   </si>
   <si>
@@ -1185,12 +1182,6 @@
     <t>Nessun dispositivo MIDI trovato.</t>
   </si>
   <si>
-    <t>Ora troveremo l'estensione approssimativa del vostro strumento. Vi verrà chiesto di suonare la vostra nota più grave e comoda, poi quella più acuta.</t>
-  </si>
-  <si>
-    <t>Ora troveremo la vostra estensione vocale approssimativa. Per prima cosa, vi verrà chiesto di cantare la vostra nota più grave e comoda.  Il computer analizzerà questa nota e ve la riproporrà. Vi verrà chiesto di decidere se questa nota corrisponde alla vostra nota più grave. A volte il computer può commettere un grosso errore. Quando ciò accade, si deve sapere che si ha l'opportunità di cantare di nuovo la propria nota e di dare al computer un'altra possibilità.</t>
-  </si>
-  <si>
     <t>Se la nota ti sembra fuori dalla tua estensione vocale, canta il suono che corrisponde meglio alla nota nella tua estensione, ad esempio, in un'ottava diversa.</t>
   </si>
   <si>
@@ -1203,9 +1194,6 @@
     <t>È possibile che l'estensione sia stata modificata in modo da risultare leggermente più alta o più bassa di quella effettivamente cantata.</t>
   </si>
   <si>
-    <t>È possibile che la gamma sia stata modificata in modo da risultare leggermente più alta o più bassa di quella effettivamente suonata.</t>
-  </si>
-  <si>
     <t>Per favore, canta Buon Compleanno</t>
   </si>
   <si>
@@ -1221,9 +1209,6 @@
     <t>Hai completato il</t>
   </si>
   <si>
-    <t>Cicca per proseguire col prossimo test.</t>
-  </si>
-  <si>
     <t>browser_recommendation</t>
   </si>
   <si>
@@ -1248,6 +1233,9 @@
     <t>Thank you</t>
   </si>
   <si>
+    <t>Danke</t>
+  </si>
+  <si>
     <t>concise_headphone_wording</t>
   </si>
   <si>
@@ -1287,6 +1275,9 @@
     <t>Your vocal signal compared to the background noise is not sufficient for testing. Please find a quieter space, get closer to the mic, or adjust the volume and we will measure the vocal signal sound level again. If neither of these is possible for you, please email sebsilas@gmail.com with 'weak signal' in the subject space, and you will be contacted within 24 hours to troubleshoot this problem. You may also end the program and attempt to adjust your microphone volume and start the program again.</t>
   </si>
   <si>
+    <t>Not sure</t>
+  </si>
+  <si>
     <t>Your response was not understood. Perhaps your microphone is not setup correctly.</t>
   </si>
   <si>
@@ -1380,9 +1371,6 @@
     <t>were_you_happy</t>
   </si>
   <si>
-    <t>'If you were happy with your response, please click to "Continue", otherwise please click to "Try Again".'</t>
-  </si>
-  <si>
     <t>You_have</t>
   </si>
   <si>
@@ -1422,31 +1410,133 @@
     <t>Now you will hear some melodies with rhythms. Please try and sing the melodies with their rhythms.</t>
   </si>
   <si>
-    <t>long_tone_title</t>
-  </si>
-  <si>
-    <t>long_tone_title_call_and_response</t>
-  </si>
-  <si>
-    <t>long_tone_text_call_and_response</t>
-  </si>
-  <si>
-    <t>long_tone_instruction_call_and_response</t>
-  </si>
-  <si>
-    <t>long_tone_instruction_call_and_response_2</t>
-  </si>
-  <si>
-    <t>long_tone_instruction_call_and_response_3</t>
-  </si>
-  <si>
-    <t>Sing Back The Note After Your Hear It</t>
-  </si>
-  <si>
-    <t>Sing back the note for 5 seconds after you hear it.</t>
-  </si>
-  <si>
-    <t>Please try and sing the exact same note and hold after you hear it.</t>
+    <t>Se il volume non è comodo, regolalo a un livello confortevole attraverso il normale metodo di modifica del volume sul tuo computer.</t>
+  </si>
+  <si>
+    <t>Per ottenere risultati ottimali, eseguire questo test con i browser Google Chrome o Opera. Altri browser possono comunque funzionare.</t>
+  </si>
+  <si>
+    <t>Ora prepariamo il tutto.</t>
+  </si>
+  <si>
+    <t>Grazie</t>
+  </si>
+  <si>
+    <t>Per favore, assicurati che le cuffie funzionino e regola il volume a un buon livello.</t>
+  </si>
+  <si>
+    <t>Per fare questo, utilizza il normale metodo di modifica del volume sul tuo computer.</t>
+  </si>
+  <si>
+    <t>Tipo di Microfono</t>
+  </si>
+  <si>
+    <t>Interno</t>
+  </si>
+  <si>
+    <t>Stai utilizzando un microfono interno (integrato) o esterno (collegato)?</t>
+  </si>
+  <si>
+    <t>Non sono sicuro/a</t>
+  </si>
+  <si>
+    <t>Il segnale vocale rispetto al rumore di fondo non è sufficiente per il test. Si prega di trovare uno spazio più silenzioso, di avvicinarsi al microfono o di regolare il volume e di misurare nuovamente il livello del segnale vocale. Se nessuna di queste opzioni è possibile, inviate un'e-mail a sebsilas@gmail.com scrivendo "segnale debole" nell'oggetto e sarete contattati entro 24 ore per risolvere il problema. È anche possibile chiudere il programma, tentare di regolare il volume del microfono e riaprire il programma.</t>
+  </si>
+  <si>
+    <t>La risposta non è stata compresa. Forse il microfono non è impostato correttamente.</t>
+  </si>
+  <si>
+    <t>Verifica del livello di rumore di fondo</t>
+  </si>
+  <si>
+    <t>Il livello di rumore di fondo è buono</t>
+  </si>
+  <si>
+    <t>Se appare un messaggio, fare clic su Consenti. Fare clic su Avvia test per verificare se il microfono funziona. Emetti un suono.</t>
+  </si>
+  <si>
+    <t>Se l'indicatore è rosso quando suoni lo strumento, non procedere. Abbassa il volume di ingresso del microfono o allontanati da esso.</t>
+  </si>
+  <si>
+    <t>Avvia il test</t>
+  </si>
+  <si>
+    <t>Quando sei pronto/a, clicca su "Registra" e per circa 5 secondi canticchia, rivolgendoti verso microfono  (per "canticchiare", unisci le labbra ed emetti un suono con la voce).</t>
+  </si>
+  <si>
+    <t>È possibile che l'estensione sia stata modificata in modo da risultare leggermente più alta o più bassa di quella effettivamente suonata.</t>
+  </si>
+  <si>
+    <t>Ora troveremo la tua estensione vocale indicativa. Ti verrà chiesto di cantare prima la nota più grave e confortevole per la tua voce, poi quella più acuta. Ad ogni tentativo, il computer analizzerà la nota cantata. Se ritieni che non sia stata registrata la nota giusta, puoi provare di nuovo.</t>
+  </si>
+  <si>
+    <t>Istruzioni</t>
+  </si>
+  <si>
+    <t>Fai clic qui sotto per ascoltare la melodia. Canta la melodia. Clicca su Stop al termine.</t>
+  </si>
+  <si>
+    <t>Ora sentirete alcune melodie. Per favore, prova a cantare le melodie.</t>
+  </si>
+  <si>
+    <t>Registrazione audio</t>
+  </si>
+  <si>
+    <t>Clicca su "registra" per registrare l'audio</t>
+  </si>
+  <si>
+    <t>If you were happy with your response, please click to "Continue", otherwise please click to "Try Again".'</t>
+  </si>
+  <si>
+    <t>Se sei soddisfatto della tua risposta, fai clic su "Continua", altrimenti fai clic su "Riprova".</t>
+  </si>
+  <si>
+    <t>Non rimangono più tentativi. Fai clic per ascoltare la prossima melodia.</t>
+  </si>
+  <si>
+    <t>tentativi ancora a disposizione, se vuoi.</t>
+  </si>
+  <si>
+    <t>È rimasto un solo tentativo</t>
+  </si>
+  <si>
+    <t>tentativi rimanenti.</t>
+  </si>
+  <si>
+    <t>Hai un tentativo ancora a disposizione, se vuoi.</t>
+  </si>
+  <si>
+    <t>tentativi a disposizione, se vuoi.</t>
+  </si>
+  <si>
+    <t>Fai clic qui sotto per ascoltare la melodia. Canta la melodia e il ritmo. Fai clic su Stop quando hai finito.</t>
+  </si>
+  <si>
+    <t>Canta la melodia e i ritmi.</t>
+  </si>
+  <si>
+    <t>Ora ascolterai alcune melodie ritmate. Prova a cantare le melodie con il loro ritmo.</t>
+  </si>
+  <si>
+    <t>Sezione Progressi</t>
+  </si>
+  <si>
+    <t>Clicca per proseguire col prossimo test.</t>
+  </si>
+  <si>
+    <t>Fornite un identificativo anonimo che conoscete solo voi, nel caso in cui qualcosa vada storto.</t>
+  </si>
+  <si>
+    <t>Emetti un suono (ad esempio, canticchia a bocca chiusa, batti le mani, canta). Se vedi attività (barra colorata in movimento) all'interno del metro quando emetti un suono, significa che il microfono funziona. Altrimenti, non sta funzionando.</t>
+  </si>
+  <si>
+    <t>Se il metro funziona, si dovrebbero vedere i colori muoversi. In caso contrario, provare a impostare nuovamente il microfono e riprendere il test.</t>
+  </si>
+  <si>
+    <t>Ora troveremo la vostra estensione vocale indicativa. Per prima cosa, vi verrà chiesto di cantare la vostra nota più grave e comoda.  Il computer analizzerà questa nota e ve la riproporrà. Vi verrà chiesto di decidere se questa nota corrisponde alla vostra nota più grave. A volte il computer può commettere un grosso errore. Quando ciò accade, si deve sapere che si ha l'opportunità di cantare di nuovo la propria nota e di dare al computer un'altra possibilità.</t>
+  </si>
+  <si>
+    <t>Ora troveremo l'estensione indicativa del vostro strumento. Vi verrà chiesto di suonare la vostra nota più grave e comoda, poi quella più acuta.</t>
   </si>
 </sst>
 </file>
@@ -1583,7 +1673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1629,6 +1719,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1943,16 +2034,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C128" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D152" sqref="D152"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="91" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57" customWidth="1"/>
-    <col min="2" max="3" width="155.5" customWidth="1"/>
+    <col min="1" max="1" width="39.6640625" customWidth="1"/>
+    <col min="2" max="2" width="155.5" customWidth="1"/>
+    <col min="3" max="3" width="179.5" customWidth="1"/>
     <col min="4" max="4" width="175.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1964,10 +2056,10 @@
         <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1978,10 +2070,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1995,7 +2087,7 @@
         <v>305</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2003,13 +2095,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2017,13 +2109,13 @@
         <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C5" t="s">
-        <v>300</v>
+        <v>457</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2037,21 +2129,21 @@
         <v>301</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>279</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>278</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>302</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2059,13 +2151,13 @@
         <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>303</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2079,21 +2171,21 @@
         <v>304</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>306</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2107,7 +2199,7 @@
         <v>307</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2115,13 +2207,13 @@
         <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>308</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2129,13 +2221,13 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>317</v>
+        <v>496</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2143,13 +2235,13 @@
         <v>52</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>309</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2157,13 +2249,13 @@
         <v>62</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>310</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2177,7 +2269,7 @@
         <v>311</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2185,13 +2277,13 @@
         <v>58</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>312</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2199,13 +2291,13 @@
         <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>313</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2219,7 +2311,7 @@
         <v>314</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2233,7 +2325,7 @@
         <v>315</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2247,7 +2339,7 @@
         <v>316</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2258,10 +2350,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -2272,13 +2364,13 @@
         <v>11</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="24" t="s">
         <v>14</v>
       </c>
@@ -2286,10 +2378,10 @@
         <v>15</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -2353,13 +2445,13 @@
         <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -2370,10 +2462,10 @@
         <v>26</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -2384,10 +2476,10 @@
         <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -2398,10 +2490,10 @@
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -2412,10 +2504,10 @@
         <v>32</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -2426,10 +2518,10 @@
         <v>34</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -2437,13 +2529,13 @@
         <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -2454,10 +2546,10 @@
         <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -2468,10 +2560,10 @@
         <v>37</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -2482,10 +2574,10 @@
         <v>39</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -2496,10 +2588,10 @@
         <v>41</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -2510,10 +2602,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D40" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -2527,7 +2619,7 @@
         <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -2538,10 +2630,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -2552,7 +2644,7 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D43" t="s">
         <v>45</v>
@@ -2563,13 +2655,13 @@
         <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C44" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D44" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -2580,10 +2672,10 @@
         <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D45" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -2594,10 +2686,10 @@
         <v>69</v>
       </c>
       <c r="C46" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D46" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -2608,10 +2700,10 @@
         <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D47" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -2622,10 +2714,10 @@
         <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -2633,13 +2725,13 @@
         <v>74</v>
       </c>
       <c r="B49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C49" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D49" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -2647,13 +2739,13 @@
         <v>77</v>
       </c>
       <c r="B50" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C50" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D50" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -2661,41 +2753,41 @@
         <v>78</v>
       </c>
       <c r="B51" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C51" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D51" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B52" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C52" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D52" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B53" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C53" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D53" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2706,10 +2798,10 @@
         <v>80</v>
       </c>
       <c r="C54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -2723,7 +2815,7 @@
         <v>81</v>
       </c>
       <c r="D55" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2734,10 +2826,10 @@
         <v>82</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D56" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2748,10 +2840,10 @@
         <v>98</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2762,10 +2854,10 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2776,10 +2868,10 @@
         <v>99</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2790,10 +2882,10 @@
         <v>96</v>
       </c>
       <c r="C60" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2804,38 +2896,38 @@
         <v>97</v>
       </c>
       <c r="C61" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B63" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C63" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2846,10 +2938,10 @@
         <v>90</v>
       </c>
       <c r="C64" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -2860,10 +2952,10 @@
         <v>92</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2874,10 +2966,10 @@
         <v>94</v>
       </c>
       <c r="C66" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2888,10 +2980,10 @@
         <v>95</v>
       </c>
       <c r="C67" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -2902,10 +2994,10 @@
         <v>101</v>
       </c>
       <c r="C68" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -2916,10 +3008,10 @@
         <v>104</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2930,10 +3022,10 @@
         <v>103</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -2944,10 +3036,10 @@
         <v>102</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2958,10 +3050,10 @@
         <v>110</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2972,10 +3064,10 @@
         <v>109</v>
       </c>
       <c r="C73" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D73" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2986,10 +3078,10 @@
         <v>112</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -3000,10 +3092,10 @@
         <v>114</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -3014,10 +3106,10 @@
         <v>116</v>
       </c>
       <c r="C76" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D76" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -3031,7 +3123,7 @@
         <v>316</v>
       </c>
       <c r="D77" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -3039,13 +3131,13 @@
         <v>118</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -3056,10 +3148,10 @@
         <v>119</v>
       </c>
       <c r="C79" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D79" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -3070,10 +3162,10 @@
         <v>121</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -3081,13 +3173,13 @@
         <v>123</v>
       </c>
       <c r="B81" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C81" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D81" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -3095,969 +3187,913 @@
         <v>124</v>
       </c>
       <c r="B82" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C82" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D82" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>461</v>
+        <v>125</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="C85" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="C86" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B87" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="B87" s="19" t="s">
-        <v>283</v>
-      </c>
       <c r="C87" s="19" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B88" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D88" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B89" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D89" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B90" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D90" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B91" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D91" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>383</v>
+        <v>498</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B96" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C96" t="s">
-        <v>382</v>
+        <v>499</v>
       </c>
       <c r="D96" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B97" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C97" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D97" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B98" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C98" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D98" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B99" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C99" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D99" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B100" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C100" t="s">
-        <v>388</v>
+        <v>475</v>
       </c>
       <c r="D100" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B101" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C101" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D101" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B102" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C102" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D102" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B103" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C103" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D103" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B104" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C104" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D104" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B105" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C105" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D105" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>186</v>
+      </c>
+      <c r="B106" t="s">
         <v>185</v>
       </c>
-      <c r="B106" t="s">
-        <v>184</v>
-      </c>
       <c r="C106" t="s">
-        <v>394</v>
+        <v>494</v>
       </c>
       <c r="D106" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B107" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C107" t="s">
-        <v>396</v>
+        <v>458</v>
       </c>
       <c r="D107" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B108" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C108" t="s">
-        <v>397</v>
+        <v>459</v>
       </c>
       <c r="D108" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B109" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C109" t="s">
-        <v>399</v>
+        <v>495</v>
       </c>
       <c r="D109" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B110" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C110" t="s">
-        <v>402</v>
+        <v>460</v>
       </c>
       <c r="D110" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B111" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C111" t="s">
-        <v>404</v>
+        <v>461</v>
       </c>
       <c r="D111" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B112" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C112" t="s">
-        <v>406</v>
+        <v>462</v>
       </c>
       <c r="D112" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B113" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C113" t="s">
-        <v>407</v>
+        <v>463</v>
       </c>
       <c r="D113" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B114" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C114" t="s">
-        <v>409</v>
+        <v>465</v>
       </c>
       <c r="D114" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B115" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C115" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="D115" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B116" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C116" t="s">
-        <v>412</v>
+        <v>329</v>
       </c>
       <c r="D116" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B117" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C117" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
       <c r="D117" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>415</v>
+        <v>411</v>
+      </c>
+      <c r="C118" t="s">
+        <v>467</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B119" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C119" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
       <c r="D119" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B120" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C120" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
       <c r="D120" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B121" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C121" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="D121" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="20" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="D122" s="20" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="20" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>423</v>
+        <v>497</v>
       </c>
       <c r="D123" s="20" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="20" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>427</v>
+        <v>472</v>
       </c>
       <c r="D124" s="20" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="20" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>428</v>
+        <v>473</v>
       </c>
       <c r="D125" s="20" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="20" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>430</v>
+        <v>474</v>
       </c>
       <c r="D126" s="20" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="20" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>432</v>
+        <v>476</v>
       </c>
       <c r="D127" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="20" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>434</v>
+        <v>477</v>
       </c>
       <c r="D128" s="20" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="20" t="s">
-        <v>435</v>
+        <v>93</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>436</v>
+        <v>126</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>436</v>
+        <v>371</v>
       </c>
       <c r="D129" s="20" t="s">
-        <v>436</v>
+        <v>126</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="20" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>437</v>
+        <v>493</v>
       </c>
       <c r="D130" s="20" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="20" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>103</v>
+        <v>434</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>103</v>
+        <v>358</v>
       </c>
       <c r="D131" s="20" t="s">
-        <v>103</v>
+        <v>434</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="20" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>441</v>
+        <v>103</v>
       </c>
       <c r="C132" s="20" t="s">
-        <v>441</v>
+        <v>478</v>
       </c>
       <c r="D132" s="20" t="s">
-        <v>441</v>
+        <v>103</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="20" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C133" s="20" t="s">
-        <v>443</v>
+        <v>479</v>
       </c>
       <c r="D133" s="20" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="20" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="D134" s="20" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="20" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>447</v>
+        <v>481</v>
       </c>
       <c r="D135" s="20" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="20" t="s">
-        <v>448</v>
-      </c>
-      <c r="B136" s="20" t="s">
-        <v>449</v>
+        <v>443</v>
+      </c>
+      <c r="B136" s="27" t="s">
+        <v>482</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>449</v>
-      </c>
-      <c r="D136" s="20" t="s">
-        <v>449</v>
+        <v>483</v>
+      </c>
+      <c r="D136" s="27" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="20" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>92</v>
+        <v>445</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>92</v>
+        <v>352</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>92</v>
+        <v>445</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="20" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>95</v>
+        <v>485</v>
       </c>
       <c r="D138" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="20" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>140</v>
+        <v>484</v>
       </c>
       <c r="D139" s="20" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="20" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>138</v>
+        <v>486</v>
       </c>
       <c r="D140" s="20" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="20" t="s">
-        <v>93</v>
+        <v>449</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>94</v>
+        <v>487</v>
       </c>
       <c r="D141" s="20" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="20" t="s">
-        <v>454</v>
+        <v>93</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>92</v>
+        <v>488</v>
       </c>
       <c r="D142" s="20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="20" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B143" s="20" t="s">
-        <v>455</v>
+        <v>92</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>455</v>
+        <v>489</v>
       </c>
       <c r="D143" s="20" t="s">
-        <v>455</v>
+        <v>92</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="20" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>457</v>
+        <v>490</v>
       </c>
       <c r="D144" s="20" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="20" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>460</v>
+        <v>491</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B150" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="C150" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="D150" s="21" t="s">
-        <v>283</v>
+      <c r="A146" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="B146" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="C146" s="20" t="s">
+        <v>492</v>
+      </c>
+      <c r="D146" s="20" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D135" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}"/>
+  <autoFilter ref="A1:D136" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65974C08-73EA-E847-8FDC-A6EE4C02008A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493E34C4-E416-3B41-A79E-97288BFDB82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20880" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
@@ -414,9 +414,6 @@
     <t>copy_melody_title</t>
   </si>
   <si>
-    <t>long_tone_heading</t>
-  </si>
-  <si>
     <t>Sing Along With This Note</t>
   </si>
   <si>
@@ -1537,13 +1534,16 @@
   </si>
   <si>
     <t>Ora troveremo l'estensione indicativa del vostro strumento. Vi verrà chiesto di suonare la vostra nota più grave e comoda, poi quella più acuta.</t>
+  </si>
+  <si>
+    <t>long_tone_title</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1606,6 +1606,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1673,7 +1679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1720,6 +1726,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2036,8 +2043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
   <dimension ref="A1:D146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="91" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="91" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2056,10 +2063,10 @@
         <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2070,10 +2077,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2084,10 +2091,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2095,13 +2102,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2109,13 +2116,13 @@
         <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2126,24 +2133,24 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2151,13 +2158,13 @@
         <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2168,24 +2175,24 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>282</v>
-      </c>
       <c r="C10" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2196,10 +2203,10 @@
         <v>57</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2207,13 +2214,13 @@
         <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2221,13 +2228,13 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2235,13 +2242,13 @@
         <v>52</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2249,13 +2256,13 @@
         <v>62</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>196</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2266,10 +2273,10 @@
         <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2277,13 +2284,13 @@
         <v>58</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2291,13 +2298,13 @@
         <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2308,10 +2315,10 @@
         <v>5</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2322,10 +2329,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2336,10 +2343,10 @@
         <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2350,10 +2357,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -2364,10 +2371,10 @@
         <v>11</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -2378,10 +2385,10 @@
         <v>15</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -2445,13 +2452,13 @@
         <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -2462,10 +2469,10 @@
         <v>26</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -2476,10 +2483,10 @@
         <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -2490,10 +2497,10 @@
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -2504,10 +2511,10 @@
         <v>32</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -2518,10 +2525,10 @@
         <v>34</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -2529,13 +2536,13 @@
         <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -2546,10 +2553,10 @@
         <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -2560,10 +2567,10 @@
         <v>37</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -2574,10 +2581,10 @@
         <v>39</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -2588,10 +2595,10 @@
         <v>41</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -2602,10 +2609,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -2619,7 +2626,7 @@
         <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -2630,10 +2637,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -2644,7 +2651,7 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D43" t="s">
         <v>45</v>
@@ -2655,13 +2662,13 @@
         <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C44" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -2672,10 +2679,10 @@
         <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -2686,10 +2693,10 @@
         <v>69</v>
       </c>
       <c r="C46" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -2700,10 +2707,10 @@
         <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -2714,10 +2721,10 @@
         <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -2725,13 +2732,13 @@
         <v>74</v>
       </c>
       <c r="B49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C49" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D49" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -2739,13 +2746,13 @@
         <v>77</v>
       </c>
       <c r="B50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C50" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -2753,41 +2760,41 @@
         <v>78</v>
       </c>
       <c r="B51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C51" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D51" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C52" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C53" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2798,10 +2805,10 @@
         <v>80</v>
       </c>
       <c r="C54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -2815,7 +2822,7 @@
         <v>81</v>
       </c>
       <c r="D55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2826,10 +2833,10 @@
         <v>82</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D56" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2840,10 +2847,10 @@
         <v>98</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2854,10 +2861,10 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2868,10 +2875,10 @@
         <v>99</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2882,10 +2889,10 @@
         <v>96</v>
       </c>
       <c r="C60" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2896,38 +2903,38 @@
         <v>97</v>
       </c>
       <c r="C61" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>137</v>
+      </c>
+      <c r="B62" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="B62" s="26" t="s">
-        <v>139</v>
-      </c>
       <c r="C62" s="26" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63" t="s">
         <v>140</v>
       </c>
-      <c r="B63" t="s">
-        <v>141</v>
-      </c>
       <c r="C63" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2938,10 +2945,10 @@
         <v>90</v>
       </c>
       <c r="C64" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -2952,10 +2959,10 @@
         <v>92</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2966,10 +2973,10 @@
         <v>94</v>
       </c>
       <c r="C66" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2980,10 +2987,10 @@
         <v>95</v>
       </c>
       <c r="C67" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -2994,10 +3001,10 @@
         <v>101</v>
       </c>
       <c r="C68" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -3008,10 +3015,10 @@
         <v>104</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -3022,10 +3029,10 @@
         <v>103</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -3036,10 +3043,10 @@
         <v>102</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -3050,10 +3057,10 @@
         <v>110</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -3064,10 +3071,10 @@
         <v>109</v>
       </c>
       <c r="C73" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D73" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -3078,10 +3085,10 @@
         <v>112</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -3092,10 +3099,10 @@
         <v>114</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -3106,10 +3113,10 @@
         <v>116</v>
       </c>
       <c r="C76" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D76" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -3120,10 +3127,10 @@
         <v>117</v>
       </c>
       <c r="C77" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -3131,13 +3138,13 @@
         <v>118</v>
       </c>
       <c r="B78" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D78" s="8" t="s">
         <v>293</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -3148,10 +3155,10 @@
         <v>119</v>
       </c>
       <c r="C79" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D79" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -3162,10 +3169,10 @@
         <v>121</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -3173,13 +3180,13 @@
         <v>123</v>
       </c>
       <c r="B81" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C81" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D81" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -3187,657 +3194,657 @@
         <v>124</v>
       </c>
       <c r="B82" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C82" t="s">
+        <v>369</v>
+      </c>
+      <c r="D82" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="28" t="s">
+        <v>499</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D83" s="2" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="C84" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B88" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D88" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B89" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D89" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>133</v>
+      </c>
+      <c r="B90" t="s">
         <v>134</v>
       </c>
-      <c r="B90" t="s">
-        <v>135</v>
-      </c>
       <c r="C90" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D90" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>135</v>
+      </c>
+      <c r="B91" t="s">
         <v>136</v>
       </c>
-      <c r="B91" t="s">
-        <v>137</v>
-      </c>
       <c r="C91" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D91" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B92" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="C92" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="D92" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B93" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B93" s="9" t="s">
-        <v>150</v>
-      </c>
       <c r="C93" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="C94" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>153</v>
+      </c>
+      <c r="B95" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B95" s="11" t="s">
-        <v>155</v>
-      </c>
       <c r="C95" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>155</v>
+      </c>
+      <c r="B96" t="s">
         <v>156</v>
       </c>
-      <c r="B96" t="s">
-        <v>157</v>
-      </c>
       <c r="C96" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D96" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>163</v>
+      </c>
+      <c r="B97" t="s">
         <v>164</v>
       </c>
-      <c r="B97" t="s">
-        <v>165</v>
-      </c>
       <c r="C97" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D97" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B98" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C98" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D98" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B99" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C99" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D99" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B100" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C100" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D100" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>169</v>
+      </c>
+      <c r="B101" t="s">
         <v>170</v>
       </c>
-      <c r="B101" t="s">
-        <v>171</v>
-      </c>
       <c r="C101" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D101" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>173</v>
+      </c>
+      <c r="B102" t="s">
         <v>174</v>
       </c>
-      <c r="B102" t="s">
-        <v>175</v>
-      </c>
       <c r="C102" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D102" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>175</v>
+      </c>
+      <c r="B103" t="s">
         <v>176</v>
       </c>
-      <c r="B103" t="s">
-        <v>177</v>
-      </c>
       <c r="C103" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D103" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>177</v>
+      </c>
+      <c r="B104" t="s">
         <v>178</v>
       </c>
-      <c r="B104" t="s">
-        <v>179</v>
-      </c>
       <c r="C104" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D104" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>182</v>
+      </c>
+      <c r="B105" t="s">
         <v>183</v>
       </c>
-      <c r="B105" t="s">
-        <v>184</v>
-      </c>
       <c r="C105" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D105" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B106" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C106" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D106" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>389</v>
+      </c>
+      <c r="B107" t="s">
         <v>390</v>
       </c>
-      <c r="B107" t="s">
-        <v>391</v>
-      </c>
       <c r="C107" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D107" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B108" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C108" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D108" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B109" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C109" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D109" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>395</v>
+      </c>
+      <c r="B110" t="s">
         <v>396</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
+        <v>459</v>
+      </c>
+      <c r="D110" t="s">
         <v>397</v>
-      </c>
-      <c r="C110" t="s">
-        <v>460</v>
-      </c>
-      <c r="D110" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>398</v>
+      </c>
+      <c r="B111" t="s">
         <v>399</v>
       </c>
-      <c r="B111" t="s">
-        <v>400</v>
-      </c>
       <c r="C111" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D111" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>400</v>
+      </c>
+      <c r="B112" t="s">
         <v>401</v>
       </c>
-      <c r="B112" t="s">
-        <v>402</v>
-      </c>
       <c r="C112" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D112" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B113" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C113" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D113" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B114" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C114" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D114" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B115" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C115" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D115" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B116" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C116" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D116" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B117" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C117" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D117" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>409</v>
+      </c>
+      <c r="B118" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="B118" s="11" t="s">
-        <v>411</v>
-      </c>
       <c r="C118" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B119" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C119" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D119" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>413</v>
+      </c>
+      <c r="B120" t="s">
         <v>414</v>
       </c>
-      <c r="B120" t="s">
-        <v>415</v>
-      </c>
       <c r="C120" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D120" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B121" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C121" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D121" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D122" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D123" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="B124" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="B124" s="20" t="s">
-        <v>424</v>
-      </c>
       <c r="C124" s="20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D124" s="20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D125" s="20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D126" s="20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D127" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D128" s="20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -3845,52 +3852,52 @@
         <v>93</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D129" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="B130" s="20" t="s">
         <v>432</v>
       </c>
-      <c r="B130" s="20" t="s">
-        <v>433</v>
-      </c>
       <c r="C130" s="20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D130" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D131" s="20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B132" s="20" t="s">
         <v>103</v>
       </c>
       <c r="C132" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D132" s="20" t="s">
         <v>103</v>
@@ -3898,83 +3905,83 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="B133" s="20" t="s">
         <v>437</v>
       </c>
-      <c r="B133" s="20" t="s">
-        <v>438</v>
-      </c>
       <c r="C133" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D133" s="20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="B134" s="20" t="s">
         <v>439</v>
       </c>
-      <c r="B134" s="20" t="s">
-        <v>440</v>
-      </c>
       <c r="C134" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D134" s="20" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D135" s="20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="20" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B136" s="27" t="s">
+        <v>481</v>
+      </c>
+      <c r="C136" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="C136" s="20" t="s">
-        <v>483</v>
-      </c>
       <c r="D136" s="27" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="B137" s="20" t="s">
         <v>444</v>
       </c>
-      <c r="B137" s="20" t="s">
-        <v>445</v>
-      </c>
       <c r="C137" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B138" s="20" t="s">
         <v>92</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D138" s="20" t="s">
         <v>92</v>
@@ -3982,13 +3989,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B139" s="20" t="s">
         <v>95</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D139" s="20" t="s">
         <v>95</v>
@@ -3996,30 +4003,30 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D140" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D141" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -4030,7 +4037,7 @@
         <v>94</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D142" s="20" t="s">
         <v>94</v>
@@ -4038,13 +4045,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B143" s="20" t="s">
         <v>92</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D143" s="20" t="s">
         <v>92</v>
@@ -4052,44 +4059,44 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D144" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="20" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="B146" s="20" t="s">
         <v>455</v>
       </c>
-      <c r="B146" s="20" t="s">
-        <v>456</v>
-      </c>
       <c r="C146" s="20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D146" s="20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493E34C4-E416-3B41-A79E-97288BFDB82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083A3424-30CC-A341-B6FB-C9A60DB112D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20880" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="860" yWindow="4420" windowWidth="35840" windowHeight="20860" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="510">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -375,1168 +375,1198 @@
     <t>ready_for_test</t>
   </si>
   <si>
+    <t>end_setup_message</t>
+  </si>
+  <si>
+    <t>If you have any questions, please ask the researcher before proceeding.</t>
+  </si>
+  <si>
+    <t>Try_Again</t>
+  </si>
+  <si>
+    <t>Try Again</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>happy_with_response_message</t>
+  </si>
+  <si>
+    <t>Browser Requirements</t>
+  </si>
+  <si>
+    <t>Browser_Requirements</t>
+  </si>
+  <si>
+    <t>When you see this image, your input will be recorded, so please try and complete the instructions when this appears.</t>
+  </si>
+  <si>
+    <t>record_instructions</t>
+  </si>
+  <si>
+    <t>Range_Test</t>
+  </si>
+  <si>
+    <t>copy_melody_title</t>
+  </si>
+  <si>
+    <t>Sing Along With This Note</t>
+  </si>
+  <si>
+    <t>Microphone</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>We need to record 5 seconds of the background sound level of the room while you are quiet.</t>
+  </si>
+  <si>
+    <t>When you are ready to record the background sound level, press the button below.</t>
+  </si>
+  <si>
+    <t>When you are ready, click on “Record” and for about 5 seconds please hum, directed toward your microphone for 5 seconds.  (to “hum”, put your lips together and make a sound with your voice.)</t>
+  </si>
+  <si>
+    <t>The test will not work in Safari or Internet Explorer and potentially other browsers.</t>
+  </si>
+  <si>
+    <t>other_please_state</t>
+  </si>
+  <si>
+    <t>Other (please state)</t>
+  </si>
+  <si>
+    <t>instrument_selection_message</t>
+  </si>
+  <si>
+    <t>Please select which instrument you will use.</t>
+  </si>
+  <si>
+    <t>attempts_remaining_several.2.forced</t>
+  </si>
+  <si>
+    <t>attempts remaining.</t>
+  </si>
+  <si>
+    <t>attempts_remaining_1.forced</t>
+  </si>
+  <si>
+    <t>You have one attempt remaining.</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Nein</t>
+  </si>
+  <si>
+    <t>oder</t>
+  </si>
+  <si>
+    <t>Bitte wählen Sie, welches Instrument Sie benuzten werden.</t>
+  </si>
+  <si>
+    <t>select_midi_device_title</t>
+  </si>
+  <si>
+    <t>Select MIDI device</t>
+  </si>
+  <si>
+    <t>MIDI-Gerät auswählen.</t>
+  </si>
+  <si>
+    <t>select_midi_device_message</t>
+  </si>
+  <si>
+    <t>Your device should have been plugged in before you reached this page. It may take a moment to appear.</t>
+  </si>
+  <si>
+    <t>no_midi_device_found</t>
+  </si>
+  <si>
+    <t>No MIDI device found.</t>
+  </si>
+  <si>
+    <t>Kein MIDI-Gerät gefunden.</t>
+  </si>
+  <si>
+    <t>range_explanation_voice</t>
+  </si>
+  <si>
+    <t>We will now find your approximate voice range. You will be asked first to sing your lowest comfortable note.  The computer will then analyse this note and it will be played back to you. You will be asked to decide if this is a good match to your lowest note. Sometimes the computer can make a large error. You should know when that happens, and you will have an opportunity to sing your  note again, and give the computer another chance.</t>
+  </si>
+  <si>
+    <t>range_explanation_instrument</t>
+  </si>
+  <si>
+    <t>We will now find your approximate instrument range. You will be asked to play your lowest comfortable note, then highest comfortable note.</t>
+  </si>
+  <si>
+    <t>get_range_low_note_voice</t>
+  </si>
+  <si>
+    <t>get_range_high_note_voice</t>
+  </si>
+  <si>
+    <t>Please play the lowest comfortable note on your instrument. Press Stop when you are finished.</t>
+  </si>
+  <si>
+    <t>Please play the highest comfortable  note on your instrument. Press Stop when you are finished.</t>
+  </si>
+  <si>
+    <t>Please sing your lowest comfortable note. Press Stop when you are finished.</t>
+  </si>
+  <si>
+    <t>Please sing your highest comfortable note. Press Stop when you are finished.</t>
+  </si>
+  <si>
+    <t>audio_error_suggestion</t>
+  </si>
+  <si>
+    <t>Perhaps you are too quiet, or you have a noisy computer fan.</t>
+  </si>
+  <si>
+    <t>hear_range</t>
+  </si>
+  <si>
+    <t>range_adjust_message</t>
+  </si>
+  <si>
+    <t>You can click below to hear your range.</t>
+  </si>
+  <si>
+    <t>Please note, we may have changed the range to be slightly higher or lower than you actually sang.</t>
+  </si>
+  <si>
+    <t>sing_hbd</t>
+  </si>
+  <si>
+    <t>Please sing Happy Birthday.</t>
+  </si>
+  <si>
+    <t>Please note, we may have changed the range to be slightly higher or lower than you actually played.</t>
+  </si>
+  <si>
+    <t>range_adjust_message_voice</t>
+  </si>
+  <si>
+    <t>first_note_is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The first note is: </t>
+  </si>
+  <si>
+    <t>play_first_note</t>
+  </si>
+  <si>
+    <t>Play First Note</t>
+  </si>
+  <si>
+    <t>transposed</t>
+  </si>
+  <si>
+    <t>Please note, this is transposed for your instrument.</t>
+  </si>
+  <si>
+    <t>I can see activity on the meter.</t>
+  </si>
+  <si>
+    <t>long_tone_text</t>
+  </si>
+  <si>
+    <t>Sing along with the tone for 5 seconds.</t>
+  </si>
+  <si>
+    <t>you_have_completed_the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have completed the </t>
+  </si>
+  <si>
+    <t>Click to proceed to the next test.</t>
+  </si>
+  <si>
+    <t>proceed_next_test</t>
+  </si>
+  <si>
+    <t>Ich kann die Musik hören, bitte fortfahren.</t>
+  </si>
+  <si>
+    <t>Kopfhörertest</t>
+  </si>
+  <si>
+    <t>Sie sollten jetzt Audio spielen hören.</t>
+  </si>
+  <si>
+    <t>Bitte passen Sie die Kopfhörerlautstärke auf ein komfortables Level an.</t>
+  </si>
+  <si>
+    <t>Die Lautstärke ist angenehm.</t>
+  </si>
+  <si>
+    <t>The volume is comfortable.</t>
+  </si>
+  <si>
+    <t>Mikrofontest</t>
+  </si>
+  <si>
+    <t>Klicken Sie auf den "Start test" Knopf. Wenn die Nachricht "Zulassen" erscheint, klicken Sie "Zulassen".</t>
+  </si>
+  <si>
+    <t>Click on the "Start test" button. If you see a popup message that says "Allow", click "Allow".</t>
+  </si>
+  <si>
+    <t>Signal Volume Test</t>
+  </si>
+  <si>
+    <t>Signalvolumentest</t>
+  </si>
+  <si>
+    <t>Auf der nächsten Seite testen wie ob ihr Hintergrund zu laut war oder nicht. Wenn Ihr Hintergrund zu laut ist, können Sie den Test leider nicht durchführen. Es kann einige Sekunden dauern, die Seite zu laden.</t>
+  </si>
+  <si>
+    <t>Bitte versuchen Sie keine Geräusche zu machen!</t>
+  </si>
+  <si>
+    <t>Ich Bin Bereit Meine Hintergrundgeräusche Aufzunehmen</t>
+  </si>
+  <si>
+    <t>Weiter</t>
+  </si>
+  <si>
+    <t>Setup Bereit</t>
+  </si>
+  <si>
+    <t>Leider funktioniert der Test nicht mit Safari oder Internet Explorer und eventuell auch andere Browser.</t>
+  </si>
+  <si>
+    <t>Browser testen</t>
+  </si>
+  <si>
+    <t>Einen ruhigen Raum</t>
+  </si>
+  <si>
+    <t>Ein paar Kopfhörer</t>
+  </si>
+  <si>
+    <t>Ein Mikrofon*</t>
+  </si>
+  <si>
+    <t>Angesteckt</t>
+  </si>
+  <si>
+    <t>Eingebaut</t>
+  </si>
+  <si>
+    <t>. Es muss höher als 14 sein um fortzufahren.</t>
+  </si>
+  <si>
+    <t>) ist ausreichend um den Test durchzuführen.</t>
+  </si>
+  <si>
+    <t>Sorry, your browser does not have the requirements to complete the test. Please download the latest version of Google Chrome to complete the experiment.</t>
+  </si>
+  <si>
+    <t>Es wurde noch kein MIDI-gerät ausgewählt.</t>
+  </si>
+  <si>
+    <t>Aufnehmen</t>
+  </si>
+  <si>
+    <t>Spielen</t>
+  </si>
+  <si>
+    <t>War das der richtige Ton?</t>
+  </si>
+  <si>
+    <t>Versuche übrig.</t>
+  </si>
+  <si>
+    <t>Abschluss</t>
+  </si>
+  <si>
+    <t>Wenn es Ihnen nicht möglich ist, die Kopfhörerlautstärke auf ein komfortables Level anzupassen, fahren Sie bitte nicht fort.</t>
+  </si>
+  <si>
+    <t>Bitte stellen Sie sicher, dass Ihr Mikrofon angeschlossen ist (insofern Sie ein externes Mikrofon benutzten).</t>
+  </si>
+  <si>
+    <t>Machen Sie ein Geräusch (z.B. summen, klatschen, singen). Wenn Sie während Sie das Geräusch machen innerhalb des Geräuschpegelfensters Bewegung sehen (farbige Linien die sich bewegen), dann funktioniert das Mikrofon. Andernfalls funktioniert es nicht.</t>
+  </si>
+  <si>
+    <t>Ich kann innerhalb des Geräuschpegelfensters Bewegung sehen.</t>
+  </si>
+  <si>
+    <t>Wir müssen jetzt für 5 Sekunden den Hintergrundgeräuschpegel in ihrem Raum aufnehmen während Sie sich still verhalten.</t>
+  </si>
+  <si>
+    <t>Wenn Sie bereit sind Ihre Hintergrundgeräusche für 5 Sekunden aufzunehmen, drücken Sie den Knopf unten.</t>
+  </si>
+  <si>
+    <t>Okay, jetzt ist alles eingestellt. Klicken Sie hier um zu den Hauptaufgaben fortzufahren.</t>
+  </si>
+  <si>
+    <t>Um diesen Test durchzuführen, brauchen Sie einen modernen Internetbrowser. Bitte nutzen Sie nicht Ihr Smartphone. Wir empfehlen die folgenden Browserversionen (oder neuere):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie brauchen Folgendes: </t>
+  </si>
+  <si>
+    <t>*Das in den Computer eingebaute Mikrofon ist ausreichend, aber wenn möglich, dann benutzen Sie bitte ein extern-angestecktes Mikrofon in kurzer Distanz zu Ihrer Soundquelle.</t>
+  </si>
+  <si>
+    <t>Stehen Ihnen die oben genannten Vorraussetzungen zur Verfügung?</t>
+  </si>
+  <si>
+    <t>Benutzen Sie ein angestecktes oder ein eingebautes Mikrofon?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenn Sie bereit sind, klicken Sie auf "Aufnehmen" und summen Sie für ca. 5 Sekunden direkt in Ihr Mikrofon. (Um zu summen, schliessen Sie entspannt Ihre Lippen und erzeugen Sie einen fortwährenden Ton mit Ihrer Stimme.) </t>
+  </si>
+  <si>
+    <t>Ihr Signal-zu-Geräusch-Verhältnis ist</t>
+  </si>
+  <si>
+    <t>Ihr Pegel von Hintergrundgeräuschen (Signal-zu-Geräusch-Verhältnis =</t>
+  </si>
+  <si>
+    <t>Entschuldigung, Ihr Browser bietet nicht die nötigen Vorraussetzungen um den Test durchzuführen. Bitte laden Sie die neuste Version von Google Chrome herunter um das Experiment durchzuführen.</t>
+  </si>
+  <si>
+    <t>Bitte spielen Sie den tiefsten angenehm zu spielenden Ton auf Ihrem Instrument. Klicken Sie "Stop" wenn Sie fertig sind.</t>
+  </si>
+  <si>
+    <t>Bitte spielen Sie den höchsten angenehm zu spielenden Ton auf Ihrem Instrument. Klicken Sie "Stop" wenn Sie fertig sind.</t>
+  </si>
+  <si>
+    <t>Bitte singen Sie Ihren tiefsten angenehm zu singenden Ton. Klicken Sie "Stop" wenn Sie fertig sind.</t>
+  </si>
+  <si>
+    <t>Bitte singen Sie Ihren höchsten angenehm zu singenden Ton. Klicken Sie "Stop" wenn Sie fertig sind.</t>
+  </si>
+  <si>
+    <t>Sie haben noch nichts eingegeben!</t>
+  </si>
+  <si>
+    <t>Dies ist Ihr Tonumfang:</t>
+  </si>
+  <si>
+    <t>Bitte spielen Sie den tiefsten Ton auf Ihrem MIDI-keyboard.</t>
+  </si>
+  <si>
+    <t>Bitte spielen Sie den höchsten Ton auf Ihrem MIDI-keyboard.</t>
+  </si>
+  <si>
+    <t>Sie haben noch einen Versuch übrig.</t>
+  </si>
+  <si>
+    <t>Sie haben</t>
+  </si>
+  <si>
+    <t>Versuche übrig, wenn Sie möchten.</t>
+  </si>
+  <si>
+    <t>Sie haben noch einen Versuch übrig, wenn Sie möchten.</t>
+  </si>
+  <si>
+    <t>Sie haben keine Versuche mehr übrig. Klicken Sie hier um die nächste Melodie zu hören.</t>
+  </si>
+  <si>
+    <t>Jetzt können Sie ein paar Übungsversuche ausprobieren.</t>
+  </si>
+  <si>
+    <t>Singen Sie die Melodie</t>
+  </si>
+  <si>
+    <t>Klicken Sie unten um die Melodie zu hören. Singen Sie die Melodie nach. Klicken Sie "Stop" wenn Sie fertig sind.</t>
+  </si>
+  <si>
+    <t>Super, gut gemacht! Jetzt sollten Sie für den richtigen Test bereit sein.</t>
+  </si>
+  <si>
+    <t>Wenn Sie noch Fragen haben, wenden Sie sich bitte an den Forscher bevor Sie weitermachen.</t>
+  </si>
+  <si>
+    <t>Weitermachen</t>
+  </si>
+  <si>
+    <t>Browservorraussetzungen</t>
+  </si>
+  <si>
+    <t>Wenn Sie dieses Bild sehen wird Ihre Eingabe aufgenommen, versuchen Sie dann also bitte den Angaben genau zu folgen.</t>
+  </si>
+  <si>
+    <t>Stimmumfangtest</t>
+  </si>
+  <si>
+    <t>Singen Sie die Melodie nach, die Sie hören.</t>
+  </si>
+  <si>
+    <t>Singen Sie mit diesem Ton mit.</t>
+  </si>
+  <si>
+    <t>Singen Sie 5 Sekunden lang mit dem Tom mit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mikrofon </t>
+  </si>
+  <si>
+    <t>Ihr Gerät sollte bereits angeschlossen gewesen sein bevor Sie diese Seite erreicht haben. Es kann einen Moment dauern bis es erscheint.</t>
+  </si>
+  <si>
+    <t>Wir werden jetzt Ihren ungefähren Stimmumfang feststellen. Als erstes werden Sie gebeten, den tiefsten Ton zu singen der Ihnen angenehm ist. Der Computer wird diesen Ton dann analysieren und Ihnen wiederspielen. Sie sollen dann entscheiden, ob dieser eine gute Reflektion Ihres tiefsten Tones ist. Manchmal kann der Computer stark abweichen. Sie werden es deutlich merken können wenn dies passiert und Sie werden die Möglichkeit haben Ihren Ton nochmals einzusingen um dem Computer eine weitere Chance zu geben.</t>
+  </si>
+  <si>
+    <t>Wir werden jetzt den ungefähren Tonumfang Ihres Instrumentes feststellen. Sie werde gleich gebeten werden den tiefsten und höchsten Ton zu spielen, den Sie komfortabel erreichen können.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vielleicht sind Sie zu leise oder Sie Ihr Computerventilator ist zu laut. </t>
+  </si>
+  <si>
+    <t>Sie können unten klicken um Ihren Tonumfang zu hören.</t>
+  </si>
+  <si>
+    <t>Bitte beachten Sie, dass wir Ihren Stimmumfang möglicherweise etwas höher oder tiefer veranschlagt haben, als Sie ihn eigentlich gesungen haben.</t>
+  </si>
+  <si>
+    <t>Bitte beachten Sie, dass wir Ihren Tonumfang möglicherweise etwas höher oder tiefer veranschlagt haben, als Sie ihn eigentlich gespielt haben.</t>
+  </si>
+  <si>
+    <t>Bitte singen Sie Happy Birthday.</t>
+  </si>
+  <si>
+    <t>Der erste Ton ist:</t>
+  </si>
+  <si>
+    <t>Spielen Sie den ersten Ton</t>
+  </si>
+  <si>
+    <t>Bitte beachten Sie, dies ist für Ihr Instrument transponiert.</t>
+  </si>
+  <si>
+    <t>Klicken Sie hier um mit dem nächsten Test fortzufahren.</t>
+  </si>
+  <si>
+    <t>abgeschlossen. Toll gemacht!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danke! Sie haben den </t>
+  </si>
+  <si>
+    <t>Andere (bitte angeben)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie beendeten den </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You should hear some audio playing. You can start and stop this audio by clicking on the triangle </t>
+  </si>
+  <si>
+    <t>If the volume is not comfortable, please adjust it to a comfortable level using your normal way of changing loudness on your computer.</t>
+  </si>
+  <si>
+    <t>Please click below if the volume is comfortable.</t>
+  </si>
+  <si>
+    <t>headphone_test4</t>
+  </si>
+  <si>
+    <t>meter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please see the meter below: </t>
+  </si>
+  <si>
+    <t>Make a sound (e.g., hum, clap, sing).  If you see activity  (moving coloured bar) inside the meter when you make a sound, then the microphone is working. Otherwise, it is not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the note seems out of your voice range, sing a note that is in your range that best matches the note, for example, in a different octave. </t>
+  </si>
+  <si>
+    <t>long_tone_instruction_3</t>
+  </si>
+  <si>
+    <t>Bitte versuchen Sie, genau den selben Ton zu singen und halten Sie ihn.</t>
+  </si>
+  <si>
+    <t>Please try and sing the exact same note and hold.</t>
+  </si>
+  <si>
+    <t>long_tone_instruction_2</t>
+  </si>
+  <si>
+    <t>Wenn Sie den "Abspielen"-knopf in der nächsten Gruppe von Aufgaben drücken, werden Sie einen 5-sekündigen Ton hören.</t>
+  </si>
+  <si>
+    <t>When you click the Play button in the next set of trials, you will hear a 5-second note.</t>
+  </si>
+  <si>
+    <t>long_tone_instruction</t>
+  </si>
+  <si>
+    <t>Range Test</t>
+  </si>
+  <si>
+    <t>If you were happy with your response, please click to "Continue", otherwise please click to "Try Again".</t>
+  </si>
+  <si>
+    <t>Wenn Sie mit Ihren Antworten zufrieden waren, klicken Sie auf "Weiter", andernfalls klicken Sie "Nochmal Versuchen".</t>
+  </si>
+  <si>
+    <t>Nochmal Versuchen</t>
+  </si>
+  <si>
+    <t>Copy The Melody You Hear</t>
+  </si>
+  <si>
+    <t>*NB: A microphone built into your computer is fine, but please use a plugged-in microphone, positioned close to your sound source, if you can.</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>Sento la canzone, andiamo avanti.</t>
+  </si>
+  <si>
+    <t>Dovresti sentire dell'audio in riproduzione. Puoi iniziare e stoppare l'audio cliccando sul triangolo.</t>
+  </si>
+  <si>
+    <t>Se non riesci a riprodurre l'audio a un livello confortevole, non continuare.</t>
+  </si>
+  <si>
+    <t>Se il volume ti è comodo, clicca in basso.</t>
+  </si>
+  <si>
+    <t>Il volume è comodo.</t>
+  </si>
+  <si>
+    <t>Prova Microfono</t>
+  </si>
+  <si>
+    <t>Prova Cuffie</t>
+  </si>
+  <si>
+    <t>Per favore, guarda il metro in basso:</t>
+  </si>
+  <si>
+    <t>Assicurati che il microfono sia collegato (se utilizzi un microfono esterno).</t>
+  </si>
+  <si>
+    <t>Fare clic sul pulsante "Avvia test". Se vedi un messaggio popup che dice "Consenti", fai clic su "Consenti".</t>
+  </si>
+  <si>
+    <t>Vedo l'attività sul metro.</t>
+  </si>
+  <si>
+    <t>Prova del volume del segnale</t>
+  </si>
+  <si>
+    <t>Nella pagina successiva, controlleremo se la tua stanza è troppo rumorosa o meno. Se è troppo rumoroso, non sarai in grado di completare il test. Il caricamento potrebbe richiedere alcuni secondi.</t>
+  </si>
+  <si>
+    <t>Abbiamo bisogno di registrare 5 secondi del livello sonoro di sottofondo della stanza mentre sei in silenzio.</t>
+  </si>
+  <si>
+    <t>Quando sei pronto per registrare il livello del suono di sottofondo, premi il pulsante in basso.</t>
+  </si>
+  <si>
+    <t>Per favore, cerca di non fare rumore!</t>
+  </si>
+  <si>
+    <t>Sono pronto per registrare il livello sonoro del mio ambiente.</t>
+  </si>
+  <si>
+    <t>Continua</t>
+  </si>
+  <si>
+    <t>Installazione completata</t>
+  </si>
+  <si>
+    <t>Ok, ora è tutto pronto! Fare clic per procedere alle attività principali.</t>
+  </si>
+  <si>
+    <t>Per completare questo test, avrai bisogno di un browser Internet attualizzato. Si prega di non utilizzare uno smartphone. Si consigliano le seguenti versioni di browser (o successive):</t>
+  </si>
+  <si>
+    <t>Il test non funzionerà in Safari o Internet Explorer e potenzialmente in altri browser.</t>
+  </si>
+  <si>
+    <t>Verifica il browser</t>
+  </si>
+  <si>
+    <t>Avrai bisogno delle seguenti cose:</t>
+  </si>
+  <si>
+    <t>Uno spazio silenzioso</t>
+  </si>
+  <si>
+    <t>Un paio di cuffie</t>
+  </si>
+  <si>
+    <t>Un microfono</t>
+  </si>
+  <si>
+    <t>Possiedi le cose sopra elencate?</t>
+  </si>
+  <si>
+    <t>Integrato</t>
+  </si>
+  <si>
+    <t>*NB: un microfono integrato nel tuo computer va bene, ma se puoi meglio usare un microfono esterno, posizionato vicino alla tua sorgente sonora.</t>
+  </si>
+  <si>
+    <t>Esterno</t>
+  </si>
+  <si>
+    <t>Stai usando un microfono esterno o un microfono integrato?</t>
+  </si>
+  <si>
+    <t>Sì</t>
+  </si>
+  <si>
+    <t>Oppure</t>
+  </si>
+  <si>
+    <t>Tastiera MIDI</t>
+  </si>
+  <si>
+    <t>Quando sei pronto, fai clic su "Registra" e canticchia, diretto verso il tuo microfono, per circa 5 secondi (per "canticchiare", unisci le labbra e emetti un suono con la tua voce.)</t>
+  </si>
+  <si>
+    <t>Il tuo rapporto segnale-rumore è</t>
+  </si>
+  <si>
+    <t>Deve essere superiore a 14 per continuare.</t>
+  </si>
+  <si>
+    <t>Il tuo livello di rumore di fondo (rapporto segnale-rumore =</t>
+  </si>
+  <si>
+    <t>) è adeguato per eseguire il test.</t>
+  </si>
+  <si>
+    <t>Spiacenti, il tuo browser non ha i requisiti per completare il test. Scarica l'ultima versione di Google Chrome per completare l'esperimento.</t>
+  </si>
+  <si>
+    <t>Per favore, suona la nota comoda più acuta sul tuo strumento. Premi Stop quando hai finito.</t>
+  </si>
+  <si>
+    <t>Per favore, suona la nota comoda più grave sul tuo strumento. Premi Stop quando hai finito.</t>
+  </si>
+  <si>
+    <t>Nessun dispositivo MIDI è stato selezionato.</t>
+  </si>
+  <si>
+    <t>Registra</t>
+  </si>
+  <si>
+    <t>Per favore, canta la tua nota grave più comoda. Premi Stop quando hai finito.</t>
+  </si>
+  <si>
+    <t>Per favore, canta la tua nota acuta più comoda. Premi Stop quando hai finito.</t>
+  </si>
+  <si>
+    <t>Non hai inserito niente!</t>
+  </si>
+  <si>
+    <t>Qual è la nota corretta?</t>
+  </si>
+  <si>
+    <t>Questa è la tua estensione:</t>
+  </si>
+  <si>
+    <t>Suonare la nota più bassa della tastiera MIDI.</t>
+  </si>
+  <si>
+    <t>Suonare la nota più alta della tastiera MIDI.</t>
+  </si>
+  <si>
+    <t>Tentativi rimanenti:</t>
+  </si>
+  <si>
+    <t>Hai</t>
+  </si>
+  <si>
+    <t>Hai un tentativo rimanente.</t>
+  </si>
+  <si>
+    <t>tentativi rimanenti, se lo desideri.</t>
+  </si>
+  <si>
+    <t>Non ci sono più tentativi. Fare clic per ascoltare la prossima melodia.</t>
+  </si>
+  <si>
+    <t>Hai un  tentativo rimanente, se lo desideri.</t>
+  </si>
+  <si>
+    <t>Adesso farai qualche prova pratica.</t>
+  </si>
+  <si>
+    <t>Canta la Melodia</t>
+  </si>
+  <si>
+    <t>Fai clic qui sotto per ascoltare la melodia. Canta la melodia. Fai clic su Stop al termine.</t>
+  </si>
+  <si>
+    <t>Completamento</t>
+  </si>
+  <si>
+    <t>Grazie! Hai completato il</t>
+  </si>
+  <si>
+    <t>Ottimo, ben fatto! Ora dovresti essere pronto/a per il vero test.</t>
+  </si>
+  <si>
+    <t>Se hai domande, chiedete al ricercatore prima di procedere.</t>
+  </si>
+  <si>
+    <t>Prova di nuovo</t>
+  </si>
+  <si>
+    <t>Se la risposta è stata soddisfacente, fare clic su "Continua", altrimenti fare clic su "Riprova".</t>
+  </si>
+  <si>
+    <t>Requisiti del Browser</t>
+  </si>
+  <si>
+    <t>Quando viene visualizzata questa immagine, il tuo input viene registrato, quindi cerca di completare le istruzioni quando appare questa immagine.</t>
+  </si>
+  <si>
+    <t>Test di intervallo</t>
+  </si>
+  <si>
+    <t>Riproduci la melodia che senti</t>
+  </si>
+  <si>
+    <t>Canta insieme a questa nota</t>
+  </si>
+  <si>
+    <t>Canta insieme al tono per 5 secondi.</t>
+  </si>
+  <si>
+    <t>Quando fai clic sul pulsante Play nella serie successiva di prove, ascolterai una nota di 5 secondi.</t>
+  </si>
+  <si>
+    <t>Per favore, prova a cantare la stessa identica nota e tieni premuto.</t>
+  </si>
+  <si>
+    <t>Microfono</t>
+  </si>
+  <si>
+    <t>Altro (per favore indica)</t>
+  </si>
+  <si>
+    <t>Per favore, seleziona quale strumento userai</t>
+  </si>
+  <si>
+    <t>Seleziona dispositivo MIDI</t>
+  </si>
+  <si>
+    <t>Il dispositivo dovrebbe essere stato collegato prima di raggiungere questa pagina. La sua visualizzazione potrebbe richiedere qualche istante.</t>
+  </si>
+  <si>
+    <t>Nessun dispositivo MIDI trovato.</t>
+  </si>
+  <si>
+    <t>Se la nota ti sembra fuori dalla tua estensione vocale, canta il suono che corrisponde meglio alla nota nella tua estensione, ad esempio, in un'ottava diversa.</t>
+  </si>
+  <si>
+    <t>Forse sei troppo silenzioso/a o avete una ventola del computer rumorosa.</t>
+  </si>
+  <si>
+    <t>Puoi cliccare qui sotto per ascoltare la tua estensione.</t>
+  </si>
+  <si>
+    <t>È possibile che l'estensione sia stata modificata in modo da risultare leggermente più alta o più bassa di quella effettivamente cantata.</t>
+  </si>
+  <si>
+    <t>Per favore, canta Buon Compleanno</t>
+  </si>
+  <si>
+    <t>La prima nota è:</t>
+  </si>
+  <si>
+    <t>Riproduci la prima nota</t>
+  </si>
+  <si>
+    <t>Si prega di notare che si tratta di una trasposizione per il vostro strumento.</t>
+  </si>
+  <si>
+    <t>Hai completato il</t>
+  </si>
+  <si>
+    <t>browser_recommendation</t>
+  </si>
+  <si>
+    <t>For best results, run this test in Google Chrome or Opera browsers. Other browsers may still work.</t>
+  </si>
+  <si>
+    <t>Now let's set things up.</t>
+  </si>
+  <si>
+    <t>setup_intro</t>
+  </si>
+  <si>
+    <t>Please provide an anonymous identifier that only you will know, in case something goes wrong.</t>
+  </si>
+  <si>
+    <t>anon_id</t>
+  </si>
+  <si>
+    <t>Thank_you</t>
+  </si>
+  <si>
+    <t>Thank you</t>
+  </si>
+  <si>
+    <t>Danke</t>
+  </si>
+  <si>
+    <t>concise_headphone_wording</t>
+  </si>
+  <si>
+    <t>Please make sure your headphones are working and adjust the volume to a good level.</t>
+  </si>
+  <si>
+    <t>normal_loudness</t>
+  </si>
+  <si>
+    <t>Use your normal way of changing loudness on your computer to do this</t>
+  </si>
+  <si>
+    <t>Microphone Type</t>
+  </si>
+  <si>
+    <t>Microphone_Type</t>
+  </si>
+  <si>
+    <t>Are you using an internal (in-built) or external (plugged-in) microphone?</t>
+  </si>
+  <si>
+    <t>plugged_vs_external_mic</t>
+  </si>
+  <si>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>External</t>
+  </si>
+  <si>
+    <t>Not_sure</t>
+  </si>
+  <si>
+    <t>SNR_failure</t>
+  </si>
+  <si>
+    <t>Your vocal signal compared to the background noise is not sufficient for testing. Please find a quieter space, get closer to the mic, or adjust the volume and we will measure the vocal signal sound level again. If neither of these is possible for you, please email sebsilas@gmail.com with 'weak signal' in the subject space, and you will be contacted within 24 hours to troubleshoot this problem. You may also end the program and attempt to adjust your microphone volume and start the program again.</t>
+  </si>
+  <si>
+    <t>Not sure</t>
+  </si>
+  <si>
+    <t>Your response was not understood. Perhaps your microphone is not setup correctly.</t>
+  </si>
+  <si>
+    <t>check_of_bg_noise</t>
+  </si>
+  <si>
+    <t>Check of background noise level</t>
+  </si>
+  <si>
+    <t>Your background noise level is good</t>
+  </si>
+  <si>
+    <t>bg_noise_level_good</t>
+  </si>
+  <si>
+    <t>response_not_understood</t>
+  </si>
+  <si>
+    <t>If a message pops up, click Allow. Click Start Test to see if your microphone is working. Make some sound.</t>
+  </si>
+  <si>
+    <t>You should see colours moving on the meter if it is working. If not, try and setup your mic again and rejoin the test.</t>
+  </si>
+  <si>
+    <t>microphone_calibration_concise_message_1</t>
+  </si>
+  <si>
+    <t>microphone_calibration_concise_message_2</t>
+  </si>
+  <si>
+    <t>microphone_calibration_concise_message_3</t>
+  </si>
+  <si>
+    <t>If the meter is red when you play your instrument. Do not proceed. Turn down your microphone input volume or get further away from it.</t>
+  </si>
+  <si>
+    <t>Start test</t>
+  </si>
+  <si>
+    <t>Start_test</t>
+  </si>
+  <si>
+    <t>When you are ready, click on “Record” and for about 5 seconds please hum, directed toward your microphone for 5 seconds.  (to “hum”, put your lips together and make a sound with your voice.</t>
+  </si>
+  <si>
+    <t>record_signal_message</t>
+  </si>
+  <si>
+    <t>We will now find your approximate voice range. You will first be asked  to sing the lowest comfortable note for your voice, then the highest. Each time you try, the computer will analyse the note you sang. If you don't think it recorded the right note, you can try again.</t>
+  </si>
+  <si>
+    <t>range_explanation_voice_concise</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>Section_Progress</t>
+  </si>
+  <si>
+    <t>Section Progress</t>
+  </si>
+  <si>
+    <t>Sing the Melody</t>
+  </si>
+  <si>
+    <t>Sing_the_Melody</t>
+  </si>
+  <si>
+    <t>sing_melody_page_text</t>
+  </si>
+  <si>
+    <t>sing_melody_instruction_text</t>
+  </si>
+  <si>
+    <t>Now you will hear some melodies. Please try and sing the melodies.</t>
+  </si>
+  <si>
+    <t>Record_audio</t>
+  </si>
+  <si>
+    <t>Record audio</t>
+  </si>
+  <si>
+    <t>Click record to record some audio</t>
+  </si>
+  <si>
+    <t>click_to_record_audio</t>
+  </si>
+  <si>
+    <t>were_you_happy</t>
+  </si>
+  <si>
+    <t>You_have</t>
+  </si>
+  <si>
+    <t>You have</t>
+  </si>
+  <si>
+    <t>attempts_remaining_if_like</t>
+  </si>
+  <si>
+    <t>no_more_attempts_next</t>
+  </si>
+  <si>
+    <t>attempts_remaining_1_max_goes_forced</t>
+  </si>
+  <si>
+    <t>attempts_remaining_several.2_max_goes_forced</t>
+  </si>
+  <si>
+    <t>attempts_remaining_several</t>
+  </si>
+  <si>
+    <t>Click below to hear the melody. Sing back the melody plus rhythm. Click Stop when finished.</t>
+  </si>
+  <si>
+    <t>sing_rhythmic_melodies_page_text</t>
+  </si>
+  <si>
+    <t>Sing the melody and the rhythms</t>
+  </si>
+  <si>
+    <t>sing_rhythmic_melodies_page_title</t>
+  </si>
+  <si>
+    <t>sing_rhythmic_melodies_instruction_text</t>
+  </si>
+  <si>
+    <t>Now you will hear some melodies with rhythms. Please try and sing the melodies with their rhythms.</t>
+  </si>
+  <si>
+    <t>Se il volume non è comodo, regolalo a un livello confortevole attraverso il normale metodo di modifica del volume sul tuo computer.</t>
+  </si>
+  <si>
+    <t>Per ottenere risultati ottimali, eseguire questo test con i browser Google Chrome o Opera. Altri browser possono comunque funzionare.</t>
+  </si>
+  <si>
+    <t>Ora prepariamo il tutto.</t>
+  </si>
+  <si>
+    <t>Grazie</t>
+  </si>
+  <si>
+    <t>Per favore, assicurati che le cuffie funzionino e regola il volume a un buon livello.</t>
+  </si>
+  <si>
+    <t>Per fare questo, utilizza il normale metodo di modifica del volume sul tuo computer.</t>
+  </si>
+  <si>
+    <t>Tipo di Microfono</t>
+  </si>
+  <si>
+    <t>Interno</t>
+  </si>
+  <si>
+    <t>Stai utilizzando un microfono interno (integrato) o esterno (collegato)?</t>
+  </si>
+  <si>
+    <t>Non sono sicuro/a</t>
+  </si>
+  <si>
+    <t>Il segnale vocale rispetto al rumore di fondo non è sufficiente per il test. Si prega di trovare uno spazio più silenzioso, di avvicinarsi al microfono o di regolare il volume e di misurare nuovamente il livello del segnale vocale. Se nessuna di queste opzioni è possibile, inviate un'e-mail a sebsilas@gmail.com scrivendo "segnale debole" nell'oggetto e sarete contattati entro 24 ore per risolvere il problema. È anche possibile chiudere il programma, tentare di regolare il volume del microfono e riaprire il programma.</t>
+  </si>
+  <si>
+    <t>La risposta non è stata compresa. Forse il microfono non è impostato correttamente.</t>
+  </si>
+  <si>
+    <t>Verifica del livello di rumore di fondo</t>
+  </si>
+  <si>
+    <t>Il livello di rumore di fondo è buono</t>
+  </si>
+  <si>
+    <t>Se appare un messaggio, fare clic su Consenti. Fare clic su Avvia test per verificare se il microfono funziona. Emetti un suono.</t>
+  </si>
+  <si>
+    <t>Se l'indicatore è rosso quando suoni lo strumento, non procedere. Abbassa il volume di ingresso del microfono o allontanati da esso.</t>
+  </si>
+  <si>
+    <t>Avvia il test</t>
+  </si>
+  <si>
+    <t>Quando sei pronto/a, clicca su "Registra" e per circa 5 secondi canticchia, rivolgendoti verso microfono  (per "canticchiare", unisci le labbra ed emetti un suono con la voce).</t>
+  </si>
+  <si>
+    <t>È possibile che l'estensione sia stata modificata in modo da risultare leggermente più alta o più bassa di quella effettivamente suonata.</t>
+  </si>
+  <si>
+    <t>Ora troveremo la tua estensione vocale indicativa. Ti verrà chiesto di cantare prima la nota più grave e confortevole per la tua voce, poi quella più acuta. Ad ogni tentativo, il computer analizzerà la nota cantata. Se ritieni che non sia stata registrata la nota giusta, puoi provare di nuovo.</t>
+  </si>
+  <si>
+    <t>Istruzioni</t>
+  </si>
+  <si>
+    <t>Fai clic qui sotto per ascoltare la melodia. Canta la melodia. Clicca su Stop al termine.</t>
+  </si>
+  <si>
+    <t>Ora sentirete alcune melodie. Per favore, prova a cantare le melodie.</t>
+  </si>
+  <si>
+    <t>Registrazione audio</t>
+  </si>
+  <si>
+    <t>Clicca su "registra" per registrare l'audio</t>
+  </si>
+  <si>
+    <t>If you were happy with your response, please click to "Continue", otherwise please click to "Try Again".'</t>
+  </si>
+  <si>
+    <t>Se sei soddisfatto della tua risposta, fai clic su "Continua", altrimenti fai clic su "Riprova".</t>
+  </si>
+  <si>
+    <t>Non rimangono più tentativi. Fai clic per ascoltare la prossima melodia.</t>
+  </si>
+  <si>
+    <t>tentativi ancora a disposizione, se vuoi.</t>
+  </si>
+  <si>
+    <t>È rimasto un solo tentativo</t>
+  </si>
+  <si>
+    <t>tentativi rimanenti.</t>
+  </si>
+  <si>
+    <t>Hai un tentativo ancora a disposizione, se vuoi.</t>
+  </si>
+  <si>
+    <t>tentativi a disposizione, se vuoi.</t>
+  </si>
+  <si>
+    <t>Fai clic qui sotto per ascoltare la melodia. Canta la melodia e il ritmo. Fai clic su Stop quando hai finito.</t>
+  </si>
+  <si>
+    <t>Canta la melodia e i ritmi.</t>
+  </si>
+  <si>
+    <t>Ora ascolterai alcune melodie ritmate. Prova a cantare le melodie con il loro ritmo.</t>
+  </si>
+  <si>
+    <t>Sezione Progressi</t>
+  </si>
+  <si>
+    <t>Clicca per proseguire col prossimo test.</t>
+  </si>
+  <si>
+    <t>Fornite un identificativo anonimo che conoscete solo voi, nel caso in cui qualcosa vada storto.</t>
+  </si>
+  <si>
+    <t>Emetti un suono (ad esempio, canticchia a bocca chiusa, batti le mani, canta). Se vedi attività (barra colorata in movimento) all'interno del metro quando emetti un suono, significa che il microfono funziona. Altrimenti, non sta funzionando.</t>
+  </si>
+  <si>
+    <t>Se il metro funziona, si dovrebbero vedere i colori muoversi. In caso contrario, provare a impostare nuovamente il microfono e riprendere il test.</t>
+  </si>
+  <si>
+    <t>Ora troveremo la vostra estensione vocale indicativa. Per prima cosa, vi verrà chiesto di cantare la vostra nota più grave e comoda.  Il computer analizzerà questa nota e ve la riproporrà. Vi verrà chiesto di decidere se questa nota corrisponde alla vostra nota più grave. A volte il computer può commettere un grosso errore. Quando ciò accade, si deve sapere che si ha l'opportunità di cantare di nuovo la propria nota e di dare al computer un'altra possibilità.</t>
+  </si>
+  <si>
+    <t>Ora troveremo l'estensione indicativa del vostro strumento. Vi verrà chiesto di suonare la vostra nota più grave e comoda, poi quella più acuta.</t>
+  </si>
+  <si>
+    <t>long_tone_title</t>
+  </si>
+  <si>
+    <t>First_try</t>
+  </si>
+  <si>
+    <t>First try</t>
+  </si>
+  <si>
+    <t>example_trials</t>
+  </si>
+  <si>
+    <t>examples trials</t>
+  </si>
+  <si>
+    <t>ready_for_real_thing</t>
+  </si>
+  <si>
+    <t>Now you're ready for the real thing!</t>
+  </si>
+  <si>
+    <t>. Ben fatto!</t>
+  </si>
+  <si>
     <t>Great, well done! Now you should be ready for the real test.</t>
   </si>
   <si>
-    <t>end_setup_message</t>
-  </si>
-  <si>
-    <t>If you have any questions, please ask the researcher before proceeding.</t>
-  </si>
-  <si>
-    <t>Try_Again</t>
-  </si>
-  <si>
-    <t>Try Again</t>
-  </si>
-  <si>
-    <t>Continue</t>
-  </si>
-  <si>
-    <t>happy_with_response_message</t>
-  </si>
-  <si>
-    <t>Browser Requirements</t>
-  </si>
-  <si>
-    <t>Browser_Requirements</t>
-  </si>
-  <si>
-    <t>When you see this image, your input will be recorded, so please try and complete the instructions when this appears.</t>
-  </si>
-  <si>
-    <t>record_instructions</t>
-  </si>
-  <si>
-    <t>Range_Test</t>
-  </si>
-  <si>
-    <t>copy_melody_title</t>
-  </si>
-  <si>
-    <t>Sing Along With This Note</t>
-  </si>
-  <si>
-    <t>Microphone</t>
-  </si>
-  <si>
-    <t>de</t>
-  </si>
-  <si>
-    <t>Stop</t>
-  </si>
-  <si>
-    <t>We need to record 5 seconds of the background sound level of the room while you are quiet.</t>
-  </si>
-  <si>
-    <t>When you are ready to record the background sound level, press the button below.</t>
-  </si>
-  <si>
-    <t>When you are ready, click on “Record” and for about 5 seconds please hum, directed toward your microphone for 5 seconds.  (to “hum”, put your lips together and make a sound with your voice.)</t>
-  </si>
-  <si>
-    <t>The test will not work in Safari or Internet Explorer and potentially other browsers.</t>
-  </si>
-  <si>
-    <t>other_please_state</t>
-  </si>
-  <si>
-    <t>Other (please state)</t>
-  </si>
-  <si>
-    <t>instrument_selection_message</t>
-  </si>
-  <si>
-    <t>Please select which instrument you will use.</t>
-  </si>
-  <si>
-    <t>attempts_remaining_several.2.forced</t>
-  </si>
-  <si>
-    <t>attempts remaining.</t>
-  </si>
-  <si>
-    <t>attempts_remaining_1.forced</t>
-  </si>
-  <si>
-    <t>You have one attempt remaining.</t>
-  </si>
-  <si>
-    <t>Ja</t>
-  </si>
-  <si>
-    <t>Nein</t>
-  </si>
-  <si>
-    <t>oder</t>
-  </si>
-  <si>
-    <t>Bitte wählen Sie, welches Instrument Sie benuzten werden.</t>
-  </si>
-  <si>
-    <t>select_midi_device_title</t>
-  </si>
-  <si>
-    <t>Select MIDI device</t>
-  </si>
-  <si>
-    <t>MIDI-Gerät auswählen.</t>
-  </si>
-  <si>
-    <t>select_midi_device_message</t>
-  </si>
-  <si>
-    <t>Your device should have been plugged in before you reached this page. It may take a moment to appear.</t>
-  </si>
-  <si>
-    <t>no_midi_device_found</t>
-  </si>
-  <si>
-    <t>No MIDI device found.</t>
-  </si>
-  <si>
-    <t>Kein MIDI-Gerät gefunden.</t>
-  </si>
-  <si>
-    <t>range_explanation_voice</t>
-  </si>
-  <si>
-    <t>We will now find your approximate voice range. You will be asked first to sing your lowest comfortable note.  The computer will then analyse this note and it will be played back to you. You will be asked to decide if this is a good match to your lowest note. Sometimes the computer can make a large error. You should know when that happens, and you will have an opportunity to sing your  note again, and give the computer another chance.</t>
-  </si>
-  <si>
-    <t>range_explanation_instrument</t>
-  </si>
-  <si>
-    <t>We will now find your approximate instrument range. You will be asked to play your lowest comfortable note, then highest comfortable note.</t>
-  </si>
-  <si>
-    <t>get_range_low_note_voice</t>
-  </si>
-  <si>
-    <t>get_range_high_note_voice</t>
-  </si>
-  <si>
-    <t>Please play the lowest comfortable note on your instrument. Press Stop when you are finished.</t>
-  </si>
-  <si>
-    <t>Please play the highest comfortable  note on your instrument. Press Stop when you are finished.</t>
-  </si>
-  <si>
-    <t>Please sing your lowest comfortable note. Press Stop when you are finished.</t>
-  </si>
-  <si>
-    <t>Please sing your highest comfortable note. Press Stop when you are finished.</t>
-  </si>
-  <si>
-    <t>audio_error_suggestion</t>
-  </si>
-  <si>
-    <t>Perhaps you are too quiet, or you have a noisy computer fan.</t>
-  </si>
-  <si>
-    <t>hear_range</t>
-  </si>
-  <si>
-    <t>range_adjust_message</t>
-  </si>
-  <si>
-    <t>You can click below to hear your range.</t>
-  </si>
-  <si>
-    <t>Please note, we may have changed the range to be slightly higher or lower than you actually sang.</t>
-  </si>
-  <si>
-    <t>sing_hbd</t>
-  </si>
-  <si>
-    <t>Please sing Happy Birthday.</t>
-  </si>
-  <si>
-    <t>Please note, we may have changed the range to be slightly higher or lower than you actually played.</t>
-  </si>
-  <si>
-    <t>range_adjust_message_voice</t>
-  </si>
-  <si>
-    <t>first_note_is</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The first note is: </t>
-  </si>
-  <si>
-    <t>play_first_note</t>
-  </si>
-  <si>
-    <t>Play First Note</t>
-  </si>
-  <si>
-    <t>transposed</t>
-  </si>
-  <si>
-    <t>Please note, this is transposed for your instrument.</t>
-  </si>
-  <si>
-    <t>I can see activity on the meter.</t>
-  </si>
-  <si>
-    <t>long_tone_text</t>
-  </si>
-  <si>
-    <t>Sing along with the tone for 5 seconds.</t>
-  </si>
-  <si>
-    <t>you_have_completed_the</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have completed the </t>
-  </si>
-  <si>
-    <t>Click to proceed to the next test.</t>
-  </si>
-  <si>
-    <t>proceed_next_test</t>
-  </si>
-  <si>
-    <t>Ich kann die Musik hören, bitte fortfahren.</t>
-  </si>
-  <si>
-    <t>Kopfhörertest</t>
-  </si>
-  <si>
-    <t>Sie sollten jetzt Audio spielen hören.</t>
-  </si>
-  <si>
-    <t>Bitte passen Sie die Kopfhörerlautstärke auf ein komfortables Level an.</t>
-  </si>
-  <si>
-    <t>Die Lautstärke ist angenehm.</t>
-  </si>
-  <si>
-    <t>The volume is comfortable.</t>
-  </si>
-  <si>
-    <t>Mikrofontest</t>
-  </si>
-  <si>
-    <t>Klicken Sie auf den "Start test" Knopf. Wenn die Nachricht "Zulassen" erscheint, klicken Sie "Zulassen".</t>
-  </si>
-  <si>
-    <t>Click on the "Start test" button. If you see a popup message that says "Allow", click "Allow".</t>
-  </si>
-  <si>
-    <t>Signal Volume Test</t>
-  </si>
-  <si>
-    <t>Signalvolumentest</t>
-  </si>
-  <si>
-    <t>Auf der nächsten Seite testen wie ob ihr Hintergrund zu laut war oder nicht. Wenn Ihr Hintergrund zu laut ist, können Sie den Test leider nicht durchführen. Es kann einige Sekunden dauern, die Seite zu laden.</t>
-  </si>
-  <si>
-    <t>Bitte versuchen Sie keine Geräusche zu machen!</t>
-  </si>
-  <si>
-    <t>Ich Bin Bereit Meine Hintergrundgeräusche Aufzunehmen</t>
-  </si>
-  <si>
-    <t>Weiter</t>
-  </si>
-  <si>
-    <t>Setup Bereit</t>
-  </si>
-  <si>
-    <t>Leider funktioniert der Test nicht mit Safari oder Internet Explorer und eventuell auch andere Browser.</t>
-  </si>
-  <si>
-    <t>Browser testen</t>
-  </si>
-  <si>
-    <t>Einen ruhigen Raum</t>
-  </si>
-  <si>
-    <t>Ein paar Kopfhörer</t>
-  </si>
-  <si>
-    <t>Ein Mikrofon*</t>
-  </si>
-  <si>
-    <t>Angesteckt</t>
-  </si>
-  <si>
-    <t>Eingebaut</t>
-  </si>
-  <si>
-    <t>. Es muss höher als 14 sein um fortzufahren.</t>
-  </si>
-  <si>
-    <t>) ist ausreichend um den Test durchzuführen.</t>
-  </si>
-  <si>
-    <t>Sorry, your browser does not have the requirements to complete the test. Please download the latest version of Google Chrome to complete the experiment.</t>
-  </si>
-  <si>
-    <t>Es wurde noch kein MIDI-gerät ausgewählt.</t>
-  </si>
-  <si>
-    <t>Aufnehmen</t>
-  </si>
-  <si>
-    <t>Spielen</t>
-  </si>
-  <si>
-    <t>War das der richtige Ton?</t>
-  </si>
-  <si>
-    <t>Versuche übrig.</t>
-  </si>
-  <si>
-    <t>Abschluss</t>
-  </si>
-  <si>
-    <t>Wenn es Ihnen nicht möglich ist, die Kopfhörerlautstärke auf ein komfortables Level anzupassen, fahren Sie bitte nicht fort.</t>
-  </si>
-  <si>
-    <t>Bitte stellen Sie sicher, dass Ihr Mikrofon angeschlossen ist (insofern Sie ein externes Mikrofon benutzten).</t>
-  </si>
-  <si>
-    <t>Machen Sie ein Geräusch (z.B. summen, klatschen, singen). Wenn Sie während Sie das Geräusch machen innerhalb des Geräuschpegelfensters Bewegung sehen (farbige Linien die sich bewegen), dann funktioniert das Mikrofon. Andernfalls funktioniert es nicht.</t>
-  </si>
-  <si>
-    <t>Ich kann innerhalb des Geräuschpegelfensters Bewegung sehen.</t>
-  </si>
-  <si>
-    <t>Wir müssen jetzt für 5 Sekunden den Hintergrundgeräuschpegel in ihrem Raum aufnehmen während Sie sich still verhalten.</t>
-  </si>
-  <si>
-    <t>Wenn Sie bereit sind Ihre Hintergrundgeräusche für 5 Sekunden aufzunehmen, drücken Sie den Knopf unten.</t>
-  </si>
-  <si>
-    <t>Okay, jetzt ist alles eingestellt. Klicken Sie hier um zu den Hauptaufgaben fortzufahren.</t>
-  </si>
-  <si>
-    <t>Um diesen Test durchzuführen, brauchen Sie einen modernen Internetbrowser. Bitte nutzen Sie nicht Ihr Smartphone. Wir empfehlen die folgenden Browserversionen (oder neuere):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sie brauchen Folgendes: </t>
-  </si>
-  <si>
-    <t>*Das in den Computer eingebaute Mikrofon ist ausreichend, aber wenn möglich, dann benutzen Sie bitte ein extern-angestecktes Mikrofon in kurzer Distanz zu Ihrer Soundquelle.</t>
-  </si>
-  <si>
-    <t>Stehen Ihnen die oben genannten Vorraussetzungen zur Verfügung?</t>
-  </si>
-  <si>
-    <t>Benutzen Sie ein angestecktes oder ein eingebautes Mikrofon?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenn Sie bereit sind, klicken Sie auf "Aufnehmen" und summen Sie für ca. 5 Sekunden direkt in Ihr Mikrofon. (Um zu summen, schliessen Sie entspannt Ihre Lippen und erzeugen Sie einen fortwährenden Ton mit Ihrer Stimme.) </t>
-  </si>
-  <si>
-    <t>Ihr Signal-zu-Geräusch-Verhältnis ist</t>
-  </si>
-  <si>
-    <t>Ihr Pegel von Hintergrundgeräuschen (Signal-zu-Geräusch-Verhältnis =</t>
-  </si>
-  <si>
-    <t>Entschuldigung, Ihr Browser bietet nicht die nötigen Vorraussetzungen um den Test durchzuführen. Bitte laden Sie die neuste Version von Google Chrome herunter um das Experiment durchzuführen.</t>
-  </si>
-  <si>
-    <t>Bitte spielen Sie den tiefsten angenehm zu spielenden Ton auf Ihrem Instrument. Klicken Sie "Stop" wenn Sie fertig sind.</t>
-  </si>
-  <si>
-    <t>Bitte spielen Sie den höchsten angenehm zu spielenden Ton auf Ihrem Instrument. Klicken Sie "Stop" wenn Sie fertig sind.</t>
-  </si>
-  <si>
-    <t>Bitte singen Sie Ihren tiefsten angenehm zu singenden Ton. Klicken Sie "Stop" wenn Sie fertig sind.</t>
-  </si>
-  <si>
-    <t>Bitte singen Sie Ihren höchsten angenehm zu singenden Ton. Klicken Sie "Stop" wenn Sie fertig sind.</t>
-  </si>
-  <si>
-    <t>Sie haben noch nichts eingegeben!</t>
-  </si>
-  <si>
-    <t>Dies ist Ihr Tonumfang:</t>
-  </si>
-  <si>
-    <t>Bitte spielen Sie den tiefsten Ton auf Ihrem MIDI-keyboard.</t>
-  </si>
-  <si>
-    <t>Bitte spielen Sie den höchsten Ton auf Ihrem MIDI-keyboard.</t>
-  </si>
-  <si>
-    <t>Sie haben noch einen Versuch übrig.</t>
-  </si>
-  <si>
-    <t>Sie haben</t>
-  </si>
-  <si>
-    <t>Versuche übrig, wenn Sie möchten.</t>
-  </si>
-  <si>
-    <t>Sie haben noch einen Versuch übrig, wenn Sie möchten.</t>
-  </si>
-  <si>
-    <t>Sie haben keine Versuche mehr übrig. Klicken Sie hier um die nächste Melodie zu hören.</t>
-  </si>
-  <si>
-    <t>Jetzt können Sie ein paar Übungsversuche ausprobieren.</t>
-  </si>
-  <si>
-    <t>Singen Sie die Melodie</t>
-  </si>
-  <si>
-    <t>Klicken Sie unten um die Melodie zu hören. Singen Sie die Melodie nach. Klicken Sie "Stop" wenn Sie fertig sind.</t>
-  </si>
-  <si>
-    <t>Super, gut gemacht! Jetzt sollten Sie für den richtigen Test bereit sein.</t>
-  </si>
-  <si>
-    <t>Wenn Sie noch Fragen haben, wenden Sie sich bitte an den Forscher bevor Sie weitermachen.</t>
-  </si>
-  <si>
-    <t>Weitermachen</t>
-  </si>
-  <si>
-    <t>Browservorraussetzungen</t>
-  </si>
-  <si>
-    <t>Wenn Sie dieses Bild sehen wird Ihre Eingabe aufgenommen, versuchen Sie dann also bitte den Angaben genau zu folgen.</t>
-  </si>
-  <si>
-    <t>Stimmumfangtest</t>
-  </si>
-  <si>
-    <t>Singen Sie die Melodie nach, die Sie hören.</t>
-  </si>
-  <si>
-    <t>Singen Sie mit diesem Ton mit.</t>
-  </si>
-  <si>
-    <t>Singen Sie 5 Sekunden lang mit dem Tom mit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mikrofon </t>
-  </si>
-  <si>
-    <t>Ihr Gerät sollte bereits angeschlossen gewesen sein bevor Sie diese Seite erreicht haben. Es kann einen Moment dauern bis es erscheint.</t>
-  </si>
-  <si>
-    <t>Wir werden jetzt Ihren ungefähren Stimmumfang feststellen. Als erstes werden Sie gebeten, den tiefsten Ton zu singen der Ihnen angenehm ist. Der Computer wird diesen Ton dann analysieren und Ihnen wiederspielen. Sie sollen dann entscheiden, ob dieser eine gute Reflektion Ihres tiefsten Tones ist. Manchmal kann der Computer stark abweichen. Sie werden es deutlich merken können wenn dies passiert und Sie werden die Möglichkeit haben Ihren Ton nochmals einzusingen um dem Computer eine weitere Chance zu geben.</t>
-  </si>
-  <si>
-    <t>Wir werden jetzt den ungefähren Tonumfang Ihres Instrumentes feststellen. Sie werde gleich gebeten werden den tiefsten und höchsten Ton zu spielen, den Sie komfortabel erreichen können.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vielleicht sind Sie zu leise oder Sie Ihr Computerventilator ist zu laut. </t>
-  </si>
-  <si>
-    <t>Sie können unten klicken um Ihren Tonumfang zu hören.</t>
-  </si>
-  <si>
-    <t>Bitte beachten Sie, dass wir Ihren Stimmumfang möglicherweise etwas höher oder tiefer veranschlagt haben, als Sie ihn eigentlich gesungen haben.</t>
-  </si>
-  <si>
-    <t>Bitte beachten Sie, dass wir Ihren Tonumfang möglicherweise etwas höher oder tiefer veranschlagt haben, als Sie ihn eigentlich gespielt haben.</t>
-  </si>
-  <si>
-    <t>Bitte singen Sie Happy Birthday.</t>
-  </si>
-  <si>
-    <t>Der erste Ton ist:</t>
-  </si>
-  <si>
-    <t>Spielen Sie den ersten Ton</t>
-  </si>
-  <si>
-    <t>Bitte beachten Sie, dies ist für Ihr Instrument transponiert.</t>
-  </si>
-  <si>
-    <t>Klicken Sie hier um mit dem nächsten Test fortzufahren.</t>
-  </si>
-  <si>
-    <t>abgeschlossen. Toll gemacht!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Danke! Sie haben den </t>
-  </si>
-  <si>
-    <t>Andere (bitte angeben)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sie beendeten den </t>
-  </si>
-  <si>
-    <t xml:space="preserve">You should hear some audio playing. You can start and stop this audio by clicking on the triangle </t>
-  </si>
-  <si>
-    <t>If the volume is not comfortable, please adjust it to a comfortable level using your normal way of changing loudness on your computer.</t>
-  </si>
-  <si>
-    <t>Please click below if the volume is comfortable.</t>
-  </si>
-  <si>
-    <t>headphone_test4</t>
-  </si>
-  <si>
-    <t>meter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please see the meter below: </t>
-  </si>
-  <si>
-    <t>Make a sound (e.g., hum, clap, sing).  If you see activity  (moving coloured bar) inside the meter when you make a sound, then the microphone is working. Otherwise, it is not.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the note seems out of your voice range, sing a note that is in your range that best matches the note, for example, in a different octave. </t>
-  </si>
-  <si>
-    <t>long_tone_instruction_3</t>
-  </si>
-  <si>
-    <t>Bitte versuchen Sie, genau den selben Ton zu singen und halten Sie ihn.</t>
-  </si>
-  <si>
-    <t>Please try and sing the exact same note and hold.</t>
-  </si>
-  <si>
-    <t>long_tone_instruction_2</t>
-  </si>
-  <si>
-    <t>Wenn Sie den "Abspielen"-knopf in der nächsten Gruppe von Aufgaben drücken, werden Sie einen 5-sekündigen Ton hören.</t>
-  </si>
-  <si>
-    <t>When you click the Play button in the next set of trials, you will hear a 5-second note.</t>
-  </si>
-  <si>
-    <t>long_tone_instruction</t>
-  </si>
-  <si>
-    <t>Range Test</t>
-  </si>
-  <si>
-    <t>If you were happy with your response, please click to "Continue", otherwise please click to "Try Again".</t>
-  </si>
-  <si>
-    <t>Wenn Sie mit Ihren Antworten zufrieden waren, klicken Sie auf "Weiter", andernfalls klicken Sie "Nochmal Versuchen".</t>
-  </si>
-  <si>
-    <t>Nochmal Versuchen</t>
-  </si>
-  <si>
-    <t>Copy The Melody You Hear</t>
-  </si>
-  <si>
-    <t>*NB: A microphone built into your computer is fine, but please use a plugged-in microphone, positioned close to your sound source, if you can.</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>Sento la canzone, andiamo avanti.</t>
-  </si>
-  <si>
-    <t>Dovresti sentire dell'audio in riproduzione. Puoi iniziare e stoppare l'audio cliccando sul triangolo.</t>
-  </si>
-  <si>
-    <t>Se non riesci a riprodurre l'audio a un livello confortevole, non continuare.</t>
-  </si>
-  <si>
-    <t>Se il volume ti è comodo, clicca in basso.</t>
-  </si>
-  <si>
-    <t>Il volume è comodo.</t>
-  </si>
-  <si>
-    <t>Prova Microfono</t>
-  </si>
-  <si>
-    <t>Prova Cuffie</t>
-  </si>
-  <si>
-    <t>Per favore, guarda il metro in basso:</t>
-  </si>
-  <si>
-    <t>Assicurati che il microfono sia collegato (se utilizzi un microfono esterno).</t>
-  </si>
-  <si>
-    <t>Fare clic sul pulsante "Avvia test". Se vedi un messaggio popup che dice "Consenti", fai clic su "Consenti".</t>
-  </si>
-  <si>
-    <t>Vedo l'attività sul metro.</t>
-  </si>
-  <si>
-    <t>Prova del volume del segnale</t>
-  </si>
-  <si>
-    <t>Nella pagina successiva, controlleremo se la tua stanza è troppo rumorosa o meno. Se è troppo rumoroso, non sarai in grado di completare il test. Il caricamento potrebbe richiedere alcuni secondi.</t>
-  </si>
-  <si>
-    <t>Abbiamo bisogno di registrare 5 secondi del livello sonoro di sottofondo della stanza mentre sei in silenzio.</t>
-  </si>
-  <si>
-    <t>Quando sei pronto per registrare il livello del suono di sottofondo, premi il pulsante in basso.</t>
-  </si>
-  <si>
-    <t>Per favore, cerca di non fare rumore!</t>
-  </si>
-  <si>
-    <t>Sono pronto per registrare il livello sonoro del mio ambiente.</t>
-  </si>
-  <si>
-    <t>Continua</t>
-  </si>
-  <si>
-    <t>Installazione completata</t>
-  </si>
-  <si>
-    <t>Ok, ora è tutto pronto! Fare clic per procedere alle attività principali.</t>
-  </si>
-  <si>
-    <t>Per completare questo test, avrai bisogno di un browser Internet attualizzato. Si prega di non utilizzare uno smartphone. Si consigliano le seguenti versioni di browser (o successive):</t>
-  </si>
-  <si>
-    <t>Il test non funzionerà in Safari o Internet Explorer e potenzialmente in altri browser.</t>
-  </si>
-  <si>
-    <t>Verifica il browser</t>
-  </si>
-  <si>
-    <t>Avrai bisogno delle seguenti cose:</t>
-  </si>
-  <si>
-    <t>Uno spazio silenzioso</t>
-  </si>
-  <si>
-    <t>Un paio di cuffie</t>
-  </si>
-  <si>
-    <t>Un microfono</t>
-  </si>
-  <si>
-    <t>Possiedi le cose sopra elencate?</t>
-  </si>
-  <si>
-    <t>Integrato</t>
-  </si>
-  <si>
-    <t>*NB: un microfono integrato nel tuo computer va bene, ma se puoi meglio usare un microfono esterno, posizionato vicino alla tua sorgente sonora.</t>
-  </si>
-  <si>
-    <t>Esterno</t>
-  </si>
-  <si>
-    <t>Stai usando un microfono esterno o un microfono integrato?</t>
-  </si>
-  <si>
-    <t>Sì</t>
-  </si>
-  <si>
-    <t>Oppure</t>
-  </si>
-  <si>
-    <t>Tastiera MIDI</t>
-  </si>
-  <si>
-    <t>Quando sei pronto, fai clic su "Registra" e canticchia, diretto verso il tuo microfono, per circa 5 secondi (per "canticchiare", unisci le labbra e emetti un suono con la tua voce.)</t>
-  </si>
-  <si>
-    <t>Il tuo rapporto segnale-rumore è</t>
-  </si>
-  <si>
-    <t>Deve essere superiore a 14 per continuare.</t>
-  </si>
-  <si>
-    <t>Il tuo livello di rumore di fondo (rapporto segnale-rumore =</t>
-  </si>
-  <si>
-    <t>) è adeguato per eseguire il test.</t>
-  </si>
-  <si>
-    <t>Spiacenti, il tuo browser non ha i requisiti per completare il test. Scarica l'ultima versione di Google Chrome per completare l'esperimento.</t>
-  </si>
-  <si>
-    <t>Per favore, suona la nota comoda più acuta sul tuo strumento. Premi Stop quando hai finito.</t>
-  </si>
-  <si>
-    <t>Per favore, suona la nota comoda più grave sul tuo strumento. Premi Stop quando hai finito.</t>
-  </si>
-  <si>
-    <t>Nessun dispositivo MIDI è stato selezionato.</t>
-  </si>
-  <si>
-    <t>Registra</t>
-  </si>
-  <si>
-    <t>Per favore, canta la tua nota grave più comoda. Premi Stop quando hai finito.</t>
-  </si>
-  <si>
-    <t>Per favore, canta la tua nota acuta più comoda. Premi Stop quando hai finito.</t>
-  </si>
-  <si>
-    <t>Non hai inserito niente!</t>
-  </si>
-  <si>
-    <t>Qual è la nota corretta?</t>
-  </si>
-  <si>
-    <t>Questa è la tua estensione:</t>
-  </si>
-  <si>
-    <t>Suonare la nota più bassa della tastiera MIDI.</t>
-  </si>
-  <si>
-    <t>Suonare la nota più alta della tastiera MIDI.</t>
-  </si>
-  <si>
-    <t>Tentativi rimanenti:</t>
-  </si>
-  <si>
-    <t>Hai</t>
-  </si>
-  <si>
-    <t>Hai un tentativo rimanente.</t>
-  </si>
-  <si>
-    <t>tentativi rimanenti, se lo desideri.</t>
-  </si>
-  <si>
-    <t>Non ci sono più tentativi. Fare clic per ascoltare la prossima melodia.</t>
-  </si>
-  <si>
-    <t>Hai un  tentativo rimanente, se lo desideri.</t>
-  </si>
-  <si>
-    <t>Adesso farai qualche prova pratica.</t>
-  </si>
-  <si>
-    <t>Canta la Melodia</t>
-  </si>
-  <si>
-    <t>Fai clic qui sotto per ascoltare la melodia. Canta la melodia. Fai clic su Stop al termine.</t>
-  </si>
-  <si>
-    <t>Completamento</t>
-  </si>
-  <si>
-    <t>Grazie! Hai completato il</t>
-  </si>
-  <si>
-    <t>Ben fatto!</t>
-  </si>
-  <si>
-    <t>Ottimo, ben fatto! Ora dovresti essere pronto/a per il vero test.</t>
-  </si>
-  <si>
-    <t>Se hai domande, chiedete al ricercatore prima di procedere.</t>
-  </si>
-  <si>
-    <t>Prova di nuovo</t>
-  </si>
-  <si>
-    <t>Se la risposta è stata soddisfacente, fare clic su "Continua", altrimenti fare clic su "Riprova".</t>
-  </si>
-  <si>
-    <t>Requisiti del Browser</t>
-  </si>
-  <si>
-    <t>Quando viene visualizzata questa immagine, il tuo input viene registrato, quindi cerca di completare le istruzioni quando appare questa immagine.</t>
-  </si>
-  <si>
-    <t>Test di intervallo</t>
-  </si>
-  <si>
-    <t>Riproduci la melodia che senti</t>
-  </si>
-  <si>
-    <t>Canta insieme a questa nota</t>
-  </si>
-  <si>
-    <t>Canta insieme al tono per 5 secondi.</t>
-  </si>
-  <si>
-    <t>Quando fai clic sul pulsante Play nella serie successiva di prove, ascolterai una nota di 5 secondi.</t>
-  </si>
-  <si>
-    <t>Per favore, prova a cantare la stessa identica nota e tieni premuto.</t>
-  </si>
-  <si>
-    <t>Microfono</t>
-  </si>
-  <si>
-    <t>Altro (per favore indica)</t>
-  </si>
-  <si>
-    <t>Per favore, seleziona quale strumento userai</t>
-  </si>
-  <si>
-    <t>Seleziona dispositivo MIDI</t>
-  </si>
-  <si>
-    <t>Il dispositivo dovrebbe essere stato collegato prima di raggiungere questa pagina. La sua visualizzazione potrebbe richiedere qualche istante.</t>
-  </si>
-  <si>
-    <t>Nessun dispositivo MIDI trovato.</t>
-  </si>
-  <si>
-    <t>Se la nota ti sembra fuori dalla tua estensione vocale, canta il suono che corrisponde meglio alla nota nella tua estensione, ad esempio, in un'ottava diversa.</t>
-  </si>
-  <si>
-    <t>Forse sei troppo silenzioso/a o avete una ventola del computer rumorosa.</t>
-  </si>
-  <si>
-    <t>Puoi cliccare qui sotto per ascoltare la tua estensione.</t>
-  </si>
-  <si>
-    <t>È possibile che l'estensione sia stata modificata in modo da risultare leggermente più alta o più bassa di quella effettivamente cantata.</t>
-  </si>
-  <si>
-    <t>Per favore, canta Buon Compleanno</t>
-  </si>
-  <si>
-    <t>La prima nota è:</t>
-  </si>
-  <si>
-    <t>Riproduci la prima nota</t>
-  </si>
-  <si>
-    <t>Si prega di notare che si tratta di una trasposizione per il vostro strumento.</t>
-  </si>
-  <si>
-    <t>Hai completato il</t>
-  </si>
-  <si>
-    <t>browser_recommendation</t>
-  </si>
-  <si>
-    <t>For best results, run this test in Google Chrome or Opera browsers. Other browsers may still work.</t>
-  </si>
-  <si>
-    <t>Now let's set things up.</t>
-  </si>
-  <si>
-    <t>setup_intro</t>
-  </si>
-  <si>
-    <t>Please provide an anonymous identifier that only you will know, in case something goes wrong.</t>
-  </si>
-  <si>
-    <t>anon_id</t>
-  </si>
-  <si>
-    <t>Thank_you</t>
-  </si>
-  <si>
-    <t>Thank you</t>
-  </si>
-  <si>
-    <t>Danke</t>
-  </si>
-  <si>
-    <t>concise_headphone_wording</t>
-  </si>
-  <si>
-    <t>Please make sure your headphones are working and adjust the volume to a good level.</t>
-  </si>
-  <si>
-    <t>normal_loudness</t>
-  </si>
-  <si>
-    <t>Use your normal way of changing loudness on your computer to do this</t>
-  </si>
-  <si>
-    <t>Microphone Type</t>
-  </si>
-  <si>
-    <t>Microphone_Type</t>
-  </si>
-  <si>
-    <t>Are you using an internal (in-built) or external (plugged-in) microphone?</t>
-  </si>
-  <si>
-    <t>plugged_vs_external_mic</t>
-  </si>
-  <si>
-    <t>Internal</t>
-  </si>
-  <si>
-    <t>External</t>
-  </si>
-  <si>
-    <t>Not_sure</t>
-  </si>
-  <si>
-    <t>SNR_failure</t>
-  </si>
-  <si>
-    <t>Your vocal signal compared to the background noise is not sufficient for testing. Please find a quieter space, get closer to the mic, or adjust the volume and we will measure the vocal signal sound level again. If neither of these is possible for you, please email sebsilas@gmail.com with 'weak signal' in the subject space, and you will be contacted within 24 hours to troubleshoot this problem. You may also end the program and attempt to adjust your microphone volume and start the program again.</t>
-  </si>
-  <si>
-    <t>Not sure</t>
-  </si>
-  <si>
-    <t>Your response was not understood. Perhaps your microphone is not setup correctly.</t>
-  </si>
-  <si>
-    <t>check_of_bg_noise</t>
-  </si>
-  <si>
-    <t>Check of background noise level</t>
-  </si>
-  <si>
-    <t>Your background noise level is good</t>
-  </si>
-  <si>
-    <t>bg_noise_level_good</t>
-  </si>
-  <si>
-    <t>response_not_understood</t>
-  </si>
-  <si>
-    <t>If a message pops up, click Allow. Click Start Test to see if your microphone is working. Make some sound.</t>
-  </si>
-  <si>
-    <t>You should see colours moving on the meter if it is working. If not, try and setup your mic again and rejoin the test.</t>
-  </si>
-  <si>
-    <t>microphone_calibration_concise_message_1</t>
-  </si>
-  <si>
-    <t>microphone_calibration_concise_message_2</t>
-  </si>
-  <si>
-    <t>microphone_calibration_concise_message_3</t>
-  </si>
-  <si>
-    <t>If the meter is red when you play your instrument. Do not proceed. Turn down your microphone input volume or get further away from it.</t>
-  </si>
-  <si>
-    <t>Start test</t>
-  </si>
-  <si>
-    <t>Start_test</t>
-  </si>
-  <si>
-    <t>When you are ready, click on “Record” and for about 5 seconds please hum, directed toward your microphone for 5 seconds.  (to “hum”, put your lips together and make a sound with your voice.</t>
-  </si>
-  <si>
-    <t>record_signal_message</t>
-  </si>
-  <si>
-    <t>We will now find your approximate voice range. You will first be asked  to sing the lowest comfortable note for your voice, then the highest. Each time you try, the computer will analyse the note you sang. If you don't think it recorded the right note, you can try again.</t>
-  </si>
-  <si>
-    <t>range_explanation_voice_concise</t>
-  </si>
-  <si>
-    <t>Instructions</t>
-  </si>
-  <si>
-    <t>Section_Progress</t>
-  </si>
-  <si>
-    <t>Section Progress</t>
-  </si>
-  <si>
-    <t>Sing the Melody</t>
-  </si>
-  <si>
-    <t>Sing_the_Melody</t>
-  </si>
-  <si>
-    <t>sing_melody_page_text</t>
-  </si>
-  <si>
-    <t>sing_melody_instruction_text</t>
-  </si>
-  <si>
-    <t>Now you will hear some melodies. Please try and sing the melodies.</t>
-  </si>
-  <si>
-    <t>Record_audio</t>
-  </si>
-  <si>
-    <t>Record audio</t>
-  </si>
-  <si>
-    <t>Click record to record some audio</t>
-  </si>
-  <si>
-    <t>click_to_record_audio</t>
-  </si>
-  <si>
-    <t>were_you_happy</t>
-  </si>
-  <si>
-    <t>You_have</t>
-  </si>
-  <si>
-    <t>You have</t>
-  </si>
-  <si>
-    <t>attempts_remaining_if_like</t>
-  </si>
-  <si>
-    <t>no_more_attempts_next</t>
-  </si>
-  <si>
-    <t>attempts_remaining_1_max_goes_forced</t>
-  </si>
-  <si>
-    <t>attempts_remaining_several.2_max_goes_forced</t>
-  </si>
-  <si>
-    <t>attempts_remaining_several</t>
-  </si>
-  <si>
-    <t>Click below to hear the melody. Sing back the melody plus rhythm. Click Stop when finished.</t>
-  </si>
-  <si>
-    <t>sing_rhythmic_melodies_page_text</t>
-  </si>
-  <si>
-    <t>Sing the melody and the rhythms</t>
-  </si>
-  <si>
-    <t>sing_rhythmic_melodies_page_title</t>
-  </si>
-  <si>
-    <t>sing_rhythmic_melodies_instruction_text</t>
-  </si>
-  <si>
-    <t>Now you will hear some melodies with rhythms. Please try and sing the melodies with their rhythms.</t>
-  </si>
-  <si>
-    <t>Se il volume non è comodo, regolalo a un livello confortevole attraverso il normale metodo di modifica del volume sul tuo computer.</t>
-  </si>
-  <si>
-    <t>Per ottenere risultati ottimali, eseguire questo test con i browser Google Chrome o Opera. Altri browser possono comunque funzionare.</t>
-  </si>
-  <si>
-    <t>Ora prepariamo il tutto.</t>
-  </si>
-  <si>
-    <t>Grazie</t>
-  </si>
-  <si>
-    <t>Per favore, assicurati che le cuffie funzionino e regola il volume a un buon livello.</t>
-  </si>
-  <si>
-    <t>Per fare questo, utilizza il normale metodo di modifica del volume sul tuo computer.</t>
-  </si>
-  <si>
-    <t>Tipo di Microfono</t>
-  </si>
-  <si>
-    <t>Interno</t>
-  </si>
-  <si>
-    <t>Stai utilizzando un microfono interno (integrato) o esterno (collegato)?</t>
-  </si>
-  <si>
-    <t>Non sono sicuro/a</t>
-  </si>
-  <si>
-    <t>Il segnale vocale rispetto al rumore di fondo non è sufficiente per il test. Si prega di trovare uno spazio più silenzioso, di avvicinarsi al microfono o di regolare il volume e di misurare nuovamente il livello del segnale vocale. Se nessuna di queste opzioni è possibile, inviate un'e-mail a sebsilas@gmail.com scrivendo "segnale debole" nell'oggetto e sarete contattati entro 24 ore per risolvere il problema. È anche possibile chiudere il programma, tentare di regolare il volume del microfono e riaprire il programma.</t>
-  </si>
-  <si>
-    <t>La risposta non è stata compresa. Forse il microfono non è impostato correttamente.</t>
-  </si>
-  <si>
-    <t>Verifica del livello di rumore di fondo</t>
-  </si>
-  <si>
-    <t>Il livello di rumore di fondo è buono</t>
-  </si>
-  <si>
-    <t>Se appare un messaggio, fare clic su Consenti. Fare clic su Avvia test per verificare se il microfono funziona. Emetti un suono.</t>
-  </si>
-  <si>
-    <t>Se l'indicatore è rosso quando suoni lo strumento, non procedere. Abbassa il volume di ingresso del microfono o allontanati da esso.</t>
-  </si>
-  <si>
-    <t>Avvia il test</t>
-  </si>
-  <si>
-    <t>Quando sei pronto/a, clicca su "Registra" e per circa 5 secondi canticchia, rivolgendoti verso microfono  (per "canticchiare", unisci le labbra ed emetti un suono con la voce).</t>
-  </si>
-  <si>
-    <t>È possibile che l'estensione sia stata modificata in modo da risultare leggermente più alta o più bassa di quella effettivamente suonata.</t>
-  </si>
-  <si>
-    <t>Ora troveremo la tua estensione vocale indicativa. Ti verrà chiesto di cantare prima la nota più grave e confortevole per la tua voce, poi quella più acuta. Ad ogni tentativo, il computer analizzerà la nota cantata. Se ritieni che non sia stata registrata la nota giusta, puoi provare di nuovo.</t>
-  </si>
-  <si>
-    <t>Istruzioni</t>
-  </si>
-  <si>
-    <t>Fai clic qui sotto per ascoltare la melodia. Canta la melodia. Clicca su Stop al termine.</t>
-  </si>
-  <si>
-    <t>Ora sentirete alcune melodie. Per favore, prova a cantare le melodie.</t>
-  </si>
-  <si>
-    <t>Registrazione audio</t>
-  </si>
-  <si>
-    <t>Clicca su "registra" per registrare l'audio</t>
-  </si>
-  <si>
-    <t>If you were happy with your response, please click to "Continue", otherwise please click to "Try Again".'</t>
-  </si>
-  <si>
-    <t>Se sei soddisfatto della tua risposta, fai clic su "Continua", altrimenti fai clic su "Riprova".</t>
-  </si>
-  <si>
-    <t>Non rimangono più tentativi. Fai clic per ascoltare la prossima melodia.</t>
-  </si>
-  <si>
-    <t>tentativi ancora a disposizione, se vuoi.</t>
-  </si>
-  <si>
-    <t>È rimasto un solo tentativo</t>
-  </si>
-  <si>
-    <t>tentativi rimanenti.</t>
-  </si>
-  <si>
-    <t>Hai un tentativo ancora a disposizione, se vuoi.</t>
-  </si>
-  <si>
-    <t>tentativi a disposizione, se vuoi.</t>
-  </si>
-  <si>
-    <t>Fai clic qui sotto per ascoltare la melodia. Canta la melodia e il ritmo. Fai clic su Stop quando hai finito.</t>
-  </si>
-  <si>
-    <t>Canta la melodia e i ritmi.</t>
-  </si>
-  <si>
-    <t>Ora ascolterai alcune melodie ritmate. Prova a cantare le melodie con il loro ritmo.</t>
-  </si>
-  <si>
-    <t>Sezione Progressi</t>
-  </si>
-  <si>
-    <t>Clicca per proseguire col prossimo test.</t>
-  </si>
-  <si>
-    <t>Fornite un identificativo anonimo che conoscete solo voi, nel caso in cui qualcosa vada storto.</t>
-  </si>
-  <si>
-    <t>Emetti un suono (ad esempio, canticchia a bocca chiusa, batti le mani, canta). Se vedi attività (barra colorata in movimento) all'interno del metro quando emetti un suono, significa che il microfono funziona. Altrimenti, non sta funzionando.</t>
-  </si>
-  <si>
-    <t>Se il metro funziona, si dovrebbero vedere i colori muoversi. In caso contrario, provare a impostare nuovamente il microfono e riprendere il test.</t>
-  </si>
-  <si>
-    <t>Ora troveremo la vostra estensione vocale indicativa. Per prima cosa, vi verrà chiesto di cantare la vostra nota più grave e comoda.  Il computer analizzerà questa nota e ve la riproporrà. Vi verrà chiesto di decidere se questa nota corrisponde alla vostra nota più grave. A volte il computer può commettere un grosso errore. Quando ciò accade, si deve sapere che si ha l'opportunità di cantare di nuovo la propria nota e di dare al computer un'altra possibilità.</t>
-  </si>
-  <si>
-    <t>Ora troveremo l'estensione indicativa del vostro strumento. Vi verrà chiesto di suonare la vostra nota più grave e comoda, poi quella più acuta.</t>
-  </si>
-  <si>
-    <t>long_tone_title</t>
+    <t>long_tone_title_call_and_response</t>
+  </si>
+  <si>
+    <t>Sing This Note After You Hear It</t>
+  </si>
+  <si>
+    <t>long_tone_text_call_and_response</t>
+  </si>
+  <si>
+    <t>Sing this note for 5 seconds after you hear it.</t>
   </si>
 </sst>
 </file>
@@ -2041,10 +2071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
-  <dimension ref="A1:D146"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="91" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="91" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2063,10 +2093,10 @@
         <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2077,10 +2107,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2091,10 +2121,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2102,13 +2132,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2116,13 +2146,13 @@
         <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2133,24 +2163,24 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2158,13 +2188,13 @@
         <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2175,24 +2205,24 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>281</v>
-      </c>
       <c r="C10" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2203,10 +2233,10 @@
         <v>57</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2214,13 +2244,13 @@
         <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2228,13 +2258,13 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2242,13 +2272,13 @@
         <v>52</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2256,13 +2286,13 @@
         <v>62</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>195</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2273,10 +2303,10 @@
         <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2284,13 +2314,13 @@
         <v>58</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2298,13 +2328,13 @@
         <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2315,10 +2345,10 @@
         <v>5</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2329,10 +2359,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2343,10 +2373,10 @@
         <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2357,10 +2387,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -2371,10 +2401,10 @@
         <v>11</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -2385,10 +2415,10 @@
         <v>15</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -2452,13 +2482,13 @@
         <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -2469,10 +2499,10 @@
         <v>26</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -2483,10 +2513,10 @@
         <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -2497,10 +2527,10 @@
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -2511,10 +2541,10 @@
         <v>32</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -2525,10 +2555,10 @@
         <v>34</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -2536,13 +2566,13 @@
         <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -2553,10 +2583,10 @@
         <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -2567,10 +2597,10 @@
         <v>37</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -2581,10 +2611,10 @@
         <v>39</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -2595,10 +2625,10 @@
         <v>41</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -2609,10 +2639,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -2626,7 +2656,7 @@
         <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -2637,10 +2667,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -2651,7 +2681,7 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D43" t="s">
         <v>45</v>
@@ -2662,13 +2692,13 @@
         <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C44" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -2679,10 +2709,10 @@
         <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -2693,10 +2723,10 @@
         <v>69</v>
       </c>
       <c r="C46" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -2707,10 +2737,10 @@
         <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -2721,10 +2751,10 @@
         <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -2732,13 +2762,13 @@
         <v>74</v>
       </c>
       <c r="B49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C49" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D49" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -2746,13 +2776,13 @@
         <v>77</v>
       </c>
       <c r="B50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C50" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D50" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -2760,41 +2790,41 @@
         <v>78</v>
       </c>
       <c r="B51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C51" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D51" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C52" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C53" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2805,10 +2835,10 @@
         <v>80</v>
       </c>
       <c r="C54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -2822,7 +2852,7 @@
         <v>81</v>
       </c>
       <c r="D55" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2833,10 +2863,10 @@
         <v>82</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D56" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2847,10 +2877,10 @@
         <v>98</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2861,10 +2891,10 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2875,10 +2905,10 @@
         <v>99</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2889,10 +2919,10 @@
         <v>96</v>
       </c>
       <c r="C60" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2903,38 +2933,38 @@
         <v>97</v>
       </c>
       <c r="C61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="B62" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="C62" s="26" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>138</v>
+      </c>
+      <c r="B63" t="s">
         <v>139</v>
       </c>
-      <c r="B63" t="s">
-        <v>140</v>
-      </c>
       <c r="C63" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2945,10 +2975,10 @@
         <v>90</v>
       </c>
       <c r="C64" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -2959,10 +2989,10 @@
         <v>92</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2973,10 +3003,10 @@
         <v>94</v>
       </c>
       <c r="C66" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2987,10 +3017,10 @@
         <v>95</v>
       </c>
       <c r="C67" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -3001,10 +3031,10 @@
         <v>101</v>
       </c>
       <c r="C68" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -3015,10 +3045,10 @@
         <v>104</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -3029,10 +3059,10 @@
         <v>103</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -3043,10 +3073,10 @@
         <v>102</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -3057,10 +3087,10 @@
         <v>110</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -3071,10 +3101,10 @@
         <v>109</v>
       </c>
       <c r="C73" t="s">
-        <v>361</v>
+        <v>504</v>
       </c>
       <c r="D73" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -3082,769 +3112,769 @@
         <v>111</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>112</v>
+        <v>505</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="C75" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>114</v>
+      </c>
+      <c r="B76" t="s">
         <v>115</v>
       </c>
-      <c r="B76" t="s">
-        <v>116</v>
-      </c>
       <c r="C76" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B77" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C77" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D77" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B78" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D78" s="8" t="s">
         <v>292</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B79" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C79" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D79" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B81" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C81" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D81" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B82" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C82" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D82" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="28" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="C84" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B88" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D88" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B89" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D89" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>132</v>
+      </c>
+      <c r="B90" t="s">
         <v>133</v>
       </c>
-      <c r="B90" t="s">
-        <v>134</v>
-      </c>
       <c r="C90" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D90" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>134</v>
+      </c>
+      <c r="B91" t="s">
         <v>135</v>
       </c>
-      <c r="B91" t="s">
-        <v>136</v>
-      </c>
       <c r="C91" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D91" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B92" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="C92" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="D92" s="9" t="s">
         <v>146</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B93" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B93" s="9" t="s">
-        <v>149</v>
-      </c>
       <c r="C93" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="C94" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>152</v>
+      </c>
+      <c r="B95" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B95" s="11" t="s">
-        <v>154</v>
-      </c>
       <c r="C95" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>154</v>
+      </c>
+      <c r="B96" t="s">
         <v>155</v>
       </c>
-      <c r="B96" t="s">
-        <v>156</v>
-      </c>
       <c r="C96" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D96" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>162</v>
+      </c>
+      <c r="B97" t="s">
         <v>163</v>
       </c>
-      <c r="B97" t="s">
-        <v>164</v>
-      </c>
       <c r="C97" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D97" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B98" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C98" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D98" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B99" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C99" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D99" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B100" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C100" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D100" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>168</v>
+      </c>
+      <c r="B101" t="s">
         <v>169</v>
       </c>
-      <c r="B101" t="s">
-        <v>170</v>
-      </c>
       <c r="C101" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D101" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>172</v>
+      </c>
+      <c r="B102" t="s">
         <v>173</v>
       </c>
-      <c r="B102" t="s">
-        <v>174</v>
-      </c>
       <c r="C102" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D102" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>174</v>
+      </c>
+      <c r="B103" t="s">
         <v>175</v>
       </c>
-      <c r="B103" t="s">
-        <v>176</v>
-      </c>
       <c r="C103" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D103" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>176</v>
+      </c>
+      <c r="B104" t="s">
         <v>177</v>
       </c>
-      <c r="B104" t="s">
-        <v>178</v>
-      </c>
       <c r="C104" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D104" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>181</v>
+      </c>
+      <c r="B105" t="s">
         <v>182</v>
       </c>
-      <c r="B105" t="s">
-        <v>183</v>
-      </c>
       <c r="C105" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D105" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B106" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C106" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D106" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B107" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C107" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D107" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B108" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C108" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D108" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B109" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C109" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D109" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>393</v>
+      </c>
+      <c r="B110" t="s">
+        <v>394</v>
+      </c>
+      <c r="C110" t="s">
+        <v>457</v>
+      </c>
+      <c r="D110" t="s">
         <v>395</v>
-      </c>
-      <c r="B110" t="s">
-        <v>396</v>
-      </c>
-      <c r="C110" t="s">
-        <v>459</v>
-      </c>
-      <c r="D110" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B111" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C111" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D111" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B112" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C112" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D112" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B113" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C113" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D113" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B114" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C114" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D114" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B115" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C115" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D115" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B116" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C116" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D116" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B117" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C117" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D117" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C118" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B119" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C119" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D119" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B120" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C120" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D120" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B121" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C121" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D121" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="20" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D122" s="20" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="20" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D123" s="20" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="20" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D124" s="20" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="20" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D125" s="20" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="20" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D126" s="20" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="20" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D127" s="20" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="20" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D128" s="20" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -3852,52 +3882,52 @@
         <v>93</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D129" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="20" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D130" s="20" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="20" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D131" s="20" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="20" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B132" s="20" t="s">
         <v>103</v>
       </c>
       <c r="C132" s="20" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D132" s="20" t="s">
         <v>103</v>
@@ -3905,83 +3935,83 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="20" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C133" s="20" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D133" s="20" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="20" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D134" s="20" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="20" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D135" s="20" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="20" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B136" s="27" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D136" s="27" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="20" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="20" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B138" s="20" t="s">
         <v>92</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D138" s="20" t="s">
         <v>92</v>
@@ -3989,13 +4019,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="20" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B139" s="20" t="s">
         <v>95</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D139" s="20" t="s">
         <v>95</v>
@@ -4003,30 +4033,30 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="20" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D140" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="20" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D141" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -4037,7 +4067,7 @@
         <v>94</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D142" s="20" t="s">
         <v>94</v>
@@ -4045,13 +4075,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="20" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B143" s="20" t="s">
         <v>92</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D143" s="20" t="s">
         <v>92</v>
@@ -4059,48 +4089,129 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="20" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D144" s="20" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="20" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="20" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D146" s="20" t="s">
-        <v>455</v>
-      </c>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="B147" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="C147" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="D147" s="20" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="B148" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="C148" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="D148" s="20" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="20" t="s">
+        <v>502</v>
+      </c>
+      <c r="B149" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="C149" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="D149" s="20" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A150" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="3"/>
+      <c r="B152" s="2"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="3"/>
+      <c r="B153" s="2"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="3"/>
+      <c r="B154" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D136" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083A3424-30CC-A341-B6FB-C9A60DB112D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EA52B2-C5AA-FF41-8DCE-D7B574CD31E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="4420" windowWidth="35840" windowHeight="20860" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="0" yWindow="4580" windowWidth="35840" windowHeight="20860" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="516">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -1567,13 +1567,31 @@
   </si>
   <si>
     <t>Sing this note for 5 seconds after you hear it.</t>
+  </si>
+  <si>
+    <t>long_tone_instruction_call_and_response</t>
+  </si>
+  <si>
+    <t>long_tone_instruction_call_and_response_2</t>
+  </si>
+  <si>
+    <t>long_tone_instruction_call_and_response_3</t>
+  </si>
+  <si>
+    <t>Now you will sing some long notes as a response.</t>
+  </si>
+  <si>
+    <t>Your task is to sing back the note you hear after it has played.</t>
+  </si>
+  <si>
+    <t>You should wait until the recording symbol before you start singing.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1644,6 +1662,19 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFED5C57"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF242424"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1709,7 +1740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1757,6 +1788,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2073,14 +2106,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
   <dimension ref="A1:D154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="91" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A151" sqref="A151"/>
+    <sheetView tabSelected="1" topLeftCell="D129" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D152" sqref="D152:D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" customWidth="1"/>
-    <col min="2" max="2" width="155.5" customWidth="1"/>
+    <col min="1" max="1" width="65.33203125" customWidth="1"/>
+    <col min="2" max="2" width="179.83203125" customWidth="1"/>
     <col min="3" max="3" width="179.5" customWidth="1"/>
     <col min="4" max="4" width="175.5" customWidth="1"/>
   </cols>
@@ -4199,17 +4232,47 @@
         <v>509</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="3"/>
-      <c r="B152" s="2"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="3"/>
-      <c r="B153" s="2"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="3"/>
-      <c r="B154" s="19"/>
+    <row r="152" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A152" s="29" t="s">
+        <v>510</v>
+      </c>
+      <c r="B152" s="30" t="s">
+        <v>513</v>
+      </c>
+      <c r="C152" s="30" t="s">
+        <v>513</v>
+      </c>
+      <c r="D152" s="30" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A153" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A154" s="29" t="s">
+        <v>512</v>
+      </c>
+      <c r="B154" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="C154" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="D154" s="19" t="s">
+        <v>515</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EA52B2-C5AA-FF41-8DCE-D7B574CD31E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E05495-719F-324F-A884-947A2231C35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4580" windowWidth="35840" windowHeight="20860" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="0" yWindow="2300" windowWidth="35840" windowHeight="20760" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="519">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -1585,6 +1585,15 @@
   </si>
   <si>
     <t>You should wait until the recording symbol before you start singing.</t>
+  </si>
+  <si>
+    <t>Prima di tutto, esercitati con</t>
+  </si>
+  <si>
+    <t>esempi di prova</t>
+  </si>
+  <si>
+    <t>Ora sei pronto/a per la prova vera e propria!</t>
   </si>
 </sst>
 </file>
@@ -2106,8 +2115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
   <dimension ref="A1:D154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D129" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D152" sqref="D152:D154"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4170,7 +4179,7 @@
         <v>499</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="D147" s="20" t="s">
         <v>499</v>
@@ -4184,7 +4193,7 @@
         <v>501</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="D148" s="20" t="s">
         <v>501</v>
@@ -4198,7 +4207,7 @@
         <v>503</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="D149" s="20" t="s">
         <v>503</v>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E05495-719F-324F-A884-947A2231C35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C099C6-6B93-CA46-A856-C91641130941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2300" windowWidth="35840" windowHeight="20760" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="35840" windowHeight="20760" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1600,7 +1600,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1611,110 +1611,23 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF222222"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFED5C57"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FF242424"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1749,56 +1662,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2115,48 +2000,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
   <dimension ref="A1:D154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C156" sqref="C156"/>
+    <sheetView tabSelected="1" topLeftCell="C117" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C156" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="65.33203125" customWidth="1"/>
-    <col min="2" max="2" width="179.83203125" customWidth="1"/>
-    <col min="3" max="3" width="179.5" customWidth="1"/>
-    <col min="4" max="4" width="175.5" customWidth="1"/>
+    <col min="1" max="1" width="65.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="179.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="179.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="175.5" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2170,105 +2056,105 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="3" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="2" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2282,7 +2168,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2296,7 +2182,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2310,7 +2196,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2324,21 +2210,21 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2352,7 +2238,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2366,7 +2252,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2380,7 +2266,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2394,35 +2280,35 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2435,36 +2321,36 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
+    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
+    <row r="24" spans="1:4" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="7" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2478,7 +2364,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2492,7 +2378,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2506,7 +2392,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2520,7 +2406,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2534,21 +2420,21 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2562,49 +2448,49 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2613,12 +2499,12 @@
       <c r="C35" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="2" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -2632,35 +2518,35 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -2674,441 +2560,441 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="2" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="2" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="2" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="2" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="2" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="2" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="A50" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="2" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="2" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="A52" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="2" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="A53" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="2" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="2" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="A55" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="2" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="A56" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="2" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="A57" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="2" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="A58" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="2" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="A59" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="2" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="A60" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="A61" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="2" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="A62" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C62" s="26" t="s">
+      <c r="C62" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="8" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="A63" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="2" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="A64" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="2" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="A65" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C65" s="26" t="s">
+      <c r="C65" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="8" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="A66" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="2" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="A67" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="2" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="A68" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="2" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="2" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="2" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -3122,7 +3008,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -3136,105 +3022,105 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="2" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="2" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="A76" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="2" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="A77" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="2" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D78" s="2" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="A79" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="2" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -3248,35 +3134,35 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="A81" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="2" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="A82" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="28" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
         <v>497</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -3290,7 +3176,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="2" t="s">
         <v>179</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -3304,7 +3190,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="2" t="s">
         <v>289</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -3318,7 +3204,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="2" t="s">
         <v>286</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -3332,889 +3218,889 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B87" s="19" t="s">
+      <c r="B87" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C87" s="19" t="s">
+      <c r="C87" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="D87" s="19" t="s">
+      <c r="D87" s="3" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="A88" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="2" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="A89" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="A90" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="2" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="A91" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="9" t="s">
+      <c r="A92" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="D92" s="9" t="s">
+      <c r="D92" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C93" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D93" s="9" t="s">
+      <c r="D93" s="2" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="2" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+      <c r="A95" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="B95" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="C95" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="D95" s="11" t="s">
+      <c r="D95" s="9" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="A96" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="2" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="A97" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="2" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="A98" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="2" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="A99" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="2" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="A100" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="2" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+      <c r="A101" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="2" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="A102" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="2" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+      <c r="A103" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="2" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="A104" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="2" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+      <c r="A105" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="2" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="A106" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="2" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+      <c r="A107" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="2" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="A108" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="2" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+      <c r="A109" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="2" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+      <c r="A110" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="2" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+      <c r="A111" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="2" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+      <c r="A112" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="2" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+      <c r="A113" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="2" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+      <c r="A114" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="2" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+      <c r="A115" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="2" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+      <c r="A116" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="2" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+      <c r="A117" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="2" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+      <c r="A118" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="D118" s="11" t="s">
+      <c r="D118" s="9" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+      <c r="A119" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="2" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+      <c r="A120" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="2" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+      <c r="A121" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="2" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="20" t="s">
+      <c r="A122" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B122" s="20" t="s">
+      <c r="B122" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C122" s="20" t="s">
+      <c r="C122" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="D122" s="20" t="s">
+      <c r="D122" s="2" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="20" t="s">
+      <c r="A123" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B123" s="20" t="s">
+      <c r="B123" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C123" s="20" t="s">
+      <c r="C123" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="D123" s="20" t="s">
+      <c r="D123" s="2" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="20" t="s">
+      <c r="A124" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B124" s="20" t="s">
+      <c r="B124" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C124" s="20" t="s">
+      <c r="C124" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="D124" s="20" t="s">
+      <c r="D124" s="2" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="20" t="s">
+      <c r="A125" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B125" s="20" t="s">
+      <c r="B125" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C125" s="20" t="s">
+      <c r="C125" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="D125" s="20" t="s">
+      <c r="D125" s="2" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="20" t="s">
+      <c r="A126" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B126" s="20" t="s">
+      <c r="B126" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C126" s="20" t="s">
+      <c r="C126" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D126" s="20" t="s">
+      <c r="D126" s="2" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="20" t="s">
+      <c r="A127" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B127" s="20" t="s">
+      <c r="B127" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C127" s="20" t="s">
+      <c r="C127" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="D127" s="20" t="s">
+      <c r="D127" s="2" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="20" t="s">
+      <c r="A128" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B128" s="20" t="s">
+      <c r="B128" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C128" s="20" t="s">
+      <c r="C128" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="D128" s="20" t="s">
+      <c r="D128" s="2" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="20" t="s">
+      <c r="A129" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B129" s="20" t="s">
+      <c r="B129" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C129" s="20" t="s">
+      <c r="C129" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D129" s="20" t="s">
+      <c r="D129" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="20" t="s">
+      <c r="A130" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B130" s="20" t="s">
+      <c r="B130" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C130" s="20" t="s">
+      <c r="C130" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="D130" s="20" t="s">
+      <c r="D130" s="2" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="20" t="s">
+      <c r="A131" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B131" s="20" t="s">
+      <c r="B131" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C131" s="20" t="s">
+      <c r="C131" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="D131" s="20" t="s">
+      <c r="D131" s="2" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="20" t="s">
+      <c r="A132" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B132" s="20" t="s">
+      <c r="B132" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C132" s="20" t="s">
+      <c r="C132" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="D132" s="20" t="s">
+      <c r="D132" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="20" t="s">
+      <c r="A133" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B133" s="20" t="s">
+      <c r="B133" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C133" s="20" t="s">
+      <c r="C133" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="D133" s="20" t="s">
+      <c r="D133" s="2" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="20" t="s">
+      <c r="A134" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B134" s="20" t="s">
+      <c r="B134" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="C134" s="20" t="s">
+      <c r="C134" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="D134" s="20" t="s">
+      <c r="D134" s="2" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="20" t="s">
+      <c r="A135" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B135" s="20" t="s">
+      <c r="B135" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="C135" s="20" t="s">
+      <c r="C135" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D135" s="20" t="s">
+      <c r="D135" s="2" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="20" t="s">
+      <c r="A136" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B136" s="27" t="s">
+      <c r="B136" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="C136" s="20" t="s">
+      <c r="C136" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="D136" s="27" t="s">
+      <c r="D136" s="10" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="20" t="s">
+      <c r="A137" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B137" s="20" t="s">
+      <c r="B137" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C137" s="20" t="s">
+      <c r="C137" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D137" s="20" t="s">
+      <c r="D137" s="2" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="20" t="s">
+      <c r="A138" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B138" s="20" t="s">
+      <c r="B138" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C138" s="20" t="s">
+      <c r="C138" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="D138" s="20" t="s">
+      <c r="D138" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="20" t="s">
+      <c r="A139" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B139" s="20" t="s">
+      <c r="B139" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C139" s="20" t="s">
+      <c r="C139" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="D139" s="20" t="s">
+      <c r="D139" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="20" t="s">
+      <c r="A140" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B140" s="20" t="s">
+      <c r="B140" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C140" s="20" t="s">
+      <c r="C140" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="D140" s="20" t="s">
+      <c r="D140" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="20" t="s">
+      <c r="A141" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B141" s="20" t="s">
+      <c r="B141" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C141" s="20" t="s">
+      <c r="C141" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D141" s="20" t="s">
+      <c r="D141" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="20" t="s">
+      <c r="A142" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B142" s="20" t="s">
+      <c r="B142" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C142" s="20" t="s">
+      <c r="C142" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="D142" s="20" t="s">
+      <c r="D142" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="20" t="s">
+      <c r="A143" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B143" s="20" t="s">
+      <c r="B143" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C143" s="20" t="s">
+      <c r="C143" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="D143" s="20" t="s">
+      <c r="D143" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="20" t="s">
+      <c r="A144" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B144" s="20" t="s">
+      <c r="B144" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C144" s="20" t="s">
+      <c r="C144" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="D144" s="20" t="s">
+      <c r="D144" s="2" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="20" t="s">
+      <c r="A145" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B145" s="20" t="s">
+      <c r="B145" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C145" s="20" t="s">
+      <c r="C145" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="D145" s="20" t="s">
+      <c r="D145" s="2" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="20" t="s">
+      <c r="A146" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B146" s="20" t="s">
+      <c r="B146" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C146" s="20" t="s">
+      <c r="C146" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="D146" s="20" t="s">
+      <c r="D146" s="2" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="20" t="s">
+      <c r="A147" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B147" s="20" t="s">
+      <c r="B147" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C147" s="20" t="s">
+      <c r="C147" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="D147" s="20" t="s">
+      <c r="D147" s="2" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="20" t="s">
+      <c r="A148" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="B148" s="20" t="s">
+      <c r="B148" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="C148" s="20" t="s">
+      <c r="C148" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="D148" s="20" t="s">
+      <c r="D148" s="2" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="20" t="s">
+      <c r="A149" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B149" s="20" t="s">
+      <c r="B149" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C149" s="20" t="s">
+      <c r="C149" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="D149" s="20" t="s">
+      <c r="D149" s="2" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A150" s="28" t="s">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
         <v>506</v>
       </c>
       <c r="B150" s="2" t="s">
@@ -4228,7 +4114,7 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="2" t="s">
         <v>508</v>
       </c>
       <c r="B151" s="2" t="s">
@@ -4241,22 +4127,22 @@
         <v>509</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A152" s="29" t="s">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="B152" s="30" t="s">
+      <c r="B152" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="C152" s="30" t="s">
+      <c r="C152" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="D152" s="30" t="s">
+      <c r="D152" s="2" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A153" s="29" t="s">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
         <v>511</v>
       </c>
       <c r="B153" s="2" t="s">
@@ -4269,17 +4155,17 @@
         <v>514</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A154" s="29" t="s">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="B154" s="19" t="s">
+      <c r="B154" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C154" s="19" t="s">
+      <c r="C154" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="D154" s="19" t="s">
+      <c r="D154" s="3" t="s">
         <v>515</v>
       </c>
     </row>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C099C6-6B93-CA46-A856-C91641130941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C3AC44-61A3-9640-AE92-2BDB9A7AB63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="35840" windowHeight="20760" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="140" yWindow="3960" windowWidth="35840" windowHeight="20720" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$D$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$D$135</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="523">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -1594,6 +1594,18 @@
   </si>
   <si>
     <t>Ora sei pronto/a per la prova vera e propria!</t>
+  </si>
+  <si>
+    <t>enter_id</t>
+  </si>
+  <si>
+    <t>Please enter your ID.</t>
+  </si>
+  <si>
+    <t>Bitte gib Deine ID ein.</t>
+  </si>
+  <si>
+    <t>Per favore, inserisci il tuo codice.</t>
   </si>
 </sst>
 </file>
@@ -1664,26 +1676,26 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2000,8 +2012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
   <dimension ref="A1:D154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C117" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C156" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3807,366 +3819,366 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>93</v>
+        <v>429</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>124</v>
+        <v>430</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>368</v>
+        <v>490</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>124</v>
+        <v>430</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>490</v>
+        <v>356</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>431</v>
+        <v>103</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>356</v>
+        <v>475</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>431</v>
+        <v>103</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>103</v>
+        <v>435</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>103</v>
+        <v>435</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>438</v>
+        <v>440</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>479</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>438</v>
+        <v>480</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="B136" s="10" t="s">
-        <v>479</v>
+        <v>441</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>442</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="D136" s="10" t="s">
-        <v>479</v>
+        <v>350</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>442</v>
+        <v>92</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>350</v>
+        <v>482</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>442</v>
+        <v>92</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>446</v>
+        <v>93</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>93</v>
+        <v>447</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>92</v>
+        <v>448</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>92</v>
+        <v>448</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>452</v>
+        <v>498</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>453</v>
+        <v>499</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>489</v>
+        <v>516</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>453</v>
+        <v>499</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>515</v>
+        <v>519</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>521</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C3AC44-61A3-9640-AE92-2BDB9A7AB63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD97BFDA-9409-C841-81EA-9EAB1E7F75B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="3960" windowWidth="35840" windowHeight="20720" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="35840" windowHeight="20720" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="530">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -579,9 +579,6 @@
     <t>long_tone_text</t>
   </si>
   <si>
-    <t>Sing along with the tone for 5 seconds.</t>
-  </si>
-  <si>
     <t>you_have_completed_the</t>
   </si>
   <si>
@@ -810,9 +807,6 @@
     <t>Singen Sie mit diesem Ton mit.</t>
   </si>
   <si>
-    <t>Singen Sie 5 Sekunden lang mit dem Tom mit.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mikrofon </t>
   </si>
   <si>
@@ -1566,9 +1560,6 @@
     <t>long_tone_text_call_and_response</t>
   </si>
   <si>
-    <t>Sing this note for 5 seconds after you hear it.</t>
-  </si>
-  <si>
     <t>long_tone_instruction_call_and_response</t>
   </si>
   <si>
@@ -1606,13 +1597,43 @@
   </si>
   <si>
     <t>Per favore, inserisci il tuo codice.</t>
+  </si>
+  <si>
+    <t>Sing this note for several seconds after you hear it.</t>
+  </si>
+  <si>
+    <t>Sing along with the tone for several seconds.</t>
+  </si>
+  <si>
+    <t>Singen Sie mehrere Sekunden lang mit dem Tom mit.</t>
+  </si>
+  <si>
+    <t>sure_continue</t>
+  </si>
+  <si>
+    <t>Are you sure you want to continue?</t>
+  </si>
+  <si>
+    <t>Continue_Anyway</t>
+  </si>
+  <si>
+    <t>Continue Anyway</t>
+  </si>
+  <si>
+    <t>Weitermachen Trotzdem</t>
+  </si>
+  <si>
+    <t>record_instructions_playful</t>
+  </si>
+  <si>
+    <t>When you sing, you will see a bird appear. Try testing this now by singing and watching the bird appear.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1633,13 +1654,32 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1674,7 +1714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1696,6 +1736,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2010,10 +2060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C137" sqref="C137"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D157" sqref="D157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2033,7 +2083,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>126</v>
@@ -2047,10 +2097,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2061,10 +2111,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2072,13 +2122,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2086,13 +2136,13 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2103,24 +2153,24 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>277</v>
+        <v>298</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2128,13 +2178,13 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2145,24 +2195,24 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>280</v>
+        <v>302</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2173,10 +2223,10 @@
         <v>57</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2184,13 +2234,13 @@
         <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2198,13 +2248,13 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2215,10 +2265,10 @@
         <v>178</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2226,13 +2276,13 @@
         <v>62</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2243,10 +2293,10 @@
         <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2257,10 +2307,10 @@
         <v>128</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2271,10 +2321,10 @@
         <v>129</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2285,10 +2335,10 @@
         <v>5</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2299,10 +2349,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2313,10 +2363,10 @@
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2327,10 +2377,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2341,10 +2391,10 @@
         <v>11</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -2355,10 +2405,10 @@
         <v>15</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -2425,10 +2475,10 @@
         <v>131</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -2439,10 +2489,10 @@
         <v>26</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -2453,10 +2503,10 @@
         <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -2467,10 +2517,10 @@
         <v>30</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -2481,10 +2531,10 @@
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -2495,10 +2545,10 @@
         <v>34</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -2506,13 +2556,13 @@
         <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -2523,10 +2573,10 @@
         <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -2537,10 +2587,10 @@
         <v>37</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -2551,10 +2601,10 @@
         <v>39</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -2565,10 +2615,10 @@
         <v>41</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -2579,7 +2629,7 @@
         <v>42</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>140</v>
@@ -2607,7 +2657,7 @@
         <v>44</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>142</v>
@@ -2621,7 +2671,7 @@
         <v>45</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>45</v>
@@ -2635,10 +2685,10 @@
         <v>130</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -2649,10 +2699,10 @@
         <v>67</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -2663,10 +2713,10 @@
         <v>69</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -2677,10 +2727,10 @@
         <v>71</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -2691,10 +2741,10 @@
         <v>73</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -2702,13 +2752,13 @@
         <v>74</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -2719,10 +2769,10 @@
         <v>158</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -2733,10 +2783,10 @@
         <v>159</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -2747,10 +2797,10 @@
         <v>160</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -2761,10 +2811,10 @@
         <v>161</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2775,10 +2825,10 @@
         <v>80</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -2792,7 +2842,7 @@
         <v>81</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2803,10 +2853,10 @@
         <v>82</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2817,10 +2867,10 @@
         <v>98</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2831,10 +2881,10 @@
         <v>7</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2845,10 +2895,10 @@
         <v>99</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2859,10 +2909,10 @@
         <v>96</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2873,10 +2923,10 @@
         <v>97</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2887,10 +2937,10 @@
         <v>137</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2901,10 +2951,10 @@
         <v>139</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2915,10 +2965,10 @@
         <v>90</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -2929,10 +2979,10 @@
         <v>92</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2943,10 +2993,10 @@
         <v>94</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2957,10 +3007,10 @@
         <v>95</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -2971,10 +3021,10 @@
         <v>101</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -2985,10 +3035,10 @@
         <v>104</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2999,10 +3049,10 @@
         <v>103</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -3013,10 +3063,10 @@
         <v>102</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -3027,10 +3077,10 @@
         <v>110</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -3041,10 +3091,10 @@
         <v>109</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -3052,13 +3102,13 @@
         <v>111</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -3069,10 +3119,10 @@
         <v>113</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -3083,10 +3133,10 @@
         <v>115</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -3097,10 +3147,10 @@
         <v>116</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -3108,13 +3158,13 @@
         <v>117</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -3125,10 +3175,10 @@
         <v>118</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -3139,10 +3189,10 @@
         <v>120</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -3150,13 +3200,13 @@
         <v>122</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -3164,27 +3214,27 @@
         <v>123</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -3192,55 +3242,55 @@
         <v>179</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>180</v>
+        <v>521</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>257</v>
+        <v>522</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -3251,10 +3301,10 @@
         <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -3279,10 +3329,10 @@
         <v>133</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -3293,7 +3343,7 @@
         <v>135</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>143</v>
@@ -3307,7 +3357,7 @@
         <v>145</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>146</v>
@@ -3321,10 +3371,10 @@
         <v>148</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -3335,7 +3385,7 @@
         <v>150</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>151</v>
@@ -3349,10 +3399,10 @@
         <v>153</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -3363,10 +3413,10 @@
         <v>155</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -3377,10 +3427,10 @@
         <v>163</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -3391,10 +3441,10 @@
         <v>166</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -3405,10 +3455,10 @@
         <v>167</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -3419,10 +3469,10 @@
         <v>170</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -3433,10 +3483,10 @@
         <v>169</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -3447,10 +3497,10 @@
         <v>173</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -3461,10 +3511,10 @@
         <v>175</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -3475,513 +3525,513 @@
         <v>177</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="C105" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>388</v>
+        <v>453</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>389</v>
+        <v>454</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>391</v>
+        <v>490</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D110" s="12" t="s">
         <v>393</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>397</v>
+        <v>456</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>399</v>
+        <v>457</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>400</v>
+        <v>458</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>402</v>
+        <v>460</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>404</v>
+        <v>459</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>405</v>
+        <v>325</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>409</v>
+        <v>461</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>408</v>
+        <v>462</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>410</v>
+        <v>463</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>412</v>
+        <v>464</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>413</v>
+        <v>465</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>416</v>
+        <v>466</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>417</v>
+        <v>492</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>421</v>
+        <v>467</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>422</v>
+        <v>468</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>424</v>
+        <v>469</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>426</v>
+        <v>471</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>428</v>
+        <v>472</v>
+      </c>
+      <c r="D128" s="12" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>430</v>
+        <v>488</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>431</v>
+        <v>354</v>
+      </c>
+      <c r="D130" s="12" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="D131" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D131" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>435</v>
+        <v>474</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>437</v>
+        <v>475</v>
+      </c>
+      <c r="D133" s="12" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>438</v>
+        <v>476</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="D135" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
+      </c>
+      <c r="D135" s="14" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>442</v>
+        <v>348</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="D137" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D137" s="12" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="D138" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D138" s="12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="D139" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D139" s="12" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="D140" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D140" s="12" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3993,192 +4043,234 @@
         <v>94</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="D141" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D141" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="D142" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D142" s="12" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>448</v>
+        <v>485</v>
+      </c>
+      <c r="D143" s="12" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>450</v>
+        <v>486</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>453</v>
+        <v>487</v>
+      </c>
+      <c r="D145" s="12" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>499</v>
+        <v>513</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>501</v>
+        <v>514</v>
+      </c>
+      <c r="D147" s="12" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>503</v>
+        <v>515</v>
+      </c>
+      <c r="D148" s="12" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
+      </c>
+      <c r="D149" s="12" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>509</v>
+        <v>520</v>
+      </c>
+      <c r="D150" s="12" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>513</v>
-      </c>
       <c r="C151" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
+      </c>
+      <c r="D151" s="12" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>514</v>
-      </c>
       <c r="C152" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
+      </c>
+      <c r="D152" s="12" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B153" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="B153" s="3" t="s">
-        <v>515</v>
-      </c>
       <c r="C153" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C154" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>522</v>
-      </c>
       <c r="D154" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="B155" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="C155" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="D155" s="16" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="B156" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="C156" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="D156" s="15" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>529</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD97BFDA-9409-C841-81EA-9EAB1E7F75B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E208867-667C-8C45-BC4B-AE7DB531F767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="35840" windowHeight="20720" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="0" yWindow="2100" windowWidth="35840" windowHeight="20720" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="728">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -612,9 +612,6 @@
     <t>Mikrofontest</t>
   </si>
   <si>
-    <t>Klicken Sie auf den "Start test" Knopf. Wenn die Nachricht "Zulassen" erscheint, klicken Sie "Zulassen".</t>
-  </si>
-  <si>
     <t>Click on the "Start test" button. If you see a popup message that says "Allow", click "Allow".</t>
   </si>
   <si>
@@ -624,24 +621,12 @@
     <t>Signalvolumentest</t>
   </si>
   <si>
-    <t>Auf der nächsten Seite testen wie ob ihr Hintergrund zu laut war oder nicht. Wenn Ihr Hintergrund zu laut ist, können Sie den Test leider nicht durchführen. Es kann einige Sekunden dauern, die Seite zu laden.</t>
-  </si>
-  <si>
     <t>Bitte versuchen Sie keine Geräusche zu machen!</t>
   </si>
   <si>
-    <t>Ich Bin Bereit Meine Hintergrundgeräusche Aufzunehmen</t>
-  </si>
-  <si>
     <t>Weiter</t>
   </si>
   <si>
-    <t>Setup Bereit</t>
-  </si>
-  <si>
-    <t>Leider funktioniert der Test nicht mit Safari oder Internet Explorer und eventuell auch andere Browser.</t>
-  </si>
-  <si>
     <t>Browser testen</t>
   </si>
   <si>
@@ -687,15 +672,9 @@
     <t>Abschluss</t>
   </si>
   <si>
-    <t>Wenn es Ihnen nicht möglich ist, die Kopfhörerlautstärke auf ein komfortables Level anzupassen, fahren Sie bitte nicht fort.</t>
-  </si>
-  <si>
     <t>Bitte stellen Sie sicher, dass Ihr Mikrofon angeschlossen ist (insofern Sie ein externes Mikrofon benutzten).</t>
   </si>
   <si>
-    <t>Machen Sie ein Geräusch (z.B. summen, klatschen, singen). Wenn Sie während Sie das Geräusch machen innerhalb des Geräuschpegelfensters Bewegung sehen (farbige Linien die sich bewegen), dann funktioniert das Mikrofon. Andernfalls funktioniert es nicht.</t>
-  </si>
-  <si>
     <t>Ich kann innerhalb des Geräuschpegelfensters Bewegung sehen.</t>
   </si>
   <si>
@@ -705,9 +684,6 @@
     <t>Wenn Sie bereit sind Ihre Hintergrundgeräusche für 5 Sekunden aufzunehmen, drücken Sie den Knopf unten.</t>
   </si>
   <si>
-    <t>Okay, jetzt ist alles eingestellt. Klicken Sie hier um zu den Hauptaufgaben fortzufahren.</t>
-  </si>
-  <si>
     <t>Um diesen Test durchzuführen, brauchen Sie einen modernen Internetbrowser. Bitte nutzen Sie nicht Ihr Smartphone. Wir empfehlen die folgenden Browserversionen (oder neuere):</t>
   </si>
   <si>
@@ -813,9 +789,6 @@
     <t>Ihr Gerät sollte bereits angeschlossen gewesen sein bevor Sie diese Seite erreicht haben. Es kann einen Moment dauern bis es erscheint.</t>
   </si>
   <si>
-    <t>Wir werden jetzt Ihren ungefähren Stimmumfang feststellen. Als erstes werden Sie gebeten, den tiefsten Ton zu singen der Ihnen angenehm ist. Der Computer wird diesen Ton dann analysieren und Ihnen wiederspielen. Sie sollen dann entscheiden, ob dieser eine gute Reflektion Ihres tiefsten Tones ist. Manchmal kann der Computer stark abweichen. Sie werden es deutlich merken können wenn dies passiert und Sie werden die Möglichkeit haben Ihren Ton nochmals einzusingen um dem Computer eine weitere Chance zu geben.</t>
-  </si>
-  <si>
     <t>Wir werden jetzt den ungefähren Tonumfang Ihres Instrumentes feststellen. Sie werde gleich gebeten werden den tiefsten und höchsten Ton zu spielen, den Sie komfortabel erreichen können.</t>
   </si>
   <si>
@@ -1260,9 +1233,6 @@
     <t>Your vocal signal compared to the background noise is not sufficient for testing. Please find a quieter space, get closer to the mic, or adjust the volume and we will measure the vocal signal sound level again. If neither of these is possible for you, please email sebsilas@gmail.com with 'weak signal' in the subject space, and you will be contacted within 24 hours to troubleshoot this problem. You may also end the program and attempt to adjust your microphone volume and start the program again.</t>
   </si>
   <si>
-    <t>Not sure</t>
-  </si>
-  <si>
     <t>Your response was not understood. Perhaps your microphone is not setup correctly.</t>
   </si>
   <si>
@@ -1593,9 +1563,6 @@
     <t>Please enter your ID.</t>
   </si>
   <si>
-    <t>Bitte gib Deine ID ein.</t>
-  </si>
-  <si>
     <t>Per favore, inserisci il tuo codice.</t>
   </si>
   <si>
@@ -1605,9 +1572,6 @@
     <t>Sing along with the tone for several seconds.</t>
   </si>
   <si>
-    <t>Singen Sie mehrere Sekunden lang mit dem Tom mit.</t>
-  </si>
-  <si>
     <t>sure_continue</t>
   </si>
   <si>
@@ -1620,20 +1584,673 @@
     <t>Continue Anyway</t>
   </si>
   <si>
-    <t>Weitermachen Trotzdem</t>
-  </si>
-  <si>
     <t>record_instructions_playful</t>
   </si>
   <si>
     <t>When you sing, you will see a bird appear. Try testing this now by singing and watching the bird appear.</t>
+  </si>
+  <si>
+    <t>thank_you_for_completing</t>
+  </si>
+  <si>
+    <t>Thank you for completing the test.</t>
+  </si>
+  <si>
+    <t>lv</t>
+  </si>
+  <si>
+    <t>Es dzirdu melodiju, doties tālāk</t>
+  </si>
+  <si>
+    <t>Austiņu pārbaude</t>
+  </si>
+  <si>
+    <t>Tev vajadzētu dzirdēt audio. Tu vari sākt un beigt audio, klikšķinot uz trijstūra. Ja skaļums nav ērts, lūdzu, pielāgo to piemērotam skaļuma līmenim, kā tu parasti to dari savā datorā</t>
+  </si>
+  <si>
+    <t>Ja nav pieņemams skaļums, lūdzu, noregulē to sev ērtā līmenī.</t>
+  </si>
+  <si>
+    <t>Ja tu nevari pielāgot ērtu audio skaļuma līmeni, lūdzu, neturpini</t>
+  </si>
+  <si>
+    <t>Spied zemāk, ja atskaņošanas skaļuma līmenis ir ērts</t>
+  </si>
+  <si>
+    <t>Skaļuma līmenis ir ērts</t>
+  </si>
+  <si>
+    <t>Mikrofona pārbaude</t>
+  </si>
+  <si>
+    <t>Lūdzu, skaties uz zemāk esošo mikrofona skaļuma joslu:</t>
+  </si>
+  <si>
+    <t>Lūdzu, pārbaudi, vai mikrofons ir pievienots (ja lieto ārējo mikrofonu)</t>
+  </si>
+  <si>
+    <t>Spied uz pogas "Sākt testu". Ja redzi paziņojumu "Atļaut", tad spied "Atļaut"</t>
+  </si>
+  <si>
+    <t>Pārbaudi skaņu, piemēram, dungojot, aplaudējot, dziedot. Ja, pārbaudot skaņu, redzi kustīgu krāsainu joslu, mikrofons darbojas. Ja neredzi kustīgu krāsainu joslu, tad mikrofons nedarbojas.</t>
+  </si>
+  <si>
+    <t>Es redzu kustību skaļuma joslā</t>
+  </si>
+  <si>
+    <t>Signāla skaļuma pārbaude</t>
+  </si>
+  <si>
+    <t>Nākamajā lapā mēs pārbaudīsim telpas trokšņu līmeni. Ja telpa būs pārāk trokšņaina, tu nevarēsi pabeigt testu. Tas prasīs dažas sekundes.</t>
+  </si>
+  <si>
+    <t>Mums nepieciešams ierakstīt apkārtējā fona skaņas 5 sekunžu garumā. Lūdzu, tikmēr ievēro klusumu.</t>
+  </si>
+  <si>
+    <t>Kad esi gatavs ierakstīt apkārtējā fona skaņas, spied zemāk uz pogas</t>
+  </si>
+  <si>
+    <t>Lūdzu, centies netrokšņot!</t>
+  </si>
+  <si>
+    <t>Es esmu gatavs ierakstīt apkārtējā fona skaņas!</t>
+  </si>
+  <si>
+    <t>Tālāk</t>
+  </si>
+  <si>
+    <t>Iestatīšana pabeigta</t>
+  </si>
+  <si>
+    <t>Labi, tagad viss ir sagatavots! Spied, lai pārietu pie testa uzdevumiem!</t>
+  </si>
+  <si>
+    <t>Lai izpildītu testu, tev ir nepieciešams kāds no jaunākajiem interneta pārlūkiem. Lūdzu, neizmanto viedierīci! Mēs iesakām sekojošas pārlūkprogrammas:</t>
+  </si>
+  <si>
+    <t>Tests nestrādās pārlūkprogrammās Safari vai Internet Explorer un, iespējams, arī citās pārlūkprogrammās</t>
+  </si>
+  <si>
+    <t>Pārbaudi pārlūkprogrammu</t>
+  </si>
+  <si>
+    <t>Tev būs nepieciešams:</t>
+  </si>
+  <si>
+    <t>Klusa vieta</t>
+  </si>
+  <si>
+    <t>Austiņas</t>
+  </si>
+  <si>
+    <t>Mikrofons*</t>
+  </si>
+  <si>
+    <t>* Svarīgi! Iebūvētais datora mikrofons derēs, bet, ja iespējams, lūdzu, izmanto pievienojamo mikrofonu, novietojot to pēc iespējas tuvāk skaņas avotam.</t>
+  </si>
+  <si>
+    <t>Vai tev ir iepriekš minētās prasības?</t>
+  </si>
+  <si>
+    <t>Pievienojamais</t>
+  </si>
+  <si>
+    <t>Iebūvētais</t>
+  </si>
+  <si>
+    <t>Vai tu izmanto pievienojamo vai iebūvēto mikrofonu?</t>
+  </si>
+  <si>
+    <t>Jā</t>
+  </si>
+  <si>
+    <t>Nē</t>
+  </si>
+  <si>
+    <t>Vai</t>
+  </si>
+  <si>
+    <t>MIDI klaviatūra</t>
+  </si>
+  <si>
+    <t>Kad esi gatavs, spied uz “Ierakstīt” un apmēram 5 sekundes, lūdzu, dungo mikrofonā (lai "dungotu", dziedi ar aizvērtu muti)</t>
+  </si>
+  <si>
+    <t>Tava signāla un trokšņu attiecība ir</t>
+  </si>
+  <si>
+    <t>Lai turpinātu, tam jābūt augstākam par 14</t>
+  </si>
+  <si>
+    <t>Tavs apkārtējo trokšņu līmenis (signāla - trokšņu attiecība =</t>
+  </si>
+  <si>
+    <t>) ir optimāls, lai sāktu testu</t>
+  </si>
+  <si>
+    <t>_x000D_
+Atvaino,  tava pārlūkprogramma nav atbilstoša, lai izpildītu testu. Lai veiktu eksperimentu, lūdzu, lejupielādē jaunāko Google Chrome versiju.</t>
+  </si>
+  <si>
+    <t>Lūdzu, nospēlē ērtāko zemāko skaņu uz tava instrumenta. Spied STOP, kad esi pabeidzis.</t>
+  </si>
+  <si>
+    <t>Lūdzu, nospēlē ērtāko augstāko skaņu uz tava instrumenta. Spied STOP, kad esi pabeidzis.</t>
+  </si>
+  <si>
+    <t>Lūdzu, nodziedi ērtāko zemāko skaņu. Spied STOP, kad esi pabeidzis.</t>
+  </si>
+  <si>
+    <t>Lūdzu, nodziedi ērtāko augstāko skaņu. Spied STOP, kad esi pabeidzis.</t>
+  </si>
+  <si>
+    <t>Nav atlasīta neviena MIDI ierīce</t>
+  </si>
+  <si>
+    <t>Spēlēt</t>
+  </si>
+  <si>
+    <t>Ierakstīt</t>
+  </si>
+  <si>
+    <t>Tu neko neievadīji</t>
+  </si>
+  <si>
+    <t>Vai šī bija pareizā nots?</t>
+  </si>
+  <si>
+    <t>Šis ir tavs diapazons</t>
+  </si>
+  <si>
+    <t>Lūdzu, nospēlē zemāko skaņu uz tavas MIDI klaviatūras</t>
+  </si>
+  <si>
+    <t>Lūdzu, nospēlē augstāko skaņu uz tavas MIDI klaviatūras</t>
+  </si>
+  <si>
+    <t>atlikušie mēģinājumi</t>
+  </si>
+  <si>
+    <t>Tev ir atlicis viens mēģinājums</t>
+  </si>
+  <si>
+    <t>Tev ir</t>
+  </si>
+  <si>
+    <t>atlikušie mēģinājumi, ja vēlies</t>
+  </si>
+  <si>
+    <t>Tev ir atlicis viens mēģinājums, ja vēlies</t>
+  </si>
+  <si>
+    <t>Tev nav atlicis neviens mēģinājums. Spied, lai dzirdētu nākamo melodiju</t>
+  </si>
+  <si>
+    <t>Tagad tev būs dažas izmēģinājuma reizes</t>
+  </si>
+  <si>
+    <t>Dziedi melodiju!</t>
+  </si>
+  <si>
+    <t>Spied zemāk, lai dzirdētu melodiju. Atkārto melodiju. Spied STOP, kad esi pabeidzis.</t>
+  </si>
+  <si>
+    <t>Noslēgums</t>
+  </si>
+  <si>
+    <t>Paldies tev! Tu esi pabeidzis</t>
+  </si>
+  <si>
+    <t>Ļoti labi</t>
+  </si>
+  <si>
+    <t>Lieliski! Tagad tu esi gatavs īstajam testam</t>
+  </si>
+  <si>
+    <t>Ja tev ir kādi jautājumi, pirms turpini, lūdzu, jautā eksperimenta vadītājam</t>
+  </si>
+  <si>
+    <t>Mēģināt vēlreiz</t>
+  </si>
+  <si>
+    <t>Turpināt</t>
+  </si>
+  <si>
+    <t>Ja esi apmierināts ar savu atbildi, lūdzu spied "Turpināt", pretējā gadījumā spied "Mēģināt vēlreiz"</t>
+  </si>
+  <si>
+    <t>Pārlūkprogrammas prasības</t>
+  </si>
+  <si>
+    <t>Kad redzēsi šo attēlu, tava ievade tiks ierakstīta, tāpēc, lūdzu, mēģini un izpildi norādījumus, kad tas parādās.</t>
+  </si>
+  <si>
+    <t>Diapazona pārbaude</t>
+  </si>
+  <si>
+    <t>Atkārto dzirdēto melodiju!</t>
+  </si>
+  <si>
+    <t>Dziedi kopā ar šo skaņu</t>
+  </si>
+  <si>
+    <t>Dziedi līdzi skaņai 5 sekundes</t>
+  </si>
+  <si>
+    <t>Nākamajās izmēģinājuma reizēs, noklikšķinot uz pogas "Atskaņot", tu dzirdēsi 5 sekunžu garu skaņu</t>
+  </si>
+  <si>
+    <t>Lūdzu, mēģini nodziedāt precīzi to pašu skaņu un noturēt to.</t>
+  </si>
+  <si>
+    <t>Ja notis šķiet ārpus tava balss diapazona, dziedi savā balss diapazonā esošo noti, kas vislabāk atbilst notij, piemēram, citā oktāvā.</t>
+  </si>
+  <si>
+    <t>Mikrofons</t>
+  </si>
+  <si>
+    <t>Cits (lūdzu norādīt)</t>
+  </si>
+  <si>
+    <t>Lūdzu, norādi, kuru instrumentu izmantosi testā</t>
+  </si>
+  <si>
+    <t>Izvēlēties MIDI ierīci</t>
+  </si>
+  <si>
+    <t>Tavai ierīcei bija jābūt pieslēgtai, pirms atvēri šo lapu. Var paiet kāds brīdis, līdz tā parādīsies.</t>
+  </si>
+  <si>
+    <t>Nav atrasta neviena MIDI ierīce</t>
+  </si>
+  <si>
+    <t>Tagad mēs noteiksim tavu aptuveno balss diapazonu. Vispirms tev būs  jānodzied savu ērtāko zemāko skaņu. Pēc tam dators to analizēs, un tā tiks atskaņota tev. Tev būs jāizlemj, vai piedāvātā skaņa atbilst tavai zemākajai skaņai. Dažreiz dators mēdz kļūdīties. Ja tā notiek, tad tev būs iespēja vēlreiz nodziedāt savu skaņu.</t>
+  </si>
+  <si>
+    <t>Tagad mēs noteiksim tava instrumenta diapazonu. Tev būs jānospēlē  ērtākā zemākā un augstākā skaņa.</t>
+  </si>
+  <si>
+    <t>Iespējams, ka esi pārāk kluss vai tev ir pārāk trokšņains datora ventilators.</t>
+  </si>
+  <si>
+    <t>Tu vari nospiest zemāk, lai dzirdētu savu diapazonu</t>
+  </si>
+  <si>
+    <t>Lūdzu, ņem vērā, ka mēs, iespējams, esam mainījuši diapazonu, lai tas būtu nedaudz augstāks vai zemāks, nekā tu praktiski dziedāji</t>
+  </si>
+  <si>
+    <t>Lūdzu, ņem vērā, ka mēs, iespējams, esam mainījuši diapazonu, lai tas būtu nedaudz augstāks vai zemāks, nekā tu praktiski spēlēji</t>
+  </si>
+  <si>
+    <t>Lūdzu, nodziedi Happy Birthday</t>
+  </si>
+  <si>
+    <t>Pirmā skaņa ir:</t>
+  </si>
+  <si>
+    <t>Nospēlē pirmo skaņu</t>
+  </si>
+  <si>
+    <t>Lūdzu, ņem vērā, ka tas ir transponēts tavam instrumentam</t>
+  </si>
+  <si>
+    <t>Tu esi pabeidzis</t>
+  </si>
+  <si>
+    <t>Spied, lai turpinātu nākamo testu</t>
+  </si>
+  <si>
+    <t>Labākam rezultātam, pildi šo testu Google Chrome vai Opera pārlūkprogrammās. Citas pārlūkprogrammas arī var darboties.</t>
+  </si>
+  <si>
+    <t>Tagad uzstādi dažādus iestatījumus.</t>
+  </si>
+  <si>
+    <t>Lūdzu, norādi anonīmu identifikatoru, kuru zināsi tikai tu, ja kaut kas noies greizi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paldies tev! </t>
+  </si>
+  <si>
+    <t>Pārliecinies, vai tavas austiņas darbojas un noregulē skaļumu sev ērtā līmenī.</t>
+  </si>
+  <si>
+    <t>Lai noregulētu skaļumu, izmanto skaļuma regulēšanas opciju datorā</t>
+  </si>
+  <si>
+    <t>Mikrofona tips</t>
+  </si>
+  <si>
+    <t>Vai tu izmanto iebūvēto vai pievienojamo mikrofonu?</t>
+  </si>
+  <si>
+    <t>Iebūvēto</t>
+  </si>
+  <si>
+    <t>Pievienojamo</t>
+  </si>
+  <si>
+    <t>Neesmu pārliecināts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tavs balss signāls salīdzinājumā ar fona troksni nav pietiekams, lai veiktu pārbaudi. Lūdzu, atrodi klusāku telpu, pieej tuvāk mikrofonam vai noregulē skaļumu, un mēs vēlreiz izmēģināsim balss signāla skaņas līmeni. Ja neviens no šiem nav iespējams, tad raksti uz e-pastu sebsilas@gmail.com, temata laukā norādot 'vājš signāls', un ar tevi sazināsies 24 stundu laikā, lai novērstu problēmu. Tu vari arī restartēt programmu, noregulēt mikrofona skaļumu un mēģināt vēlreiz. </t>
+  </si>
+  <si>
+    <t>Tava atbilde bija nesaprotama. Iespējams tavs mikrofons nav pareizi uzstādīts.</t>
+  </si>
+  <si>
+    <t>Fona trokšņu līmeņa pārbaude</t>
+  </si>
+  <si>
+    <t>Tavs fona trokšņu līmenis ir labs</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ja tiek parādīts ziņojums, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">spied </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uz Atļaut. Spied uz Sākt testu, lai pārbaudītu, vai tavs mikrofons strādā. Izdari kādu skaņu.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tev vajadzētu redzēt krāsainu skaņas slīdni kustībā. Ja nestrādā, tad mēģini vēlreiz iestatīt mikrofonu un atkārtoti pievienoties pārbaudei.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ja skaņas slīdnis ir sarkanā krāsā, lūdzu, neturpini! Samazini mikrofona skaļumu vai atkāpies tālāk no tā. </t>
+  </si>
+  <si>
+    <t>Sākt testu</t>
+  </si>
+  <si>
+    <t>Kad tu esi gatavs, spied uz "Ierakstīt" un apmēram 5 sekundes dungo mikrofonā.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tagad mēs atradīsim tavu aptuveno balss diapazonu. Vispirms tev būs jānodzied sava zemākā - ērtākā skaņa, pēc tam augstākā. Katrā mēģinājuma reizē, dators analizēs tavu nodziedāto skaņu. Ja ir aizdomas, ka dators ierakstīja nepareizu skaņu, tu vari nodziedāt vēlreiz. </t>
+  </si>
+  <si>
+    <t>Instrukcijas</t>
+  </si>
+  <si>
+    <t>Sadaļas progress</t>
+  </si>
+  <si>
+    <t>Dziedi melodiju</t>
+  </si>
+  <si>
+    <t>Spied zemāk, lai dzirdētu melodiju. Atkārto melodiju. Spied Stop, kad esi beidzis.</t>
+  </si>
+  <si>
+    <t>Tagad tu dzirdēsi dažas melodijas. Lūdzu, izmēģini un nodziedi melodijas.</t>
+  </si>
+  <si>
+    <t>Ierakstīt audio</t>
+  </si>
+  <si>
+    <t>Spied Ierakstīt, lai ierakstītu audio</t>
+  </si>
+  <si>
+    <t>Ja tu biji apmierināts ar savu ierakstu, lūdzu spied "Tālāk", citādā gadījumā spied "Mēģini vēlreiz"</t>
+  </si>
+  <si>
+    <t>atlikuši mēģinājumi, ja vēlies</t>
+  </si>
+  <si>
+    <t>Tev vairs nav mēģinājumu. Spied, lai dzirdētu nākamo melodiju.</t>
+  </si>
+  <si>
+    <t>Tev atlicis viens mēģinājums</t>
+  </si>
+  <si>
+    <t>Ja vēlies, tev ir atlicis viens mēģinājums</t>
+  </si>
+  <si>
+    <t>Spied zemāk, lai dzirdētu melodiju. Dziedi melodiju un ritmu. Spied Stop, kad esi beidzis.</t>
+  </si>
+  <si>
+    <t>Dziedi melodiju un ritmus!</t>
+  </si>
+  <si>
+    <t>Tagad tu dzirdēsi dažas melodijas ar ritmiem. Lūdzu, mēģini un dziedi melodijas ar konkrēto ritmu.</t>
+  </si>
+  <si>
+    <t>Pirmais mēģinājums</t>
+  </si>
+  <si>
+    <t>Piemēru izmēģinājums</t>
+  </si>
+  <si>
+    <t>Tagad tu esi gatavs īstajam testam!</t>
+  </si>
+  <si>
+    <t>Nodziedi skaņu, kuru tu dzirdēsi</t>
+  </si>
+  <si>
+    <t>Kad dzirdēsi skaņu, dziedi to dažas sekundes</t>
+  </si>
+  <si>
+    <t>Kā atbildi tev būs jādzied dažas garas skaņas</t>
+  </si>
+  <si>
+    <t>Tavs uzdevumus ir atkārtot spēlēto skaņu.</t>
+  </si>
+  <si>
+    <t>Tev ir jāgaida līdz ierakstīšanas simbolam pirms tu sāc dziedāt.</t>
+  </si>
+  <si>
+    <t>Lūdzu, ievadi savu ID numuru.</t>
+  </si>
+  <si>
+    <t>Esi pārliecināts, ka vēlies turpināt?</t>
+  </si>
+  <si>
+    <t>Turpināt tāpat</t>
+  </si>
+  <si>
+    <t>Kad tu dziedāsi, tu redzēsi kā parādās putns. Mēģini tagad ar dziedāšanu un vēro, kā tas parādās.</t>
+  </si>
+  <si>
+    <t>Paldies par testa pabeigšanu!</t>
+  </si>
+  <si>
+    <t>Wenn es Ihnen nicht möglich ist, die Kopfhörerlautstärke auf ein komfortables Level anzupassen, fahren Sie nicht fort.</t>
+  </si>
+  <si>
+    <t>Bitte klicken Sie unterhalb, wenn die Lautstärke angenehm ist.</t>
+  </si>
+  <si>
+    <t>Bitte schauen Sie sich die Leiste unterhalb an:</t>
+  </si>
+  <si>
+    <t>Klicken Sie auf den "Start Test" Knopf. Wenn die Nachricht "Zulassen" erscheint, klicken Sie "Zulassen".</t>
+  </si>
+  <si>
+    <t>Machen Sie ein Geräusch (z.B. summen, klatschen, singen). Wenn Sie, während Sie das Geräusch machen, innerhalb des Geräuschpegelfensters Bewegung sehen (farbige Linien, die sich bewegen), dann funktioniert das Mikrofon. Andernfalls funktioniert es nicht.</t>
+  </si>
+  <si>
+    <t>Auf der nächsten Seite testen wir, ob ihr Hintergrund zu laut war oder nicht. Wenn Ihr Hintergrund zu laut ist, können Sie den Test leider nicht durchführen. Es kann einige Sekunden dauern, die Seite zu laden.</t>
+  </si>
+  <si>
+    <t>Ich bin bereit meine Hintergrundgeräusche aufzunehmen</t>
+  </si>
+  <si>
+    <t>Setup bereit</t>
+  </si>
+  <si>
+    <t>Okay, jetzt ist alles eingestellt. Klicken Sie hier, um mit den Hauptaufgaben fortzufahren.</t>
+  </si>
+  <si>
+    <t>Leider funktioniert der Test nicht mit Safari oder Internet Explorer und eventuell auch anderen Browsern.</t>
+  </si>
+  <si>
+    <t>Singen Sie 5 Sekunden lang mit dem Tom mit.</t>
+  </si>
+  <si>
+    <t>Wir werden jetzt Ihren ungefähren Stimmumfang feststellen. Als erstes werden Sie gebeten, den tiefsten Ton zu singen der Ihnen angenehm ist. Der Computer wird diesen Ton dann analysieren und Ihnen widerspielen. Sie sollen dann entscheiden, ob dieser eine gute Reflektion Ihres tiefsten Tones ist. Manchmal kann der Computer stark abweichen. Sie werden es deutlich merken können wenn dies passiert und Sie werden die Möglichkeit haben Ihren Ton nochmals einzusingen um dem Computer eine weitere Chance zu geben.</t>
+  </si>
+  <si>
+    <t>Nutzen Sie für die besten Ergebnisse Google Chrome oder Opera. Andere Browser funktionieren möglicherweise auch.</t>
+  </si>
+  <si>
+    <t>Lass Sie uns jetzt alles einrichten.</t>
+  </si>
+  <si>
+    <t>Bitte geben Sie einen anonymen Identifikator ein, den nur Sie kennen, für den Fall, dass etwas falsch läuft.</t>
+  </si>
+  <si>
+    <t>Bitter vergewissern Sie sich, dass die Kopfhörer funktionieren und stellen Sie die Lautstärke auf ein passendes Level.</t>
+  </si>
+  <si>
+    <t>Nutzen Sie die übliche Art, um die Lautstärke am Computer einzustellen.</t>
+  </si>
+  <si>
+    <t>Mikrofon Typ</t>
+  </si>
+  <si>
+    <t>Nutzen Sie ein internes (eingebautes) oder externes (eingestecktes) Mikrofon?</t>
+  </si>
+  <si>
+    <t>intern</t>
+  </si>
+  <si>
+    <t>extern</t>
+  </si>
+  <si>
+    <t>Nicht sicher</t>
+  </si>
+  <si>
+    <t>Ihre Gesangslautstärke ist im Vergleich zu Hintergrundgeräuschen nicht ausreichend. Bitte finden Sie einen ruhigeren Ort, gehen Sie näher an das Mikrofon oder passen Sie die Laustärke an. Danach messen wir die Gesangslautstärke erneut. Falls dies nicht möglich ist, kontaktieren Sie bitte sebsilas@gmail.com mit dem Betreff "weak signal" und Sie werden innerhalb von 24 Stunden erreicht, um das Problem zu lösen. Sie können auch versuchen, das Programm zu schließen, die Mikrofonlaustärke einzustellen und das Programm neu zu starten.</t>
+  </si>
+  <si>
+    <t>Ihre Antwort wurde nicht gehört. Möglicherweise ist Ihr Mikrofon nicht richtig eingstellt.</t>
+  </si>
+  <si>
+    <t>Überprüfung des Hintergrundgeräuschpegels</t>
+  </si>
+  <si>
+    <t>Ihr Hintergrundgeräuschpegel ist gut</t>
+  </si>
+  <si>
+    <t>Falls eine Nachricht erscheint, klicken Sie zulassen. Drücken Sie Test starten, um zu überprüfen, ob das Mikrofon funktioniert. Machen Sie ein paar Geräusche.</t>
+  </si>
+  <si>
+    <t>Sie sollten einige Farben auf der Leiste sehen, wenn es funktioniert. Falls nicht, versuchen Sie Ihr Mikrofon erneut einzustellen und beginnen Sie den Test nochmal.</t>
+  </si>
+  <si>
+    <t>Wenn die Leiste rot ist, sobald Sie ihr Instrument spielen, stoppen Sie. Drehen Sie die Eingangslautstärke des Mikrofons runter oder bewegen Sie sich weiter weg davon.</t>
+  </si>
+  <si>
+    <t>Test starten</t>
+  </si>
+  <si>
+    <t>Wenn Sie bereit sind, klicken Sie auf "Aufnehmen" und summen Sie bitte für 5 Sekunden in Richtung des Mikrofons. (Um zu summen, pressen Sie Ihre Lippen zusammen und machen Sie ein Geräusch.)</t>
+  </si>
+  <si>
+    <t>Wir werden jetzt Ihren optimalen Stimmumfang finden. Sie werden zuerst gefragt, Ihre tiefste noch angenehme Note zu singen und dann die höchste. Bei jedem Versuch, wird der Computer die Note analysieren. Falls Sie denken, dass die falsche Note aufgenommen wurde, können Sie es erneut veruschen.</t>
+  </si>
+  <si>
+    <t>Anweisungen</t>
+  </si>
+  <si>
+    <t>Abschnitt Fortschritt</t>
+  </si>
+  <si>
+    <t>Singe die Melodie</t>
+  </si>
+  <si>
+    <t>Klicken Sie auf die Schaltfläche unterhalb, um die Melodie zu hören. Singen Sie diese nach. Klicken Sie Stop, wenn Sie fertig sind.</t>
+  </si>
+  <si>
+    <t>Jetzt hören Sie einige Melodien. Bitte versuchen Sie diese nachzusingen.</t>
+  </si>
+  <si>
+    <t>Ton aufnehmen</t>
+  </si>
+  <si>
+    <t>Klicken Sie aufnehmen, um den Ton aufzunehmen.</t>
+  </si>
+  <si>
+    <t>Wenn Sie zufrieden sind mit Ihrer Antwort, klicken sie auf "Weitermachen", alternativ klicken Sie auf "Nochmal versuchen".</t>
+  </si>
+  <si>
+    <t>Sie haben keinen Versuch mehr übrig. Klicken Sie weiter, um die nächste Melodie zu hören.</t>
+  </si>
+  <si>
+    <t>Sie haben einen Versuch übrig.</t>
+  </si>
+  <si>
+    <t>Sie haben einen Versuch übrig, wenn Sie möchten</t>
+  </si>
+  <si>
+    <t>Klicken Sie auf die Schaltfläche unterhalb, um die Melodie zu hören. Singen Sie diese und den Rhythmus nach. Klicken Sie Stop, wenn Sie fertig sind.</t>
+  </si>
+  <si>
+    <t>Singen Sie die Melodie und den Rhythmus.</t>
+  </si>
+  <si>
+    <t>Jetzt hören Sie einige Melodien mit Rhythmen. Bitte versuchen Sie diese Melodien mit den Rhythmen nachzusingen.</t>
+  </si>
+  <si>
+    <t>Versuchen Sie zuerst</t>
+  </si>
+  <si>
+    <t>Beispieltübungen</t>
+  </si>
+  <si>
+    <t>Jetzt sind Sie bereit für den richtigen Versuch!</t>
+  </si>
+  <si>
+    <t>Singen Sie diese Note, nachdem sie ertönt ist.</t>
+  </si>
+  <si>
+    <t>Singen Sie diese Note für 5 Sekunden, nachdem Sie diese gehört haben.</t>
+  </si>
+  <si>
+    <t>Jetzt werden Sie einige lange Noten als Antwort singen.</t>
+  </si>
+  <si>
+    <t>Ihre Aufgabe ist es, die Note zu singen, nachdem sie abgespielt wurde.</t>
+  </si>
+  <si>
+    <t>Warten Sie auf das Aufnahme-Symbol, bevor Sie mit dem Singen starten.</t>
+  </si>
+  <si>
+    <t>Bitte geben Sie Ihre ID ein.</t>
+  </si>
+  <si>
+    <t>Sind Sie sicher, dass Sie fortfahren möchten?</t>
+  </si>
+  <si>
+    <t>Trotzdem weitermachen</t>
+  </si>
+  <si>
+    <t>Wenn Sie singen, wird ein Vogel auftauchen. Versuchen sie das jetzt zu testen, indem Sie singen und beobachten, wie der Vogel auftaucht.</t>
+  </si>
+  <si>
+    <t>Vielen Dank für Ihre Teilnahme bei diesem Test.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1667,19 +2284,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1714,7 +2340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1736,16 +2362,33 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2060,10 +2703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
-  <dimension ref="A1:D157"/>
+  <dimension ref="A1:E158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D157" sqref="D157"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D160" sqref="D160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2075,7 +2718,7 @@
     <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2083,13 +2726,16 @@
         <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="13" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2097,13 +2743,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="14" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -2111,41 +2760,50 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D3" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="14" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D4" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="14" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D5" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="14" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
@@ -2153,27 +2811,33 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>669</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>670</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>51</v>
       </c>
@@ -2181,13 +2845,16 @@
         <v>189</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D8" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="14" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
@@ -2195,27 +2862,33 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D9" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="14" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>671</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>53</v>
       </c>
@@ -2223,41 +2896,50 @@
         <v>57</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>672</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>673</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>52</v>
       </c>
@@ -2265,27 +2947,33 @@
         <v>178</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" s="14" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>65</v>
       </c>
@@ -2293,13 +2981,16 @@
         <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>674</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>58</v>
       </c>
@@ -2307,13 +2998,16 @@
         <v>128</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>59</v>
       </c>
@@ -2321,13 +3015,16 @@
         <v>129</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>60</v>
       </c>
@@ -2335,13 +3032,16 @@
         <v>5</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>61</v>
       </c>
@@ -2349,13 +3049,16 @@
         <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>675</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
@@ -2363,13 +3066,16 @@
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
@@ -2377,13 +3083,16 @@
         <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>676</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
@@ -2391,13 +3100,16 @@
         <v>11</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>677</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>14</v>
       </c>
@@ -2405,13 +3117,16 @@
         <v>15</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>16</v>
       </c>
@@ -2421,11 +3136,14 @@
       <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>18</v>
       </c>
@@ -2435,11 +3153,14 @@
       <c r="C26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -2449,11 +3170,14 @@
       <c r="C27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
@@ -2463,11 +3187,14 @@
       <c r="C28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>24</v>
       </c>
@@ -2475,13 +3202,16 @@
         <v>131</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>678</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>25</v>
       </c>
@@ -2489,13 +3219,16 @@
         <v>26</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
@@ -2503,13 +3236,16 @@
         <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
@@ -2517,13 +3253,16 @@
         <v>30</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -2531,13 +3270,16 @@
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -2545,27 +3287,33 @@
         <v>34</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>75</v>
       </c>
@@ -2573,13 +3321,16 @@
         <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -2587,13 +3338,16 @@
         <v>37</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -2601,13 +3355,16 @@
         <v>39</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
@@ -2615,13 +3372,16 @@
         <v>41</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
@@ -2629,13 +3389,16 @@
         <v>42</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D40" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D40" s="16" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" s="14" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
@@ -2645,11 +3408,14 @@
       <c r="C41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="16" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41" s="14" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>44</v>
       </c>
@@ -2657,13 +3423,16 @@
         <v>44</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D42" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D42" s="16" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42" s="14" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>46</v>
       </c>
@@ -2671,13 +3440,16 @@
         <v>45</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D43" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D43" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43" s="14" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>63</v>
       </c>
@@ -2685,13 +3457,16 @@
         <v>130</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
@@ -2699,13 +3474,16 @@
         <v>67</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>68</v>
       </c>
@@ -2713,13 +3491,16 @@
         <v>69</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>70</v>
       </c>
@@ -2727,13 +3508,16 @@
         <v>71</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>72</v>
       </c>
@@ -2741,27 +3525,33 @@
         <v>73</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>77</v>
       </c>
@@ -2769,13 +3559,16 @@
         <v>158</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>78</v>
       </c>
@@ -2783,13 +3576,16 @@
         <v>159</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>156</v>
       </c>
@@ -2797,13 +3593,16 @@
         <v>160</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>157</v>
       </c>
@@ -2811,13 +3610,16 @@
         <v>161</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>79</v>
       </c>
@@ -2825,13 +3627,16 @@
         <v>80</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>81</v>
       </c>
@@ -2841,11 +3646,14 @@
       <c r="C55" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D55" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>82</v>
       </c>
@@ -2853,13 +3661,16 @@
         <v>82</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>83</v>
       </c>
@@ -2867,13 +3678,16 @@
         <v>98</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>84</v>
       </c>
@@ -2881,13 +3695,16 @@
         <v>7</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>85</v>
       </c>
@@ -2895,13 +3712,16 @@
         <v>99</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>86</v>
       </c>
@@ -2909,13 +3729,16 @@
         <v>96</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>87</v>
       </c>
@@ -2923,13 +3746,16 @@
         <v>97</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>136</v>
       </c>
@@ -2937,13 +3763,16 @@
         <v>137</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>138</v>
       </c>
@@ -2951,13 +3780,16 @@
         <v>139</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>89</v>
       </c>
@@ -2965,13 +3797,16 @@
         <v>90</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>91</v>
       </c>
@@ -2979,13 +3814,16 @@
         <v>92</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>93</v>
       </c>
@@ -2993,13 +3831,16 @@
         <v>94</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>88</v>
       </c>
@@ -3007,13 +3848,16 @@
         <v>95</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>100</v>
       </c>
@@ -3021,13 +3865,16 @@
         <v>101</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>105</v>
       </c>
@@ -3035,13 +3882,16 @@
         <v>104</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>106</v>
       </c>
@@ -3049,13 +3899,16 @@
         <v>103</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>102</v>
       </c>
@@ -3063,13 +3916,16 @@
         <v>102</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>107</v>
       </c>
@@ -3077,13 +3933,16 @@
         <v>110</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>108</v>
       </c>
@@ -3091,27 +3950,33 @@
         <v>109</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>112</v>
       </c>
@@ -3119,13 +3984,16 @@
         <v>113</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>114</v>
       </c>
@@ -3133,13 +4001,16 @@
         <v>115</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>116</v>
       </c>
@@ -3147,27 +4018,33 @@
         <v>116</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>119</v>
       </c>
@@ -3175,13 +4052,16 @@
         <v>118</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>121</v>
       </c>
@@ -3189,111 +4069,135 @@
         <v>120</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>179</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C84" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>679</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D87" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>125</v>
       </c>
@@ -3301,13 +4205,16 @@
         <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>127</v>
       </c>
@@ -3317,11 +4224,14 @@
       <c r="C89" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="16" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E89" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>132</v>
       </c>
@@ -3329,13 +4239,16 @@
         <v>133</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>134</v>
       </c>
@@ -3343,13 +4256,16 @@
         <v>135</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="D91" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D91" s="16" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E91" s="14" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>144</v>
       </c>
@@ -3357,13 +4273,16 @@
         <v>145</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D92" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D92" s="16" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E92" s="14" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>147</v>
       </c>
@@ -3371,13 +4290,16 @@
         <v>148</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>149</v>
       </c>
@@ -3385,13 +4307,16 @@
         <v>150</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D94" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D94" s="16" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="E94" s="14" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>152</v>
       </c>
@@ -3399,13 +4324,16 @@
         <v>153</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>680</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>154</v>
       </c>
@@ -3413,13 +4341,16 @@
         <v>155</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+      <c r="D96" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="E96" s="14" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>162</v>
       </c>
@@ -3427,13 +4358,16 @@
         <v>163</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+      <c r="D97" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="E97" s="14" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>164</v>
       </c>
@@ -3441,13 +4375,16 @@
         <v>166</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+      <c r="D98" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="E98" s="14" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>171</v>
       </c>
@@ -3455,13 +4392,16 @@
         <v>167</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+      <c r="D99" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="E99" s="14" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>165</v>
       </c>
@@ -3469,13 +4409,16 @@
         <v>170</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="D100" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="E100" s="14" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>168</v>
       </c>
@@ -3483,13 +4426,16 @@
         <v>169</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+      <c r="D101" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="E101" s="14" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>172</v>
       </c>
@@ -3497,13 +4443,16 @@
         <v>173</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+      <c r="D102" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="E102" s="14" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>174</v>
       </c>
@@ -3511,13 +4460,16 @@
         <v>175</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+      <c r="D103" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="E103" s="14" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>176</v>
       </c>
@@ -3525,13 +4477,16 @@
         <v>177</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+        <v>374</v>
+      </c>
+      <c r="D104" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="E104" s="14" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>180</v>
       </c>
@@ -3539,13 +4494,16 @@
         <v>181</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+      <c r="D105" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="E105" s="14" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>183</v>
       </c>
@@ -3553,489 +4511,594 @@
         <v>182</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+        <v>479</v>
+      </c>
+      <c r="D106" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="E106" s="14" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D107" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="E107" s="14" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D108" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="E108" s="14" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D109" s="16" t="s">
+        <v>683</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D110" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="E110" s="14" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B111" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C111" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D111" s="16" t="s">
+        <v>684</v>
+      </c>
+      <c r="E111" s="14" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D112" s="16" t="s">
+        <v>685</v>
+      </c>
+      <c r="E112" s="14" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D113" s="16" t="s">
+        <v>686</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D114" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="E114" s="14" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D115" s="16" t="s">
+        <v>688</v>
+      </c>
+      <c r="E115" s="14" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D116" s="16" t="s">
+        <v>689</v>
+      </c>
+      <c r="E116" s="14" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D117" s="16" t="s">
+        <v>690</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D118" s="22" t="s">
+        <v>691</v>
+      </c>
+      <c r="E118" s="15" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D107" s="12" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="C108" s="2" t="s">
+      <c r="D119" s="16" t="s">
+        <v>692</v>
+      </c>
+      <c r="E119" s="14" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="D108" s="12" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="D109" s="12" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C110" s="2" t="s">
+      <c r="D120" s="16" t="s">
+        <v>693</v>
+      </c>
+      <c r="E120" s="14" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="D110" s="12" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C111" s="2" t="s">
+      <c r="D121" s="16" t="s">
+        <v>694</v>
+      </c>
+      <c r="E121" s="14" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="D111" s="12" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C112" s="2" t="s">
+      <c r="D122" s="16" t="s">
+        <v>695</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D123" s="16" t="s">
+        <v>696</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="D112" s="12" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C113" s="2" t="s">
+      <c r="D124" s="16" t="s">
+        <v>697</v>
+      </c>
+      <c r="E124" s="14" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="D113" s="12" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="D114" s="12" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C115" s="2" t="s">
+      <c r="D125" s="16" t="s">
+        <v>698</v>
+      </c>
+      <c r="E125" s="14" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="D115" s="12" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D116" s="12" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C117" s="2" t="s">
+      <c r="D126" s="16" t="s">
+        <v>699</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="D117" s="12" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="C118" s="2" t="s">
+      <c r="D127" s="16" t="s">
+        <v>700</v>
+      </c>
+      <c r="E127" s="14" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="D118" s="13" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="D119" s="12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D120" s="12" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D121" s="12" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="D122" s="12" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
+      <c r="D128" s="16" t="s">
+        <v>701</v>
+      </c>
+      <c r="E128" s="14" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="D123" s="12" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="s">
+      <c r="B129" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="C129" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D129" s="16" t="s">
+        <v>702</v>
+      </c>
+      <c r="E129" s="14" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="D124" s="12" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
+      <c r="C130" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D130" s="16" t="s">
+        <v>703</v>
+      </c>
+      <c r="E130" s="14" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D125" s="12" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="D126" s="12" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D127" s="12" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D128" s="12" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="D129" s="12" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D130" s="12" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="D131" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+        <v>463</v>
+      </c>
+      <c r="D131" s="16" t="s">
+        <v>704</v>
+      </c>
+      <c r="E131" s="14" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D132" s="12" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+      <c r="D132" s="16" t="s">
+        <v>705</v>
+      </c>
+      <c r="E132" s="14" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="D133" s="12" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+      <c r="D133" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="E133" s="14" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D134" s="12" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+      <c r="D134" s="16" t="s">
+        <v>707</v>
+      </c>
+      <c r="E134" s="14" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="D135" s="14" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+      <c r="D135" s="23" t="s">
+        <v>708</v>
+      </c>
+      <c r="E135" s="14" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D136" s="12" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+      <c r="D136" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="E136" s="14" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="D137" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+      <c r="D137" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="E137" s="14" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="D138" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+      <c r="D138" s="16" t="s">
+        <v>709</v>
+      </c>
+      <c r="E138" s="14" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="D139" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+      <c r="D139" s="16" t="s">
+        <v>710</v>
+      </c>
+      <c r="E139" s="14" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="D140" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+      <c r="D140" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="E140" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>93</v>
       </c>
@@ -4043,234 +5106,302 @@
         <v>94</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="D141" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+        <v>473</v>
+      </c>
+      <c r="D141" s="16" t="s">
+        <v>711</v>
+      </c>
+      <c r="E141" s="14" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="D142" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+      <c r="D142" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="E142" s="14" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="D143" s="12" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+      <c r="D143" s="16" t="s">
+        <v>712</v>
+      </c>
+      <c r="E143" s="14" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="C144" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D144" s="16" t="s">
+        <v>713</v>
+      </c>
+      <c r="E144" s="14" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D145" s="16" t="s">
+        <v>714</v>
+      </c>
+      <c r="E145" s="14" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="D144" s="12" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="C145" s="2" t="s">
+      <c r="B146" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="D145" s="12" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
+      <c r="C146" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D146" s="16" t="s">
+        <v>715</v>
+      </c>
+      <c r="E146" s="14" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D147" s="16" t="s">
+        <v>716</v>
+      </c>
+      <c r="E147" s="14" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D148" s="16" t="s">
+        <v>717</v>
+      </c>
+      <c r="E148" s="14" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D149" s="16" t="s">
+        <v>718</v>
+      </c>
+      <c r="E149" s="14" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B150" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D150" s="16" t="s">
+        <v>719</v>
+      </c>
+      <c r="E150" s="14" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="B151" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D151" s="16" t="s">
+        <v>720</v>
+      </c>
+      <c r="E151" s="14" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="D152" s="16" t="s">
+        <v>721</v>
+      </c>
+      <c r="E152" s="14" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D153" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="E153" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="E154" s="14" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="C155" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="D155" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="E155" s="14" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="11" t="s">
         <v>513</v>
       </c>
-      <c r="D146" s="12" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="C147" s="2" t="s">
+      <c r="B156" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="D147" s="12" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="C148" s="2" t="s">
+      <c r="C156" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="E156" s="14" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="D148" s="12" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="D149" s="12" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="D150" s="12" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="D151" s="12" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="D152" s="12" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="D153" s="11" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="2" t="s">
+      <c r="B157" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="C157" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="E157" s="14" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="D154" s="2" t="s">
+      <c r="B158" s="2" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" s="15" t="s">
-        <v>523</v>
-      </c>
-      <c r="B155" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="C155" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="D155" s="16" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="15" t="s">
-        <v>525</v>
-      </c>
-      <c r="B156" s="15" t="s">
-        <v>526</v>
-      </c>
-      <c r="C156" s="15" t="s">
-        <v>526</v>
-      </c>
-      <c r="D156" s="15" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>529</v>
+      <c r="C158" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="E158" s="14" t="s">
+        <v>668</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E208867-667C-8C45-BC4B-AE7DB531F767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D004EE5F-34BD-C049-A95A-ED22B52DA072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2100" windowWidth="35840" windowHeight="20720" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="0" yWindow="3380" windowWidth="35840" windowHeight="20720" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="740">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -2244,6 +2244,42 @@
   </si>
   <si>
     <t>Vielen Dank für Ihre Teilnahme bei diesem Test.</t>
+  </si>
+  <si>
+    <t>Play this melody.</t>
+  </si>
+  <si>
+    <t>Press play to hear the melody. Play back the melody.</t>
+  </si>
+  <si>
+    <t>Now you will hear some melodies. Please try and play back the melodies.</t>
+  </si>
+  <si>
+    <t>arrhythmic_melody_trial_page_text</t>
+  </si>
+  <si>
+    <t>arrhythmic_melody_trial_page_title</t>
+  </si>
+  <si>
+    <t>arrhythmic_melody_trial_instruction_text</t>
+  </si>
+  <si>
+    <t>rhythmic_melody_trial_page_text</t>
+  </si>
+  <si>
+    <t>rhythmic_melody_trial_page_title</t>
+  </si>
+  <si>
+    <t>rhythmic_melody_trial_instruction_text</t>
+  </si>
+  <si>
+    <t>Press play to hear the melody with rhythms. Play back the melody.</t>
+  </si>
+  <si>
+    <t>Play this melody and the rhythms.</t>
+  </si>
+  <si>
+    <t>Now you will hear some melodies with rhythms. Please try and play back the melodies.</t>
   </si>
 </sst>
 </file>
@@ -2340,7 +2376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2367,28 +2403,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2703,10 +2720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
-  <dimension ref="A1:E158"/>
+  <dimension ref="A1:E164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D160" sqref="D160"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C162" sqref="C162:E164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2745,10 +2762,10 @@
       <c r="C2" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" t="s">
         <v>520</v>
       </c>
     </row>
@@ -2762,10 +2779,10 @@
       <c r="C3" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" t="s">
         <v>521</v>
       </c>
     </row>
@@ -2779,10 +2796,10 @@
       <c r="C4" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" t="s">
         <v>522</v>
       </c>
     </row>
@@ -2796,10 +2813,10 @@
       <c r="C5" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" t="s">
         <v>523</v>
       </c>
     </row>
@@ -2813,10 +2830,10 @@
       <c r="C6" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" t="s">
         <v>524</v>
       </c>
     </row>
@@ -2830,10 +2847,10 @@
       <c r="C7" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" t="s">
         <v>525</v>
       </c>
     </row>
@@ -2847,10 +2864,10 @@
       <c r="C8" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" t="s">
         <v>526</v>
       </c>
     </row>
@@ -2864,10 +2881,10 @@
       <c r="C9" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" t="s">
         <v>527</v>
       </c>
     </row>
@@ -2881,10 +2898,10 @@
       <c r="C10" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" t="s">
         <v>528</v>
       </c>
     </row>
@@ -2898,10 +2915,10 @@
       <c r="C11" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" t="s">
         <v>529</v>
       </c>
     </row>
@@ -2915,10 +2932,10 @@
       <c r="C12" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" t="s">
         <v>530</v>
       </c>
     </row>
@@ -2932,10 +2949,10 @@
       <c r="C13" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" t="s">
         <v>531</v>
       </c>
     </row>
@@ -2949,10 +2966,10 @@
       <c r="C14" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" t="s">
         <v>532</v>
       </c>
     </row>
@@ -2966,10 +2983,10 @@
       <c r="C15" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" t="s">
         <v>533</v>
       </c>
     </row>
@@ -2983,10 +3000,10 @@
       <c r="C16" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" t="s">
         <v>534</v>
       </c>
     </row>
@@ -3000,10 +3017,10 @@
       <c r="C17" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" t="s">
         <v>535</v>
       </c>
     </row>
@@ -3017,10 +3034,10 @@
       <c r="C18" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" t="s">
         <v>536</v>
       </c>
     </row>
@@ -3034,10 +3051,10 @@
       <c r="C19" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" t="s">
         <v>537</v>
       </c>
     </row>
@@ -3051,10 +3068,10 @@
       <c r="C20" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" t="s">
         <v>538</v>
       </c>
     </row>
@@ -3068,10 +3085,10 @@
       <c r="C21" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" t="s">
         <v>539</v>
       </c>
     </row>
@@ -3085,10 +3102,10 @@
       <c r="C22" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" t="s">
         <v>540</v>
       </c>
     </row>
@@ -3102,10 +3119,10 @@
       <c r="C23" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" t="s">
         <v>541</v>
       </c>
     </row>
@@ -3119,10 +3136,10 @@
       <c r="C24" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" t="s">
         <v>542</v>
       </c>
     </row>
@@ -3136,10 +3153,10 @@
       <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3153,10 +3170,10 @@
       <c r="C26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3170,10 +3187,10 @@
       <c r="C27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3187,10 +3204,10 @@
       <c r="C28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3204,10 +3221,10 @@
       <c r="C29" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" t="s">
         <v>543</v>
       </c>
     </row>
@@ -3221,10 +3238,10 @@
       <c r="C30" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" t="s">
         <v>544</v>
       </c>
     </row>
@@ -3238,10 +3255,10 @@
       <c r="C31" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" t="s">
         <v>545</v>
       </c>
     </row>
@@ -3255,10 +3272,10 @@
       <c r="C32" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" t="s">
         <v>546</v>
       </c>
     </row>
@@ -3272,10 +3289,10 @@
       <c r="C33" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" t="s">
         <v>547</v>
       </c>
     </row>
@@ -3289,10 +3306,10 @@
       <c r="C34" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" t="s">
         <v>548</v>
       </c>
     </row>
@@ -3306,10 +3323,10 @@
       <c r="C35" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" t="s">
         <v>549</v>
       </c>
     </row>
@@ -3323,10 +3340,10 @@
       <c r="C36" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" t="s">
         <v>550</v>
       </c>
     </row>
@@ -3340,10 +3357,10 @@
       <c r="C37" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" t="s">
         <v>551</v>
       </c>
     </row>
@@ -3357,10 +3374,10 @@
       <c r="C38" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" t="s">
         <v>552</v>
       </c>
     </row>
@@ -3374,10 +3391,10 @@
       <c r="C39" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" t="s">
         <v>553</v>
       </c>
     </row>
@@ -3391,10 +3408,10 @@
       <c r="C40" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" t="s">
         <v>554</v>
       </c>
     </row>
@@ -3408,10 +3425,10 @@
       <c r="C41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" t="s">
         <v>555</v>
       </c>
     </row>
@@ -3425,10 +3442,10 @@
       <c r="C42" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" t="s">
         <v>556</v>
       </c>
     </row>
@@ -3442,10 +3459,10 @@
       <c r="C43" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" t="s">
         <v>557</v>
       </c>
     </row>
@@ -3459,10 +3476,10 @@
       <c r="C44" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" t="s">
         <v>558</v>
       </c>
     </row>
@@ -3476,10 +3493,10 @@
       <c r="C45" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" t="s">
         <v>559</v>
       </c>
     </row>
@@ -3493,10 +3510,10 @@
       <c r="C46" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" t="s">
         <v>560</v>
       </c>
     </row>
@@ -3510,10 +3527,10 @@
       <c r="C47" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" t="s">
         <v>561</v>
       </c>
     </row>
@@ -3527,10 +3544,10 @@
       <c r="C48" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" t="s">
         <v>562</v>
       </c>
     </row>
@@ -3544,10 +3561,10 @@
       <c r="C49" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" t="s">
         <v>563</v>
       </c>
     </row>
@@ -3561,10 +3578,10 @@
       <c r="C50" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="E50" t="s">
         <v>564</v>
       </c>
     </row>
@@ -3578,10 +3595,10 @@
       <c r="C51" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="E51" t="s">
         <v>565</v>
       </c>
     </row>
@@ -3595,10 +3612,10 @@
       <c r="C52" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="E52" t="s">
         <v>566</v>
       </c>
     </row>
@@ -3612,10 +3629,10 @@
       <c r="C53" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E53" t="s">
         <v>567</v>
       </c>
     </row>
@@ -3629,10 +3646,10 @@
       <c r="C54" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E54" t="s">
         <v>568</v>
       </c>
     </row>
@@ -3646,10 +3663,10 @@
       <c r="C55" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" t="s">
         <v>569</v>
       </c>
     </row>
@@ -3663,10 +3680,10 @@
       <c r="C56" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="D56" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E56" s="14" t="s">
+      <c r="E56" t="s">
         <v>570</v>
       </c>
     </row>
@@ -3680,10 +3697,10 @@
       <c r="C57" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="D57" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E57" t="s">
         <v>571</v>
       </c>
     </row>
@@ -3697,10 +3714,10 @@
       <c r="C58" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D58" s="16" t="s">
+      <c r="D58" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E58" t="s">
         <v>572</v>
       </c>
     </row>
@@ -3714,10 +3731,10 @@
       <c r="C59" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D59" s="16" t="s">
+      <c r="D59" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E59" s="14" t="s">
+      <c r="E59" t="s">
         <v>573</v>
       </c>
     </row>
@@ -3731,10 +3748,10 @@
       <c r="C60" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="D60" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E60" s="14" t="s">
+      <c r="E60" t="s">
         <v>574</v>
       </c>
     </row>
@@ -3748,10 +3765,10 @@
       <c r="C61" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="D61" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="E61" t="s">
         <v>575</v>
       </c>
     </row>
@@ -3765,10 +3782,10 @@
       <c r="C62" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="D62" s="21" t="s">
+      <c r="D62" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="E62" s="14" t="s">
+      <c r="E62" t="s">
         <v>576</v>
       </c>
     </row>
@@ -3782,10 +3799,10 @@
       <c r="C63" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D63" s="16" t="s">
+      <c r="D63" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E63" s="14" t="s">
+      <c r="E63" t="s">
         <v>577</v>
       </c>
     </row>
@@ -3799,10 +3816,10 @@
       <c r="C64" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="D64" s="16" t="s">
+      <c r="D64" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E64" s="14" t="s">
+      <c r="E64" t="s">
         <v>578</v>
       </c>
     </row>
@@ -3816,10 +3833,10 @@
       <c r="C65" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="D65" s="21" t="s">
+      <c r="D65" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="E65" s="14" t="s">
+      <c r="E65" t="s">
         <v>579</v>
       </c>
     </row>
@@ -3833,10 +3850,10 @@
       <c r="C66" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D66" s="16" t="s">
+      <c r="D66" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E66" s="14" t="s">
+      <c r="E66" t="s">
         <v>580</v>
       </c>
     </row>
@@ -3850,10 +3867,10 @@
       <c r="C67" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D67" s="16" t="s">
+      <c r="D67" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="E67" t="s">
         <v>581</v>
       </c>
     </row>
@@ -3867,10 +3884,10 @@
       <c r="C68" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="D68" s="16" t="s">
+      <c r="D68" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E68" s="14" t="s">
+      <c r="E68" t="s">
         <v>582</v>
       </c>
     </row>
@@ -3884,10 +3901,10 @@
       <c r="C69" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D69" s="16" t="s">
+      <c r="D69" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E69" s="14" t="s">
+      <c r="E69" t="s">
         <v>583</v>
       </c>
     </row>
@@ -3901,10 +3918,10 @@
       <c r="C70" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D70" s="16" t="s">
+      <c r="D70" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E70" s="14" t="s">
+      <c r="E70" t="s">
         <v>584</v>
       </c>
     </row>
@@ -3918,10 +3935,10 @@
       <c r="C71" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D71" s="16" t="s">
+      <c r="D71" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="E71" t="s">
         <v>585</v>
       </c>
     </row>
@@ -3935,10 +3952,10 @@
       <c r="C72" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="D72" s="16" t="s">
+      <c r="D72" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E72" s="14" t="s">
+      <c r="E72" t="s">
         <v>586</v>
       </c>
     </row>
@@ -3952,10 +3969,10 @@
       <c r="C73" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="D73" s="16" t="s">
+      <c r="D73" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E73" s="14" t="s">
+      <c r="E73" t="s">
         <v>587</v>
       </c>
     </row>
@@ -3969,10 +3986,10 @@
       <c r="C74" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D74" s="16" t="s">
+      <c r="D74" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E74" s="14" t="s">
+      <c r="E74" t="s">
         <v>588</v>
       </c>
     </row>
@@ -3986,10 +4003,10 @@
       <c r="C75" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D75" s="16" t="s">
+      <c r="D75" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E75" s="14" t="s">
+      <c r="E75" t="s">
         <v>589</v>
       </c>
     </row>
@@ -4003,10 +4020,10 @@
       <c r="C76" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D76" s="16" t="s">
+      <c r="D76" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E76" s="14" t="s">
+      <c r="E76" t="s">
         <v>590</v>
       </c>
     </row>
@@ -4020,10 +4037,10 @@
       <c r="C77" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D77" s="16" t="s">
+      <c r="D77" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E77" s="14" t="s">
+      <c r="E77" t="s">
         <v>591</v>
       </c>
     </row>
@@ -4037,10 +4054,10 @@
       <c r="C78" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D78" s="16" t="s">
+      <c r="D78" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E78" s="14" t="s">
+      <c r="E78" t="s">
         <v>592</v>
       </c>
     </row>
@@ -4054,10 +4071,10 @@
       <c r="C79" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D79" s="16" t="s">
+      <c r="D79" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E79" s="14" t="s">
+      <c r="E79" t="s">
         <v>593</v>
       </c>
     </row>
@@ -4071,10 +4088,10 @@
       <c r="C80" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="D80" s="16" t="s">
+      <c r="D80" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E80" s="14" t="s">
+      <c r="E80" t="s">
         <v>594</v>
       </c>
     </row>
@@ -4088,10 +4105,10 @@
       <c r="C81" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D81" s="16" t="s">
+      <c r="D81" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E81" s="14" t="s">
+      <c r="E81" t="s">
         <v>595</v>
       </c>
     </row>
@@ -4105,10 +4122,10 @@
       <c r="C82" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="D82" s="16" t="s">
+      <c r="D82" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E82" s="14" t="s">
+      <c r="E82" t="s">
         <v>596</v>
       </c>
     </row>
@@ -4122,10 +4139,10 @@
       <c r="C83" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="D83" s="16" t="s">
+      <c r="D83" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E83" s="14" t="s">
+      <c r="E83" t="s">
         <v>597</v>
       </c>
     </row>
@@ -4139,10 +4156,10 @@
       <c r="C84" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D84" s="16" t="s">
+      <c r="D84" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="E84" s="14" t="s">
+      <c r="E84" t="s">
         <v>598</v>
       </c>
     </row>
@@ -4156,10 +4173,10 @@
       <c r="C85" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="D85" s="16" t="s">
+      <c r="D85" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E85" s="14" t="s">
+      <c r="E85" t="s">
         <v>599</v>
       </c>
     </row>
@@ -4173,10 +4190,10 @@
       <c r="C86" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D86" s="16" t="s">
+      <c r="D86" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="E86" s="14" t="s">
+      <c r="E86" t="s">
         <v>600</v>
       </c>
     </row>
@@ -4190,10 +4207,10 @@
       <c r="C87" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="D87" s="17" t="s">
+      <c r="D87" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="E87" s="14" t="s">
+      <c r="E87" t="s">
         <v>601</v>
       </c>
     </row>
@@ -4207,10 +4224,10 @@
       <c r="C88" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D88" s="16" t="s">
+      <c r="D88" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E88" s="14" t="s">
+      <c r="E88" t="s">
         <v>602</v>
       </c>
     </row>
@@ -4224,10 +4241,10 @@
       <c r="C89" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D89" s="16" t="s">
+      <c r="D89" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E89" s="14" t="s">
+      <c r="E89" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4241,10 +4258,10 @@
       <c r="C90" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D90" s="16" t="s">
+      <c r="D90" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E90" s="14" t="s">
+      <c r="E90" t="s">
         <v>603</v>
       </c>
     </row>
@@ -4258,10 +4275,10 @@
       <c r="C91" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D91" s="16" t="s">
+      <c r="D91" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E91" s="14" t="s">
+      <c r="E91" t="s">
         <v>604</v>
       </c>
     </row>
@@ -4275,10 +4292,10 @@
       <c r="C92" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="D92" s="16" t="s">
+      <c r="D92" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E92" s="14" t="s">
+      <c r="E92" t="s">
         <v>605</v>
       </c>
     </row>
@@ -4292,10 +4309,10 @@
       <c r="C93" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D93" s="16" t="s">
+      <c r="D93" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E93" s="14" t="s">
+      <c r="E93" t="s">
         <v>606</v>
       </c>
     </row>
@@ -4309,10 +4326,10 @@
       <c r="C94" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="D94" s="16" t="s">
+      <c r="D94" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E94" s="14" t="s">
+      <c r="E94" t="s">
         <v>607</v>
       </c>
     </row>
@@ -4326,10 +4343,10 @@
       <c r="C95" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="D95" s="22" t="s">
+      <c r="D95" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="E95" s="14" t="s">
+      <c r="E95" t="s">
         <v>608</v>
       </c>
     </row>
@@ -4343,10 +4360,10 @@
       <c r="C96" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D96" s="16" t="s">
+      <c r="D96" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E96" s="14" t="s">
+      <c r="E96" t="s">
         <v>609</v>
       </c>
     </row>
@@ -4360,10 +4377,10 @@
       <c r="C97" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D97" s="16" t="s">
+      <c r="D97" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E97" s="14" t="s">
+      <c r="E97" t="s">
         <v>610</v>
       </c>
     </row>
@@ -4377,10 +4394,10 @@
       <c r="C98" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="D98" s="16" t="s">
+      <c r="D98" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E98" s="14" t="s">
+      <c r="E98" t="s">
         <v>611</v>
       </c>
     </row>
@@ -4394,10 +4411,10 @@
       <c r="C99" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D99" s="16" t="s">
+      <c r="D99" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E99" s="14" t="s">
+      <c r="E99" t="s">
         <v>612</v>
       </c>
     </row>
@@ -4411,10 +4428,10 @@
       <c r="C100" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="D100" s="16" t="s">
+      <c r="D100" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E100" s="14" t="s">
+      <c r="E100" t="s">
         <v>613</v>
       </c>
     </row>
@@ -4428,10 +4445,10 @@
       <c r="C101" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D101" s="16" t="s">
+      <c r="D101" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E101" s="14" t="s">
+      <c r="E101" t="s">
         <v>614</v>
       </c>
     </row>
@@ -4445,10 +4462,10 @@
       <c r="C102" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="D102" s="16" t="s">
+      <c r="D102" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E102" s="14" t="s">
+      <c r="E102" t="s">
         <v>615</v>
       </c>
     </row>
@@ -4462,10 +4479,10 @@
       <c r="C103" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D103" s="16" t="s">
+      <c r="D103" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E103" s="14" t="s">
+      <c r="E103" t="s">
         <v>616</v>
       </c>
     </row>
@@ -4479,10 +4496,10 @@
       <c r="C104" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="D104" s="16" t="s">
+      <c r="D104" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E104" s="14" t="s">
+      <c r="E104" t="s">
         <v>617</v>
       </c>
     </row>
@@ -4496,10 +4513,10 @@
       <c r="C105" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="D105" s="16" t="s">
+      <c r="D105" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E105" s="14" t="s">
+      <c r="E105" t="s">
         <v>618</v>
       </c>
     </row>
@@ -4513,10 +4530,10 @@
       <c r="C106" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="D106" s="16" t="s">
+      <c r="D106" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E106" s="14" t="s">
+      <c r="E106" t="s">
         <v>619</v>
       </c>
     </row>
@@ -4530,10 +4547,10 @@
       <c r="C107" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D107" s="16" t="s">
+      <c r="D107" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="E107" s="14" t="s">
+      <c r="E107" t="s">
         <v>620</v>
       </c>
     </row>
@@ -4547,10 +4564,10 @@
       <c r="C108" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="D108" s="16" t="s">
+      <c r="D108" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="E108" s="14" t="s">
+      <c r="E108" t="s">
         <v>621</v>
       </c>
     </row>
@@ -4564,10 +4581,10 @@
       <c r="C109" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="D109" s="16" t="s">
+      <c r="D109" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="E109" s="14" t="s">
+      <c r="E109" t="s">
         <v>622</v>
       </c>
     </row>
@@ -4581,10 +4598,10 @@
       <c r="C110" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D110" s="16" t="s">
+      <c r="D110" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="E110" s="14" t="s">
+      <c r="E110" t="s">
         <v>623</v>
       </c>
     </row>
@@ -4598,10 +4615,10 @@
       <c r="C111" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="D111" s="16" t="s">
+      <c r="D111" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="E111" s="14" t="s">
+      <c r="E111" t="s">
         <v>624</v>
       </c>
     </row>
@@ -4615,10 +4632,10 @@
       <c r="C112" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D112" s="16" t="s">
+      <c r="D112" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="E112" s="14" t="s">
+      <c r="E112" t="s">
         <v>625</v>
       </c>
     </row>
@@ -4632,10 +4649,10 @@
       <c r="C113" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D113" s="16" t="s">
+      <c r="D113" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="E113" s="14" t="s">
+      <c r="E113" t="s">
         <v>626</v>
       </c>
     </row>
@@ -4649,10 +4666,10 @@
       <c r="C114" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="D114" s="16" t="s">
+      <c r="D114" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="E114" s="14" t="s">
+      <c r="E114" t="s">
         <v>627</v>
       </c>
     </row>
@@ -4666,10 +4683,10 @@
       <c r="C115" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="D115" s="16" t="s">
+      <c r="D115" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="E115" s="14" t="s">
+      <c r="E115" t="s">
         <v>628</v>
       </c>
     </row>
@@ -4683,10 +4700,10 @@
       <c r="C116" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D116" s="16" t="s">
+      <c r="D116" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="E116" s="14" t="s">
+      <c r="E116" t="s">
         <v>629</v>
       </c>
     </row>
@@ -4700,10 +4717,10 @@
       <c r="C117" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="D117" s="16" t="s">
+      <c r="D117" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="E117" s="14" t="s">
+      <c r="E117" t="s">
         <v>630</v>
       </c>
     </row>
@@ -4717,10 +4734,10 @@
       <c r="C118" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="D118" s="22" t="s">
+      <c r="D118" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="E118" s="15" t="s">
+      <c r="E118" s="14" t="s">
         <v>631</v>
       </c>
     </row>
@@ -4734,10 +4751,10 @@
       <c r="C119" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D119" s="16" t="s">
+      <c r="D119" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="E119" s="14" t="s">
+      <c r="E119" t="s">
         <v>632</v>
       </c>
     </row>
@@ -4751,10 +4768,10 @@
       <c r="C120" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="D120" s="16" t="s">
+      <c r="D120" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="E120" s="14" t="s">
+      <c r="E120" t="s">
         <v>633</v>
       </c>
     </row>
@@ -4768,10 +4785,10 @@
       <c r="C121" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="D121" s="16" t="s">
+      <c r="D121" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="E121" s="14" t="s">
+      <c r="E121" t="s">
         <v>634</v>
       </c>
     </row>
@@ -4785,10 +4802,10 @@
       <c r="C122" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="D122" s="16" t="s">
+      <c r="D122" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="E122" s="14" t="s">
+      <c r="E122" t="s">
         <v>635</v>
       </c>
     </row>
@@ -4802,10 +4819,10 @@
       <c r="C123" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="D123" s="16" t="s">
+      <c r="D123" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="E123" s="14" t="s">
+      <c r="E123" t="s">
         <v>636</v>
       </c>
     </row>
@@ -4819,10 +4836,10 @@
       <c r="C124" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="D124" s="16" t="s">
+      <c r="D124" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="E124" s="14" t="s">
+      <c r="E124" t="s">
         <v>637</v>
       </c>
     </row>
@@ -4836,10 +4853,10 @@
       <c r="C125" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="D125" s="16" t="s">
+      <c r="D125" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="E125" s="14" t="s">
+      <c r="E125" t="s">
         <v>638</v>
       </c>
     </row>
@@ -4853,10 +4870,10 @@
       <c r="C126" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="D126" s="16" t="s">
+      <c r="D126" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="E126" s="14" t="s">
+      <c r="E126" t="s">
         <v>639</v>
       </c>
     </row>
@@ -4870,10 +4887,10 @@
       <c r="C127" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="D127" s="16" t="s">
+      <c r="D127" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="E127" s="14" t="s">
+      <c r="E127" t="s">
         <v>640</v>
       </c>
     </row>
@@ -4887,10 +4904,10 @@
       <c r="C128" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="D128" s="16" t="s">
+      <c r="D128" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="E128" s="14" t="s">
+      <c r="E128" t="s">
         <v>641</v>
       </c>
     </row>
@@ -4904,10 +4921,10 @@
       <c r="C129" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D129" s="16" t="s">
+      <c r="D129" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="E129" s="14" t="s">
+      <c r="E129" t="s">
         <v>642</v>
       </c>
     </row>
@@ -4921,10 +4938,10 @@
       <c r="C130" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D130" s="16" t="s">
+      <c r="D130" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="E130" s="14" t="s">
+      <c r="E130" t="s">
         <v>643</v>
       </c>
     </row>
@@ -4938,10 +4955,10 @@
       <c r="C131" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="D131" s="16" t="s">
+      <c r="D131" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="E131" s="14" t="s">
+      <c r="E131" t="s">
         <v>644</v>
       </c>
     </row>
@@ -4955,10 +4972,10 @@
       <c r="C132" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="D132" s="16" t="s">
+      <c r="D132" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="E132" s="14" t="s">
+      <c r="E132" t="s">
         <v>645</v>
       </c>
     </row>
@@ -4972,10 +4989,10 @@
       <c r="C133" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="D133" s="16" t="s">
+      <c r="D133" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="E133" s="14" t="s">
+      <c r="E133" t="s">
         <v>646</v>
       </c>
     </row>
@@ -4989,10 +5006,10 @@
       <c r="C134" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="D134" s="16" t="s">
+      <c r="D134" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="E134" s="14" t="s">
+      <c r="E134" t="s">
         <v>647</v>
       </c>
     </row>
@@ -5006,10 +5023,10 @@
       <c r="C135" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="D135" s="23" t="s">
+      <c r="D135" s="10" t="s">
         <v>708</v>
       </c>
-      <c r="E135" s="14" t="s">
+      <c r="E135" t="s">
         <v>648</v>
       </c>
     </row>
@@ -5023,10 +5040,10 @@
       <c r="C136" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="D136" s="16" t="s">
+      <c r="D136" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E136" s="14" t="s">
+      <c r="E136" t="s">
         <v>578</v>
       </c>
     </row>
@@ -5040,10 +5057,10 @@
       <c r="C137" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="D137" s="16" t="s">
+      <c r="D137" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E137" s="14" t="s">
+      <c r="E137" t="s">
         <v>649</v>
       </c>
     </row>
@@ -5057,10 +5074,10 @@
       <c r="C138" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="D138" s="16" t="s">
+      <c r="D138" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="E138" s="14" t="s">
+      <c r="E138" t="s">
         <v>650</v>
       </c>
     </row>
@@ -5074,10 +5091,10 @@
       <c r="C139" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D139" s="16" t="s">
+      <c r="D139" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="E139" s="14" t="s">
+      <c r="E139" t="s">
         <v>651</v>
       </c>
     </row>
@@ -5091,10 +5108,10 @@
       <c r="C140" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D140" s="16" t="s">
+      <c r="D140" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E140" s="14" t="s">
+      <c r="E140" t="s">
         <v>576</v>
       </c>
     </row>
@@ -5108,10 +5125,10 @@
       <c r="C141" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="D141" s="16" t="s">
+      <c r="D141" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="E141" s="14" t="s">
+      <c r="E141" t="s">
         <v>652</v>
       </c>
     </row>
@@ -5125,10 +5142,10 @@
       <c r="C142" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="D142" s="16" t="s">
+      <c r="D142" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E142" s="14" t="s">
+      <c r="E142" t="s">
         <v>649</v>
       </c>
     </row>
@@ -5142,10 +5159,10 @@
       <c r="C143" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="D143" s="16" t="s">
+      <c r="D143" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="E143" s="14" t="s">
+      <c r="E143" t="s">
         <v>653</v>
       </c>
     </row>
@@ -5159,10 +5176,10 @@
       <c r="C144" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="D144" s="16" t="s">
+      <c r="D144" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="E144" s="14" t="s">
+      <c r="E144" t="s">
         <v>654</v>
       </c>
     </row>
@@ -5176,10 +5193,10 @@
       <c r="C145" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="D145" s="16" t="s">
+      <c r="D145" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="E145" s="14" t="s">
+      <c r="E145" t="s">
         <v>655</v>
       </c>
     </row>
@@ -5193,10 +5210,10 @@
       <c r="C146" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="D146" s="16" t="s">
+      <c r="D146" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="E146" s="14" t="s">
+      <c r="E146" t="s">
         <v>656</v>
       </c>
     </row>
@@ -5210,10 +5227,10 @@
       <c r="C147" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="D147" s="16" t="s">
+      <c r="D147" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="E147" s="14" t="s">
+      <c r="E147" t="s">
         <v>657</v>
       </c>
     </row>
@@ -5227,10 +5244,10 @@
       <c r="C148" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="D148" s="16" t="s">
+      <c r="D148" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="E148" s="14" t="s">
+      <c r="E148" t="s">
         <v>658</v>
       </c>
     </row>
@@ -5244,10 +5261,10 @@
       <c r="C149" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="D149" s="16" t="s">
+      <c r="D149" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="E149" s="14" t="s">
+      <c r="E149" t="s">
         <v>659</v>
       </c>
     </row>
@@ -5261,10 +5278,10 @@
       <c r="C150" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D150" s="16" t="s">
+      <c r="D150" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="E150" s="14" t="s">
+      <c r="E150" t="s">
         <v>660</v>
       </c>
     </row>
@@ -5278,10 +5295,10 @@
       <c r="C151" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="D151" s="16" t="s">
+      <c r="D151" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="E151" s="14" t="s">
+      <c r="E151" t="s">
         <v>661</v>
       </c>
     </row>
@@ -5295,10 +5312,10 @@
       <c r="C152" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="D152" s="16" t="s">
+      <c r="D152" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="E152" s="14" t="s">
+      <c r="E152" t="s">
         <v>662</v>
       </c>
     </row>
@@ -5312,10 +5329,10 @@
       <c r="C153" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="D153" s="17" t="s">
+      <c r="D153" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="E153" s="14" t="s">
+      <c r="E153" t="s">
         <v>663</v>
       </c>
     </row>
@@ -5332,7 +5349,7 @@
       <c r="D154" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="E154" s="14" t="s">
+      <c r="E154" t="s">
         <v>664</v>
       </c>
     </row>
@@ -5349,7 +5366,7 @@
       <c r="D155" s="12" t="s">
         <v>724</v>
       </c>
-      <c r="E155" s="14" t="s">
+      <c r="E155" t="s">
         <v>665</v>
       </c>
     </row>
@@ -5366,7 +5383,7 @@
       <c r="D156" s="11" t="s">
         <v>725</v>
       </c>
-      <c r="E156" s="14" t="s">
+      <c r="E156" t="s">
         <v>666</v>
       </c>
     </row>
@@ -5383,7 +5400,7 @@
       <c r="D157" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="E157" s="14" t="s">
+      <c r="E157" t="s">
         <v>667</v>
       </c>
     </row>
@@ -5400,8 +5417,110 @@
       <c r="D158" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="E158" s="14" t="s">
+      <c r="E158" t="s">
         <v>668</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>739</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D004EE5F-34BD-C049-A95A-ED22B52DA072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF98F18-DB39-314D-8657-65C0A4D2FDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3380" windowWidth="35840" windowHeight="20720" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="7340" yWindow="900" windowWidth="35840" windowHeight="20720" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="744">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -2280,6 +2280,18 @@
   </si>
   <si>
     <t>Now you will hear some melodies with rhythms. Please try and play back the melodies.</t>
+  </si>
+  <si>
+    <t>arrhythmic_melody_trial_instruction_text_sing_melody_first</t>
+  </si>
+  <si>
+    <t>Now you will hear some melodies. On the first go, sing the melody back. On the subsequent goes, play the melody on your instrument.</t>
+  </si>
+  <si>
+    <t>rhythmic_melody_trial_instruction_text_sing_melody_first</t>
+  </si>
+  <si>
+    <t>Now you will hear some melodies with rhythms. On the first go, sing the melody back. On the subsequent goes, play the melody on your instrument.</t>
   </si>
 </sst>
 </file>
@@ -2424,9 +2436,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2464,7 +2476,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2570,7 +2582,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2712,7 +2724,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2720,10 +2732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
-  <dimension ref="A1:E164"/>
+  <dimension ref="A1:E166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C162" sqref="C162:E164"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A165" sqref="A165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5523,6 +5535,40 @@
         <v>739</v>
       </c>
     </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="12" t="s">
+        <v>740</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF98F18-DB39-314D-8657-65C0A4D2FDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0A8420-BB2D-C34A-8F09-06CF4E4D67B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7340" yWindow="900" windowWidth="35840" windowHeight="20720" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20720" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -369,9 +369,6 @@
     <t>. Well done!</t>
   </si>
   <si>
-    <t xml:space="preserve">Thank You! You have completed the </t>
-  </si>
-  <si>
     <t>ready_for_test</t>
   </si>
   <si>
@@ -2292,6 +2289,9 @@
   </si>
   <si>
     <t>Now you will hear some melodies with rhythms. On the first go, sing the melody back. On the subsequent goes, play the melody on your instrument.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank you! You have completed the </t>
   </si>
 </sst>
 </file>
@@ -2734,8 +2734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
   <dimension ref="A1:E166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A165" sqref="A165"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2755,13 +2755,13 @@
         <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2772,13 +2772,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2789,13 +2789,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2803,16 +2803,16 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2820,16 +2820,16 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2840,30 +2840,30 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2871,16 +2871,16 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2891,30 +2891,30 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2925,13 +2925,13 @@
         <v>57</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2939,16 +2939,16 @@
         <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E12" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2956,16 +2956,16 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E13" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2973,16 +2973,16 @@
         <v>52</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2990,16 +2990,16 @@
         <v>62</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>193</v>
-      </c>
       <c r="E15" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -3010,13 +3010,13 @@
         <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E16" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3024,16 +3024,16 @@
         <v>58</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E17" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -3041,16 +3041,16 @@
         <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -3061,13 +3061,13 @@
         <v>5</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E19" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -3078,13 +3078,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E20" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -3095,13 +3095,13 @@
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E21" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -3112,13 +3112,13 @@
         <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E22" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3129,13 +3129,13 @@
         <v>11</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E23" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -3146,13 +3146,13 @@
         <v>15</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E24" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -3228,16 +3228,16 @@
         <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E29" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -3248,13 +3248,13 @@
         <v>26</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E30" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -3265,13 +3265,13 @@
         <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E31" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -3282,13 +3282,13 @@
         <v>30</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -3299,13 +3299,13 @@
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E33" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -3316,13 +3316,13 @@
         <v>34</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E34" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -3330,16 +3330,16 @@
         <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -3350,13 +3350,13 @@
         <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E36" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -3367,13 +3367,13 @@
         <v>37</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E37" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -3384,13 +3384,13 @@
         <v>39</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E38" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -3401,13 +3401,13 @@
         <v>41</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E39" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -3418,13 +3418,13 @@
         <v>42</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E40" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -3438,10 +3438,10 @@
         <v>43</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E41" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -3452,13 +3452,13 @@
         <v>44</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E42" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -3469,13 +3469,13 @@
         <v>45</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -3483,16 +3483,16 @@
         <v>63</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E44" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -3503,13 +3503,13 @@
         <v>67</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E45" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -3520,13 +3520,13 @@
         <v>69</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E46" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -3537,13 +3537,13 @@
         <v>71</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E47" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -3554,13 +3554,13 @@
         <v>73</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E48" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -3568,16 +3568,16 @@
         <v>74</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E49" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -3585,16 +3585,16 @@
         <v>77</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E50" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -3602,50 +3602,50 @@
         <v>78</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E51" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E52" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E53" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -3656,13 +3656,13 @@
         <v>80</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E54" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -3676,10 +3676,10 @@
         <v>81</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E55" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -3690,13 +3690,13 @@
         <v>82</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E56" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -3707,13 +3707,13 @@
         <v>98</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E57" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -3724,13 +3724,13 @@
         <v>7</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E58" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -3741,13 +3741,13 @@
         <v>99</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E59" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -3758,13 +3758,13 @@
         <v>96</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E60" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -3775,47 +3775,47 @@
         <v>97</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E61" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>137</v>
-      </c>
       <c r="C62" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E62" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="C63" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E63" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -3826,13 +3826,13 @@
         <v>90</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E64" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -3843,13 +3843,13 @@
         <v>92</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E65" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -3860,13 +3860,13 @@
         <v>94</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E66" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -3877,13 +3877,13 @@
         <v>95</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E67" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -3894,13 +3894,13 @@
         <v>101</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E68" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -3911,13 +3911,13 @@
         <v>104</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E69" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -3928,13 +3928,13 @@
         <v>103</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E70" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -3945,13 +3945,13 @@
         <v>102</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E71" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -3959,16 +3959,16 @@
         <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>110</v>
+        <v>743</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E72" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -3979,1152 +3979,1152 @@
         <v>109</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E73" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E74" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E75" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E76" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E77" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>281</v>
-      </c>
       <c r="E78" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E79" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E80" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E81" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E82" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E83" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E84" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E85" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E86" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E87" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E88" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E89" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="C90" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E90" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="C91" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E91" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="C92" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="E92" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="C93" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E93" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="C94" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="E94" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B95" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B95" s="9" t="s">
-        <v>153</v>
-      </c>
       <c r="C95" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E95" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E96" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="C97" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E97" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E98" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E99" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E100" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="C101" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E101" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="C102" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E102" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="C103" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E103" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="C104" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E104" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="C105" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E105" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E106" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>377</v>
-      </c>
       <c r="C107" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E107" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E108" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E109" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="C110" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>384</v>
-      </c>
       <c r="E110" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>386</v>
-      </c>
       <c r="C111" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E111" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>388</v>
-      </c>
       <c r="C112" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E112" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E113" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E114" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E115" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E116" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E117" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B118" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="B118" s="9" t="s">
-        <v>397</v>
-      </c>
       <c r="C118" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E118" s="14" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E119" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>400</v>
-      </c>
       <c r="C120" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E120" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E121" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E122" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E123" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>409</v>
-      </c>
       <c r="C124" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E124" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E125" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E126" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E127" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E128" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>418</v>
-      </c>
       <c r="C129" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E129" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E130" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E131" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>423</v>
-      </c>
       <c r="C132" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E132" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>425</v>
-      </c>
       <c r="C133" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E133" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E134" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B135" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>468</v>
-      </c>
       <c r="D135" s="10" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E135" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>430</v>
-      </c>
       <c r="C136" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E136" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E137" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E138" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E139" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E140" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -5135,438 +5135,438 @@
         <v>94</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E141" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E142" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E143" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E144" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>441</v>
-      </c>
       <c r="C145" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E145" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>487</v>
-      </c>
       <c r="C146" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E146" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>489</v>
-      </c>
       <c r="C147" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E147" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>491</v>
-      </c>
       <c r="C148" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E148" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>495</v>
-      </c>
       <c r="C149" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E149" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E150" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E151" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E152" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E153" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="C154" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>508</v>
-      </c>
       <c r="D154" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E154" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="B155" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="B155" s="12" t="s">
-        <v>512</v>
-      </c>
       <c r="C155" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E155" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="B156" s="11" t="s">
         <v>513</v>
       </c>
-      <c r="B156" s="11" t="s">
-        <v>514</v>
-      </c>
       <c r="C156" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E156" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>516</v>
-      </c>
       <c r="C157" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E157" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>518</v>
-      </c>
       <c r="C158" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E158" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="12" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>741</v>
-      </c>
       <c r="C165" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>743</v>
-      </c>
       <c r="C166" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0A8420-BB2D-C34A-8F09-06CF4E4D67B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4481F2F1-4E9C-FE45-B3DF-52F202C764DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20720" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="747">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -2292,6 +2292,15 @@
   </si>
   <si>
     <t xml:space="preserve">Thank you! You have completed the </t>
+  </si>
+  <si>
+    <t>the_lyrics_are</t>
+  </si>
+  <si>
+    <t>The lyrics are:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Text lautet: </t>
   </si>
 </sst>
 </file>
@@ -2732,10 +2741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
-  <dimension ref="A1:E166"/>
+  <dimension ref="A1:E167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D173" sqref="D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5569,6 +5578,23 @@
         <v>742</v>
       </c>
     </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4481F2F1-4E9C-FE45-B3DF-52F202C764DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CC52B7-257A-694F-BDDF-C22F483F3C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20720" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="746">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -2294,13 +2294,10 @@
     <t xml:space="preserve">Thank you! You have completed the </t>
   </si>
   <si>
-    <t>the_lyrics_are</t>
-  </si>
-  <si>
-    <t>The lyrics are:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der Text lautet: </t>
+    <t>Lyrics</t>
+  </si>
+  <si>
+    <t>Songtext</t>
   </si>
 </sst>
 </file>
@@ -2743,8 +2740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
   <dimension ref="A1:E167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D173" sqref="D173"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E167" sqref="E167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5583,16 +5580,16 @@
         <v>744</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>746</v>
-      </c>
       <c r="E167" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CC52B7-257A-694F-BDDF-C22F483F3C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9971AD8-FA7E-7E4E-96E2-B5DEA2BC8258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20720" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="769">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -2279,25 +2279,96 @@
     <t>Now you will hear some melodies with rhythms. Please try and play back the melodies.</t>
   </si>
   <si>
-    <t>arrhythmic_melody_trial_instruction_text_sing_melody_first</t>
-  </si>
-  <si>
-    <t>Now you will hear some melodies. On the first go, sing the melody back. On the subsequent goes, play the melody on your instrument.</t>
-  </si>
-  <si>
-    <t>rhythmic_melody_trial_instruction_text_sing_melody_first</t>
-  </si>
-  <si>
-    <t>Now you will hear some melodies with rhythms. On the first go, sing the melody back. On the subsequent goes, play the melody on your instrument.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Thank you! You have completed the </t>
   </si>
   <si>
-    <t>Lyrics</t>
-  </si>
-  <si>
-    <t>Songtext</t>
+    <t>Drück auf ,,Spielen", um die Melodie zu hören. Spiele die Melodie dann nach.</t>
+  </si>
+  <si>
+    <t>Spiele diese Melodie</t>
+  </si>
+  <si>
+    <t>Jetzt wirst du einige Melodien hören. Versuche bitte, sie nachzuspielen.</t>
+  </si>
+  <si>
+    <t>Drücke auf ,,Spielen", um die Melodie mit Rhythmen zu hören. Spiele die Melodie dann nach.</t>
+  </si>
+  <si>
+    <t>Spiele diese Melodie und die Rhythmen nach.</t>
+  </si>
+  <si>
+    <t>Jetzt wirst du einige Melodien mit Rhythmen hören. Versuche bitte, die Melodien nachzuspielen.</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>Hallo</t>
+  </si>
+  <si>
+    <t>wait_message</t>
+  </si>
+  <si>
+    <t>Please wait a few seconds.</t>
+  </si>
+  <si>
+    <t>Bitte warte einige Sekunden.</t>
+  </si>
+  <si>
+    <t>sing_along_page_title</t>
+  </si>
+  <si>
+    <t>Sing along with the melody</t>
+  </si>
+  <si>
+    <t>Singe mit der Melodie mit.</t>
+  </si>
+  <si>
+    <t>good_try_message</t>
+  </si>
+  <si>
+    <t>Good try! Let's see how you did…</t>
+  </si>
+  <si>
+    <t>Guter Versuch! Lass uns sehen, wie du es gemacht hast.</t>
+  </si>
+  <si>
+    <t>well_done</t>
+  </si>
+  <si>
+    <t>Well done!</t>
+  </si>
+  <si>
+    <t>Gut gemacht!</t>
+  </si>
+  <si>
+    <t>your_score_was</t>
+  </si>
+  <si>
+    <t>Your score was</t>
+  </si>
+  <si>
+    <t>Deine Punktzahl war</t>
+  </si>
+  <si>
+    <t>redirect_message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well done! You will now be redirected back to your dashboard.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gut gemacht! Du wirst jetzt zu deinem Konto zurückgeleitet.
+</t>
+  </si>
+  <si>
+    <t>sing_back_message</t>
+  </si>
+  <si>
+    <t>Sing back the melody</t>
+  </si>
+  <si>
+    <t>Singe die Melodie nach.</t>
   </si>
 </sst>
 </file>
@@ -2394,7 +2465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2422,6 +2493,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2738,10 +2816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
-  <dimension ref="A1:E167"/>
+  <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E167" sqref="E167"/>
+    <sheetView tabSelected="1" topLeftCell="D157" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3965,7 +4043,7 @@
         <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>347</v>
@@ -5440,36 +5518,36 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="2" t="s">
+      <c r="A159" s="12" t="s">
         <v>730</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="12" t="s">
         <v>728</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="12" t="s">
         <v>728</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="D159" s="16" t="s">
+        <v>740</v>
+      </c>
+      <c r="E159" s="12" t="s">
         <v>728</v>
       </c>
-      <c r="E159" s="2" t="s">
-        <v>728</v>
-      </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" s="2" t="s">
+      <c r="A160" s="12" t="s">
         <v>731</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="12" t="s">
         <v>727</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="12" t="s">
         <v>727</v>
       </c>
-      <c r="D160" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="E160" s="2" t="s">
+      <c r="D160" s="16" t="s">
+        <v>741</v>
+      </c>
+      <c r="E160" s="12" t="s">
         <v>727</v>
       </c>
     </row>
@@ -5477,50 +5555,50 @@
       <c r="A161" s="12" t="s">
         <v>732</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="12" t="s">
         <v>729</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="12" t="s">
         <v>729</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="D161" s="16" t="s">
+        <v>742</v>
+      </c>
+      <c r="E161" s="12" t="s">
         <v>729</v>
       </c>
-      <c r="E161" s="2" t="s">
-        <v>729</v>
-      </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162" s="2" t="s">
+      <c r="A162" s="12" t="s">
         <v>733</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="12" t="s">
         <v>736</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="12" t="s">
         <v>736</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D162" s="16" t="s">
+        <v>743</v>
+      </c>
+      <c r="E162" s="12" t="s">
         <v>736</v>
       </c>
-      <c r="E162" s="2" t="s">
-        <v>736</v>
-      </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A163" s="2" t="s">
+      <c r="A163" s="12" t="s">
         <v>734</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="12" t="s">
         <v>737</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="12" t="s">
         <v>737</v>
       </c>
-      <c r="D163" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="E163" s="2" t="s">
+      <c r="D163" s="16" t="s">
+        <v>744</v>
+      </c>
+      <c r="E163" s="12" t="s">
         <v>737</v>
       </c>
     </row>
@@ -5528,68 +5606,153 @@
       <c r="A164" s="12" t="s">
         <v>735</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="12" t="s">
         <v>738</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="12" t="s">
         <v>738</v>
       </c>
-      <c r="D164" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="E164" s="2" t="s">
+      <c r="D164" s="16" t="s">
+        <v>745</v>
+      </c>
+      <c r="E164" s="12" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="12" t="s">
-        <v>739</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+        <v>746</v>
+      </c>
+      <c r="B165" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="C165" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="D165" s="16" t="s">
+        <v>747</v>
+      </c>
+      <c r="E165" s="12" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A166" s="12" t="s">
-        <v>741</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>742</v>
+        <v>748</v>
+      </c>
+      <c r="B166" s="15" t="s">
+        <v>749</v>
+      </c>
+      <c r="C166" s="15" t="s">
+        <v>749</v>
+      </c>
+      <c r="D166" s="17" t="s">
+        <v>750</v>
+      </c>
+      <c r="E166" s="15" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A167" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>744</v>
+      <c r="A167" s="12" t="s">
+        <v>751</v>
+      </c>
+      <c r="B167" s="12" t="s">
+        <v>752</v>
+      </c>
+      <c r="C167" s="12" t="s">
+        <v>752</v>
+      </c>
+      <c r="D167" s="16" t="s">
+        <v>753</v>
+      </c>
+      <c r="E167" s="12" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A168" s="12" t="s">
+        <v>754</v>
+      </c>
+      <c r="B168" s="15" t="s">
+        <v>755</v>
+      </c>
+      <c r="C168" s="15" t="s">
+        <v>755</v>
+      </c>
+      <c r="D168" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="E168" s="15" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="12" t="s">
+        <v>757</v>
+      </c>
+      <c r="B169" s="12" t="s">
+        <v>758</v>
+      </c>
+      <c r="C169" s="12" t="s">
+        <v>758</v>
+      </c>
+      <c r="D169" s="16" t="s">
+        <v>759</v>
+      </c>
+      <c r="E169" s="12" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="12" t="s">
+        <v>760</v>
+      </c>
+      <c r="B170" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="C170" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="D170" s="16" t="s">
+        <v>762</v>
+      </c>
+      <c r="E170" s="12" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="A171" s="12" t="s">
+        <v>763</v>
+      </c>
+      <c r="B171" s="15" t="s">
+        <v>764</v>
+      </c>
+      <c r="C171" s="15" t="s">
+        <v>764</v>
+      </c>
+      <c r="D171" s="17" t="s">
+        <v>765</v>
+      </c>
+      <c r="E171" s="15" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="12" t="s">
+        <v>766</v>
+      </c>
+      <c r="B172" s="12" t="s">
+        <v>767</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>767</v>
+      </c>
+      <c r="D172" s="16" t="s">
+        <v>768</v>
+      </c>
+      <c r="E172" s="12" t="s">
+        <v>767</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9971AD8-FA7E-7E4E-96E2-B5DEA2BC8258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABC2EFE-475A-B64C-B037-A71B767B3FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20720" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="772">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -2369,6 +2369,15 @@
   </si>
   <si>
     <t>Singe die Melodie nach.</t>
+  </si>
+  <si>
+    <t>lets_proceed</t>
+  </si>
+  <si>
+    <t>Let's proceed!</t>
+  </si>
+  <si>
+    <t>Lasst uns fortfahren!</t>
   </si>
 </sst>
 </file>
@@ -2465,7 +2474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2496,10 +2505,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2816,10 +2821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
-  <dimension ref="A1:E172"/>
+  <dimension ref="A1:E173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D164" sqref="D164"/>
+    <sheetView tabSelected="1" topLeftCell="C171" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E173" sqref="E173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5527,7 +5532,7 @@
       <c r="C159" s="12" t="s">
         <v>728</v>
       </c>
-      <c r="D159" s="16" t="s">
+      <c r="D159" s="12" t="s">
         <v>740</v>
       </c>
       <c r="E159" s="12" t="s">
@@ -5544,7 +5549,7 @@
       <c r="C160" s="12" t="s">
         <v>727</v>
       </c>
-      <c r="D160" s="16" t="s">
+      <c r="D160" s="12" t="s">
         <v>741</v>
       </c>
       <c r="E160" s="12" t="s">
@@ -5561,7 +5566,7 @@
       <c r="C161" s="12" t="s">
         <v>729</v>
       </c>
-      <c r="D161" s="16" t="s">
+      <c r="D161" s="12" t="s">
         <v>742</v>
       </c>
       <c r="E161" s="12" t="s">
@@ -5578,7 +5583,7 @@
       <c r="C162" s="12" t="s">
         <v>736</v>
       </c>
-      <c r="D162" s="16" t="s">
+      <c r="D162" s="12" t="s">
         <v>743</v>
       </c>
       <c r="E162" s="12" t="s">
@@ -5595,7 +5600,7 @@
       <c r="C163" s="12" t="s">
         <v>737</v>
       </c>
-      <c r="D163" s="16" t="s">
+      <c r="D163" s="12" t="s">
         <v>744</v>
       </c>
       <c r="E163" s="12" t="s">
@@ -5612,7 +5617,7 @@
       <c r="C164" s="12" t="s">
         <v>738</v>
       </c>
-      <c r="D164" s="16" t="s">
+      <c r="D164" s="12" t="s">
         <v>745</v>
       </c>
       <c r="E164" s="12" t="s">
@@ -5629,7 +5634,7 @@
       <c r="C165" s="12" t="s">
         <v>746</v>
       </c>
-      <c r="D165" s="16" t="s">
+      <c r="D165" s="12" t="s">
         <v>747</v>
       </c>
       <c r="E165" s="12" t="s">
@@ -5646,7 +5651,7 @@
       <c r="C166" s="15" t="s">
         <v>749</v>
       </c>
-      <c r="D166" s="17" t="s">
+      <c r="D166" s="15" t="s">
         <v>750</v>
       </c>
       <c r="E166" s="15" t="s">
@@ -5663,7 +5668,7 @@
       <c r="C167" s="12" t="s">
         <v>752</v>
       </c>
-      <c r="D167" s="16" t="s">
+      <c r="D167" s="12" t="s">
         <v>753</v>
       </c>
       <c r="E167" s="12" t="s">
@@ -5680,7 +5685,7 @@
       <c r="C168" s="15" t="s">
         <v>755</v>
       </c>
-      <c r="D168" s="17" t="s">
+      <c r="D168" s="15" t="s">
         <v>756</v>
       </c>
       <c r="E168" s="15" t="s">
@@ -5697,7 +5702,7 @@
       <c r="C169" s="12" t="s">
         <v>758</v>
       </c>
-      <c r="D169" s="16" t="s">
+      <c r="D169" s="12" t="s">
         <v>759</v>
       </c>
       <c r="E169" s="12" t="s">
@@ -5714,14 +5719,14 @@
       <c r="C170" s="12" t="s">
         <v>761</v>
       </c>
-      <c r="D170" s="16" t="s">
+      <c r="D170" s="12" t="s">
         <v>762</v>
       </c>
       <c r="E170" s="12" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A171" s="12" t="s">
         <v>763</v>
       </c>
@@ -5731,7 +5736,7 @@
       <c r="C171" s="15" t="s">
         <v>764</v>
       </c>
-      <c r="D171" s="17" t="s">
+      <c r="D171" s="15" t="s">
         <v>765</v>
       </c>
       <c r="E171" s="15" t="s">
@@ -5748,11 +5753,28 @@
       <c r="C172" s="12" t="s">
         <v>767</v>
       </c>
-      <c r="D172" s="16" t="s">
+      <c r="D172" s="12" t="s">
         <v>768</v>
       </c>
       <c r="E172" s="12" t="s">
         <v>767</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="D173" t="s">
+        <v>771</v>
+      </c>
+      <c r="E173" t="s">
+        <v>770</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABC2EFE-475A-B64C-B037-A71B767B3FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAC91DF-FC06-BE41-99A2-A99B86EB2FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20720" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="5380" yWindow="500" windowWidth="35840" windowHeight="20720" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="787">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -2378,6 +2378,51 @@
   </si>
   <si>
     <t>Lasst uns fortfahren!</t>
+  </si>
+  <si>
+    <t>now_you_will_review_some</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now you will review some </t>
+  </si>
+  <si>
+    <t>melodies you have encountered previously.</t>
+  </si>
+  <si>
+    <t>melodies_you_have_encountered_previously</t>
+  </si>
+  <si>
+    <t>arrhythmic</t>
+  </si>
+  <si>
+    <t>rhythmic</t>
+  </si>
+  <si>
+    <t>melodies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now_you_will_hear_some </t>
+  </si>
+  <si>
+    <t>Now you will hear some</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jetzt werden Sie einige </t>
+  </si>
+  <si>
+    <t>a-rhythmische</t>
+  </si>
+  <si>
+    <t>rhythmische</t>
+  </si>
+  <si>
+    <t>Melodien</t>
+  </si>
+  <si>
+    <t>Melodien anschauen, die Sie zuvor bereits kennengelernt haben.</t>
+  </si>
+  <si>
+    <t>Jetzt hören Sie einige</t>
   </si>
 </sst>
 </file>
@@ -2474,7 +2519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2507,6 +2552,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2821,10 +2872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
-  <dimension ref="A1:E173"/>
+  <dimension ref="A1:E189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C171" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E173" sqref="E173"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D175" sqref="D175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5726,17 +5777,17 @@
         <v>761</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="170" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A171" s="12" t="s">
         <v>763</v>
       </c>
       <c r="B171" s="15" t="s">
         <v>764</v>
       </c>
-      <c r="C171" s="15" t="s">
+      <c r="C171" s="17" t="s">
         <v>764</v>
       </c>
-      <c r="D171" s="15" t="s">
+      <c r="D171" s="17" t="s">
         <v>765</v>
       </c>
       <c r="E171" s="15" t="s">
@@ -5750,10 +5801,10 @@
       <c r="B172" s="12" t="s">
         <v>767</v>
       </c>
-      <c r="C172" s="12" t="s">
+      <c r="C172" s="18" t="s">
         <v>767</v>
       </c>
-      <c r="D172" s="12" t="s">
+      <c r="D172" s="18" t="s">
         <v>768</v>
       </c>
       <c r="E172" s="12" t="s">
@@ -5767,15 +5818,157 @@
       <c r="B173" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="16" t="s">
         <v>770</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="19" t="s">
         <v>771</v>
       </c>
       <c r="E173" t="s">
         <v>770</v>
       </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="C174" s="16" t="s">
+        <v>773</v>
+      </c>
+      <c r="D174" s="16" t="s">
+        <v>781</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="C175" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="D175" s="16" t="s">
+        <v>785</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="C176" s="16" t="s">
+        <v>776</v>
+      </c>
+      <c r="D176" s="16" t="s">
+        <v>782</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C177" s="16" t="s">
+        <v>777</v>
+      </c>
+      <c r="D177" s="16" t="s">
+        <v>783</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="C178" s="16" t="s">
+        <v>778</v>
+      </c>
+      <c r="D178" s="16" t="s">
+        <v>784</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="C179" s="16" t="s">
+        <v>780</v>
+      </c>
+      <c r="D179" s="16" t="s">
+        <v>786</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C180" s="16"/>
+      <c r="D180" s="16"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C181" s="16"/>
+      <c r="D181" s="16"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C182" s="16"/>
+      <c r="D182" s="16"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C183" s="16"/>
+      <c r="D183" s="16"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C184" s="16"/>
+      <c r="D184" s="16"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C185" s="16"/>
+      <c r="D185" s="16"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C186" s="16"/>
+      <c r="D186" s="16"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C187" s="16"/>
+      <c r="D187" s="16"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C188" s="16"/>
+      <c r="D188" s="16"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C189" s="16"/>
+      <c r="D189" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAC91DF-FC06-BE41-99A2-A99B86EB2FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2D1D54-A8EC-8949-9714-DD226013A112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5380" yWindow="500" windowWidth="35840" windowHeight="20720" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20720" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -2401,9 +2401,6 @@
     <t>melodies</t>
   </si>
   <si>
-    <t xml:space="preserve">Now_you_will_hear_some </t>
-  </si>
-  <si>
     <t>Now you will hear some</t>
   </si>
   <si>
@@ -2423,6 +2420,9 @@
   </si>
   <si>
     <t>Jetzt hören Sie einige</t>
+  </si>
+  <si>
+    <t>Now_you_will_hear_some</t>
   </si>
 </sst>
 </file>
@@ -2519,7 +2519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2552,12 +2552,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2872,10 +2866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
-  <dimension ref="A1:E189"/>
+  <dimension ref="A1:E179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D175" sqref="D175"/>
+    <sheetView tabSelected="1" topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A172" sqref="A172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5784,10 +5778,10 @@
       <c r="B171" s="15" t="s">
         <v>764</v>
       </c>
-      <c r="C171" s="17" t="s">
+      <c r="C171" s="15" t="s">
         <v>764</v>
       </c>
-      <c r="D171" s="17" t="s">
+      <c r="D171" s="15" t="s">
         <v>765</v>
       </c>
       <c r="E171" s="15" t="s">
@@ -5801,10 +5795,10 @@
       <c r="B172" s="12" t="s">
         <v>767</v>
       </c>
-      <c r="C172" s="18" t="s">
+      <c r="C172" s="12" t="s">
         <v>767</v>
       </c>
-      <c r="D172" s="18" t="s">
+      <c r="D172" s="12" t="s">
         <v>768</v>
       </c>
       <c r="E172" s="12" t="s">
@@ -5818,10 +5812,10 @@
       <c r="B173" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="C173" s="16" t="s">
+      <c r="C173" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="D173" s="19" t="s">
+      <c r="D173" t="s">
         <v>771</v>
       </c>
       <c r="E173" t="s">
@@ -5835,11 +5829,11 @@
       <c r="B174" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="C174" s="16" t="s">
+      <c r="C174" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="D174" s="16" t="s">
-        <v>781</v>
+      <c r="D174" s="2" t="s">
+        <v>780</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>773</v>
@@ -5852,11 +5846,11 @@
       <c r="B175" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="C175" s="16" t="s">
+      <c r="C175" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="D175" s="16" t="s">
-        <v>785</v>
+      <c r="D175" s="2" t="s">
+        <v>784</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>774</v>
@@ -5869,11 +5863,11 @@
       <c r="B176" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="C176" s="16" t="s">
+      <c r="C176" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="D176" s="16" t="s">
-        <v>782</v>
+      <c r="D176" s="2" t="s">
+        <v>781</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>776</v>
@@ -5886,11 +5880,11 @@
       <c r="B177" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="C177" s="16" t="s">
+      <c r="C177" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="D177" s="16" t="s">
-        <v>783</v>
+      <c r="D177" s="2" t="s">
+        <v>782</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>777</v>
@@ -5903,11 +5897,11 @@
       <c r="B178" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="C178" s="16" t="s">
+      <c r="C178" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="D178" s="16" t="s">
-        <v>784</v>
+      <c r="D178" s="2" t="s">
+        <v>783</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>778</v>
@@ -5915,60 +5909,20 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="C179" s="16" t="s">
-        <v>780</v>
-      </c>
-      <c r="D179" s="16" t="s">
-        <v>786</v>
+      <c r="C179" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>785</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C180" s="16"/>
-      <c r="D180" s="16"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C181" s="16"/>
-      <c r="D181" s="16"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C182" s="16"/>
-      <c r="D182" s="16"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C183" s="16"/>
-      <c r="D183" s="16"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C184" s="16"/>
-      <c r="D184" s="16"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C185" s="16"/>
-      <c r="D185" s="16"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C186" s="16"/>
-      <c r="D186" s="16"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C187" s="16"/>
-      <c r="D187" s="16"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C188" s="16"/>
-      <c r="D188" s="16"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C189" s="16"/>
-      <c r="D189" s="16"/>
+        <v>779</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2D1D54-A8EC-8949-9714-DD226013A112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414CB671-3D9A-6948-B4DE-599AE0179CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20720" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
@@ -2869,7 +2869,7 @@
   <dimension ref="A1:E179"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A172" sqref="A172"/>
+      <selection activeCell="A179" sqref="A179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414CB671-3D9A-6948-B4DE-599AE0179CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E540A2B-2E95-444B-AEC0-CB31C5E6930F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20720" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
@@ -2868,7 +2868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
   <dimension ref="A1:E179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A167" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A179" sqref="A179"/>
     </sheetView>
   </sheetViews>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E540A2B-2E95-444B-AEC0-CB31C5E6930F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3556E866-3EF7-274A-80DC-52D01C6FDC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20720" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="35840" windowHeight="20720" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$D$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$E$180</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="792">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -2371,9 +2371,6 @@
     <t>Singe die Melodie nach.</t>
   </si>
   <si>
-    <t>lets_proceed</t>
-  </si>
-  <si>
     <t>Let's proceed!</t>
   </si>
   <si>
@@ -2423,13 +2420,32 @@
   </si>
   <si>
     <t>Now_you_will_hear_some</t>
+  </si>
+  <si>
+    <t>continue_learning_question</t>
+  </si>
+  <si>
+    <t>Would you like to continue learning? </t>
+  </si>
+  <si>
+    <t>Mochten Sie weiterlernen?</t>
+  </si>
+  <si>
+    <t>redirect_message2</t>
+  </si>
+  <si>
+    <t>Thank you! You will now be redirected.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danke! Sie werden jetzt zurückgeleitet.
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2478,6 +2494,12 @@
       <charset val="186"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2519,7 +2541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2552,6 +2574,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2866,10 +2889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
-  <dimension ref="A1:E179"/>
+  <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A179" sqref="A179"/>
+    <sheetView tabSelected="1" topLeftCell="C157" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D181" sqref="D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5807,124 +5830,159 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="C173" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="D173" t="s">
         <v>770</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>770</v>
-      </c>
-      <c r="D173" t="s">
-        <v>771</v>
-      </c>
       <c r="E173" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>773</v>
-      </c>
       <c r="C174" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>779</v>
+      <c r="B180" s="16" t="s">
+        <v>787</v>
+      </c>
+      <c r="C180" s="16" t="s">
+        <v>787</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="E180" s="16" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A181" s="12" t="s">
+        <v>789</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D181" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>790</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E180" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AADB509-3D64-A249-91FB-05F1CE7E6329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4FB963-657F-294D-88D8-8C5B69B85736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20720" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="0" yWindow="1580" windowWidth="35840" windowHeight="20720" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$E$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$E$147</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="995">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -3018,6 +3018,33 @@
   </si>
   <si>
     <t>interval_perception_instruction_4</t>
+  </si>
+  <si>
+    <t>See if you get feedback when you use your MIDI device.</t>
+  </si>
+  <si>
+    <t>midi_test_message</t>
+  </si>
+  <si>
+    <t>Überprüfen Sie, ob Sie eine Rückmeldung erhalten, wenn Sie Ihr MIDI-Gerät verwenden.</t>
+  </si>
+  <si>
+    <t>take_several_seconds</t>
+  </si>
+  <si>
+    <t>It can take several seconds to load.</t>
+  </si>
+  <si>
+    <t>Es kann einige Sekunden dauern, bis es geladen ist.</t>
+  </si>
+  <si>
+    <t>can_you_read_musical_notation</t>
+  </si>
+  <si>
+    <t>Can you read musical notation?</t>
+  </si>
+  <si>
+    <t>Können Sie Notenlesen für Musik verstehen?</t>
   </si>
 </sst>
 </file>
@@ -3467,10 +3494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
-  <dimension ref="A1:E249"/>
+  <dimension ref="A1:E252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="200" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3875,373 +3902,373 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>992</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>993</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>307</v>
+        <v>993</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>542</v>
+        <v>994</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>398</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>399</v>
+        <v>26</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>453</v>
+        <v>307</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>689</v>
+        <v>195</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>631</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>16</v>
+        <v>398</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>17</v>
+        <v>399</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>17</v>
+        <v>453</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>17</v>
+        <v>689</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>17</v>
+        <v>631</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>426</v>
+        <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>425</v>
+        <v>17</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>465</v>
+        <v>17</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>703</v>
+        <v>17</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>644</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B30" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D30" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E30" s="10" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>384</v>
+        <v>102</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>385</v>
+        <v>102</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>445</v>
+        <v>346</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>680</v>
+        <v>209</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>622</v>
+        <v>583</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B34" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>662</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>783</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>783</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>355</v>
+        <v>782</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>783</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>245</v>
+        <v>784</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>594</v>
+        <v>783</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>791</v>
+        <v>122</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>570</v>
+        <v>594</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>84</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>791</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>19</v>
+        <v>333</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>19</v>
+        <v>570</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>349</v>
+        <v>19</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>240</v>
+        <v>19</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>587</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>504</v>
+        <v>111</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>505</v>
+        <v>112</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>506</v>
+        <v>349</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>718</v>
+        <v>240</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>660</v>
+        <v>587</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>100</v>
+        <v>504</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>101</v>
+        <v>505</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>343</v>
+        <v>506</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>236</v>
+        <v>718</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>580</v>
+        <v>660</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>486</v>
+        <v>100</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>487</v>
+        <v>101</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>502</v>
+        <v>343</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>711</v>
+        <v>236</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>653</v>
+        <v>580</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E43" s="5" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="10" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
         <v>792</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B44" s="10" t="s">
         <v>793</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>793</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D44" s="10" t="s">
         <v>794</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E44" s="10" t="s">
         <v>793</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>905</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>905</v>
@@ -4249,16 +4276,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>905</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>905</v>
@@ -4266,696 +4293,696 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>20</v>
+        <v>923</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>21</v>
+        <v>922</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>21</v>
+        <v>905</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>21</v>
+        <v>935</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>371</v>
+        <v>21</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>255</v>
+        <v>21</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>613</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>484</v>
+        <v>171</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>485</v>
+        <v>172</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>501</v>
+        <v>371</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>710</v>
+        <v>255</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>652</v>
+        <v>613</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>78</v>
+        <v>484</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>158</v>
+        <v>485</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>326</v>
+        <v>501</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>224</v>
+        <v>710</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>563</v>
+        <v>652</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E53" s="5" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="10" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B54" s="11" t="s">
         <v>795</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C54" s="11" t="s">
         <v>795</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D54" s="10" t="s">
         <v>796</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E54" s="11" t="s">
         <v>795</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E57" s="5" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
+    <row r="58" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B58" s="12" t="s">
         <v>751</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C58" s="12" t="s">
         <v>751</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D58" s="12" t="s">
         <v>752</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="E58" s="12" t="s">
         <v>751</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>548</v>
+        <v>590</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>519</v>
+        <v>548</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>263</v>
+        <v>2</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>441</v>
+        <v>286</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>3</v>
+        <v>264</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>287</v>
+        <v>441</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>665</v>
+        <v>186</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>666</v>
+        <v>50</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>665</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>666</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E66" s="5" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
         <v>742</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B67" s="6" t="s">
         <v>742</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C67" s="6" t="s">
         <v>742</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D67" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E67" s="6" t="s">
         <v>742</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E69" s="5" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="10" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="10" t="s">
         <v>797</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B70" s="11" t="s">
         <v>798</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C70" s="11" t="s">
         <v>798</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="D70" s="11" t="s">
         <v>799</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E70" s="11" t="s">
         <v>798</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>133</v>
+        <v>415</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>134</v>
+        <v>415</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>362</v>
+        <v>461</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>142</v>
+        <v>697</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>602</v>
+        <v>638</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>392</v>
+        <v>133</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>392</v>
+        <v>134</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>448</v>
+        <v>362</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>684</v>
+        <v>142</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>626</v>
+        <v>602</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>956</v>
+        <v>392</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>943</v>
+        <v>392</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>943</v>
+        <v>448</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>943</v>
+        <v>684</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>958</v>
+        <v>968</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>945</v>
+        <v>955</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>945</v>
+        <v>955</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>971</v>
+        <v>981</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>945</v>
+        <v>955</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>929</v>
+        <v>965</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>928</v>
+        <v>952</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>905</v>
+        <v>952</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>938</v>
+        <v>978</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>905</v>
+        <v>952</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>905</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>905</v>
@@ -4963,16 +4990,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>905</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>905</v>
@@ -4980,934 +5007,934 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>985</v>
+        <v>931</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>983</v>
+        <v>933</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>982</v>
+        <v>905</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>984</v>
+        <v>941</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>982</v>
+        <v>905</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>926</v>
+        <v>985</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>927</v>
+        <v>983</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>905</v>
+        <v>982</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>937</v>
+        <v>984</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>905</v>
+        <v>982</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>790</v>
+        <v>926</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>765</v>
+        <v>927</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>766</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>876</v>
+        <v>905</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>277</v>
+        <v>790</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>276</v>
+        <v>765</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>275</v>
+        <v>765</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>766</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>597</v>
+        <v>876</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B94" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="D94" s="13" t="s">
-        <v>270</v>
+        <v>274</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>715</v>
+        <v>271</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>270</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>657</v>
+        <v>599</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B97" s="13" t="s">
-        <v>500</v>
-      </c>
-      <c r="C97" s="13" t="s">
-        <v>500</v>
-      </c>
-      <c r="D97" s="13" t="s">
-        <v>717</v>
+        <v>496</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>716</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>675</v>
+        <v>497</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>717</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>596</v>
+        <v>659</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>494</v>
+        <v>178</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>507</v>
+        <v>357</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>714</v>
+        <v>675</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>656</v>
+        <v>596</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>123</v>
+        <v>507</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>356</v>
+        <v>507</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>246</v>
+        <v>714</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>595</v>
+        <v>656</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="E101" s="5" t="s">
+      <c r="E102" s="5" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="10" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="10" t="s">
         <v>800</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B103" s="11" t="s">
         <v>801</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C103" s="11" t="s">
         <v>801</v>
       </c>
-      <c r="D102" s="10" t="s">
+      <c r="D103" s="10" t="s">
         <v>802</v>
       </c>
-      <c r="E102" s="11" t="s">
+      <c r="E103" s="11" t="s">
         <v>801</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>283</v>
+        <v>34</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>30</v>
+        <v>283</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>773</v>
+        <v>29</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>773</v>
+        <v>30</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>773</v>
+        <v>309</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>773</v>
+        <v>196</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>267</v>
+        <v>770</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>268</v>
+        <v>769</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>292</v>
+        <v>769</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>526</v>
+        <v>779</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>124</v>
+        <v>267</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>124</v>
+        <v>268</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>360</v>
+        <v>292</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>247</v>
+        <v>667</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>600</v>
+        <v>526</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>295</v>
+        <v>360</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>530</v>
+        <v>600</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>405</v>
+        <v>52</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>403</v>
+        <v>177</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>455</v>
+        <v>295</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>691</v>
+        <v>211</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>934</v>
+        <v>530</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>633</v>
+        <v>934</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>53</v>
+        <v>407</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>57</v>
+        <v>408</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>293</v>
+        <v>456</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>210</v>
+        <v>693</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>527</v>
+        <v>634</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>190</v>
+        <v>57</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>668</v>
+        <v>210</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>269</v>
+        <v>190</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>479</v>
+        <v>294</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>4</v>
+        <v>269</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>290</v>
+        <v>479</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>189</v>
+        <v>669</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>551</v>
+        <v>525</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="E122" s="5" t="s">
+      <c r="E123" s="5" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="10" t="s">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="10" t="s">
         <v>803</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B124" s="10" t="s">
         <v>803</v>
       </c>
-      <c r="C123" s="10" t="s">
+      <c r="C124" s="10" t="s">
         <v>803</v>
       </c>
-      <c r="D123" s="10" t="s">
+      <c r="D124" s="10" t="s">
         <v>803</v>
       </c>
-      <c r="E123" s="10" t="s">
+      <c r="E124" s="10" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>555</v>
-      </c>
-    </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>558</v>
+      <c r="A125" s="10" t="s">
+        <v>987</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>986</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>986</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>194</v>
+        <v>45</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>43</v>
+        <v>322</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>140</v>
+        <v>201</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>148</v>
+        <v>7</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>149</v>
+        <v>7</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>365</v>
+        <v>302</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>605</v>
+        <v>537</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>328</v>
+        <v>43</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>431</v>
+        <v>148</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>468</v>
+        <v>365</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>705</v>
+        <v>150</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>647</v>
+        <v>605</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B131" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="C131" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="D131" s="14" t="s">
-        <v>192</v>
+        <v>79</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>65</v>
+        <v>431</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>297</v>
+        <v>468</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>670</v>
+        <v>705</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>532</v>
+        <v>647</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>681</v>
+        <v>62</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C133" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D133" s="14" t="s">
+        <v>192</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>623</v>
+        <v>531</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>394</v>
+        <v>65</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>394</v>
+        <v>64</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>450</v>
+        <v>297</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>628</v>
+        <v>532</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>83</v>
+        <v>386</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>98</v>
+        <v>387</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>332</v>
+        <v>446</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>227</v>
+        <v>681</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>569</v>
+        <v>623</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>781</v>
+        <v>394</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>774</v>
+        <v>394</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>774</v>
+        <v>450</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>774</v>
+        <v>686</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>767</v>
+        <v>83</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>768</v>
+        <v>98</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>768</v>
+        <v>332</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>768</v>
+        <v>227</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>22</v>
+        <v>781</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>23</v>
+        <v>774</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>23</v>
+        <v>774</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>23</v>
+        <v>780</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>44</v>
+        <v>767</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>44</v>
+        <v>768</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>318</v>
+        <v>768</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>554</v>
+        <v>775</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>361</v>
+        <v>23</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>601</v>
+        <v>23</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>878</v>
+        <v>44</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>879</v>
+        <v>44</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>905</v>
+        <v>318</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>905</v>
+        <v>141</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>895</v>
+        <v>131</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>896</v>
+        <v>132</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>905</v>
+        <v>361</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>905</v>
+        <v>261</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>897</v>
+        <v>878</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>898</v>
+        <v>879</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>905</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>905</v>
@@ -5915,16 +5942,16 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>905</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>905</v>
@@ -5932,16 +5959,16 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>905</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>905</v>
@@ -5949,16 +5976,16 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>905</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>905</v>
@@ -5966,16 +5993,16 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>881</v>
+        <v>901</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>882</v>
+        <v>902</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>905</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>908</v>
+        <v>918</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>905</v>
@@ -5983,16 +6010,16 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>884</v>
+        <v>904</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>879</v>
+        <v>903</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>905</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>906</v>
+        <v>919</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>905</v>
@@ -6000,16 +6027,16 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>905</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>905</v>
@@ -6017,16 +6044,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>905</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>905</v>
@@ -6034,16 +6061,16 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="D151" s="6" t="s">
-        <v>906</v>
+      <c r="D151" s="1" t="s">
+        <v>910</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>905</v>
@@ -6051,16 +6078,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>942</v>
+        <v>888</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="D152" s="6" t="s">
-        <v>913</v>
+      <c r="D152" s="1" t="s">
+        <v>911</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>905</v>
@@ -6068,16 +6095,16 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>912</v>
+      <c r="D153" s="6" t="s">
+        <v>906</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>905</v>
@@ -6085,16 +6112,16 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>891</v>
+        <v>942</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>914</v>
+      <c r="D154" s="6" t="s">
+        <v>913</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>905</v>
@@ -6102,1623 +6129,1674 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B157" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C157" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="D155" s="5" t="s">
+      <c r="D157" s="5" t="s">
         <v>877</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="E157" s="1" t="s">
         <v>789</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" s="10" t="s">
-        <v>804</v>
-      </c>
-      <c r="B156" s="11" t="s">
-        <v>805</v>
-      </c>
-      <c r="C156" s="11" t="s">
-        <v>805</v>
-      </c>
-      <c r="D156" s="10" t="s">
-        <v>806</v>
-      </c>
-      <c r="E156" s="11" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" s="10" t="s">
-        <v>807</v>
-      </c>
-      <c r="B157" s="15" t="s">
-        <v>808</v>
-      </c>
-      <c r="C157" s="15" t="s">
-        <v>808</v>
-      </c>
-      <c r="D157" s="10" t="s">
-        <v>809</v>
-      </c>
-      <c r="E157" s="15" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="D158" s="10" t="s">
+        <v>806</v>
+      </c>
+      <c r="E158" s="11" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="B159" s="15" t="s">
+        <v>808</v>
+      </c>
+      <c r="C159" s="15" t="s">
+        <v>808</v>
+      </c>
+      <c r="D159" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="E159" s="15" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="10" t="s">
         <v>810</v>
       </c>
-      <c r="B158" s="15" t="s">
+      <c r="B160" s="15" t="s">
         <v>811</v>
       </c>
-      <c r="C158" s="15" t="s">
+      <c r="C160" s="15" t="s">
         <v>811</v>
       </c>
-      <c r="D158" s="10" t="s">
+      <c r="D160" s="10" t="s">
         <v>812</v>
       </c>
-      <c r="E158" s="15" t="s">
+      <c r="E160" s="15" t="s">
         <v>811</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E159" s="5" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>372</v>
+        <v>81</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>256</v>
+        <v>206</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>614</v>
+        <v>567</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>36</v>
+        <v>883</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>37</v>
+        <v>883</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>315</v>
+        <v>905</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E162" s="5" t="s">
-        <v>549</v>
+        <v>909</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>391</v>
+        <v>173</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>390</v>
+        <v>174</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>449</v>
+        <v>372</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>683</v>
+        <v>256</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>182</v>
+        <v>36</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>477</v>
+        <v>315</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>258</v>
+        <v>199</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>617</v>
+        <v>549</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>164</v>
+        <v>391</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>169</v>
+        <v>390</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>253</v>
+        <v>683</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>369</v>
+        <v>477</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B168" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C168" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="D168" s="8" t="s">
-        <v>676</v>
+        <v>170</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>414</v>
+        <v>153</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>413</v>
+        <v>154</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>460</v>
+        <v>482</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>696</v>
+        <v>249</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>244</v>
+        <v>151</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>676</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>488</v>
+        <v>414</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>489</v>
+        <v>413</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>503</v>
+        <v>460</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>654</v>
+        <v>637</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>491</v>
+        <v>278</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>82</v>
+        <v>488</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>82</v>
+        <v>489</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>329</v>
+        <v>503</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>205</v>
+        <v>712</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>568</v>
+        <v>654</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>423</v>
+        <v>110</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>424</v>
+        <v>491</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>464</v>
+        <v>348</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>702</v>
+        <v>239</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>643</v>
+        <v>586</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>61</v>
+        <v>423</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>6</v>
+        <v>424</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>301</v>
+        <v>464</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>671</v>
+        <v>702</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>536</v>
+        <v>643</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>193</v>
+        <v>671</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>556</v>
+        <v>534</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>119</v>
+        <v>5</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>353</v>
+        <v>300</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>243</v>
+        <v>193</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>592</v>
+        <v>535</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>513</v>
+        <v>63</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>514</v>
+        <v>129</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>514</v>
+        <v>320</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>721</v>
+        <v>219</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>663</v>
+        <v>556</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B184" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C184" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D184" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="E182" s="5" t="s">
+      <c r="E184" s="5" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="153" x14ac:dyDescent="0.2">
-      <c r="A183" s="6" t="s">
+    <row r="185" spans="1:5" ht="170" x14ac:dyDescent="0.2">
+      <c r="A185" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="B183" s="12" t="s">
+      <c r="B185" s="12" t="s">
         <v>760</v>
       </c>
-      <c r="C183" s="12" t="s">
+      <c r="C185" s="12" t="s">
         <v>760</v>
       </c>
-      <c r="D183" s="12" t="s">
+      <c r="D185" s="12" t="s">
         <v>761</v>
       </c>
-      <c r="E183" s="12" t="s">
+      <c r="E185" s="12" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A184" s="6" t="s">
+    <row r="186" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A186" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B186" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C186" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="D184" s="12" t="s">
+      <c r="D186" s="12" t="s">
         <v>787</v>
       </c>
-      <c r="E184" s="1" t="s">
+      <c r="E186" s="1" t="s">
         <v>786</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185" s="10" t="s">
-        <v>813</v>
-      </c>
-      <c r="B185" s="11" t="s">
-        <v>814</v>
-      </c>
-      <c r="C185" s="11" t="s">
-        <v>814</v>
-      </c>
-      <c r="D185" s="10" t="s">
-        <v>815</v>
-      </c>
-      <c r="E185" s="11" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" s="10" t="s">
-        <v>816</v>
-      </c>
-      <c r="B186" s="16" t="s">
-        <v>817</v>
-      </c>
-      <c r="C186" s="16" t="s">
-        <v>817</v>
-      </c>
-      <c r="D186" s="10" t="s">
-        <v>818</v>
-      </c>
-      <c r="E186" s="16" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="10" t="s">
-        <v>819</v>
-      </c>
-      <c r="B187" s="16" t="s">
-        <v>820</v>
-      </c>
-      <c r="C187" s="16" t="s">
-        <v>820</v>
+        <v>813</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>814</v>
+      </c>
+      <c r="C187" s="11" t="s">
+        <v>814</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>821</v>
-      </c>
-      <c r="E187" s="16" t="s">
-        <v>820</v>
+        <v>815</v>
+      </c>
+      <c r="E187" s="11" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="10" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="B188" s="16" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>823</v>
-      </c>
-      <c r="D188" s="11" t="s">
-        <v>824</v>
+        <v>817</v>
+      </c>
+      <c r="D188" s="10" t="s">
+        <v>818</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="10" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="B189" s="16" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="10" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="B190" s="16" t="s">
-        <v>44</v>
+        <v>823</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D190" s="10" t="s">
-        <v>141</v>
+        <v>823</v>
+      </c>
+      <c r="D190" s="11" t="s">
+        <v>824</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>44</v>
+        <v>823</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="10" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B191" s="16" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="B192" s="11" t="s">
-        <v>833</v>
-      </c>
-      <c r="C192" s="11" t="s">
-        <v>833</v>
+      <c r="A192" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="B192" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C192" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>834</v>
-      </c>
-      <c r="E192" s="11" t="s">
-        <v>833</v>
+        <v>141</v>
+      </c>
+      <c r="E192" s="16" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="10" t="s">
+        <v>829</v>
+      </c>
+      <c r="B193" s="16" t="s">
+        <v>830</v>
+      </c>
+      <c r="C193" s="16" t="s">
+        <v>830</v>
+      </c>
+      <c r="D193" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="E193" s="16" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>833</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>833</v>
+      </c>
+      <c r="D194" s="10" t="s">
+        <v>834</v>
+      </c>
+      <c r="E194" s="11" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="10" t="s">
         <v>835</v>
       </c>
-      <c r="B193" s="16" t="s">
+      <c r="B195" s="16" t="s">
         <v>836</v>
       </c>
-      <c r="C193" s="16" t="s">
+      <c r="C195" s="16" t="s">
         <v>836</v>
       </c>
-      <c r="D193" s="10" t="s">
+      <c r="D195" s="10" t="s">
         <v>837</v>
       </c>
-      <c r="E193" s="16" t="s">
+      <c r="E195" s="16" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="10" t="s">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="10" t="s">
         <v>838</v>
       </c>
-      <c r="B194" s="16" t="s">
+      <c r="B196" s="16" t="s">
         <v>839</v>
       </c>
-      <c r="C194" s="16" t="s">
+      <c r="C196" s="16" t="s">
         <v>839</v>
       </c>
-      <c r="D194" s="10" t="s">
+      <c r="D196" s="10" t="s">
         <v>840</v>
       </c>
-      <c r="E194" s="16" t="s">
+      <c r="E196" s="16" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" s="1" t="s">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B197" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="C197" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="D197" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="E195" s="5" t="s">
+      <c r="E197" s="5" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" s="1" t="s">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B198" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="C198" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="D198" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="E196" s="1" t="s">
+      <c r="E198" s="1" t="s">
         <v>772</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="6" t="s">
-        <v>731</v>
-      </c>
-      <c r="B197" s="6" t="s">
-        <v>734</v>
-      </c>
-      <c r="C197" s="6" t="s">
-        <v>734</v>
-      </c>
-      <c r="D197" s="6" t="s">
-        <v>741</v>
-      </c>
-      <c r="E197" s="6" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="B198" s="6" t="s">
-        <v>732</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>732</v>
-      </c>
-      <c r="D198" s="6" t="s">
-        <v>739</v>
-      </c>
-      <c r="E198" s="6" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="E199" s="6" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="E200" s="6" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="6" t="s">
         <v>730</v>
       </c>
-      <c r="B199" s="6" t="s">
+      <c r="B201" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="C199" s="6" t="s">
+      <c r="C201" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="D199" s="6" t="s">
+      <c r="D201" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="E199" s="6" t="s">
+      <c r="E201" s="6" t="s">
         <v>733</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="E200" s="5" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E201" s="5" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>143</v>
+        <v>416</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>144</v>
+        <v>417</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>363</v>
+        <v>476</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>145</v>
+        <v>698</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>603</v>
+        <v>639</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>8</v>
+        <v>146</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>303</v>
+        <v>364</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>672</v>
+        <v>248</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>538</v>
+        <v>604</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>304</v>
+        <v>363</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>673</v>
+        <v>145</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>539</v>
+        <v>603</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>378</v>
+        <v>8</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>377</v>
+        <v>9</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>443</v>
+        <v>303</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>619</v>
+        <v>538</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B208" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="C208" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="D206" s="1" t="s">
+      <c r="D208" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="E206" s="1" t="s">
+      <c r="E208" s="1" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A207" s="6" t="s">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" s="6" t="s">
         <v>747</v>
       </c>
-      <c r="B207" s="6" t="s">
+      <c r="B209" s="6" t="s">
         <v>748</v>
       </c>
-      <c r="C207" s="6" t="s">
+      <c r="C209" s="6" t="s">
         <v>748</v>
       </c>
-      <c r="D207" s="6" t="s">
+      <c r="D209" s="6" t="s">
         <v>749</v>
       </c>
-      <c r="E207" s="6" t="s">
+      <c r="E209" s="6" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A208" s="6" t="s">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" s="6" t="s">
         <v>762</v>
       </c>
-      <c r="B208" s="6" t="s">
+      <c r="B210" s="6" t="s">
         <v>763</v>
       </c>
-      <c r="C208" s="6" t="s">
+      <c r="C210" s="6" t="s">
         <v>763</v>
       </c>
-      <c r="D208" s="6" t="s">
+      <c r="D210" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="E208" s="6" t="s">
+      <c r="E210" s="6" t="s">
         <v>763</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E209" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="E210" s="5" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>420</v>
+        <v>167</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>462</v>
+        <v>370</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>700</v>
+        <v>254</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>641</v>
+        <v>612</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>106</v>
+        <v>421</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>103</v>
+        <v>422</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>345</v>
+        <v>463</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>238</v>
+        <v>701</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>582</v>
+        <v>642</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>440</v>
+        <v>103</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>436</v>
+        <v>106</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>435</v>
+        <v>103</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>473</v>
+        <v>345</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>707</v>
+        <v>238</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>649</v>
+        <v>582</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>344</v>
+        <v>473</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>72</v>
+        <v>438</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>73</v>
+        <v>437</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>324</v>
+        <v>474</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>202</v>
+        <v>708</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B218" s="8" t="s">
-        <v>396</v>
+        <v>419</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>418</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D218" s="8" t="s">
-        <v>687</v>
-      </c>
-      <c r="E218" s="17" t="s">
-        <v>629</v>
+        <v>344</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E219" s="5" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D220" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="E220" s="17" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B221" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="C221" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="D219" s="1" t="s">
+      <c r="D221" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="E219" s="5" t="s">
+      <c r="E221" s="5" t="s">
         <v>635</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E220" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="B221" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="C221" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="D221" s="6" t="s">
-        <v>719</v>
-      </c>
-      <c r="E221" s="5" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>990</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>990</v>
+      </c>
+      <c r="D224" s="6" t="s">
+        <v>991</v>
+      </c>
+      <c r="E224" s="6" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B225" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="C225" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D222" s="1" t="s">
+      <c r="D225" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E222" s="5" t="s">
+      <c r="E225" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A223" s="1" t="s">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="B226" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="C226" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="D223" s="1" t="s">
+      <c r="D226" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E223" s="5" t="s">
+      <c r="E226" s="5" t="s">
         <v>585</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A224" s="10" t="s">
-        <v>841</v>
-      </c>
-      <c r="B224" s="11" t="s">
-        <v>842</v>
-      </c>
-      <c r="C224" s="11" t="s">
-        <v>843</v>
-      </c>
-      <c r="D224" s="10" t="s">
-        <v>844</v>
-      </c>
-      <c r="E224" s="11" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A225" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="B225" s="11" t="s">
-        <v>846</v>
-      </c>
-      <c r="C225" s="11" t="s">
-        <v>846</v>
-      </c>
-      <c r="D225" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="E225" s="11" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A226" s="10" t="s">
-        <v>848</v>
-      </c>
-      <c r="B226" s="11" t="s">
-        <v>849</v>
-      </c>
-      <c r="C226" s="11" t="s">
-        <v>850</v>
-      </c>
-      <c r="D226" s="10" t="s">
-        <v>851</v>
-      </c>
-      <c r="E226" s="11" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="10" t="s">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="D227" s="10" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="E227" s="11" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="10" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="C228" s="11" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="D228" s="10" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="E228" s="11" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="10" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="B229" s="11" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="C229" s="11" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="D229" s="10" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="E229" s="11" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="10" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="C230" s="11" t="s">
-        <v>863</v>
-      </c>
-      <c r="D230" s="11" t="s">
-        <v>863</v>
+        <v>853</v>
+      </c>
+      <c r="D230" s="10" t="s">
+        <v>854</v>
       </c>
       <c r="E230" s="11" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="10" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="C231" s="11" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="D231" s="10" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="E231" s="11" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="10" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C232" s="11" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="D232" s="10" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="E232" s="11" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="10" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="C233" s="11" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="D233" s="11" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="E233" s="11" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A234" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="E234" s="5" t="s">
-        <v>621</v>
+      <c r="A234" s="10" t="s">
+        <v>864</v>
+      </c>
+      <c r="B234" s="11" t="s">
+        <v>865</v>
+      </c>
+      <c r="C234" s="11" t="s">
+        <v>865</v>
+      </c>
+      <c r="D234" s="10" t="s">
+        <v>866</v>
+      </c>
+      <c r="E234" s="11" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A235" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="E235" s="5" t="s">
-        <v>664</v>
+      <c r="A235" s="10" t="s">
+        <v>867</v>
+      </c>
+      <c r="B235" s="11" t="s">
+        <v>868</v>
+      </c>
+      <c r="C235" s="11" t="s">
+        <v>868</v>
+      </c>
+      <c r="D235" s="10" t="s">
+        <v>869</v>
+      </c>
+      <c r="E235" s="11" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="10" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C236" s="11" t="s">
-        <v>873</v>
-      </c>
-      <c r="D236" s="10" t="s">
-        <v>874</v>
+        <v>871</v>
+      </c>
+      <c r="D236" s="11" t="s">
+        <v>871</v>
       </c>
       <c r="E236" s="11" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>175</v>
+        <v>381</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>176</v>
+        <v>382</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>373</v>
+        <v>444</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>257</v>
+        <v>383</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" s="10" t="s">
+        <v>872</v>
+      </c>
+      <c r="B239" s="11" t="s">
+        <v>873</v>
+      </c>
+      <c r="C239" s="11" t="s">
+        <v>873</v>
+      </c>
+      <c r="D239" s="10" t="s">
+        <v>874</v>
+      </c>
+      <c r="E239" s="11" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E240" s="5" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="B241" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="C241" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D238" s="1" t="s">
+      <c r="D241" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E238" s="5" t="s">
+      <c r="E241" s="5" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A239" s="6" t="s">
+    <row r="242" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A242" s="6" t="s">
         <v>744</v>
       </c>
-      <c r="B239" s="12" t="s">
+      <c r="B242" s="12" t="s">
         <v>745</v>
       </c>
-      <c r="C239" s="12" t="s">
+      <c r="C242" s="12" t="s">
         <v>745</v>
       </c>
-      <c r="D239" s="12" t="s">
+      <c r="D242" s="12" t="s">
         <v>746</v>
       </c>
-      <c r="E239" s="12" t="s">
+      <c r="E242" s="12" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="10" t="s">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" s="10" t="s">
         <v>875</v>
       </c>
-      <c r="B240" s="11" t="s">
+      <c r="B243" s="11" t="s">
         <v>805</v>
       </c>
-      <c r="C240" s="11" t="s">
+      <c r="C243" s="11" t="s">
         <v>805</v>
       </c>
-      <c r="D240" s="10" t="s">
+      <c r="D243" s="10" t="s">
         <v>806</v>
       </c>
-      <c r="E240" s="11" t="s">
+      <c r="E243" s="11" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" s="6" t="s">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="B241" s="6" t="s">
+      <c r="B244" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="C241" s="6" t="s">
+      <c r="C244" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="D241" s="6" t="s">
+      <c r="D244" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="E241" s="6" t="s">
+      <c r="E244" s="6" t="s">
         <v>754</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A242" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B242" s="18" t="s">
-        <v>466</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="D242" s="18" t="s">
-        <v>704</v>
-      </c>
-      <c r="E242" s="5" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E243" s="5" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A244" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E244" s="5" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>180</v>
+        <v>427</v>
+      </c>
+      <c r="B245" s="18" t="s">
+        <v>466</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>262</v>
+        <v>467</v>
+      </c>
+      <c r="D245" s="18" t="s">
+        <v>704</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>616</v>
+        <v>645</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>228</v>
+        <v>139</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A247" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="B247" s="6" t="s">
-        <v>757</v>
-      </c>
-      <c r="C247" s="6" t="s">
-        <v>757</v>
-      </c>
-      <c r="D247" s="6" t="s">
-        <v>758</v>
-      </c>
-      <c r="E247" s="6" t="s">
-        <v>757</v>
+      <c r="A247" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E247" s="5" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>321</v>
+        <v>374</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>220</v>
+        <v>262</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>557</v>
+        <v>616</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E249" s="5" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="D250" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="E250" s="6" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E251" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="B252" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="C252" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D249" s="1" t="s">
+      <c r="D252" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E249" s="5" t="s">
+      <c r="E252" s="5" t="s">
         <v>559</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E145" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E249">
-    <sortCondition ref="A1:A249"/>
+  <autoFilter ref="A1:E147" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E252">
+    <sortCondition ref="A1:A252"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4FB963-657F-294D-88D8-8C5B69B85736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEB6C57-D8B6-E046-BF02-8FF5D3AFDF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1580" windowWidth="35840" windowHeight="20720" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="0" yWindow="1700" windowWidth="35840" windowHeight="20700" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$E$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$E$150</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1010">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -3045,6 +3045,51 @@
   </si>
   <si>
     <t>Können Sie Notenlesen für Musik verstehen?</t>
+  </si>
+  <si>
+    <t>Sing</t>
+  </si>
+  <si>
+    <t>Singen</t>
+  </si>
+  <si>
+    <t>Singe</t>
+  </si>
+  <si>
+    <t>play_the_melody</t>
+  </si>
+  <si>
+    <t>play the melody</t>
+  </si>
+  <si>
+    <t>die Melodie spielen</t>
+  </si>
+  <si>
+    <t>interval_perception_trials_conditional</t>
+  </si>
+  <si>
+    <t>Können Sie musikalische Intervalle, die Sie hören, nach Gehör benennen?</t>
+  </si>
+  <si>
+    <t>Are you able to name musical intervals you hear by ear?</t>
+  </si>
+  <si>
+    <t>happy_with_selection</t>
+  </si>
+  <si>
+    <t>Are you happy with your selection?</t>
+  </si>
+  <si>
+    <t>Sind Sie mit Ihrer Auswahl zufrieden?</t>
+  </si>
+  <si>
+    <t>confirm_feedback</t>
+  </si>
+  <si>
+    <t>Did you get appropriate feedback on-screen?</t>
+  </si>
+  <si>
+    <t>Haben Sie angemessenes Feedback auf dem Bildschirm erhalten?</t>
   </si>
 </sst>
 </file>
@@ -3494,10 +3539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
-  <dimension ref="A1:E252"/>
+  <dimension ref="A1:E258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="D20" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4055,237 +4100,237 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B35" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>662</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>783</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>783</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>355</v>
+        <v>782</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>783</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>245</v>
+        <v>784</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>594</v>
+        <v>783</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>791</v>
+        <v>122</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>570</v>
+        <v>594</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>19</v>
+        <v>84</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>791</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>19</v>
+        <v>333</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>19</v>
+        <v>570</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>349</v>
+        <v>19</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>240</v>
+        <v>19</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>587</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>504</v>
+        <v>111</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>505</v>
+        <v>112</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>506</v>
+        <v>349</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>718</v>
+        <v>240</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>660</v>
+        <v>587</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>100</v>
+        <v>504</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>101</v>
+        <v>505</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>343</v>
+        <v>506</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>236</v>
+        <v>718</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>580</v>
+        <v>660</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>486</v>
+        <v>100</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>487</v>
+        <v>101</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>502</v>
+        <v>343</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>711</v>
+        <v>236</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>653</v>
+        <v>580</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E44" s="5" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="10" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
         <v>792</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B45" s="10" t="s">
         <v>793</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>793</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D45" s="10" t="s">
         <v>794</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E45" s="10" t="s">
         <v>793</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>905</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>905</v>
@@ -4293,16 +4338,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>905</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>905</v>
@@ -4310,713 +4355,713 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>20</v>
+        <v>923</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>21</v>
+        <v>922</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>21</v>
+        <v>905</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>21</v>
+        <v>935</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>371</v>
+        <v>21</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>255</v>
+        <v>21</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>613</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>484</v>
+        <v>171</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>485</v>
+        <v>172</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>501</v>
+        <v>371</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>710</v>
+        <v>255</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>652</v>
+        <v>613</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>78</v>
+        <v>484</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>158</v>
+        <v>485</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>326</v>
+        <v>501</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>224</v>
+        <v>710</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>563</v>
+        <v>652</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E54" s="5" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="10" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B55" s="11" t="s">
         <v>795</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C55" s="11" t="s">
         <v>795</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D55" s="10" t="s">
         <v>796</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E55" s="11" t="s">
         <v>795</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E58" s="5" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
+    <row r="59" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B59" s="12" t="s">
         <v>751</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C59" s="12" t="s">
         <v>751</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D59" s="12" t="s">
         <v>752</v>
       </c>
-      <c r="E58" s="12" t="s">
+      <c r="E59" s="12" t="s">
         <v>751</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>548</v>
+        <v>590</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>47</v>
+        <v>1004</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>2</v>
+        <v>1005</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>291</v>
+        <v>905</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>184</v>
+        <v>1006</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>519</v>
+        <v>905</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>520</v>
+        <v>548</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>264</v>
+        <v>2</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>441</v>
+        <v>291</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>3</v>
+        <v>263</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>665</v>
+        <v>185</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>666</v>
+        <v>49</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>165</v>
+        <v>3</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>368</v>
+        <v>287</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>251</v>
+        <v>665</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>609</v>
+        <v>522</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="s">
-        <v>742</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>742</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>742</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>743</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>742</v>
+      <c r="A67" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>666</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E70" s="5" t="s">
         <v>550</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="10" t="s">
-        <v>797</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>798</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>798</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>799</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>415</v>
+        <v>74</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>415</v>
+        <v>203</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>461</v>
+        <v>325</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>697</v>
+        <v>222</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>638</v>
+        <v>561</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>602</v>
+      <c r="A72" s="10" t="s">
+        <v>797</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>956</v>
+        <v>133</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>943</v>
+        <v>134</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>943</v>
+        <v>362</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>943</v>
+        <v>142</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>957</v>
+        <v>392</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>944</v>
+        <v>392</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>944</v>
+        <v>448</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>944</v>
+        <v>684</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>958</v>
+        <v>967</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>945</v>
+        <v>954</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>945</v>
+        <v>954</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>971</v>
+        <v>980</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>945</v>
+        <v>954</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>959</v>
+        <v>968</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>946</v>
+        <v>955</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>946</v>
+        <v>955</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>972</v>
+        <v>981</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>946</v>
+        <v>955</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>929</v>
+        <v>964</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>928</v>
+        <v>951</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>905</v>
+        <v>951</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>938</v>
+        <v>977</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>905</v>
+        <v>951</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>930</v>
+        <v>965</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>932</v>
+        <v>952</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>905</v>
+        <v>952</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>939</v>
+        <v>978</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>905</v>
+        <v>952</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>905</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>905</v>
@@ -5024,33 +5069,33 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>985</v>
+        <v>930</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>983</v>
+        <v>932</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>982</v>
+        <v>905</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>984</v>
+        <v>939</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>982</v>
+        <v>905</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>905</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>905</v>
@@ -5058,934 +5103,934 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>790</v>
+        <v>985</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>765</v>
+        <v>983</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>766</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>876</v>
+        <v>982</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>277</v>
+        <v>926</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>276</v>
+        <v>927</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>358</v>
+        <v>905</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>597</v>
+        <v>937</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>274</v>
+        <v>1001</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>273</v>
+        <v>1003</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>598</v>
+        <v>905</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="D95" s="13" t="s">
-        <v>270</v>
+        <v>790</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>766</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>599</v>
+        <v>876</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>495</v>
+        <v>277</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>498</v>
+        <v>276</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>498</v>
+        <v>358</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>715</v>
+        <v>275</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>657</v>
+        <v>597</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>496</v>
+        <v>274</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>499</v>
+        <v>273</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>499</v>
+        <v>359</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>716</v>
+        <v>272</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>658</v>
+        <v>598</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>497</v>
+        <v>271</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>500</v>
+        <v>366</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>717</v>
+        <v>270</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>659</v>
+        <v>599</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>178</v>
+        <v>495</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>357</v>
+        <v>498</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>675</v>
+        <v>715</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>596</v>
+        <v>657</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>246</v>
+        <v>497</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>717</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>595</v>
+        <v>659</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>492</v>
+        <v>178</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>493</v>
+        <v>357</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>713</v>
+        <v>675</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>655</v>
+        <v>596</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="10" t="s">
-        <v>800</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>801</v>
-      </c>
-      <c r="C103" s="11" t="s">
-        <v>801</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>802</v>
-      </c>
-      <c r="E103" s="11" t="s">
-        <v>801</v>
+      <c r="A103" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>285</v>
+        <v>356</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>183</v>
+        <v>246</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>518</v>
+        <v>595</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>27</v>
+        <v>492</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>28</v>
+        <v>493</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>308</v>
+        <v>493</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>215</v>
+        <v>713</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>543</v>
+        <v>655</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>545</v>
+      <c r="A106" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>546</v>
+        <v>518</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>283</v>
+        <v>28</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>773</v>
+        <v>33</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>773</v>
+        <v>34</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>773</v>
+        <v>311</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>773</v>
+        <v>198</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>770</v>
+        <v>35</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>769</v>
+        <v>283</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>769</v>
+        <v>314</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>769</v>
+        <v>216</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>267</v>
+        <v>29</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>268</v>
+        <v>30</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>667</v>
+        <v>196</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>124</v>
+        <v>773</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>124</v>
+        <v>773</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>360</v>
+        <v>773</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>600</v>
+        <v>778</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>52</v>
+        <v>770</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>177</v>
+        <v>769</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>295</v>
+        <v>769</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>530</v>
+        <v>779</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>405</v>
+        <v>267</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>403</v>
+        <v>268</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>455</v>
+        <v>292</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>691</v>
+        <v>667</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>934</v>
+        <v>526</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>406</v>
+        <v>124</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>404</v>
+        <v>124</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>692</v>
+        <v>247</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>633</v>
+        <v>600</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>407</v>
+        <v>52</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>408</v>
+        <v>177</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>456</v>
+        <v>295</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>693</v>
+        <v>211</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>634</v>
+        <v>530</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>53</v>
+        <v>405</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>57</v>
+        <v>403</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>293</v>
+        <v>455</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>210</v>
+        <v>691</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>527</v>
+        <v>934</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>54</v>
+        <v>406</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>190</v>
+        <v>404</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>294</v>
+        <v>480</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>668</v>
+        <v>692</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>528</v>
+        <v>633</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>56</v>
+        <v>407</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>269</v>
+        <v>408</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>669</v>
+        <v>693</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>529</v>
+        <v>634</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>218</v>
+        <v>668</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>389</v>
+        <v>56</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>388</v>
+        <v>269</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>447</v>
+        <v>479</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>624</v>
+        <v>529</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="10" t="s">
-        <v>803</v>
-      </c>
-      <c r="B124" s="10" t="s">
-        <v>803</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>803</v>
-      </c>
-      <c r="D124" s="10" t="s">
-        <v>803</v>
-      </c>
-      <c r="E124" s="10" t="s">
-        <v>803</v>
+      <c r="A124" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="10" t="s">
-        <v>987</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>986</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>986</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>988</v>
-      </c>
-      <c r="E125" s="10" t="s">
-        <v>986</v>
+      <c r="A125" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>46</v>
+        <v>389</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>45</v>
+        <v>388</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>319</v>
+        <v>447</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>45</v>
+        <v>682</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>555</v>
+        <v>624</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>558</v>
+      <c r="A127" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>537</v>
+      <c r="A128" s="10" t="s">
+        <v>987</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>986</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>986</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>43</v>
+        <v>319</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>365</v>
+        <v>322</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>605</v>
+        <v>558</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>566</v>
+        <v>537</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>431</v>
+        <v>43</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>468</v>
+        <v>43</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>705</v>
+        <v>140</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>647</v>
+        <v>553</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B133" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="C133" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="D133" s="14" t="s">
-        <v>192</v>
+        <v>148</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>531</v>
+        <v>605</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>670</v>
+        <v>204</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>532</v>
+        <v>566</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>386</v>
+        <v>431</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>387</v>
+        <v>95</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>446</v>
+        <v>468</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>681</v>
+        <v>705</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>623</v>
+        <v>647</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>686</v>
+        <v>62</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C136" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D136" s="14" t="s">
+        <v>192</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>628</v>
+        <v>531</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>227</v>
+        <v>670</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>569</v>
+        <v>532</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>781</v>
+        <v>386</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>774</v>
+        <v>387</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>774</v>
+        <v>446</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>774</v>
+        <v>681</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>767</v>
+        <v>394</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>768</v>
+        <v>394</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>768</v>
+        <v>450</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>768</v>
+        <v>686</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>23</v>
+        <v>332</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>23</v>
+        <v>569</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>44</v>
+        <v>781</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>44</v>
+        <v>774</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>318</v>
+        <v>774</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E141" s="5" t="s">
-        <v>554</v>
+        <v>780</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>131</v>
+        <v>767</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>132</v>
+        <v>768</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>361</v>
+        <v>768</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>601</v>
+        <v>775</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>878</v>
+        <v>22</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>879</v>
+        <v>23</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>905</v>
+        <v>23</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>905</v>
+        <v>23</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>895</v>
+        <v>44</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>896</v>
+        <v>44</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>905</v>
+        <v>318</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>905</v>
+        <v>141</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>897</v>
+        <v>131</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>898</v>
+        <v>132</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>905</v>
+        <v>361</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>905</v>
+        <v>261</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>900</v>
+        <v>878</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>899</v>
+        <v>879</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>905</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>905</v>
@@ -5993,16 +6038,16 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>905</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>905</v>
@@ -6010,16 +6055,16 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>905</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>905</v>
@@ -6027,16 +6072,16 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>881</v>
+        <v>900</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>882</v>
+        <v>899</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>905</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>908</v>
+        <v>917</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>905</v>
@@ -6044,16 +6089,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>884</v>
+        <v>901</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>879</v>
+        <v>902</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>905</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>906</v>
+        <v>918</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>905</v>
@@ -6061,16 +6106,16 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>886</v>
+        <v>904</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>885</v>
+        <v>903</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>905</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>910</v>
+        <v>919</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>905</v>
@@ -6078,16 +6123,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>905</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>905</v>
@@ -6095,7 +6140,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>879</v>
@@ -6103,7 +6148,7 @@
       <c r="C153" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="D153" s="6" t="s">
+      <c r="D153" s="1" t="s">
         <v>906</v>
       </c>
       <c r="E153" s="1" t="s">
@@ -6112,16 +6157,16 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>942</v>
+        <v>886</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="D154" s="6" t="s">
-        <v>913</v>
+      <c r="D154" s="1" t="s">
+        <v>910</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>905</v>
@@ -6129,16 +6174,16 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>905</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>905</v>
@@ -6146,16 +6191,16 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>894</v>
+        <v>879</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>914</v>
+      <c r="D156" s="6" t="s">
+        <v>906</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>905</v>
@@ -6163,1640 +6208,1740 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>913</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B160" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C160" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="D157" s="5" t="s">
+      <c r="D160" s="5" t="s">
         <v>877</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E160" s="1" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" s="10" t="s">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="10" t="s">
         <v>804</v>
       </c>
-      <c r="B158" s="11" t="s">
+      <c r="B161" s="11" t="s">
         <v>805</v>
       </c>
-      <c r="C158" s="11" t="s">
+      <c r="C161" s="11" t="s">
         <v>805</v>
       </c>
-      <c r="D158" s="10" t="s">
+      <c r="D161" s="10" t="s">
         <v>806</v>
       </c>
-      <c r="E158" s="11" t="s">
+      <c r="E161" s="11" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="10" t="s">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="10" t="s">
         <v>807</v>
       </c>
-      <c r="B159" s="15" t="s">
+      <c r="B162" s="15" t="s">
         <v>808</v>
       </c>
-      <c r="C159" s="15" t="s">
+      <c r="C162" s="15" t="s">
         <v>808</v>
       </c>
-      <c r="D159" s="10" t="s">
+      <c r="D162" s="10" t="s">
         <v>809</v>
       </c>
-      <c r="E159" s="15" t="s">
+      <c r="E162" s="15" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" s="10" t="s">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="10" t="s">
         <v>810</v>
       </c>
-      <c r="B160" s="15" t="s">
+      <c r="B163" s="15" t="s">
         <v>811</v>
       </c>
-      <c r="C160" s="15" t="s">
+      <c r="C163" s="15" t="s">
         <v>811</v>
       </c>
-      <c r="D160" s="10" t="s">
+      <c r="D163" s="10" t="s">
         <v>812</v>
       </c>
-      <c r="E160" s="15" t="s">
+      <c r="E163" s="15" t="s">
         <v>811</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E161" s="5" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E163" s="5" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>315</v>
+        <v>81</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>391</v>
+        <v>883</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>390</v>
+        <v>883</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>449</v>
+        <v>905</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="E165" s="5" t="s">
-        <v>625</v>
+        <v>909</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>477</v>
+        <v>372</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>164</v>
+        <v>998</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>169</v>
+        <v>999</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>459</v>
+        <v>999</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E167" s="5" t="s">
-        <v>611</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="E167" s="5"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>166</v>
+        <v>37</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>369</v>
+        <v>315</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>252</v>
+        <v>199</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>610</v>
+        <v>549</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>153</v>
+        <v>391</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>154</v>
+        <v>390</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>482</v>
+        <v>449</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>249</v>
+        <v>683</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B170" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C170" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="D170" s="8" t="s">
-        <v>676</v>
+        <v>182</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>414</v>
+        <v>164</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>413</v>
+        <v>169</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>696</v>
+        <v>253</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>637</v>
+        <v>611</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>278</v>
+        <v>166</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>488</v>
+        <v>153</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>489</v>
+        <v>154</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>712</v>
+        <v>249</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>239</v>
+        <v>151</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>676</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>82</v>
+        <v>414</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>82</v>
+        <v>413</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>329</v>
+        <v>460</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>205</v>
+        <v>696</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>568</v>
+        <v>637</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>423</v>
+        <v>121</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>424</v>
+        <v>278</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>464</v>
+        <v>354</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>702</v>
+        <v>244</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>643</v>
+        <v>593</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>58</v>
+        <v>488</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>127</v>
+        <v>489</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>298</v>
+        <v>503</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>212</v>
+        <v>712</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>533</v>
+        <v>654</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>6</v>
+        <v>491</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>671</v>
+        <v>239</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>536</v>
+        <v>586</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>60</v>
+        <v>423</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>5</v>
+        <v>424</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>300</v>
+        <v>464</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>193</v>
+        <v>702</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>535</v>
+        <v>643</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>556</v>
+        <v>533</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>353</v>
+        <v>301</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>243</v>
+        <v>671</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>592</v>
+        <v>536</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>513</v>
+        <v>59</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>514</v>
+        <v>128</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>514</v>
+        <v>299</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>721</v>
+        <v>213</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>663</v>
+        <v>534</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B188" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C188" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D188" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="E184" s="5" t="s">
+      <c r="E188" s="5" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="170" x14ac:dyDescent="0.2">
-      <c r="A185" s="6" t="s">
+    <row r="189" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="A189" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="B185" s="12" t="s">
+      <c r="B189" s="12" t="s">
         <v>760</v>
       </c>
-      <c r="C185" s="12" t="s">
+      <c r="C189" s="12" t="s">
         <v>760</v>
       </c>
-      <c r="D185" s="12" t="s">
+      <c r="D189" s="12" t="s">
         <v>761</v>
       </c>
-      <c r="E185" s="12" t="s">
+      <c r="E189" s="12" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A186" s="6" t="s">
+    <row r="190" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A190" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B190" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C190" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="D186" s="12" t="s">
+      <c r="D190" s="12" t="s">
         <v>787</v>
       </c>
-      <c r="E186" s="1" t="s">
+      <c r="E190" s="1" t="s">
         <v>786</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="10" t="s">
-        <v>813</v>
-      </c>
-      <c r="B187" s="11" t="s">
-        <v>814</v>
-      </c>
-      <c r="C187" s="11" t="s">
-        <v>814</v>
-      </c>
-      <c r="D187" s="10" t="s">
-        <v>815</v>
-      </c>
-      <c r="E187" s="11" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" s="10" t="s">
-        <v>816</v>
-      </c>
-      <c r="B188" s="16" t="s">
-        <v>817</v>
-      </c>
-      <c r="C188" s="16" t="s">
-        <v>817</v>
-      </c>
-      <c r="D188" s="10" t="s">
-        <v>818</v>
-      </c>
-      <c r="E188" s="16" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="10" t="s">
-        <v>819</v>
-      </c>
-      <c r="B189" s="16" t="s">
-        <v>820</v>
-      </c>
-      <c r="C189" s="16" t="s">
-        <v>820</v>
-      </c>
-      <c r="D189" s="10" t="s">
-        <v>821</v>
-      </c>
-      <c r="E189" s="16" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190" s="10" t="s">
-        <v>822</v>
-      </c>
-      <c r="B190" s="16" t="s">
-        <v>823</v>
-      </c>
-      <c r="C190" s="16" t="s">
-        <v>823</v>
-      </c>
-      <c r="D190" s="11" t="s">
-        <v>824</v>
-      </c>
-      <c r="E190" s="16" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="10" t="s">
-        <v>825</v>
-      </c>
-      <c r="B191" s="16" t="s">
-        <v>826</v>
-      </c>
-      <c r="C191" s="16" t="s">
-        <v>826</v>
+        <v>813</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>814</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>814</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>827</v>
-      </c>
-      <c r="E191" s="16" t="s">
-        <v>826</v>
+        <v>815</v>
+      </c>
+      <c r="E191" s="11" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="10" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
       <c r="B192" s="16" t="s">
-        <v>44</v>
+        <v>817</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>44</v>
+        <v>817</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>141</v>
+        <v>818</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>44</v>
+        <v>817</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="10" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="B193" s="16" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="B194" s="11" t="s">
-        <v>833</v>
-      </c>
-      <c r="C194" s="11" t="s">
-        <v>833</v>
-      </c>
-      <c r="D194" s="10" t="s">
-        <v>834</v>
-      </c>
-      <c r="E194" s="11" t="s">
-        <v>833</v>
+      <c r="A194" s="10" t="s">
+        <v>822</v>
+      </c>
+      <c r="B194" s="16" t="s">
+        <v>823</v>
+      </c>
+      <c r="C194" s="16" t="s">
+        <v>823</v>
+      </c>
+      <c r="D194" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="E194" s="16" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="10" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="B195" s="16" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="B196" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C196" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D196" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E196" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="10" t="s">
+        <v>829</v>
+      </c>
+      <c r="B197" s="16" t="s">
+        <v>830</v>
+      </c>
+      <c r="C197" s="16" t="s">
+        <v>830</v>
+      </c>
+      <c r="D197" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="E197" s="16" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>833</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>833</v>
+      </c>
+      <c r="D198" s="10" t="s">
+        <v>834</v>
+      </c>
+      <c r="E198" s="11" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" s="10" t="s">
+        <v>835</v>
+      </c>
+      <c r="B199" s="16" t="s">
+        <v>836</v>
+      </c>
+      <c r="C199" s="16" t="s">
+        <v>836</v>
+      </c>
+      <c r="D199" s="10" t="s">
+        <v>837</v>
+      </c>
+      <c r="E199" s="16" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="10" t="s">
         <v>838</v>
       </c>
-      <c r="B196" s="16" t="s">
+      <c r="B200" s="16" t="s">
         <v>839</v>
       </c>
-      <c r="C196" s="16" t="s">
+      <c r="C200" s="16" t="s">
         <v>839</v>
       </c>
-      <c r="D196" s="10" t="s">
+      <c r="D200" s="10" t="s">
         <v>840</v>
       </c>
-      <c r="E196" s="16" t="s">
+      <c r="E200" s="16" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="1" t="s">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B201" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="C201" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="D201" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="E197" s="5" t="s">
+      <c r="E201" s="5" t="s">
         <v>630</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" s="6" t="s">
-        <v>731</v>
-      </c>
-      <c r="B199" s="6" t="s">
-        <v>734</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>734</v>
-      </c>
-      <c r="D199" s="6" t="s">
-        <v>741</v>
-      </c>
-      <c r="E199" s="6" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="B200" s="6" t="s">
-        <v>732</v>
-      </c>
-      <c r="C200" s="6" t="s">
-        <v>732</v>
-      </c>
-      <c r="D200" s="6" t="s">
-        <v>739</v>
-      </c>
-      <c r="E200" s="6" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="6" t="s">
-        <v>730</v>
-      </c>
-      <c r="B201" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="C201" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="D201" s="6" t="s">
-        <v>740</v>
-      </c>
-      <c r="E201" s="6" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>416</v>
+        <v>772</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>417</v>
+        <v>772</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>476</v>
+        <v>772</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="E202" s="5" t="s">
-        <v>639</v>
+        <v>777</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E203" s="5" t="s">
-        <v>604</v>
+      <c r="A203" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="E203" s="6" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E204" s="5" t="s">
-        <v>603</v>
+      <c r="A204" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="E204" s="6" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="E205" s="5" t="s">
-        <v>538</v>
+      <c r="A205" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="E205" s="6" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>10</v>
+        <v>416</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>11</v>
+        <v>417</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>304</v>
+        <v>476</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>673</v>
+        <v>698</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>539</v>
+        <v>639</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>378</v>
+        <v>146</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>377</v>
+        <v>147</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>443</v>
+        <v>364</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>678</v>
+        <v>248</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>880</v>
+        <v>143</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>880</v>
+        <v>144</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>905</v>
+        <v>363</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>905</v>
+        <v>145</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209" s="6" t="s">
-        <v>747</v>
-      </c>
-      <c r="B209" s="6" t="s">
-        <v>748</v>
-      </c>
-      <c r="C209" s="6" t="s">
-        <v>748</v>
-      </c>
-      <c r="D209" s="6" t="s">
-        <v>749</v>
-      </c>
-      <c r="E209" s="6" t="s">
-        <v>748</v>
+      <c r="A209" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" s="6" t="s">
-        <v>762</v>
-      </c>
-      <c r="B210" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="C210" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="D210" s="6" t="s">
-        <v>764</v>
-      </c>
-      <c r="E210" s="6" t="s">
-        <v>763</v>
+      <c r="A210" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>167</v>
+        <v>378</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>168</v>
+        <v>377</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>370</v>
+        <v>443</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>254</v>
+        <v>678</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>421</v>
+        <v>995</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>422</v>
+        <v>997</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>463</v>
+        <v>905</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>701</v>
+        <v>996</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>642</v>
+        <v>905</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>420</v>
+        <v>880</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>103</v>
+        <v>918</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>462</v>
+        <v>905</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="E213" s="5" t="s">
-        <v>641</v>
+        <v>907</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E214" s="5" t="s">
-        <v>582</v>
+      <c r="A214" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="E214" s="6" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="E215" s="5" t="s">
-        <v>651</v>
+      <c r="A215" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="E215" s="6" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>436</v>
+        <v>167</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>435</v>
+        <v>168</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>473</v>
+        <v>370</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>707</v>
+        <v>254</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>649</v>
+        <v>612</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>418</v>
+        <v>103</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>344</v>
+        <v>462</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B220" s="8" t="s">
-        <v>396</v>
+        <v>439</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>440</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D220" s="8" t="s">
-        <v>687</v>
-      </c>
-      <c r="E220" s="17" t="s">
-        <v>629</v>
+        <v>475</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>635</v>
+        <v>649</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>126</v>
+        <v>438</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>126</v>
+        <v>437</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>126</v>
+        <v>474</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>126</v>
+        <v>708</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>126</v>
+        <v>650</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A223" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="B223" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="C223" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="D223" s="6" t="s">
-        <v>719</v>
+      <c r="A223" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>699</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>661</v>
+        <v>640</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A224" s="6" t="s">
-        <v>989</v>
-      </c>
-      <c r="B224" s="6" t="s">
-        <v>990</v>
-      </c>
-      <c r="C224" s="6" t="s">
-        <v>990</v>
-      </c>
-      <c r="D224" s="6" t="s">
-        <v>991</v>
-      </c>
-      <c r="E224" s="6" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>735</v>
+        <v>395</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>396</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E225" s="5" t="s">
-        <v>584</v>
+        <v>451</v>
+      </c>
+      <c r="D225" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="E225" s="17" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E227" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>990</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>990</v>
+      </c>
+      <c r="D229" s="6" t="s">
+        <v>991</v>
+      </c>
+      <c r="E229" s="6" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E230" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="B231" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="C231" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="D226" s="1" t="s">
+      <c r="D231" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E226" s="5" t="s">
+      <c r="E231" s="5" t="s">
         <v>585</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A227" s="10" t="s">
-        <v>841</v>
-      </c>
-      <c r="B227" s="11" t="s">
-        <v>842</v>
-      </c>
-      <c r="C227" s="11" t="s">
-        <v>843</v>
-      </c>
-      <c r="D227" s="10" t="s">
-        <v>844</v>
-      </c>
-      <c r="E227" s="11" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A228" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="B228" s="11" t="s">
-        <v>846</v>
-      </c>
-      <c r="C228" s="11" t="s">
-        <v>846</v>
-      </c>
-      <c r="D228" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="E228" s="11" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A229" s="10" t="s">
-        <v>848</v>
-      </c>
-      <c r="B229" s="11" t="s">
-        <v>849</v>
-      </c>
-      <c r="C229" s="11" t="s">
-        <v>850</v>
-      </c>
-      <c r="D229" s="10" t="s">
-        <v>851</v>
-      </c>
-      <c r="E229" s="11" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A230" s="10" t="s">
-        <v>852</v>
-      </c>
-      <c r="B230" s="11" t="s">
-        <v>853</v>
-      </c>
-      <c r="C230" s="11" t="s">
-        <v>853</v>
-      </c>
-      <c r="D230" s="10" t="s">
-        <v>854</v>
-      </c>
-      <c r="E230" s="11" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A231" s="10" t="s">
-        <v>855</v>
-      </c>
-      <c r="B231" s="11" t="s">
-        <v>856</v>
-      </c>
-      <c r="C231" s="11" t="s">
-        <v>856</v>
-      </c>
-      <c r="D231" s="10" t="s">
-        <v>857</v>
-      </c>
-      <c r="E231" s="11" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="10" t="s">
-        <v>858</v>
+        <v>841</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>859</v>
+        <v>842</v>
       </c>
       <c r="C232" s="11" t="s">
-        <v>860</v>
+        <v>843</v>
       </c>
       <c r="D232" s="10" t="s">
-        <v>861</v>
+        <v>844</v>
       </c>
       <c r="E232" s="11" t="s">
-        <v>860</v>
+        <v>842</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="10" t="s">
-        <v>862</v>
+        <v>845</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>863</v>
+        <v>846</v>
       </c>
       <c r="C233" s="11" t="s">
-        <v>863</v>
-      </c>
-      <c r="D233" s="11" t="s">
-        <v>863</v>
+        <v>846</v>
+      </c>
+      <c r="D233" s="10" t="s">
+        <v>847</v>
       </c>
       <c r="E233" s="11" t="s">
-        <v>863</v>
+        <v>846</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="10" t="s">
-        <v>864</v>
+        <v>848</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="C234" s="11" t="s">
-        <v>865</v>
+        <v>850</v>
       </c>
       <c r="D234" s="10" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
       <c r="E234" s="11" t="s">
-        <v>865</v>
+        <v>850</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="10" t="s">
-        <v>867</v>
+        <v>852</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>868</v>
+        <v>853</v>
       </c>
       <c r="C235" s="11" t="s">
-        <v>868</v>
+        <v>853</v>
       </c>
       <c r="D235" s="10" t="s">
-        <v>869</v>
+        <v>854</v>
       </c>
       <c r="E235" s="11" t="s">
-        <v>868</v>
+        <v>853</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="10" t="s">
-        <v>870</v>
+        <v>855</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>871</v>
+        <v>856</v>
       </c>
       <c r="C236" s="11" t="s">
-        <v>871</v>
-      </c>
-      <c r="D236" s="11" t="s">
-        <v>871</v>
+        <v>856</v>
+      </c>
+      <c r="D236" s="10" t="s">
+        <v>857</v>
       </c>
       <c r="E236" s="11" t="s">
-        <v>871</v>
+        <v>856</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A237" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="E237" s="5" t="s">
-        <v>621</v>
+      <c r="A237" s="10" t="s">
+        <v>858</v>
+      </c>
+      <c r="B237" s="11" t="s">
+        <v>859</v>
+      </c>
+      <c r="C237" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="D237" s="10" t="s">
+        <v>861</v>
+      </c>
+      <c r="E237" s="11" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A238" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="E238" s="5" t="s">
-        <v>664</v>
+      <c r="A238" s="10" t="s">
+        <v>862</v>
+      </c>
+      <c r="B238" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="C238" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="D238" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="E238" s="11" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="10" t="s">
+        <v>864</v>
+      </c>
+      <c r="B239" s="11" t="s">
+        <v>865</v>
+      </c>
+      <c r="C239" s="11" t="s">
+        <v>865</v>
+      </c>
+      <c r="D239" s="10" t="s">
+        <v>866</v>
+      </c>
+      <c r="E239" s="11" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" s="10" t="s">
+        <v>867</v>
+      </c>
+      <c r="B240" s="11" t="s">
+        <v>868</v>
+      </c>
+      <c r="C240" s="11" t="s">
+        <v>868</v>
+      </c>
+      <c r="D240" s="10" t="s">
+        <v>869</v>
+      </c>
+      <c r="E240" s="11" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" s="10" t="s">
+        <v>870</v>
+      </c>
+      <c r="B241" s="11" t="s">
+        <v>871</v>
+      </c>
+      <c r="C241" s="11" t="s">
+        <v>871</v>
+      </c>
+      <c r="D241" s="11" t="s">
+        <v>871</v>
+      </c>
+      <c r="E241" s="11" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="E243" s="5" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="E244" s="5" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" s="10" t="s">
         <v>872</v>
       </c>
-      <c r="B239" s="11" t="s">
+      <c r="B245" s="11" t="s">
         <v>873</v>
       </c>
-      <c r="C239" s="11" t="s">
+      <c r="C245" s="11" t="s">
         <v>873</v>
       </c>
-      <c r="D239" s="10" t="s">
+      <c r="D245" s="10" t="s">
         <v>874</v>
       </c>
-      <c r="E239" s="11" t="s">
+      <c r="E245" s="11" t="s">
         <v>873</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E240" s="5" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E241" s="5" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A242" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="B242" s="12" t="s">
-        <v>745</v>
-      </c>
-      <c r="C242" s="12" t="s">
-        <v>745</v>
-      </c>
-      <c r="D242" s="12" t="s">
-        <v>746</v>
-      </c>
-      <c r="E242" s="12" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243" s="10" t="s">
-        <v>875</v>
-      </c>
-      <c r="B243" s="11" t="s">
-        <v>805</v>
-      </c>
-      <c r="C243" s="11" t="s">
-        <v>805</v>
-      </c>
-      <c r="D243" s="10" t="s">
-        <v>806</v>
-      </c>
-      <c r="E243" s="11" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A244" s="6" t="s">
-        <v>753</v>
-      </c>
-      <c r="B244" s="6" t="s">
-        <v>754</v>
-      </c>
-      <c r="C244" s="6" t="s">
-        <v>754</v>
-      </c>
-      <c r="D244" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="E244" s="6" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A245" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B245" s="18" t="s">
-        <v>466</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="D245" s="18" t="s">
-        <v>704</v>
-      </c>
-      <c r="E245" s="5" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>317</v>
+        <v>373</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>139</v>
+        <v>257</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>552</v>
+        <v>615</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>428</v>
+        <v>113</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>429</v>
+        <v>114</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A248" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E248" s="5" t="s">
-        <v>616</v>
+        <v>588</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A248" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="B248" s="12" t="s">
+        <v>745</v>
+      </c>
+      <c r="C248" s="12" t="s">
+        <v>745</v>
+      </c>
+      <c r="D248" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="E248" s="12" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A249" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E249" s="5" t="s">
-        <v>571</v>
+      <c r="A249" s="10" t="s">
+        <v>875</v>
+      </c>
+      <c r="B249" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="C249" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="D249" s="10" t="s">
+        <v>806</v>
+      </c>
+      <c r="E249" s="11" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="6" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>67</v>
+        <v>427</v>
+      </c>
+      <c r="B251" s="18" t="s">
+        <v>466</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>220</v>
+        <v>467</v>
+      </c>
+      <c r="D251" s="18" t="s">
+        <v>704</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>557</v>
+        <v>645</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E252" s="5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E253" s="5" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E254" s="5" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E255" s="5" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="D256" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="E256" s="6" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E257" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="B258" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C252" s="1" t="s">
+      <c r="C258" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D252" s="1" t="s">
+      <c r="D258" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E252" s="5" t="s">
+      <c r="E258" s="5" t="s">
         <v>559</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E147" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E252">
-    <sortCondition ref="A1:A252"/>
+  <autoFilter ref="A1:E150" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E258">
+    <sortCondition ref="A1:A258"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEB6C57-D8B6-E046-BF02-8FF5D3AFDF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1878DE26-44B9-6742-B515-40301CE339A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1700" windowWidth="35840" windowHeight="20700" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20700" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1009">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -3051,9 +3051,6 @@
   </si>
   <si>
     <t>Singen</t>
-  </si>
-  <si>
-    <t>Singe</t>
   </si>
   <si>
     <t>play_the_melody</t>
@@ -3541,8 +3538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
   <dimension ref="A1:E258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D20" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="B205" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B212" sqref="B212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4100,16 +4097,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>1008</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>1009</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>905</v>
@@ -4576,16 +4573,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>1004</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>1005</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>905</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>905</v>
@@ -5137,16 +5134,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>905</v>
       </c>
       <c r="D94" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>905</v>
@@ -6378,16 +6375,16 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="C167" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>999</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>1000</v>
       </c>
       <c r="E167" s="5"/>
     </row>
@@ -7144,7 +7141,7 @@
         <v>995</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>905</v>
@@ -7161,7 +7158,7 @@
         <v>880</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>918</v>
+        <v>880</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>905</v>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1878DE26-44B9-6742-B515-40301CE339A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F85ADB-3607-2D47-831F-5C45D19FA780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20700" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="1220" yWindow="2520" windowWidth="35840" windowHeight="20700" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1013">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -2669,9 +2669,6 @@
   </si>
   <si>
     <t>welcome_message</t>
-  </si>
-  <si>
-    <t>welcome to</t>
   </si>
   <si>
     <t>Willkommen zur Studie „Nach Gehör spielen und Singen“!</t>
@@ -3087,6 +3084,21 @@
   </si>
   <si>
     <t>Haben Sie angemessenes Feedback auf dem Bildschirm erhalten?</t>
+  </si>
+  <si>
+    <t>Turpināsim.</t>
+  </si>
+  <si>
+    <t>Tagad jūs dzirdēsiet dažas</t>
+  </si>
+  <si>
+    <t>Tagad jūs pārskatīsiet dažas</t>
+  </si>
+  <si>
+    <t>ritmiskas</t>
+  </si>
+  <si>
+    <t>melodijas</t>
   </si>
 </sst>
 </file>
@@ -3538,8 +3550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
   <dimension ref="A1:E258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B205" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B212" sqref="B212"/>
+    <sheetView tabSelected="1" topLeftCell="D97" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3944,19 +3956,19 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>993</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>994</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -4097,19 +4109,19 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>1008</v>
-      </c>
       <c r="E33" s="5" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -4318,53 +4330,53 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>925</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>921</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -4573,19 +4585,19 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>1005</v>
-      </c>
       <c r="E61" s="5" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -4828,325 +4840,325 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>982</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>984</v>
-      </c>
       <c r="E92" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>927</v>
-      </c>
       <c r="C93" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="D94" t="s">
         <v>1000</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="D94" t="s">
-        <v>1001</v>
-      </c>
       <c r="E94" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -5163,7 +5175,7 @@
         <v>766</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>876</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -5469,7 +5481,7 @@
         <v>778</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>773</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -5554,7 +5566,7 @@
         <v>691</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -5712,19 +5724,19 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
+        <v>986</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>985</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>985</v>
+      </c>
+      <c r="D128" s="10" t="s">
         <v>987</v>
       </c>
-      <c r="B128" s="10" t="s">
-        <v>986</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>986</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>988</v>
-      </c>
       <c r="E128" s="10" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -5945,7 +5957,7 @@
         <v>780</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>774</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -5962,7 +5974,7 @@
         <v>775</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>768</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -6018,240 +6030,240 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>879</v>
-      </c>
       <c r="C146" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>906</v>
-      </c>
       <c r="E146" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>896</v>
-      </c>
       <c r="C147" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>898</v>
-      </c>
       <c r="C148" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>902</v>
-      </c>
       <c r="C150" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>905</v>
-      </c>
       <c r="D151" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>882</v>
-      </c>
       <c r="C152" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C153" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>906</v>
-      </c>
       <c r="E153" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C156" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="D156" s="6" t="s">
         <v>905</v>
       </c>
-      <c r="D156" s="6" t="s">
-        <v>906</v>
-      </c>
       <c r="E156" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -6265,7 +6277,7 @@
         <v>789</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>789</v>
@@ -6341,19 +6353,19 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -6375,16 +6387,16 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="C167" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>998</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>999</v>
       </c>
       <c r="E167" s="5"/>
     </row>
@@ -6980,7 +6992,7 @@
         <v>777</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>772</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
@@ -7138,36 +7150,36 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="D212" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="B212" s="1" t="s">
-        <v>995</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>996</v>
-      </c>
       <c r="E212" s="5" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
@@ -7427,19 +7439,19 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="B229" s="6" t="s">
         <v>989</v>
       </c>
-      <c r="B229" s="6" t="s">
+      <c r="C229" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="D229" s="6" t="s">
         <v>990</v>
       </c>
-      <c r="C229" s="6" t="s">
-        <v>990</v>
-      </c>
-      <c r="D229" s="6" t="s">
-        <v>991</v>
-      </c>
       <c r="E229" s="6" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
@@ -7682,19 +7694,19 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78669C19-7188-2048-8E13-C555EF46BA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747F20F0-5B39-1645-B0F0-D0F0330F3D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="35840" windowHeight="20700" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="0" yWindow="2380" windowWidth="35840" windowHeight="18820" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$E$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$E$132</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="1241">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -1492,9 +1492,6 @@
   </si>
   <si>
     <t>Es dzirdu melodiju, doties tālāk</t>
-  </si>
-  <si>
-    <t>Spied zemāk, ja atskaņošanas skaļuma līmenis ir ērts</t>
   </si>
   <si>
     <t>Mikrofona pārbaude</t>
@@ -2269,12 +2266,6 @@
     <t>Sie haben den 'Nach-Gehör-Spiel' Test abgeschlossen.</t>
   </si>
   <si>
-    <t>Please play or sing the lowest comfortable note on your instrument</t>
-  </si>
-  <si>
-    <t>Bitte spielen oder singen Sie die tiefste bequem zu erreichende Note auf Ihrem Instrument.</t>
-  </si>
-  <si>
     <t>input_selector_message</t>
   </si>
   <si>
@@ -2539,12 +2530,6 @@
     <t>PBET_2024_study_4</t>
   </si>
   <si>
-    <t>But first, we will ask you to recognise some intervals.</t>
-  </si>
-  <si>
-    <t>PBET_2024_study_5</t>
-  </si>
-  <si>
     <t>PBET_2024_study_6</t>
   </si>
   <si>
@@ -2609,9 +2594,6 @@
   </si>
   <si>
     <t>Sie einige Melodien auf Ihrem Instrument.</t>
-  </si>
-  <si>
-    <t>Aber zuerst, bitten wir Sie einige Intervalle zu identifizieren.</t>
   </si>
   <si>
     <t>entweder vom Blatt oder nach Gehör.</t>
@@ -3368,21 +3350,9 @@
     <t>Flöte</t>
   </si>
   <si>
-    <t>Please play or sing the highest comfortable note on your instrument</t>
-  </si>
-  <si>
-    <t>Bitte spielen oder singen Sie die höchste bequem zu erreichende Note auf Ihrem Instrument.</t>
-  </si>
-  <si>
     <t>Bitten spielen Sie die höchste Note auf Ihrem MIDI-Keyboard.</t>
   </si>
   <si>
-    <t>If you were happy with your response, please click to continue, otherwise please click to try again.</t>
-  </si>
-  <si>
-    <t>Wenn Sie mit Ihrem Ergebnis zufrieden sind, klicken Sie 'Weiter'. Ansonsten klicken Sie bitte 'Erneut versuchen'.</t>
-  </si>
-  <si>
     <t>You should hear some audio playing. Please adjust the volume to a comfortable level before continuing.</t>
   </si>
   <si>
@@ -3444,11 +3414,270 @@
   </si>
   <si>
     <t>Erneut versuchen</t>
+  </si>
+  <si>
+    <t>Continua</t>
+  </si>
+  <si>
+    <t>Tālāk</t>
+  </si>
+  <si>
+    <t>Stopp</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>Weitermachen</t>
+  </si>
+  <si>
+    <t>Ciao</t>
+  </si>
+  <si>
+    <t>Hallo</t>
+  </si>
+  <si>
+    <t>Please sing your highest comfortable note.</t>
+  </si>
+  <si>
+    <t>Please sing your lowest comfortable note.</t>
+  </si>
+  <si>
+    <t>Bitte singen Sie Ihren höchsten bequemen Ton.</t>
+  </si>
+  <si>
+    <t>Bitte singen Sie Ihren tiefsten bequemen Ton.</t>
+  </si>
+  <si>
+    <t>bass_clarinet</t>
+  </si>
+  <si>
+    <t>Bass Clarinet</t>
+  </si>
+  <si>
+    <t>Bassklarinette</t>
+  </si>
+  <si>
+    <t>Basa klarnete</t>
+  </si>
+  <si>
+    <t>cornet</t>
+  </si>
+  <si>
+    <t>Cornet</t>
+  </si>
+  <si>
+    <t>Kornett</t>
+  </si>
+  <si>
+    <t>Kornete</t>
+  </si>
+  <si>
+    <t>c_tenor_saxophone</t>
+  </si>
+  <si>
+    <t>C Tenor Saxophone</t>
+  </si>
+  <si>
+    <t>C-Tenor Saxophon</t>
+  </si>
+  <si>
+    <t>C - tenora saksofons</t>
+  </si>
+  <si>
+    <t>violin</t>
+  </si>
+  <si>
+    <t>Violin</t>
+  </si>
+  <si>
+    <t>viola</t>
+  </si>
+  <si>
+    <t>Viola</t>
+  </si>
+  <si>
+    <t>cello</t>
+  </si>
+  <si>
+    <t>Cello</t>
+  </si>
+  <si>
+    <t>double_bass</t>
+  </si>
+  <si>
+    <t>Double Bass</t>
+  </si>
+  <si>
+    <t>PBET_2024_study_15</t>
+  </si>
+  <si>
+    <t>In the next section, you will name musical intervals you hear by ear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Im nächsten Abschnitt werden Sie musikalische Intervalle, die Sie nach Gehör hören, benennen.</t>
+  </si>
+  <si>
+    <t>Zusätzlich werden Sie zwischen den einzelnen Versuchen mit Tonvorstellungen aufgefordert, eine Note auf Ihrem Instrument zu finden und sie so schnell wie möglich zu spielen. Halten Sie Ihr Instrument bereit.</t>
+  </si>
+  <si>
+    <t>pbet_learn_test_1</t>
+  </si>
+  <si>
+    <t>pbet_learn_test_2</t>
+  </si>
+  <si>
+    <t>pbet_learn_test_3</t>
+  </si>
+  <si>
+    <t>pbet_learn_test_4</t>
+  </si>
+  <si>
+    <t>pbet_learn_test_5</t>
+  </si>
+  <si>
+    <t>pbet_learn_test_6</t>
+  </si>
+  <si>
+    <t>pbet_learn_test_7</t>
+  </si>
+  <si>
+    <t>pbet_learn_test_8</t>
+  </si>
+  <si>
+    <t>pbet_learn_test_9</t>
+  </si>
+  <si>
+    <t>pbet_learn_test_10</t>
+  </si>
+  <si>
+    <t>pbet_learn_test_11</t>
+  </si>
+  <si>
+    <t>pbet_learn_test_12</t>
+  </si>
+  <si>
+    <t>In the next section, there will be two phases: a</t>
+  </si>
+  <si>
+    <t>learning_phase</t>
+  </si>
+  <si>
+    <t>learning phase</t>
+  </si>
+  <si>
+    <t>Lernphase</t>
+  </si>
+  <si>
+    <t>test_phase</t>
+  </si>
+  <si>
+    <t>Testphase</t>
+  </si>
+  <si>
+    <t>test phase</t>
+  </si>
+  <si>
+    <t>and a</t>
+  </si>
+  <si>
+    <t>In the first</t>
+  </si>
+  <si>
+    <t>you will be asked to learn four melodies, two by ear and two from sheet music.</t>
+  </si>
+  <si>
+    <t>In der ersten</t>
+  </si>
+  <si>
+    <t>The order will be random.</t>
+  </si>
+  <si>
+    <t>You will have three attempts to learn each melody.</t>
+  </si>
+  <si>
+    <t>After each attempt, you will be asked to try and play the melody from memory.</t>
+  </si>
+  <si>
+    <t>Afterwards, in the test phase, we will ask you to play all melodies you learned again from memory, but you will hear them all by ear.</t>
+  </si>
+  <si>
+    <t>Try your best to recognise and play the melody from ear.</t>
+  </si>
+  <si>
+    <t>Now we will begin the</t>
+  </si>
+  <si>
+    <t>where you will learn the melodies either by sight or by ear</t>
+  </si>
+  <si>
+    <t>First, you will try two example practice trials: one by sight, the other by ear.</t>
+  </si>
+  <si>
+    <t>Now you will begin the</t>
+  </si>
+  <si>
+    <t>where you will be asked to play all the melodies you heard by ear.</t>
+  </si>
+  <si>
+    <t>Please share some thoughts about your experience of learning to play melodies by ear or by sight, within this test, and/or in your broader musical life. You can leave this blank if you have nothing you would like to share.</t>
+  </si>
+  <si>
+    <t>pbet_learn_test_13</t>
+  </si>
+  <si>
+    <t>pbet_learn_test_14</t>
+  </si>
+  <si>
+    <t>pbet_learn_test_share_thoughts</t>
+  </si>
+  <si>
+    <t>Die Reihenfolge wird zufällig sein.</t>
+  </si>
+  <si>
+    <t>Sie haben drei Versuche, um jede Melodie zu lernen.</t>
+  </si>
+  <si>
+    <t>Nach jedem Versuch werden Sie gebeten, die Melodie aus dem Gedächtnis zu spielen.</t>
+  </si>
+  <si>
+    <t>Anschließend, in der Testphase, bitten wir Sie, alle Melodien, die Sie gelernt haben, erneut aus dem Gedächtnis zu spielen, aber Sie hören sie alle nur nach Gehör.</t>
+  </si>
+  <si>
+    <t>Versuchen Sie, die Melodie nach Gehör zu erkennen und zu spielen.</t>
+  </si>
+  <si>
+    <t>Jetzt beginnen wir mit der</t>
+  </si>
+  <si>
+    <t>wo Sie die Melodien entweder nach Sicht oder nach Gehör lernen.</t>
+  </si>
+  <si>
+    <t>Zuerst versuchen Sie zwei Übungseinheiten: eine nach Sicht, die andere nach Gehör.</t>
+  </si>
+  <si>
+    <t>Jetzt beginnen Sie die</t>
+  </si>
+  <si>
+    <t>wo Sie alle Melodien, die Sie nach Gehör gehört haben, spielen werden.</t>
+  </si>
+  <si>
+    <t>Bitte teilen Sie uns einige Gedanken über Ihre Erfahrung beim Erlernen von Melodien nach Gehör oder nach Sicht mit, sowohl in diesem Test als auch in Ihrem breiteren musikalischen Leben. Wenn Sie nichts teilen möchten, können Sie dies leer lassen.</t>
+  </si>
+  <si>
+    <t>In der nächsten Sektion gibt es zwei Phasen: eine</t>
+  </si>
+  <si>
+    <t>und eine</t>
+  </si>
+  <si>
+    <t>werden Sie gebeten, vier Melodien zu lernen, zwei nach Gehör und zwei nach Noten.</t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -3457,20 +3686,121 @@
     </r>
   </si>
   <si>
-    <t>Continua</t>
-  </si>
-  <si>
-    <t>Tālāk</t>
-  </si>
-  <si>
-    <t>Stopp</t>
+    <t>find_this_note_instructions_piat_interleaved</t>
+  </si>
+  <si>
+    <t>here_first_attempt</t>
+  </si>
+  <si>
+    <t>Here is your first attempt.</t>
+  </si>
+  <si>
+    <t>Sveiki</t>
+  </si>
+  <si>
+    <t>Here is your second attempt.</t>
+  </si>
+  <si>
+    <t>Here is your third attempt.</t>
+  </si>
+  <si>
+    <t>here_second_attempt</t>
+  </si>
+  <si>
+    <t>here_third_attempt</t>
+  </si>
+  <si>
+    <t>here_final_attempt</t>
+  </si>
+  <si>
+    <t>Here is your final attempt.</t>
+  </si>
+  <si>
+    <t>Hier ist Ihr letzter Versuch.</t>
+  </si>
+  <si>
+    <t>Hier ist Ihr erster Versuch.</t>
+  </si>
+  <si>
+    <t>Hier ist Ihr zweiter Versuch.</t>
+  </si>
+  <si>
+    <t>Hier ist Ihr dritter Versuch.</t>
+  </si>
+  <si>
+    <t>time_for_next_melody</t>
+  </si>
+  <si>
+    <t>Zeit für die nächste Melodie!</t>
+  </si>
+  <si>
+    <t>Time for the next melody!</t>
+  </si>
+  <si>
+    <t>Play_the_melody_by_ear</t>
+  </si>
+  <si>
+    <t>Play the melody by ear</t>
+  </si>
+  <si>
+    <t>Spiele die Melodie nach Gehör.</t>
+  </si>
+  <si>
+    <t>Play the melody from sight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Spiele die Melodie aus dem Blatt.</t>
+  </si>
+  <si>
+    <t>use_metronome_correct_bpm</t>
+  </si>
+  <si>
+    <t>Verwenden Sie den Metronom, um das richtige Tempo (BPM) zu erreichen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use metronome to get the correct BPM: </t>
+  </si>
+  <si>
+    <t>Play_from_memory</t>
+  </si>
+  <si>
+    <t>Play from memory</t>
+  </si>
+  <si>
+    <t>Spiele aus dem Gedächtnis.</t>
+  </si>
+  <si>
+    <t>play_from_memory_message</t>
+  </si>
+  <si>
+    <t>Now try and play the melody you just encountered from memory.</t>
+  </si>
+  <si>
+    <t>Versuchen Sie nun, die Melodie, die Sie gerade gehört haben, aus dem Gedächtnis zu spielen.</t>
+  </si>
+  <si>
+    <t>Play_the_melody_from_sight</t>
+  </si>
+  <si>
+    <t>In the next section, you will switch between a) being asked to mentally imagine changes in a melody and b) finding and playing a note on your instrument. Have your instrument ready!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Im nächsten Abschnitt werden Sie abwechselnd a) gebeten, sich gedanklich Veränderungen in einer Melodie vorzustellen, und b) eine Note auf Ihrem Instrument zu finden und zu spielen. Halten Sie Ihr Instrument bereit!</t>
+  </si>
+  <si>
+    <t>PBET_2024_study_16</t>
+  </si>
+  <si>
+    <t>Additionally, in between each pitch imagery trial, we will ask you to find a note on your instrument and play it as quickly as you can.  Have your instrument ready!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3503,17 +3833,23 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3536,13 +3872,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3857,10 +4198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
-  <dimension ref="A1:E294"/>
+  <dimension ref="A1:E330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="B42" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3891,19 +4232,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3917,95 +4258,95 @@
         <v>444</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -4022,7 +4363,7 @@
         <v>223</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -4039,7 +4380,7 @@
         <v>222</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -4053,10 +4394,10 @@
         <v>436</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -4073,7 +4414,7 @@
         <v>219</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -4090,7 +4431,7 @@
         <v>221</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -4107,7 +4448,7 @@
         <v>221</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -4124,7 +4465,7 @@
         <v>220</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -4141,7 +4482,7 @@
         <v>221</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -4158,7 +4499,7 @@
         <v>199</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -4175,7 +4516,7 @@
         <v>199</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -4192,2075 +4533,2070 @@
         <v>235</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>582</v>
+      <c r="A21" s="7" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>13</v>
+        <v>342</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>281</v>
+        <v>408</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>205</v>
+        <v>625</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>543</v>
+        <v>499</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>623</v>
+        <v>227</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>501</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>225</v>
+        <v>622</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>537</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>937</v>
+        <v>102</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>938</v>
+        <v>101</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>938</v>
+        <v>316</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>939</v>
+        <v>225</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>938</v>
+        <v>536</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>502</v>
+      <c r="A28" s="7" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>365</v>
+        <v>931</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>366</v>
+        <v>932</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>419</v>
+        <v>932</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>638</v>
+        <v>933</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>581</v>
+        <v>932</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>16</v>
+      <c r="A30" s="7" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>1146</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>1094</v>
+        <v>24</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1095</v>
+        <v>25</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1095</v>
+        <v>283</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>1096</v>
+        <v>187</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>1095</v>
+        <v>501</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>180</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>99</v>
+        <v>1088</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>99</v>
+        <v>1089</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>318</v>
+        <v>1089</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>200</v>
+        <v>1090</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>539</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>629</v>
+        <v>651</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>572</v>
+        <v>593</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>951</v>
+        <v>49</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>952</v>
+        <v>180</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>952</v>
+        <v>180</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>953</v>
+        <v>179</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>850</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>477</v>
+        <v>99</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>478</v>
+        <v>99</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>478</v>
+        <v>318</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>669</v>
+        <v>200</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>612</v>
+        <v>538</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>729</v>
+        <v>351</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>730</v>
+        <v>352</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>730</v>
+        <v>411</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>731</v>
+        <v>628</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>730</v>
+        <v>571</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>118</v>
+        <v>945</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>263</v>
+        <v>946</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>324</v>
+        <v>946</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>230</v>
+        <v>947</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>546</v>
+        <v>845</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>738</v>
-      </c>
+      <c r="A40" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>17</v>
+        <v>477</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>18</v>
+        <v>478</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>18</v>
+        <v>478</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>18</v>
+        <v>668</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>18</v>
+        <v>611</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>108</v>
+        <v>728</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>109</v>
+        <v>729</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>109</v>
+        <v>729</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>1098</v>
+        <v>730</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>109</v>
+        <v>729</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>470</v>
+        <v>118</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>471</v>
+        <v>263</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>472</v>
+        <v>324</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>667</v>
+        <v>230</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>610</v>
+        <v>545</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>1063</v>
+      <c r="A44" s="7" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>1136</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>98</v>
+        <v>737</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>315</v>
+        <v>737</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>224</v>
+        <v>1091</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>536</v>
+        <v>737</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>603</v>
+      <c r="A46" s="7" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>1148</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>360</v>
+        <v>17</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>360</v>
+        <v>18</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>291</v>
+        <v>18</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>634</v>
+        <v>18</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>577</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>739</v>
+        <v>108</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>740</v>
+        <v>109</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>740</v>
+        <v>109</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>741</v>
+        <v>1092</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>740</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>869</v>
+        <v>470</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>870</v>
+        <v>471</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>850</v>
+        <v>472</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>881</v>
+        <v>666</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>850</v>
+        <v>609</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>865</v>
+        <v>1053</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>866</v>
+        <v>1054</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>850</v>
+        <v>1055</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>885</v>
+        <v>1056</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>850</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>868</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>867</v>
+        <v>98</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>850</v>
+        <v>315</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>880</v>
+        <v>224</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>850</v>
+        <v>535</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>19</v>
+        <v>452</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>20</v>
+        <v>453</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>20</v>
+        <v>468</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>20</v>
+        <v>659</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>20</v>
+        <v>602</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>961</v>
+        <v>360</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>962</v>
+        <v>360</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>962</v>
+        <v>291</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>963</v>
+        <v>633</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>962</v>
+        <v>576</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>165</v>
+        <v>738</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>166</v>
+        <v>739</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>338</v>
+        <v>739</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>240</v>
+        <v>740</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>563</v>
+        <v>739</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>450</v>
+        <v>1205</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>451</v>
+        <v>1240</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>467</v>
+        <v>845</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>659</v>
+        <v>1152</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>602</v>
+        <v>845</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>1099</v>
+        <v>863</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1100</v>
+        <v>864</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>1100</v>
+        <v>845</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>1101</v>
+        <v>875</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>1100</v>
+        <v>845</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>76</v>
+        <v>859</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>154</v>
+        <v>860</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>302</v>
+        <v>845</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>215</v>
+        <v>879</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>523</v>
+        <v>845</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>152</v>
+        <v>862</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1102</v>
+        <v>861</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>1102</v>
+        <v>845</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>1103</v>
+        <v>874</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>1102</v>
+        <v>845</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>303</v>
+        <v>20</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>522</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>151</v>
+        <v>955</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>742</v>
+        <v>956</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>742</v>
+        <v>956</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>743</v>
+        <v>957</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>742</v>
+        <v>956</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>529</v>
+        <v>562</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>450</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>94</v>
+        <v>451</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>94</v>
+        <v>467</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>1104</v>
+        <v>658</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>94</v>
+        <v>601</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>697</v>
+        <v>1093</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>698</v>
+        <v>1094</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>698</v>
+        <v>1094</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>699</v>
+        <v>1095</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>698</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>261</v>
+        <v>154</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>948</v>
+        <v>152</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1105</v>
+        <v>1125</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>1105</v>
+        <v>845</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>1106</v>
+        <v>1127</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>1105</v>
+        <v>845</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>949</v>
+        <v>153</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>850</v>
+        <v>303</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>950</v>
+        <v>214</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>850</v>
+        <v>521</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>74</v>
+        <v>1126</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>288</v>
+        <v>845</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>208</v>
+        <v>1128</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>508</v>
+        <v>845</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>2</v>
+        <v>308</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>2</v>
+        <v>528</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1107</v>
+        <v>94</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>1107</v>
+        <v>94</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>1108</v>
+        <v>1096</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>1107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>48</v>
+        <v>696</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1109</v>
+        <v>697</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>1109</v>
+        <v>697</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>1110</v>
+        <v>698</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>1109</v>
+        <v>697</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>267</v>
+        <v>320</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>615</v>
+        <v>262</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>485</v>
+        <v>541</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>690</v>
+        <v>942</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>159</v>
+        <v>943</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>335</v>
+        <v>845</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>236</v>
+        <v>944</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>559</v>
+        <v>845</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>195</v>
+        <v>2</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>301</v>
+        <v>2</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>521</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>744</v>
+        <v>46</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>745</v>
+        <v>1097</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>745</v>
+        <v>1097</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>745</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>382</v>
+        <v>47</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>382</v>
+        <v>1099</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>427</v>
+        <v>1099</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>646</v>
+        <v>1100</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>588</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>130</v>
+        <v>248</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>331</v>
+        <v>267</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>138</v>
+        <v>614</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>554</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>359</v>
+        <v>157</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>359</v>
+        <v>159</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>414</v>
+        <v>335</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>633</v>
+        <v>236</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>901</v>
+        <v>689</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>888</v>
+        <v>689</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>888</v>
+        <v>1123</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>914</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1124</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>902</v>
+        <v>1213</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>889</v>
+        <v>1214</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+        <v>845</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>911</v>
+        <v>1206</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>898</v>
+        <v>1207</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>898</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>924</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>898</v>
+        <v>845</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>912</v>
+        <v>1211</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>899</v>
+        <v>1209</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>925</v>
+        <v>845</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1217</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>899</v>
+        <v>845</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>913</v>
+        <v>1212</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>900</v>
+        <v>1210</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>926</v>
+        <v>845</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1218</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>900</v>
+        <v>845</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>903</v>
+        <v>37</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>890</v>
+        <v>38</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>890</v>
+        <v>289</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>916</v>
+        <v>192</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>890</v>
+        <v>509</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>904</v>
+        <v>72</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>891</v>
+        <v>195</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>891</v>
+        <v>301</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>917</v>
+        <v>213</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>891</v>
+        <v>520</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>905</v>
+        <v>741</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>892</v>
+        <v>742</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>892</v>
+        <v>742</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>918</v>
+        <v>743</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>892</v>
+        <v>742</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>906</v>
+        <v>382</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>893</v>
+        <v>382</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>893</v>
+        <v>427</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>919</v>
+        <v>645</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>893</v>
+        <v>587</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>907</v>
+        <v>129</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>894</v>
+        <v>130</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>894</v>
+        <v>331</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>920</v>
+        <v>138</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>894</v>
+        <v>553</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>908</v>
+        <v>359</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>895</v>
+        <v>359</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>895</v>
+        <v>414</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>921</v>
+        <v>632</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>895</v>
+        <v>575</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>909</v>
+        <v>895</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>922</v>
+        <v>908</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>923</v>
+        <v>909</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>874</v>
+        <v>905</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>873</v>
+        <v>892</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>850</v>
+        <v>892</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>883</v>
+        <v>918</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>850</v>
+        <v>892</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>875</v>
+        <v>906</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>877</v>
+        <v>893</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>850</v>
+        <v>893</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>884</v>
+        <v>919</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>850</v>
+        <v>893</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>876</v>
+        <v>907</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>878</v>
+        <v>894</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>850</v>
+        <v>894</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>886</v>
+        <v>920</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>850</v>
+        <v>894</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>930</v>
+        <v>897</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>928</v>
+        <v>884</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>927</v>
+        <v>884</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>929</v>
+        <v>910</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>927</v>
+        <v>884</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>871</v>
+        <v>898</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>872</v>
+        <v>885</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>850</v>
+        <v>885</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>882</v>
+        <v>911</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>850</v>
+        <v>885</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>945</v>
+        <v>899</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>947</v>
+        <v>886</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>850</v>
+        <v>886</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>946</v>
+        <v>912</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>850</v>
+        <v>886</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>737</v>
+        <v>900</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>712</v>
+        <v>887</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>712</v>
+        <v>887</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>713</v>
+        <v>913</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>954</v>
+        <v>887</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>259</v>
+        <v>901</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>258</v>
+        <v>888</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>327</v>
+        <v>888</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>257</v>
+        <v>914</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>549</v>
+        <v>888</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>256</v>
+        <v>902</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>255</v>
+        <v>889</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>328</v>
+        <v>889</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>254</v>
+        <v>915</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>550</v>
+        <v>889</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>253</v>
+        <v>903</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>252</v>
+        <v>890</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>333</v>
+        <v>890</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>252</v>
+        <v>916</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>551</v>
+        <v>890</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>461</v>
+        <v>904</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>464</v>
+        <v>891</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>464</v>
+        <v>891</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>664</v>
+        <v>917</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>607</v>
+        <v>891</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>462</v>
+        <v>868</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>465</v>
+        <v>867</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>465</v>
+        <v>845</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>665</v>
+        <v>877</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>608</v>
+        <v>845</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>463</v>
+        <v>869</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>466</v>
+        <v>871</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>466</v>
+        <v>845</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>666</v>
+        <v>878</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>609</v>
+        <v>845</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>172</v>
+        <v>870</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>474</v>
+        <v>872</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>326</v>
+        <v>845</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>624</v>
+        <v>880</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>548</v>
+        <v>845</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>460</v>
+        <v>924</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>473</v>
+        <v>922</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>473</v>
+        <v>921</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>663</v>
+        <v>923</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>606</v>
+        <v>921</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>449</v>
+        <v>865</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>119</v>
+        <v>866</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>325</v>
+        <v>845</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>231</v>
+        <v>876</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>547</v>
+        <v>845</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>458</v>
+        <v>939</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>459</v>
+        <v>941</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>459</v>
+        <v>845</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>662</v>
+        <v>940</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>605</v>
+        <v>845</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>747</v>
+        <v>1166</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>1128</v>
+        <v>1167</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>1128</v>
+        <v>845</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>748</v>
+        <v>1168</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>1128</v>
+        <v>845</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>0</v>
+        <v>736</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1</v>
+        <v>711</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>266</v>
+        <v>711</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>177</v>
+        <v>712</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>484</v>
+        <v>948</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>26</v>
+        <v>259</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>27</v>
+        <v>258</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>503</v>
+        <v>548</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>30</v>
+        <v>256</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>31</v>
+        <v>255</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>189</v>
+        <v>254</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>505</v>
+        <v>549</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>32</v>
+        <v>253</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>33</v>
+        <v>252</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>190</v>
+        <v>252</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>506</v>
+        <v>550</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>34</v>
+        <v>461</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>264</v>
+        <v>464</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>290</v>
+        <v>464</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>207</v>
+        <v>663</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>507</v>
+        <v>606</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>28</v>
+        <v>462</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>29</v>
+        <v>465</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>285</v>
+        <v>465</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>188</v>
+        <v>664</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>504</v>
+        <v>607</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>720</v>
+        <v>463</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>720</v>
+        <v>466</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>720</v>
+        <v>466</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>725</v>
+        <v>665</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>958</v>
+        <v>608</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>717</v>
+        <v>172</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>716</v>
+        <v>474</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>716</v>
+        <v>326</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>726</v>
+        <v>623</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>716</v>
+        <v>547</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>249</v>
+        <v>460</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>250</v>
+        <v>473</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>269</v>
+        <v>473</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>616</v>
+        <v>662</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>487</v>
+        <v>605</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>120</v>
+        <v>449</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>50</v>
+        <v>458</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>171</v>
+        <v>459</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>272</v>
+        <v>459</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>202</v>
+        <v>661</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>491</v>
+        <v>604</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>372</v>
+        <v>744</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>370</v>
+        <v>1204</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>421</v>
+        <v>1204</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>640</v>
+        <v>745</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>879</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>373</v>
+        <v>0</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>371</v>
+        <v>1</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>446</v>
+        <v>266</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>641</v>
+        <v>177</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>583</v>
+        <v>484</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>374</v>
+        <v>26</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>375</v>
+        <v>27</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>422</v>
+        <v>284</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>642</v>
+        <v>206</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>584</v>
+        <v>502</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>182</v>
+        <v>33</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>617</v>
+        <v>190</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>445</v>
+        <v>290</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>618</v>
+        <v>207</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>39</v>
+        <v>719</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>40</v>
+        <v>719</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>292</v>
+        <v>719</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>209</v>
+        <v>724</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>511</v>
+        <v>952</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>356</v>
+        <v>716</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>355</v>
+        <v>715</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>413</v>
+        <v>715</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>631</v>
+        <v>725</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>574</v>
+        <v>715</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>749</v>
+        <v>249</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>749</v>
+        <v>250</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>749</v>
+        <v>269</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>749</v>
+        <v>615</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>749</v>
+        <v>486</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>959</v>
+        <v>120</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>960</v>
+        <v>232</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>515</v>
+        <v>551</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>932</v>
+        <v>50</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>931</v>
+        <v>171</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>931</v>
+        <v>272</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>933</v>
+        <v>202</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>931</v>
+        <v>490</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>66</v>
+        <v>372</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>67</v>
+        <v>370</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>298</v>
+        <v>421</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>193</v>
+        <v>639</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>518</v>
+        <v>873</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>6</v>
+        <v>373</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>6</v>
+        <v>371</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>1129</v>
+        <v>446</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>1130</v>
+        <v>640</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>42</v>
+        <v>374</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>42</v>
+        <v>375</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>42</v>
+        <v>422</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>136</v>
+        <v>641</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>513</v>
+        <v>583</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>144</v>
+        <v>51</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>332</v>
+        <v>270</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>555</v>
+        <v>487</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>196</v>
+        <v>616</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>524</v>
+        <v>488</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>398</v>
+        <v>54</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>93</v>
+        <v>251</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>654</v>
+        <v>617</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>597</v>
+        <v>489</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>183</v>
+        <v>3</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>619</v>
+        <v>209</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>630</v>
@@ -6271,2596 +6607,3221 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>361</v>
+        <v>746</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>361</v>
+        <v>746</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>416</v>
+        <v>746</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>635</v>
+        <v>746</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>578</v>
+        <v>746</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>95</v>
+        <v>953</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>216</v>
+        <v>954</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>966</v>
+        <v>926</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>967</v>
+        <v>925</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>967</v>
+        <v>925</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>968</v>
+        <v>927</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>967</v>
+        <v>925</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>728</v>
+        <v>66</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>721</v>
+        <v>67</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>721</v>
+        <v>298</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>727</v>
+        <v>193</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>955</v>
+        <v>517</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>714</v>
+        <v>6</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>715</v>
+        <v>6</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>715</v>
+        <v>1118</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>956</v>
+        <v>186</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>1119</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>22</v>
+        <v>512</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>514</v>
+        <v>554</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>246</v>
+        <v>196</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>823</v>
+        <v>398</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>824</v>
+        <v>93</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>850</v>
+        <v>434</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>851</v>
+        <v>653</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>850</v>
+        <v>596</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>840</v>
+        <v>60</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>841</v>
+        <v>183</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>850</v>
+        <v>273</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>860</v>
+        <v>184</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>850</v>
+        <v>491</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>842</v>
+        <v>63</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>843</v>
+        <v>62</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>850</v>
+        <v>274</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>861</v>
+        <v>618</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>850</v>
+        <v>492</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>845</v>
+        <v>353</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>844</v>
+        <v>354</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>850</v>
+        <v>412</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>862</v>
+        <v>629</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>850</v>
+        <v>572</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>846</v>
+        <v>361</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>847</v>
+        <v>361</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>850</v>
+        <v>416</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>863</v>
+        <v>634</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>850</v>
+        <v>577</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>849</v>
+        <v>81</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>848</v>
+        <v>95</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>850</v>
+        <v>306</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>864</v>
+        <v>216</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>850</v>
+        <v>526</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>826</v>
+        <v>960</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>827</v>
+        <v>961</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>850</v>
+        <v>961</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>853</v>
+        <v>962</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>850</v>
+        <v>961</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>829</v>
+        <v>727</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>824</v>
+        <v>720</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>850</v>
+        <v>720</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>851</v>
+        <v>726</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>850</v>
+        <v>949</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>831</v>
+        <v>713</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>830</v>
+        <v>714</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>850</v>
+        <v>714</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>855</v>
+        <v>721</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>850</v>
+        <v>950</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>833</v>
+        <v>21</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>832</v>
+        <v>22</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>850</v>
+        <v>22</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>856</v>
+        <v>22</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>850</v>
+        <v>22</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>834</v>
+        <v>43</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>824</v>
+        <v>43</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>850</v>
+        <v>294</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>851</v>
+        <v>137</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>850</v>
+        <v>513</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>887</v>
+        <v>127</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>837</v>
+        <v>128</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>850</v>
+        <v>330</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>858</v>
+        <v>246</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>850</v>
+        <v>552</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>835</v>
+        <v>820</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>838</v>
+        <v>821</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>839</v>
-      </c>
       <c r="C163" s="2" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>735</v>
+        <v>837</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>736</v>
+        <v>838</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>736</v>
+        <v>845</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>822</v>
+        <v>855</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>736</v>
+        <v>845</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>750</v>
+        <v>840</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>751</v>
+        <v>839</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>751</v>
+        <v>845</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>752</v>
+        <v>856</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>751</v>
+        <v>845</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>753</v>
+        <v>841</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>754</v>
+        <v>842</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>754</v>
+        <v>845</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>755</v>
+        <v>857</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>754</v>
+        <v>845</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>756</v>
+        <v>844</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>757</v>
+        <v>843</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>757</v>
+        <v>845</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>758</v>
+        <v>858</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>1111</v>
+        <v>1149</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>1112</v>
+        <v>1150</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>1113</v>
+        <v>845</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>1151</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>79</v>
+        <v>1239</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>79</v>
+        <v>1237</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>198</v>
+        <v>845</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>1238</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>525</v>
+        <v>845</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>167</v>
+        <v>826</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>168</v>
+        <v>821</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>339</v>
+        <v>845</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>241</v>
+        <v>846</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>564</v>
+        <v>845</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>942</v>
+        <v>828</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>943</v>
+        <v>827</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>943</v>
+        <v>845</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>944</v>
-      </c>
-      <c r="E172" s="2"/>
+        <v>850</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>845</v>
+      </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>35</v>
+        <v>829</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>36</v>
+        <v>821</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>291</v>
+        <v>845</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>191</v>
+        <v>846</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>509</v>
+        <v>845</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>358</v>
+        <v>881</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>357</v>
+        <v>832</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>415</v>
+        <v>845</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>632</v>
+        <v>852</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>575</v>
+        <v>845</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>176</v>
+        <v>830</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>175</v>
+        <v>833</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>443</v>
+        <v>845</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>243</v>
+        <v>851</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>567</v>
+        <v>845</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>158</v>
+        <v>831</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>163</v>
+        <v>834</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>425</v>
+        <v>845</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>238</v>
+        <v>853</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>561</v>
+        <v>845</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>560</v>
+      <c r="A177" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>557</v>
+      <c r="A178" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>556</v>
+      <c r="A179" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D179" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>587</v>
+      <c r="A180" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>545</v>
+      <c r="A181" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D181" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>604</v>
+      <c r="A182" s="8" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>1114</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>457</v>
+      <c r="A183" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>526</v>
+      <c r="A184" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D184" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>593</v>
+      <c r="A185" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>494</v>
+      <c r="A186" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>497</v>
+      <c r="A187" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D187" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>495</v>
+      <c r="A188" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>496</v>
+      <c r="A189" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>516</v>
+      <c r="A190" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>544</v>
+      <c r="A191" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>479</v>
+        <v>734</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>480</v>
+        <v>735</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>480</v>
+        <v>735</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>670</v>
+        <v>819</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>613</v>
+        <v>735</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>379</v>
+        <v>747</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>378</v>
+        <v>748</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>424</v>
+        <v>748</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>644</v>
+        <v>749</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>586</v>
+        <v>748</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>706</v>
+        <v>750</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>707</v>
+        <v>751</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>707</v>
+        <v>751</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>708</v>
+        <v>752</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>707</v>
+        <v>751</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>732</v>
+        <v>753</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>733</v>
+        <v>754</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>733</v>
+        <v>754</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>734</v>
+        <v>755</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>733</v>
+        <v>754</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>759</v>
+        <v>1101</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>760</v>
+        <v>1102</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>760</v>
+        <v>1102</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>761</v>
+        <v>1103</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>760</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>762</v>
+        <v>79</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>763</v>
+        <v>79</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>763</v>
+        <v>79</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>764</v>
+        <v>198</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>763</v>
+        <v>524</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>765</v>
+        <v>825</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>766</v>
+        <v>825</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>766</v>
+        <v>845</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>767</v>
+        <v>849</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>766</v>
+        <v>845</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>768</v>
+        <v>167</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>769</v>
+        <v>168</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>769</v>
+        <v>339</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>770</v>
+        <v>241</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>769</v>
+        <v>563</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>771</v>
+        <v>1230</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>772</v>
+        <v>1231</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>773</v>
+        <v>845</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1232</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>772</v>
+        <v>845</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>774</v>
+        <v>1233</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>43</v>
+        <v>1234</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>43</v>
+        <v>845</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>137</v>
+        <v>1235</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>43</v>
+        <v>845</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>775</v>
+        <v>936</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>776</v>
+        <v>937</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>776</v>
+        <v>937</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>777</v>
+        <v>938</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>776</v>
+        <v>845</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>778</v>
+        <v>1222</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>779</v>
+        <v>1223</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>779</v>
+        <v>845</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>780</v>
+        <v>1224</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>781</v>
+        <v>1236</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>782</v>
+        <v>1225</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>783</v>
+        <v>845</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>1226</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>782</v>
+        <v>845</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>784</v>
+        <v>35</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>785</v>
+        <v>36</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>785</v>
+        <v>291</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>786</v>
+        <v>191</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>785</v>
+        <v>508</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>719</v>
+        <v>176</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>719</v>
+        <v>175</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>719</v>
+        <v>443</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>724</v>
+        <v>243</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>957</v>
+        <v>566</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>679</v>
+        <v>158</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>682</v>
+        <v>163</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>682</v>
+        <v>425</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>689</v>
+        <v>238</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>682</v>
+        <v>560</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>677</v>
+        <v>164</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>680</v>
+        <v>160</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>680</v>
+        <v>336</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>687</v>
+        <v>237</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>680</v>
+        <v>559</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>678</v>
+        <v>149</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>681</v>
+        <v>150</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>681</v>
+        <v>448</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>688</v>
+        <v>234</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>681</v>
+        <v>556</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>1035</v>
+        <v>147</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>1036</v>
+        <v>148</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>1037</v>
+        <v>447</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>1038</v>
+        <v>624</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>1039</v>
+        <v>555</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>1015</v>
+        <v>381</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>799</v>
+        <v>380</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>1016</v>
+        <v>426</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>1017</v>
+        <v>644</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>1018</v>
+        <v>586</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>1019</v>
+        <v>117</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>802</v>
+        <v>260</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>1020</v>
+        <v>323</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>1021</v>
+        <v>544</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>1022</v>
+        <v>454</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>806</v>
+        <v>455</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>1023</v>
+        <v>469</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>1024</v>
+        <v>660</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>1025</v>
+        <v>603</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>1026</v>
+        <v>107</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>1027</v>
+        <v>457</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>1023</v>
+        <v>457</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>1028</v>
+        <v>1104</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>1029</v>
+        <v>457</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>1030</v>
+        <v>80</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>1031</v>
+        <v>80</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>1032</v>
+        <v>305</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>1033</v>
+        <v>197</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>1034</v>
+        <v>525</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>995</v>
+        <v>390</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>996</v>
+        <v>391</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>997</v>
+        <v>430</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>998</v>
+        <v>650</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>999</v>
+        <v>592</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>1000</v>
+        <v>56</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>1001</v>
+        <v>123</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>1002</v>
+        <v>275</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>1003</v>
+        <v>203</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>1004</v>
+        <v>493</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>1005</v>
+        <v>59</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>1006</v>
+        <v>5</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>1007</v>
+        <v>278</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>1008</v>
+        <v>619</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>1009</v>
+        <v>496</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>1010</v>
+        <v>57</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>1011</v>
+        <v>124</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>1012</v>
+        <v>276</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>1013</v>
+        <v>204</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>1014</v>
+        <v>494</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>977</v>
+        <v>58</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>978</v>
+        <v>4</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>979</v>
+        <v>277</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>978</v>
+        <v>185</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>980</v>
+        <v>495</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>981</v>
+        <v>61</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>982</v>
+        <v>125</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>983</v>
+        <v>296</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>984</v>
+        <v>210</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>985</v>
+        <v>515</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>986</v>
+        <v>116</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>987</v>
+        <v>115</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>988</v>
+        <v>322</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>989</v>
+        <v>228</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>990</v>
+        <v>543</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>991</v>
+        <v>479</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>757</v>
+        <v>480</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>992</v>
+        <v>480</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>993</v>
+        <v>669</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>994</v>
+        <v>612</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>142</v>
+        <v>705</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>143</v>
+        <v>706</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>143</v>
+        <v>706</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>233</v>
+        <v>707</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>143</v>
+        <v>706</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>139</v>
+        <v>731</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>140</v>
+        <v>732</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>140</v>
+        <v>732</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>141</v>
+        <v>733</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>140</v>
+        <v>732</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>7</v>
+        <v>756</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>8</v>
+        <v>757</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>279</v>
+        <v>757</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>621</v>
+        <v>758</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>498</v>
+        <v>757</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>9</v>
+        <v>759</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>10</v>
+        <v>760</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>280</v>
+        <v>760</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>622</v>
+        <v>761</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>499</v>
+        <v>760</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>345</v>
+        <v>762</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>344</v>
+        <v>763</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>409</v>
+        <v>763</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>627</v>
+        <v>764</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>569</v>
+        <v>763</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>940</v>
+        <v>765</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>940</v>
+        <v>766</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>850</v>
+        <v>766</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>941</v>
+        <v>767</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>850</v>
+        <v>766</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>825</v>
+        <v>768</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>825</v>
+        <v>769</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>850</v>
+        <v>769</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>852</v>
+        <v>770</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>850</v>
+        <v>769</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>694</v>
+        <v>771</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>695</v>
+        <v>43</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>695</v>
+        <v>43</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>696</v>
+        <v>137</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>695</v>
+        <v>43</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>709</v>
+        <v>772</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>710</v>
+        <v>773</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>710</v>
+        <v>773</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>711</v>
+        <v>774</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>710</v>
+        <v>773</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>1068</v>
+        <v>775</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>1069</v>
+        <v>776</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>1069</v>
+        <v>776</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>1070</v>
+        <v>777</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>1071</v>
+        <v>776</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>1064</v>
+        <v>778</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>1065</v>
+        <v>779</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>1065</v>
+        <v>779</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>1066</v>
+        <v>780</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>1067</v>
+        <v>779</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>161</v>
+        <v>781</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>162</v>
+        <v>782</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>337</v>
+        <v>782</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>239</v>
+        <v>783</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>562</v>
+        <v>782</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>1084</v>
+        <v>369</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>1085</v>
+        <v>364</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>1085</v>
+        <v>418</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>1086</v>
+        <v>636</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>1087</v>
+        <v>579</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>1080</v>
+        <v>718</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>1081</v>
+        <v>718</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>1081</v>
+        <v>718</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>1082</v>
+        <v>723</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>1083</v>
+        <v>951</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>388</v>
+        <v>678</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>389</v>
+        <v>681</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>429</v>
+        <v>681</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>650</v>
+        <v>688</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>592</v>
+        <v>681</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>387</v>
+        <v>676</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>100</v>
+        <v>679</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>428</v>
+        <v>679</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>649</v>
+        <v>686</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>591</v>
+        <v>679</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>103</v>
+        <v>677</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>100</v>
+        <v>680</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>317</v>
+        <v>680</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>226</v>
+        <v>687</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>538</v>
+        <v>680</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>1040</v>
+        <v>1029</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>1041</v>
+        <v>1030</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>1042</v>
+        <v>1031</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>1043</v>
+        <v>1032</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>1044</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>1045</v>
+        <v>1009</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>1046</v>
+        <v>796</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>1047</v>
+        <v>1010</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>1048</v>
+        <v>1011</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>1049</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>1050</v>
+        <v>1013</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>1051</v>
+        <v>799</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>1052</v>
+        <v>1014</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>1053</v>
+        <v>220</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>1054</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>406</v>
+        <v>1016</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>407</v>
+        <v>803</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>441</v>
+        <v>1017</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>658</v>
+        <v>1018</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>601</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>403</v>
+        <v>1020</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>402</v>
+        <v>1021</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>439</v>
+        <v>1017</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>656</v>
+        <v>1022</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>599</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>405</v>
+        <v>1024</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>404</v>
+        <v>1025</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>440</v>
+        <v>1026</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>657</v>
+        <v>1027</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>600</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>386</v>
+        <v>989</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>385</v>
+        <v>990</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>316</v>
+        <v>991</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>648</v>
+        <v>992</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>590</v>
+        <v>993</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>1076</v>
+        <v>994</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>1077</v>
+        <v>995</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>1077</v>
+        <v>996</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>1078</v>
+        <v>997</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>1079</v>
+        <v>998</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>1072</v>
+        <v>999</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>1073</v>
+        <v>1000</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>1073</v>
+        <v>1001</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>1074</v>
+        <v>1002</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>1075</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>70</v>
+        <v>1004</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>71</v>
+        <v>1005</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>300</v>
+        <v>1006</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>194</v>
+        <v>1007</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>520</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>362</v>
+        <v>971</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>363</v>
+        <v>972</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>417</v>
+        <v>973</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>636</v>
+        <v>972</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>579</v>
+        <v>974</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>1115</v>
+        <v>975</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>1116</v>
+        <v>976</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>1116</v>
+        <v>977</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>1117</v>
+        <v>978</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>1116</v>
+        <v>979</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>377</v>
+        <v>980</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>376</v>
+        <v>981</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>423</v>
+        <v>982</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>643</v>
+        <v>983</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>585</v>
+        <v>984</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>122</v>
+        <v>985</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>122</v>
+        <v>754</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>122</v>
+        <v>986</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>1131</v>
+        <v>987</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>122</v>
+        <v>988</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>475</v>
+        <v>383</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>476</v>
+        <v>384</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>476</v>
+        <v>442</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>668</v>
+        <v>646</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>611</v>
+        <v>588</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>934</v>
+        <v>142</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>935</v>
+        <v>143</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>935</v>
+        <v>143</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>936</v>
+        <v>233</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>935</v>
+        <v>143</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>1055</v>
+        <v>139</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>978</v>
+        <v>140</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>1056</v>
+        <v>140</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>1057</v>
+        <v>141</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>1058</v>
+        <v>140</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>1118</v>
+        <v>7</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>1119</v>
+        <v>8</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>1119</v>
+        <v>279</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>1120</v>
+        <v>620</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>1119</v>
+        <v>497</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>683</v>
+        <v>10</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>245</v>
+        <v>621</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>540</v>
+        <v>498</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>105</v>
+        <v>345</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>106</v>
+        <v>344</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>456</v>
+        <v>409</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>244</v>
+        <v>626</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>541</v>
+        <v>568</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>787</v>
+        <v>934</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>788</v>
+        <v>934</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>789</v>
+        <v>845</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>790</v>
+        <v>935</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>788</v>
+        <v>845</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>791</v>
+        <v>822</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>792</v>
+        <v>822</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>792</v>
+        <v>845</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>793</v>
+        <v>847</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>792</v>
+        <v>845</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>794</v>
+        <v>693</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>795</v>
+        <v>694</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>796</v>
+        <v>694</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>797</v>
+        <v>695</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>796</v>
+        <v>694</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>798</v>
+        <v>708</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>799</v>
+        <v>709</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>799</v>
+        <v>709</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>800</v>
+        <v>710</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>799</v>
+        <v>709</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>801</v>
+        <v>1062</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>802</v>
+        <v>1063</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>802</v>
+        <v>1063</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>803</v>
+        <v>1064</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>802</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>804</v>
+        <v>1058</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>805</v>
+        <v>1059</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>806</v>
+        <v>1059</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>807</v>
+        <v>1060</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>806</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>808</v>
+        <v>161</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>809</v>
+        <v>162</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>809</v>
+        <v>337</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>809</v>
+        <v>239</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>809</v>
+        <v>561</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>810</v>
+        <v>1078</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>811</v>
+        <v>1079</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>811</v>
+        <v>1079</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>812</v>
+        <v>1080</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>811</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>813</v>
+        <v>1074</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>814</v>
+        <v>1075</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>814</v>
+        <v>1075</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>815</v>
+        <v>1076</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>814</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>816</v>
+        <v>388</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>817</v>
+        <v>389</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>817</v>
+        <v>429</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>817</v>
+        <v>649</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>817</v>
+        <v>591</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>349</v>
+        <v>100</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>350</v>
+        <v>648</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>571</v>
+        <v>590</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>481</v>
+        <v>103</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>964</v>
+        <v>100</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>482</v>
+        <v>317</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>965</v>
+        <v>226</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>614</v>
+        <v>537</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>969</v>
+        <v>1034</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>970</v>
+        <v>1035</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>850</v>
+        <v>1036</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>971</v>
+        <v>1037</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>850</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>847</v>
+        <v>1039</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>847</v>
+        <v>1040</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>847</v>
+        <v>1041</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>863</v>
+        <v>1042</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>863</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>818</v>
+        <v>1044</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>819</v>
+        <v>1045</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>819</v>
+        <v>1046</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>820</v>
+        <v>1047</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>819</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>169</v>
+        <v>406</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>170</v>
+        <v>407</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>340</v>
+        <v>441</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>242</v>
+        <v>657</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>565</v>
+        <v>600</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>1121</v>
+        <v>403</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>1122</v>
+        <v>402</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>1122</v>
+        <v>439</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>1123</v>
+        <v>655</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>1122</v>
+        <v>598</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>1124</v>
+        <v>405</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>1125</v>
+        <v>404</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>1125</v>
+        <v>440</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>1126</v>
+        <v>656</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>1125</v>
+        <v>599</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>110</v>
+        <v>386</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>111</v>
+        <v>385</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>111</v>
+        <v>316</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>1127</v>
+        <v>647</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>111</v>
+        <v>589</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>691</v>
+        <v>1070</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>692</v>
+        <v>1071</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>692</v>
+        <v>1071</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>693</v>
+        <v>1072</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>692</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>821</v>
+        <v>1066</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>751</v>
+        <v>1067</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>751</v>
+        <v>1067</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>752</v>
+        <v>1068</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>751</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>700</v>
+        <v>70</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>701</v>
+        <v>71</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>701</v>
+        <v>300</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>702</v>
+        <v>194</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>701</v>
+        <v>519</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B285" s="3" t="s">
-        <v>432</v>
+        <v>362</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="D285" s="3" t="s">
-        <v>653</v>
+        <v>417</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>635</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>41</v>
+        <v>1105</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>41</v>
+        <v>1106</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>293</v>
+        <v>1106</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>135</v>
+        <v>1107</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>512</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>310</v>
+        <v>423</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>220</v>
+        <v>642</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>532</v>
+        <v>584</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>173</v>
+        <v>122</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>341</v>
+        <v>122</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>247</v>
+        <v>1120</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>566</v>
+        <v>122</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>974</v>
+        <v>475</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>973</v>
+        <v>476</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>850</v>
+        <v>476</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>972</v>
+        <v>667</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>850</v>
+        <v>610</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>83</v>
+        <v>928</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>96</v>
+        <v>929</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>307</v>
+        <v>929</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>217</v>
+        <v>930</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>528</v>
+        <v>929</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>703</v>
+        <v>1049</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>704</v>
+        <v>972</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>704</v>
+        <v>1050</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>705</v>
+        <v>1051</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>704</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>64</v>
+        <v>1108</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>65</v>
+        <v>1109</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>297</v>
+        <v>1109</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>211</v>
+        <v>1110</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>517</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A294" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A295" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A296" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A297" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A298" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A299" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A300" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A301" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A302" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A303" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A307" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A308" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A309" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A310" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D310" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A311" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A312" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A313" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A314" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A315" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A316" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D316" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A317" s="7" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B317" s="7" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C317" s="7" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D317" s="7" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E317" s="7" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A318" s="7" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B318" s="7" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C318" s="7" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D318" s="7" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E318" s="7" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A319" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A320" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A321" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A322" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A323" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A324" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A325" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A326" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A327" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A328" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A329" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A330" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B293" s="2" t="s">
+      <c r="B330" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C293" s="2" t="s">
+      <c r="C330" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D293" s="2" t="s">
+      <c r="D330" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E293" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B294" s="2"/>
-      <c r="C294" s="2"/>
-      <c r="D294" s="2"/>
-      <c r="E294" s="2"/>
+      <c r="E330" s="2" t="s">
+        <v>518</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E125" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E294">
-    <sortCondition ref="A1:A294"/>
+  <autoFilter ref="A1:E132" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E330">
+    <sortCondition ref="A2:A330"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747F20F0-5B39-1645-B0F0-D0F0330F3D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66336BEB-0877-EC40-9F81-3A70DEC86AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2380" windowWidth="35840" windowHeight="18820" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="-40" yWindow="2380" windowWidth="35840" windowHeight="18820" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$E$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$E$134</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="1241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="1250">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -3794,6 +3794,35 @@
   </si>
   <si>
     <t>Additionally, in between each pitch imagery trial, we will ask you to find a note on your instrument and play it as quickly as you can.  Have your instrument ready!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Bitte verwenden Sie Ihr Instrument nicht, um Ihnen bei den Tonhöhenvorstellungs-Tests zu helfen! Wir möchten, dass Sie sich die Tonhöhen vorstellen.</t>
+  </si>
+  <si>
+    <t>find_this_note_instructions_piat_interleaved_2</t>
+  </si>
+  <si>
+    <t>Please do not use your instrument to help you on the pitch imagery trials! We want you to imagine the pitches.</t>
+  </si>
+  <si>
+    <t>describe_thoughts</t>
+  </si>
+  <si>
+    <t>Please feel free to tell us anything about the mental strategies or processes you used in the last section as well as anything else that you think may be interesting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Bitte zögern Sie nicht, uns alles über die mentalen Strategien oder Prozesse zu erzählen, die Sie im letzten Abschnitt verwendet haben, sowie alles andere, was Sie für interessant halten.</t>
+  </si>
+  <si>
+    <t>PBET_2024_study_17</t>
+  </si>
+  <si>
+    <t>Try to sing the melody as best you can over the three attempts before you try to play it on your instrument. Then try to play it as best you can over the three attempts.</t>
+  </si>
+  <si>
+    <t>Versuchen Sie, die Melodie so gut wie möglich während der drei Versuche zu singen, bevor Sie sie auf Ihrem Instrument spielen. Versuchen Sie dann, sie so gut wie möglich während der drei Versuche zu spielen.</t>
   </si>
 </sst>
 </file>
@@ -4198,10 +4227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
-  <dimension ref="A1:E330"/>
+  <dimension ref="A1:E333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B42" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A172" sqref="A172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4976,205 +5005,205 @@
         <v>737</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
+    <row r="46" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
         <v>1147</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B47" s="7" t="s">
         <v>1148</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>1148</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D47" s="7" t="s">
         <v>1148</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E47" s="7" t="s">
         <v>1148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>1092</v>
+        <v>18</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>470</v>
+        <v>108</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>471</v>
+        <v>109</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>472</v>
+        <v>109</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>666</v>
+        <v>1092</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>609</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>1053</v>
+        <v>470</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1054</v>
+        <v>471</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>1055</v>
+        <v>472</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>1056</v>
+        <v>666</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>1057</v>
+        <v>609</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>1053</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>98</v>
+        <v>1054</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>315</v>
+        <v>1055</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>224</v>
+        <v>1056</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>535</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>452</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>453</v>
+        <v>98</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>468</v>
+        <v>315</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>659</v>
+        <v>224</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>602</v>
+        <v>535</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>360</v>
+        <v>452</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>360</v>
+        <v>453</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>291</v>
+        <v>468</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>633</v>
+        <v>659</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>738</v>
+        <v>360</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>739</v>
+        <v>360</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>739</v>
+        <v>291</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>740</v>
+        <v>633</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>739</v>
+        <v>576</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>1205</v>
+        <v>738</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1240</v>
+        <v>739</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>845</v>
+        <v>739</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>1152</v>
+        <v>740</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>845</v>
+        <v>739</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>863</v>
+        <v>1205</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>864</v>
+        <v>1240</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>845</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>875</v>
+        <v>1152</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>859</v>
+        <v>1242</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>860</v>
+        <v>1243</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>879</v>
+      <c r="D57" s="6" t="s">
+        <v>1241</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>845</v>
@@ -5182,16 +5211,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>845</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>845</v>
@@ -5199,152 +5228,152 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>19</v>
+        <v>859</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>20</v>
+        <v>860</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>20</v>
+        <v>845</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>20</v>
+        <v>879</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>20</v>
+        <v>845</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>955</v>
+        <v>862</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>956</v>
+        <v>861</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>956</v>
+        <v>845</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>957</v>
+        <v>874</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>956</v>
+        <v>845</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>338</v>
+        <v>20</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>562</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>450</v>
+        <v>955</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>451</v>
+        <v>956</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>467</v>
+        <v>956</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>658</v>
+        <v>957</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>601</v>
+        <v>956</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>1093</v>
+        <v>165</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1094</v>
+        <v>166</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>1094</v>
+        <v>338</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>1095</v>
+        <v>240</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>1094</v>
+        <v>562</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>76</v>
+        <v>450</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>154</v>
+        <v>451</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>302</v>
+        <v>467</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>215</v>
+        <v>658</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>522</v>
+        <v>601</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>152</v>
+        <v>1093</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1125</v>
+        <v>1094</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>845</v>
+        <v>1094</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>1127</v>
+        <v>1095</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>845</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>845</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>845</v>
@@ -5352,642 +5381,642 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>94</v>
+        <v>1126</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>94</v>
+        <v>845</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>1096</v>
+        <v>1128</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>94</v>
+        <v>845</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>696</v>
+        <v>85</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>697</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>697</v>
+        <v>308</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>698</v>
+        <v>218</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>697</v>
+        <v>528</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>261</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>320</v>
+        <v>94</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>262</v>
+        <v>1096</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>541</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>942</v>
+        <v>696</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>943</v>
+        <v>697</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>845</v>
+        <v>697</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>944</v>
+        <v>698</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>845</v>
+        <v>697</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>74</v>
+        <v>261</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>507</v>
+        <v>541</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>45</v>
+        <v>942</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>2</v>
+        <v>943</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>2</v>
+        <v>845</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>178</v>
+        <v>944</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>2</v>
+        <v>845</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1097</v>
+        <v>74</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>1097</v>
+        <v>288</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>1098</v>
+        <v>208</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>1099</v>
+        <v>2</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>1099</v>
+        <v>2</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>1100</v>
+        <v>178</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>1097</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>248</v>
+        <v>1097</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>267</v>
+        <v>1097</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E80" s="2" t="s">
         <v>558</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>1124</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>1213</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="D80" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
         <v>1206</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>1207</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="C83" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D83" t="s">
         <v>1216</v>
       </c>
-      <c r="E81" s="6" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="D82" t="s">
-        <v>1217</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>1212</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="D83" t="s">
-        <v>1218</v>
-      </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" s="6" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>37</v>
+        <v>1211</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>38</v>
+        <v>1209</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>192</v>
+        <v>845</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1217</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>509</v>
+        <v>845</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>72</v>
+        <v>1212</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>195</v>
+        <v>1210</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>213</v>
+        <v>845</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1218</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>520</v>
+        <v>845</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>741</v>
+        <v>37</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>742</v>
+        <v>38</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>742</v>
+        <v>289</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>743</v>
+        <v>192</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>742</v>
+        <v>509</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>382</v>
+        <v>72</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>382</v>
+        <v>195</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>427</v>
+        <v>301</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>645</v>
+        <v>213</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>587</v>
+        <v>520</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>129</v>
+        <v>741</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>130</v>
+        <v>742</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>331</v>
+        <v>742</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>138</v>
+        <v>743</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>553</v>
+        <v>742</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>895</v>
+        <v>129</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>882</v>
+        <v>130</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>882</v>
+        <v>331</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>908</v>
+        <v>138</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>882</v>
+        <v>553</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>896</v>
+        <v>359</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>883</v>
+        <v>359</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>883</v>
+        <v>414</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>909</v>
+        <v>632</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>883</v>
+        <v>575</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>897</v>
+        <v>906</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>884</v>
+        <v>893</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>884</v>
+        <v>893</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>910</v>
+        <v>919</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>884</v>
+        <v>893</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>885</v>
+        <v>894</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>885</v>
+        <v>894</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>911</v>
+        <v>920</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>885</v>
+        <v>894</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>868</v>
+        <v>903</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>867</v>
+        <v>890</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>845</v>
+        <v>890</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>877</v>
+        <v>916</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>845</v>
+        <v>890</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>869</v>
+        <v>904</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>871</v>
+        <v>891</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>845</v>
+        <v>891</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>878</v>
+        <v>917</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>845</v>
+        <v>891</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>845</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>845</v>
@@ -5995,33 +6024,33 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>924</v>
+        <v>869</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>922</v>
+        <v>871</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>921</v>
+        <v>845</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>923</v>
+        <v>878</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>921</v>
+        <v>845</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>845</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>845</v>
@@ -6029,33 +6058,33 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>941</v>
+        <v>922</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>845</v>
+        <v>921</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>940</v>
+        <v>923</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>845</v>
+        <v>921</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>1166</v>
+        <v>865</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>1167</v>
+        <v>866</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>845</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>1168</v>
+        <v>876</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>845</v>
@@ -6063,934 +6092,934 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>736</v>
+        <v>939</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>711</v>
+        <v>941</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>711</v>
+        <v>845</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>712</v>
+        <v>940</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>948</v>
+        <v>845</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>259</v>
+        <v>1166</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>258</v>
+        <v>1167</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>327</v>
+        <v>845</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>257</v>
+        <v>1168</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>548</v>
+        <v>845</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>256</v>
+        <v>736</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>255</v>
+        <v>711</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>328</v>
+        <v>711</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>254</v>
+        <v>712</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>549</v>
+        <v>948</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>461</v>
+        <v>256</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>464</v>
+        <v>255</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>464</v>
+        <v>328</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>663</v>
+        <v>254</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>606</v>
+        <v>549</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>462</v>
+        <v>253</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>465</v>
+        <v>252</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>465</v>
+        <v>333</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>664</v>
+        <v>252</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>607</v>
+        <v>550</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>172</v>
+        <v>462</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>326</v>
+        <v>465</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>623</v>
+        <v>664</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>547</v>
+        <v>607</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>449</v>
+        <v>172</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>119</v>
+        <v>474</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>231</v>
+        <v>623</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>744</v>
+        <v>449</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>1204</v>
+        <v>119</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>1204</v>
+        <v>325</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>745</v>
+        <v>231</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>1204</v>
+        <v>546</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>1</v>
+        <v>459</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>266</v>
+        <v>459</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>177</v>
+        <v>661</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>484</v>
+        <v>604</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>26</v>
+        <v>744</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>27</v>
+        <v>1204</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>284</v>
+        <v>1204</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>206</v>
+        <v>745</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>502</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>264</v>
+        <v>31</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>719</v>
+        <v>34</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>719</v>
+        <v>264</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>719</v>
+        <v>290</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>724</v>
+        <v>207</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>952</v>
+        <v>506</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>716</v>
+        <v>28</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>715</v>
+        <v>29</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>715</v>
+        <v>285</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>725</v>
+        <v>188</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>715</v>
+        <v>503</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>249</v>
+        <v>719</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>250</v>
+        <v>719</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>269</v>
+        <v>719</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>615</v>
+        <v>724</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>486</v>
+        <v>952</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>120</v>
+        <v>716</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>120</v>
+        <v>715</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>329</v>
+        <v>715</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>232</v>
+        <v>725</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>551</v>
+        <v>715</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>50</v>
+        <v>249</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>171</v>
+        <v>250</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>202</v>
+        <v>615</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>372</v>
+        <v>120</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>370</v>
+        <v>120</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>421</v>
+        <v>329</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>639</v>
+        <v>232</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>873</v>
+        <v>551</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>373</v>
+        <v>50</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>371</v>
+        <v>171</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>446</v>
+        <v>272</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>640</v>
+        <v>202</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>582</v>
+        <v>490</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>583</v>
+        <v>873</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>51</v>
+        <v>373</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>55</v>
+        <v>371</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>270</v>
+        <v>446</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>201</v>
+        <v>640</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>487</v>
+        <v>582</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>52</v>
+        <v>374</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>182</v>
+        <v>375</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>271</v>
+        <v>422</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>616</v>
+        <v>641</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>488</v>
+        <v>583</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>251</v>
+        <v>55</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>445</v>
+        <v>270</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>617</v>
+        <v>201</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>3</v>
+        <v>182</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>181</v>
+        <v>616</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>40</v>
+        <v>251</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>292</v>
+        <v>445</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>209</v>
+        <v>617</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>356</v>
+        <v>53</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>355</v>
+        <v>3</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>413</v>
+        <v>268</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>630</v>
+        <v>181</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>573</v>
+        <v>485</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>746</v>
+        <v>39</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>746</v>
+        <v>40</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>746</v>
+        <v>292</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>746</v>
+        <v>209</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>746</v>
+        <v>510</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>44</v>
+        <v>356</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>953</v>
+        <v>355</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>295</v>
+        <v>413</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>954</v>
+        <v>630</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>514</v>
+        <v>573</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>926</v>
+        <v>746</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>925</v>
+        <v>746</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>925</v>
+        <v>746</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>927</v>
+        <v>746</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>925</v>
+        <v>746</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>67</v>
+        <v>953</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>193</v>
+        <v>954</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>6</v>
+        <v>926</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>6</v>
+        <v>925</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>1118</v>
+        <v>925</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E146" s="5" t="s">
-        <v>1119</v>
+        <v>927</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>42</v>
+        <v>298</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>145</v>
+        <v>6</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>332</v>
+        <v>1118</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>554</v>
+        <v>186</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>1119</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>304</v>
+        <v>42</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>398</v>
+        <v>144</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>434</v>
+        <v>332</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>653</v>
+        <v>146</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>596</v>
+        <v>554</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>491</v>
+        <v>523</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>63</v>
+        <v>398</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>274</v>
+        <v>434</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>618</v>
+        <v>653</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>492</v>
+        <v>596</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>353</v>
+        <v>60</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>412</v>
+        <v>273</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>629</v>
+        <v>184</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>572</v>
+        <v>491</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>361</v>
+        <v>63</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>361</v>
+        <v>62</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>416</v>
+        <v>274</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>577</v>
+        <v>492</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>81</v>
+        <v>353</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>95</v>
+        <v>354</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>306</v>
+        <v>412</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>216</v>
+        <v>629</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>526</v>
+        <v>572</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>960</v>
+        <v>361</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>961</v>
+        <v>361</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>961</v>
+        <v>416</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>962</v>
+        <v>634</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>961</v>
+        <v>577</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>727</v>
+        <v>81</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>720</v>
+        <v>95</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>720</v>
+        <v>306</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>726</v>
+        <v>216</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>949</v>
+        <v>526</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>713</v>
+        <v>960</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>714</v>
+        <v>961</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>714</v>
+        <v>961</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>721</v>
+        <v>962</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>950</v>
+        <v>961</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>21</v>
+        <v>727</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>22</v>
+        <v>720</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>22</v>
+        <v>720</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>22</v>
+        <v>726</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>22</v>
+        <v>949</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>43</v>
+        <v>713</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>43</v>
+        <v>714</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>294</v>
+        <v>714</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>137</v>
+        <v>721</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>513</v>
+        <v>950</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>330</v>
+        <v>22</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>246</v>
+        <v>22</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>552</v>
+        <v>22</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>820</v>
+        <v>43</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>821</v>
+        <v>43</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>845</v>
+        <v>294</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>846</v>
+        <v>137</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>845</v>
+        <v>513</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>835</v>
+        <v>127</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>836</v>
+        <v>128</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>845</v>
+        <v>330</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>854</v>
+        <v>246</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>845</v>
+        <v>552</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>837</v>
+        <v>820</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>838</v>
+        <v>821</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>845</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>845</v>
@@ -6998,16 +7027,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>845</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>845</v>
@@ -7015,16 +7044,16 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>845</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>845</v>
@@ -7032,101 +7061,101 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B169" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="D167" s="2" t="s">
+      <c r="C169" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D169" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="E167" s="2" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A168" s="2" t="s">
+      <c r="E169" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B170" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="D168" s="6" t="s">
+      <c r="C170" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D170" s="6" t="s">
         <v>1151</v>
       </c>
-      <c r="E168" s="2" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A169" s="2" t="s">
+      <c r="E170" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
         <v>1239</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B171" s="2" t="s">
         <v>1237</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="D169" s="6" t="s">
+      <c r="C171" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D171" s="6" t="s">
         <v>1238</v>
       </c>
-      <c r="E169" s="2" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A171" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>846</v>
-      </c>
       <c r="E171" s="2" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>828</v>
+        <v>1247</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>827</v>
+        <v>1248</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="D172" s="2" t="s">
-        <v>850</v>
+      <c r="D172" s="6" t="s">
+        <v>1249</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>845</v>
@@ -7134,16 +7163,16 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>845</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>845</v>
@@ -7151,16 +7180,16 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>881</v>
+        <v>826</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>845</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>845</v>
@@ -7168,16 +7197,16 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>845</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>845</v>
@@ -7185,84 +7214,84 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B179" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="D176" s="2" t="s">
+      <c r="C179" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="E176" s="2" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="D177" t="s">
-        <v>1201</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" s="1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="D178" t="s">
-        <v>1195</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" s="1" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="D179" t="s">
-        <v>1196</v>
-      </c>
-      <c r="E179" s="1" t="s">
+      <c r="E179" s="2" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>1164</v>
+        <v>1153</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1183</v>
+        <v>1165</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>845</v>
       </c>
       <c r="D180" t="s">
-        <v>1197</v>
+        <v>1201</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>845</v>
@@ -7270,33 +7299,33 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>1187</v>
+        <v>1162</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>845</v>
       </c>
       <c r="D181" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" s="8" t="s">
-        <v>1188</v>
+      <c r="A182" s="1" t="s">
+        <v>1163</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>845</v>
       </c>
       <c r="D182" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>845</v>
@@ -7304,16 +7333,16 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>1154</v>
+        <v>1164</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1172</v>
+        <v>1183</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>845</v>
       </c>
       <c r="D183" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>845</v>
@@ -7321,33 +7350,33 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>1155</v>
+        <v>1187</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1173</v>
+        <v>1184</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>845</v>
       </c>
       <c r="D184" t="s">
-        <v>1175</v>
+        <v>1198</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185" s="1" t="s">
-        <v>1156</v>
+      <c r="A185" s="8" t="s">
+        <v>1188</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1174</v>
+        <v>1185</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>1203</v>
+      <c r="D185" t="s">
+        <v>1199</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>845</v>
@@ -7355,16 +7384,16 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>845</v>
       </c>
       <c r="D186" t="s">
-        <v>1190</v>
+        <v>1202</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>845</v>
@@ -7372,16 +7401,16 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>845</v>
       </c>
       <c r="D187" t="s">
-        <v>1191</v>
+        <v>1175</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>845</v>
@@ -7389,16 +7418,16 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="D188" t="s">
-        <v>1192</v>
+      <c r="D188" s="1" t="s">
+        <v>1203</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>845</v>
@@ -7406,16 +7435,16 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>845</v>
       </c>
       <c r="D189" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>845</v>
@@ -7423,16 +7452,16 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>845</v>
       </c>
       <c r="D190" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>845</v>
@@ -7440,186 +7469,186 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B194" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="C191" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="D191" t="s">
+      <c r="C194" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D194" t="s">
         <v>1200</v>
       </c>
-      <c r="E191" s="1" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>751</v>
+      <c r="E194" s="1" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>753</v>
+        <v>734</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>755</v>
+        <v>819</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>1101</v>
+        <v>747</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>1102</v>
+        <v>748</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>1102</v>
+        <v>748</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>1103</v>
+        <v>749</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>1102</v>
+        <v>748</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>79</v>
+        <v>750</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>79</v>
+        <v>751</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>79</v>
+        <v>751</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>198</v>
+        <v>752</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>524</v>
+        <v>751</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>825</v>
+        <v>753</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>825</v>
+        <v>754</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>845</v>
+        <v>754</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>849</v>
+        <v>755</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>845</v>
+        <v>754</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>167</v>
+        <v>1101</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>168</v>
+        <v>1102</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>339</v>
+        <v>1102</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>241</v>
+        <v>1103</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>563</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>1230</v>
+        <v>79</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>1231</v>
+        <v>79</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="D200" t="s">
-        <v>1232</v>
+        <v>79</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>845</v>
+        <v>524</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>1233</v>
+        <v>825</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>1234</v>
+        <v>825</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>845</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>1235</v>
+        <v>849</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>845</v>
@@ -7627,50 +7656,50 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>936</v>
+        <v>167</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>937</v>
+        <v>168</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>937</v>
+        <v>339</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>938</v>
+        <v>241</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>845</v>
+        <v>563</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>1222</v>
+        <v>1230</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>1223</v>
+        <v>1231</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="D203" s="2" t="s">
-        <v>1224</v>
+      <c r="D203" t="s">
+        <v>1232</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="D204" s="6" t="s">
-        <v>1226</v>
+      <c r="D204" s="2" t="s">
+        <v>1235</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>845</v>
@@ -7678,1767 +7707,1767 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>35</v>
+        <v>936</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>36</v>
+        <v>937</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>291</v>
+        <v>937</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>191</v>
+        <v>938</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>508</v>
+        <v>845</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>358</v>
+        <v>1222</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>357</v>
+        <v>1223</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>415</v>
+        <v>845</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>631</v>
+        <v>1224</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>176</v>
+        <v>1236</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>175</v>
+        <v>1225</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>243</v>
+        <v>845</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>1226</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>566</v>
+        <v>845</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>163</v>
+        <v>36</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>425</v>
+        <v>291</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>560</v>
+        <v>508</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>164</v>
+        <v>358</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>160</v>
+        <v>357</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>336</v>
+        <v>415</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>237</v>
+        <v>631</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>624</v>
+        <v>238</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>381</v>
+        <v>164</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>380</v>
+        <v>160</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>426</v>
+        <v>336</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>644</v>
+        <v>237</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>586</v>
+        <v>559</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>323</v>
+        <v>448</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>454</v>
+        <v>147</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>455</v>
+        <v>148</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>660</v>
+        <v>624</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>603</v>
+        <v>555</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>107</v>
+        <v>381</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>457</v>
+        <v>380</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>1104</v>
+        <v>644</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>457</v>
+        <v>586</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>391</v>
+        <v>455</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>430</v>
+        <v>469</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>123</v>
+        <v>457</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>275</v>
+        <v>457</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>203</v>
+        <v>1104</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>493</v>
+        <v>457</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>619</v>
+        <v>197</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>496</v>
+        <v>525</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>57</v>
+        <v>390</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>124</v>
+        <v>391</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>276</v>
+        <v>430</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>204</v>
+        <v>650</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>494</v>
+        <v>592</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>210</v>
+        <v>619</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>322</v>
+        <v>276</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>543</v>
+        <v>494</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>479</v>
+        <v>58</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>480</v>
+        <v>4</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>480</v>
+        <v>277</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>669</v>
+        <v>185</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>612</v>
+        <v>495</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>379</v>
+        <v>61</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>378</v>
+        <v>125</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>424</v>
+        <v>296</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>643</v>
+        <v>210</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>585</v>
+        <v>515</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>705</v>
+        <v>116</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>706</v>
+        <v>115</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>706</v>
+        <v>322</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>707</v>
+        <v>228</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>706</v>
+        <v>543</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>731</v>
+        <v>479</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>732</v>
+        <v>480</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>732</v>
+        <v>480</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>733</v>
+        <v>669</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>732</v>
+        <v>612</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>756</v>
+        <v>379</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>757</v>
+        <v>378</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>757</v>
+        <v>424</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>758</v>
+        <v>643</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>757</v>
+        <v>585</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>759</v>
+        <v>705</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>760</v>
+        <v>706</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>760</v>
+        <v>706</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>761</v>
+        <v>707</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>760</v>
+        <v>706</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>763</v>
+        <v>732</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>763</v>
+        <v>732</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>764</v>
+        <v>733</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>763</v>
+        <v>732</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>43</v>
+        <v>763</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>43</v>
+        <v>763</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>137</v>
+        <v>764</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>43</v>
+        <v>763</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>779</v>
+        <v>43</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>779</v>
+        <v>43</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>780</v>
+        <v>137</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>779</v>
+        <v>43</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>369</v>
+        <v>775</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>364</v>
+        <v>776</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>418</v>
+        <v>776</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>636</v>
+        <v>777</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>579</v>
+        <v>776</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>718</v>
+        <v>778</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>718</v>
+        <v>779</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>718</v>
+        <v>779</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>723</v>
+        <v>780</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>951</v>
+        <v>779</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>678</v>
+        <v>781</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>681</v>
+        <v>782</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>681</v>
+        <v>782</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>688</v>
+        <v>783</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>681</v>
+        <v>782</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>676</v>
+        <v>369</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>679</v>
+        <v>364</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>679</v>
+        <v>418</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>686</v>
+        <v>636</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>679</v>
+        <v>579</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>677</v>
+        <v>718</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>680</v>
+        <v>718</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>680</v>
+        <v>718</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>687</v>
+        <v>723</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>680</v>
+        <v>951</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>1029</v>
+        <v>678</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>1030</v>
+        <v>681</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>1031</v>
+        <v>681</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>1032</v>
+        <v>688</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>1033</v>
+        <v>681</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>1009</v>
+        <v>676</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>796</v>
+        <v>679</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>1010</v>
+        <v>679</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>1011</v>
+        <v>686</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>1012</v>
+        <v>679</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>1013</v>
+        <v>677</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>799</v>
+        <v>680</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>1014</v>
+        <v>680</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>220</v>
+        <v>687</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>1015</v>
+        <v>680</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>1016</v>
+        <v>1029</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>803</v>
+        <v>1030</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>1017</v>
+        <v>1031</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>1018</v>
+        <v>1032</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>1019</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>1020</v>
+        <v>1009</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>1021</v>
+        <v>796</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>1024</v>
+        <v>1013</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>1025</v>
+        <v>799</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>1026</v>
+        <v>1014</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>1027</v>
+        <v>220</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>1028</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>989</v>
+        <v>1016</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>990</v>
+        <v>803</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>991</v>
+        <v>1017</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>992</v>
+        <v>1018</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>993</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>994</v>
+        <v>1020</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>995</v>
+        <v>1021</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>996</v>
+        <v>1017</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>997</v>
+        <v>1022</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>998</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>999</v>
+        <v>1024</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>1000</v>
+        <v>1025</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>1001</v>
+        <v>1026</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>1002</v>
+        <v>1027</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>1003</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>1004</v>
+        <v>989</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>1005</v>
+        <v>990</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>1006</v>
+        <v>991</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>1007</v>
+        <v>992</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>1008</v>
+        <v>993</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>971</v>
+        <v>994</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>972</v>
+        <v>995</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>973</v>
+        <v>996</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>972</v>
+        <v>997</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>974</v>
+        <v>998</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>975</v>
+        <v>999</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>976</v>
+        <v>1000</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>977</v>
+        <v>1001</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>978</v>
+        <v>1002</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>979</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>980</v>
+        <v>1004</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>981</v>
+        <v>1005</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>982</v>
+        <v>1006</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>983</v>
+        <v>1007</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>984</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>985</v>
+        <v>971</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>754</v>
+        <v>972</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>986</v>
+        <v>973</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>987</v>
+        <v>972</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>988</v>
+        <v>974</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>383</v>
+        <v>975</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>384</v>
+        <v>976</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>442</v>
+        <v>977</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>646</v>
+        <v>978</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>588</v>
+        <v>979</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>142</v>
+        <v>980</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>143</v>
+        <v>981</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>143</v>
+        <v>982</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>233</v>
+        <v>983</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>143</v>
+        <v>984</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>139</v>
+        <v>985</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>140</v>
+        <v>754</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>140</v>
+        <v>986</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>141</v>
+        <v>987</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>140</v>
+        <v>988</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>7</v>
+        <v>383</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>8</v>
+        <v>384</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>279</v>
+        <v>442</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>620</v>
+        <v>646</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>497</v>
+        <v>588</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>280</v>
+        <v>143</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>621</v>
+        <v>233</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>498</v>
+        <v>143</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>345</v>
+        <v>139</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>344</v>
+        <v>140</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>409</v>
+        <v>140</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>626</v>
+        <v>141</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>568</v>
+        <v>140</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>934</v>
+        <v>7</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>934</v>
+        <v>8</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>845</v>
+        <v>279</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>935</v>
+        <v>620</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>845</v>
+        <v>497</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>822</v>
+        <v>9</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>822</v>
+        <v>10</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>845</v>
+        <v>280</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>847</v>
+        <v>621</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>845</v>
+        <v>498</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>693</v>
+        <v>345</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>694</v>
+        <v>409</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>695</v>
+        <v>626</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>694</v>
+        <v>568</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>708</v>
+        <v>934</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>709</v>
+        <v>934</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>709</v>
+        <v>845</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>710</v>
+        <v>935</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>709</v>
+        <v>845</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>1062</v>
+        <v>822</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>1063</v>
+        <v>822</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>1063</v>
+        <v>845</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>1064</v>
+        <v>847</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>1065</v>
+        <v>845</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>1058</v>
+        <v>693</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>1059</v>
+        <v>694</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>1059</v>
+        <v>694</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>1060</v>
+        <v>695</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>1061</v>
+        <v>694</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>161</v>
+        <v>708</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>162</v>
+        <v>709</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>337</v>
+        <v>709</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>239</v>
+        <v>710</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>561</v>
+        <v>709</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>1078</v>
+        <v>1062</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>1079</v>
+        <v>1063</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>1079</v>
+        <v>1063</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>1080</v>
+        <v>1064</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>1081</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>1074</v>
+        <v>1058</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>1075</v>
+        <v>1059</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>1075</v>
+        <v>1059</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>1076</v>
+        <v>1060</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>1077</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>388</v>
+        <v>161</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>389</v>
+        <v>162</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>429</v>
+        <v>337</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>649</v>
+        <v>239</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>591</v>
+        <v>561</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>387</v>
+        <v>1078</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>100</v>
+        <v>1079</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>428</v>
+        <v>1079</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>648</v>
+        <v>1080</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>590</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>103</v>
+        <v>1074</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>100</v>
+        <v>1075</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>317</v>
+        <v>1075</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>226</v>
+        <v>1076</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>537</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>1034</v>
+        <v>388</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>1035</v>
+        <v>389</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>1036</v>
+        <v>429</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>1037</v>
+        <v>649</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>1038</v>
+        <v>591</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>1039</v>
+        <v>387</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>1040</v>
+        <v>100</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>1041</v>
+        <v>428</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>1042</v>
+        <v>648</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>1043</v>
+        <v>590</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>1044</v>
+        <v>103</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>1045</v>
+        <v>100</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>1046</v>
+        <v>317</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>1047</v>
+        <v>226</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>1048</v>
+        <v>537</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>406</v>
+        <v>1034</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>407</v>
+        <v>1035</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>441</v>
+        <v>1036</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>657</v>
+        <v>1037</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>600</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>403</v>
+        <v>1039</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>402</v>
+        <v>1040</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>439</v>
+        <v>1041</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>655</v>
+        <v>1042</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>598</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>405</v>
+        <v>1044</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>404</v>
+        <v>1045</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>440</v>
+        <v>1046</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>656</v>
+        <v>1047</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>599</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>316</v>
+        <v>441</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>1070</v>
+        <v>403</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>1071</v>
+        <v>402</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>1071</v>
+        <v>439</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>1072</v>
+        <v>655</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>1073</v>
+        <v>598</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>1066</v>
+        <v>405</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>1067</v>
+        <v>404</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>1067</v>
+        <v>440</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>1068</v>
+        <v>656</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>1069</v>
+        <v>599</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>70</v>
+        <v>386</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>71</v>
+        <v>385</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>194</v>
+        <v>647</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>519</v>
+        <v>589</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>362</v>
+        <v>1070</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>363</v>
+        <v>1071</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>417</v>
+        <v>1071</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>635</v>
+        <v>1072</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>578</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>1105</v>
+        <v>1066</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>1106</v>
+        <v>1067</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>1106</v>
+        <v>1067</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>1107</v>
+        <v>1068</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>1106</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>377</v>
+        <v>70</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>376</v>
+        <v>71</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>423</v>
+        <v>300</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>642</v>
+        <v>194</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>584</v>
+        <v>519</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>122</v>
+        <v>362</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>122</v>
+        <v>363</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>122</v>
+        <v>417</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>1120</v>
+        <v>635</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>122</v>
+        <v>578</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>475</v>
+        <v>1105</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>476</v>
+        <v>1106</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>476</v>
+        <v>1106</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>667</v>
+        <v>1107</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>610</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>928</v>
+        <v>377</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>929</v>
+        <v>376</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>929</v>
+        <v>423</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>930</v>
+        <v>642</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>929</v>
+        <v>584</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>1049</v>
+        <v>122</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>972</v>
+        <v>122</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>1050</v>
+        <v>122</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>1051</v>
+        <v>1120</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>1052</v>
+        <v>122</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>1108</v>
+        <v>475</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>1109</v>
+        <v>476</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>1109</v>
+        <v>476</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>1110</v>
+        <v>667</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>1109</v>
+        <v>610</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>104</v>
+        <v>928</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>682</v>
+        <v>929</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>319</v>
+        <v>929</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>245</v>
+        <v>930</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>539</v>
+        <v>929</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>105</v>
+        <v>1049</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>106</v>
+        <v>972</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>456</v>
+        <v>1050</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>244</v>
+        <v>1051</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>540</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>784</v>
+        <v>1108</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>785</v>
+        <v>1109</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>786</v>
+        <v>1109</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>787</v>
+        <v>1110</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>785</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>788</v>
+        <v>104</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>789</v>
+        <v>682</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>789</v>
+        <v>319</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>790</v>
+        <v>245</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>789</v>
+        <v>539</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>791</v>
+        <v>105</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>792</v>
+        <v>106</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>793</v>
+        <v>456</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>794</v>
+        <v>244</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>793</v>
+        <v>540</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>1169</v>
+        <v>807</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>1171</v>
+        <v>808</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>845</v>
+        <v>808</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>1170</v>
+        <v>809</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>845</v>
+        <v>808</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>348</v>
+        <v>810</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>349</v>
+        <v>811</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>410</v>
+        <v>811</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>350</v>
+        <v>812</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>570</v>
+        <v>811</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>481</v>
+        <v>813</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>958</v>
+        <v>814</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>482</v>
+        <v>814</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>959</v>
+        <v>814</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>613</v>
+        <v>814</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>963</v>
+        <v>1169</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>964</v>
+        <v>1171</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>845</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>965</v>
+        <v>1170</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>845</v>
@@ -9446,382 +9475,433 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>842</v>
+        <v>348</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>842</v>
+        <v>349</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>842</v>
+        <v>410</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>857</v>
+        <v>350</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>857</v>
+        <v>570</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
-        <v>1219</v>
+        <v>481</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>1221</v>
+        <v>958</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="D310" t="s">
-        <v>1220</v>
+        <v>482</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>959</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>845</v>
+        <v>613</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>815</v>
+        <v>963</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>816</v>
+        <v>964</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>816</v>
+        <v>845</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>817</v>
+        <v>965</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>816</v>
+        <v>845</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>169</v>
+        <v>842</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>170</v>
+        <v>842</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>340</v>
+        <v>842</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>242</v>
+        <v>857</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>564</v>
+        <v>857</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>1111</v>
+        <v>1219</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>1112</v>
+        <v>1221</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D313" s="2" t="s">
-        <v>1113</v>
+        <v>845</v>
+      </c>
+      <c r="D313" t="s">
+        <v>1220</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>1112</v>
+        <v>845</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>1114</v>
+        <v>815</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>1115</v>
+        <v>816</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>1115</v>
+        <v>816</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>1116</v>
+        <v>817</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>1115</v>
+        <v>816</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>111</v>
+        <v>340</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>1117</v>
+        <v>242</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>111</v>
+        <v>564</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>1227</v>
+        <v>1111</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>1229</v>
+        <v>1112</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="D316" t="s">
-        <v>1228</v>
+        <v>1112</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>1113</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>845</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A317" s="7" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B317" s="7" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C317" s="7" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D317" s="7" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E317" s="7" t="s">
-        <v>1144</v>
+      <c r="A317" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A318" s="7" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B318" s="7" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C318" s="7" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D318" s="7" t="s">
-        <v>1142</v>
-      </c>
-      <c r="E318" s="7" t="s">
-        <v>1142</v>
+      <c r="A318" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>690</v>
+        <v>1227</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>691</v>
+        <v>1229</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="D319" s="2" t="s">
-        <v>692</v>
+        <v>845</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1228</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>691</v>
+        <v>845</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A320" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="B320" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="C320" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="D320" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="E320" s="2" t="s">
-        <v>748</v>
+      <c r="A320" s="7" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B320" s="7" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C320" s="7" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D320" s="7" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E320" s="7" t="s">
+        <v>1144</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A321" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="B321" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="C321" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="D321" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="E321" s="2" t="s">
-        <v>700</v>
+      <c r="A321" s="7" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B321" s="7" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C321" s="7" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D321" s="7" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E321" s="7" t="s">
+        <v>1142</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B322" s="3" t="s">
-        <v>432</v>
+        <v>690</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>691</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="D322" s="3" t="s">
-        <v>652</v>
+        <v>691</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>692</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>594</v>
+        <v>691</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
-        <v>41</v>
+        <v>818</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>41</v>
+        <v>748</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>293</v>
+        <v>748</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>135</v>
+        <v>749</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>511</v>
+        <v>748</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
-        <v>395</v>
+        <v>699</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>396</v>
+        <v>700</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>310</v>
+        <v>700</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>220</v>
+        <v>701</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>531</v>
+        <v>700</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B325" s="2" t="s">
-        <v>174</v>
+        <v>394</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>432</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="D325" s="2" t="s">
-        <v>247</v>
+        <v>433</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>652</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>565</v>
+        <v>594</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
-        <v>968</v>
+        <v>41</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>967</v>
+        <v>41</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>845</v>
+        <v>293</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>966</v>
+        <v>135</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>845</v>
+        <v>511</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
-        <v>83</v>
+        <v>395</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>96</v>
+        <v>396</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
-        <v>702</v>
+        <v>173</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>703</v>
+        <v>174</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>703</v>
+        <v>341</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>704</v>
+        <v>247</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>703</v>
+        <v>565</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
-        <v>64</v>
+        <v>968</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>65</v>
+        <v>967</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>297</v>
+        <v>845</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>211</v>
+        <v>966</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>516</v>
+        <v>845</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A331" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A332" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A333" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B330" s="2" t="s">
+      <c r="B333" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C330" s="2" t="s">
+      <c r="C333" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D330" s="2" t="s">
+      <c r="D333" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E330" s="2" t="s">
+      <c r="E333" s="2" t="s">
         <v>518</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E132" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E330">
-    <sortCondition ref="A2:A330"/>
+  <autoFilter ref="A1:E134" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E333">
+    <sortCondition ref="A2:A333"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66336BEB-0877-EC40-9F81-3A70DEC86AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D21088E-538F-504C-BF83-342F8ED3E030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="2380" windowWidth="35840" windowHeight="18820" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="18820" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="1250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="1340">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -3823,6 +3823,276 @@
   </si>
   <si>
     <t>Versuchen Sie, die Melodie so gut wie möglich während der drei Versuche zu singen, bevor Sie sie auf Ihrem Instrument spielen. Versuchen Sie dann, sie so gut wie möglich während der drei Versuche zu spielen.</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Frage</t>
+  </si>
+  <si>
+    <t>strongly_disagree</t>
+  </si>
+  <si>
+    <t>Strongly Disagree</t>
+  </si>
+  <si>
+    <t>Stimme überhaupt nicht zu</t>
+  </si>
+  <si>
+    <t>disagree</t>
+  </si>
+  <si>
+    <t>Disagree</t>
+  </si>
+  <si>
+    <t>Stimme nicht zu</t>
+  </si>
+  <si>
+    <t>neither_agree_nor_disagree</t>
+  </si>
+  <si>
+    <t>Neither agree nor disagree</t>
+  </si>
+  <si>
+    <t>Weder zustimmen noch ablehnen</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>Agree</t>
+  </si>
+  <si>
+    <t>Stimme zu</t>
+  </si>
+  <si>
+    <t>strongly_agree</t>
+  </si>
+  <si>
+    <t>Strongly Agree</t>
+  </si>
+  <si>
+    <t>Stimme vollkommen zu</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>Nie</t>
+  </si>
+  <si>
+    <t>rarely</t>
+  </si>
+  <si>
+    <t>Rarely</t>
+  </si>
+  <si>
+    <t>Selten</t>
+  </si>
+  <si>
+    <t>sometimes</t>
+  </si>
+  <si>
+    <t>Sometimes</t>
+  </si>
+  <si>
+    <t>Manchmal</t>
+  </si>
+  <si>
+    <t>very_often</t>
+  </si>
+  <si>
+    <t>Very often</t>
+  </si>
+  <si>
+    <t>Sehr oft</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>Always</t>
+  </si>
+  <si>
+    <t>Immer</t>
+  </si>
+  <si>
+    <t>i_am_a_musician</t>
+  </si>
+  <si>
+    <t>I am a (you may select more than one)</t>
+  </si>
+  <si>
+    <t>Ich bin ein(e) (mehrere Antworten möglich)</t>
+  </si>
+  <si>
+    <t>professional_musician</t>
+  </si>
+  <si>
+    <t>Full- or part-time professional musician</t>
+  </si>
+  <si>
+    <t>Berufsmusiker(in)</t>
+  </si>
+  <si>
+    <t>postgraduate_music_student</t>
+  </si>
+  <si>
+    <t>Postgraduate music student</t>
+  </si>
+  <si>
+    <t>Postgradualer Musikstudent(in)</t>
+  </si>
+  <si>
+    <t>undergraduate_music_student</t>
+  </si>
+  <si>
+    <t>Undergraduate music student</t>
+  </si>
+  <si>
+    <t>Bachelor-Musikstudent(in)</t>
+  </si>
+  <si>
+    <t>instrumental_student</t>
+  </si>
+  <si>
+    <t>Instrumental student without higher education training</t>
+  </si>
+  <si>
+    <t>Instrumentalschüler(in) ohne Hochschulausbildung</t>
+  </si>
+  <si>
+    <t>amateur_adult</t>
+  </si>
+  <si>
+    <t>Amateur adult</t>
+  </si>
+  <si>
+    <t>Erwachsener Amateur</t>
+  </si>
+  <si>
+    <t>primary_genre_prompt</t>
+  </si>
+  <si>
+    <t>The primary genre of music I have learned and perform is:</t>
+  </si>
+  <si>
+    <t>Mein Hauptmusikgenre, das ich gelernt habe und aufführe, ist:</t>
+  </si>
+  <si>
+    <t>classical</t>
+  </si>
+  <si>
+    <t>Classical</t>
+  </si>
+  <si>
+    <t>Klassisch</t>
+  </si>
+  <si>
+    <t>jazz</t>
+  </si>
+  <si>
+    <t>Jazz</t>
+  </si>
+  <si>
+    <t>folk</t>
+  </si>
+  <si>
+    <t>Folk</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Andere</t>
+  </si>
+  <si>
+    <t>comfortable_memory_prompt</t>
+  </si>
+  <si>
+    <t>I feel comfortable playing from memory:</t>
+  </si>
+  <si>
+    <t>Ich fühle mich wohl, auswendig zu spielen:</t>
+  </si>
+  <si>
+    <t>practice_memory_prompt</t>
+  </si>
+  <si>
+    <t>I practice music from memory:</t>
+  </si>
+  <si>
+    <t>Ich übe Musik auswendig:</t>
+  </si>
+  <si>
+    <t>perform_memory_prompt</t>
+  </si>
+  <si>
+    <t>I perform solo repertoire from memory:</t>
+  </si>
+  <si>
+    <t>Ich führe Solorepertoire auswendig auf:</t>
+  </si>
+  <si>
+    <t>highest_grade_prompt</t>
+  </si>
+  <si>
+    <t>The highest grade I have passed on this instrument is:</t>
+  </si>
+  <si>
+    <t>Der höchste Grad, den ich auf diesem Instrument bestanden habe, ist:</t>
+  </si>
+  <si>
+    <t>not_sure</t>
+  </si>
+  <si>
+    <t>Not sure/not applicable</t>
+  </si>
+  <si>
+    <t>Nicht sicher/nicht anwendbar</t>
+  </si>
+  <si>
+    <t>perfect_pitch_prompt</t>
+  </si>
+  <si>
+    <t>Do you have perfect pitch?</t>
+  </si>
+  <si>
+    <t>Haben Sie absolutes Gehör?</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>thank_you_message</t>
+  </si>
+  <si>
+    <t>Thank you for completing the questionnaires!</t>
+  </si>
+  <si>
+    <t>Vielen Dank für das Ausfüllen der Fragebögen!</t>
+  </si>
+  <si>
+    <t>send_code_message</t>
+  </si>
+  <si>
+    <t>Please carefully send the following code back to the researcher to book your main test session:</t>
+  </si>
+  <si>
+    <t>Bitte senden Sie diesen Code sorgfältig an den Forscher, um Ihren Haupttest zu buchen:</t>
   </si>
 </sst>
 </file>
@@ -4227,10 +4497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
-  <dimension ref="A1:E333"/>
+  <dimension ref="A1:E365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A172" sqref="A172"/>
+    <sheetView tabSelected="1" topLeftCell="D352" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C335" sqref="C335:C365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9898,6 +10168,550 @@
         <v>518</v>
       </c>
     </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D334" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D335" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D336" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D337" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D338" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D339" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D340" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D341" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D342" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D343" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D344" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D345" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D346" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D347" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D348" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D349" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D350" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D351" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D352" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D353" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D354" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D355" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D356" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D357" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D358" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D359" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D360" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D361" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B362" t="s">
+        <v>41</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D362" t="s">
+        <v>135</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B363" t="s">
+        <v>42</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D363" t="s">
+        <v>136</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D364" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D365" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E134" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E333">

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD5562F-9219-B048-AA9D-96D01AC506DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69AD9F6-C5B1-DB4D-B465-C03B8C5407AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18820" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2581" uniqueCount="1358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2581" uniqueCount="1359">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -4147,6 +4147,9 @@
   </si>
   <si>
     <t>Stimme</t>
+  </si>
+  <si>
+    <t>Not sure</t>
   </si>
 </sst>
 </file>
@@ -4561,8 +4564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
   <dimension ref="A1:G369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D111" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
+    <sheetView tabSelected="1" topLeftCell="E145" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E158" sqref="E158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8186,7 +8189,7 @@
         <v>354</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>354</v>
+        <v>1358</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>409</v>

--- a/data-raw/musicassessr_dict.xlsx
+++ b/data-raw/musicassessr_dict.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/musicassessr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69AD9F6-C5B1-DB4D-B465-C03B8C5407AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75FA38A-55E3-9A42-9BEB-2E87152477CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18820" xr2:uid="{551E65E8-47F0-CE49-A457-DBD11DAE7EF5}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$E$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$E$137</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2581" uniqueCount="1359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2588" uniqueCount="1362">
   <si>
     <t>mar_can_hear</t>
   </si>
@@ -4150,6 +4150,15 @@
   </si>
   <si>
     <t>Not sure</t>
+  </si>
+  <si>
+    <t>electric_bass</t>
+  </si>
+  <si>
+    <t>Electric Bass</t>
+  </si>
+  <si>
+    <t>E-Bass</t>
   </si>
 </sst>
 </file>
@@ -4562,10 +4571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A169A32C-6679-F443-A7A2-ABDC5FD4F6B4}">
-  <dimension ref="A1:G369"/>
+  <dimension ref="A1:G370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E145" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E158" sqref="E158"/>
+    <sheetView tabSelected="1" topLeftCell="E41" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5681,20 +5690,20 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>109</v>
+      <c r="A49" s="7" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>812</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>812</v>
@@ -5705,19 +5714,19 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>463</v>
+        <v>108</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>464</v>
+        <v>109</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>465</v>
+        <v>109</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>650</v>
+        <v>1051</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>602</v>
+        <v>109</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>812</v>
@@ -5728,19 +5737,19 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>1288</v>
+        <v>463</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1289</v>
+        <v>464</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>812</v>
+        <v>465</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>1293</v>
+        <v>650</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>812</v>
+        <v>602</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>812</v>
@@ -5751,19 +5760,19 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>1012</v>
+        <v>1288</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1013</v>
+        <v>1289</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>1014</v>
+        <v>812</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>1015</v>
+        <v>1293</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>1016</v>
+        <v>812</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>812</v>
@@ -5774,19 +5783,19 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>1012</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>98</v>
+        <v>1013</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>308</v>
+        <v>1014</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>222</v>
+        <v>1015</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>528</v>
+        <v>1016</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>812</v>
@@ -5797,19 +5806,19 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>445</v>
+        <v>97</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>446</v>
+        <v>98</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>461</v>
+        <v>308</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>1294</v>
+        <v>222</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>812</v>
@@ -5820,19 +5829,19 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>353</v>
+        <v>445</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>353</v>
+        <v>446</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>284</v>
+        <v>461</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>623</v>
+        <v>1294</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>812</v>
@@ -5843,19 +5852,19 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>710</v>
+        <v>353</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>711</v>
+        <v>353</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>711</v>
+        <v>284</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>712</v>
+        <v>623</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>711</v>
+        <v>569</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>812</v>
@@ -5866,62 +5875,62 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>1187</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="D57" s="2" t="s">
+      <c r="C58" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>1109</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+      <c r="E58" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
         <v>1189</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>1190</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="D58" s="6" t="s">
+      <c r="C59" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>1188</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>842</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>812</v>
@@ -5935,16 +5944,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>812</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>812</v>
@@ -5958,16 +5967,16 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>812</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>812</v>
@@ -5981,19 +5990,19 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>19</v>
+        <v>829</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>20</v>
+        <v>828</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>20</v>
+        <v>812</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>20</v>
+        <v>841</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>20</v>
+        <v>812</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>812</v>
@@ -6004,19 +6013,19 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>920</v>
+        <v>19</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>921</v>
+        <v>20</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>921</v>
+        <v>20</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>922</v>
+        <v>20</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>921</v>
+        <v>20</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>812</v>
@@ -6027,19 +6036,19 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>165</v>
+        <v>920</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>166</v>
+        <v>921</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>331</v>
+        <v>921</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>234</v>
+        <v>922</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>555</v>
+        <v>921</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>812</v>
@@ -6050,19 +6059,19 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>443</v>
+        <v>165</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>444</v>
+        <v>166</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>460</v>
+        <v>331</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>643</v>
+        <v>234</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>594</v>
+        <v>555</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>812</v>
@@ -6073,19 +6082,19 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>1052</v>
+        <v>443</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1053</v>
+        <v>444</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>1053</v>
+        <v>460</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>1054</v>
+        <v>643</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>1053</v>
+        <v>594</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>812</v>
@@ -6096,19 +6105,19 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>76</v>
+        <v>1052</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>154</v>
+        <v>1053</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>295</v>
+        <v>1053</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>213</v>
+        <v>1054</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>515</v>
+        <v>1053</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>812</v>
@@ -6119,19 +6128,19 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1083</v>
+        <v>154</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>812</v>
+        <v>295</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>1085</v>
+        <v>213</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>812</v>
+        <v>515</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>812</v>
@@ -6142,19 +6151,19 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>153</v>
+        <v>1083</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>296</v>
+        <v>812</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>212</v>
+        <v>1085</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>514</v>
+        <v>812</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>812</v>
@@ -6165,19 +6174,19 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1084</v>
+        <v>153</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>812</v>
+        <v>296</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>1086</v>
+        <v>212</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>812</v>
+        <v>514</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>812</v>
@@ -6188,19 +6197,19 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>1084</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>301</v>
+        <v>812</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>216</v>
+        <v>1086</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>521</v>
+        <v>812</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>812</v>
@@ -6211,19 +6220,19 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>94</v>
+        <v>301</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>1310</v>
+        <v>216</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>521</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>812</v>
@@ -6234,19 +6243,19 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>672</v>
+        <v>84</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>673</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>673</v>
+        <v>94</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>673</v>
+        <v>94</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>812</v>
@@ -6257,19 +6266,19 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>112</v>
+        <v>672</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>254</v>
+        <v>673</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>313</v>
+        <v>673</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>255</v>
+        <v>1311</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>534</v>
+        <v>673</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>812</v>
@@ -6280,19 +6289,19 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>907</v>
+        <v>112</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>908</v>
+        <v>254</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>812</v>
+        <v>313</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>909</v>
+        <v>255</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>812</v>
+        <v>534</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>812</v>
@@ -6303,19 +6312,19 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>73</v>
+        <v>907</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>74</v>
+        <v>908</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>281</v>
+        <v>812</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>206</v>
+        <v>909</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>500</v>
+        <v>812</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>812</v>
@@ -6326,19 +6335,19 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>2</v>
+        <v>281</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>812</v>
@@ -6349,16 +6358,19 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>1055</v>
+        <v>2</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>1055</v>
+        <v>2</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>1056</v>
+        <v>178</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>812</v>
@@ -6369,19 +6381,16 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>812</v>
@@ -6392,19 +6401,19 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>242</v>
+        <v>1057</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>260</v>
+        <v>1057</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>607</v>
+        <v>1058</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>812</v>
@@ -6415,42 +6424,42 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E82" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>1160</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>812</v>
@@ -6461,19 +6470,19 @@
     </row>
     <row r="83" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>1165</v>
+        <v>667</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1166</v>
+        <v>667</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="D83" t="s">
-        <v>1167</v>
+        <v>1081</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>1082</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>812</v>
+        <v>1160</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>812</v>
@@ -6484,41 +6493,41 @@
     </row>
     <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>1159</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="C85" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D85" t="s">
         <v>1168</v>
       </c>
-      <c r="E84" s="6" t="s">
-        <v>812</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="D85" t="s">
-        <v>1169</v>
-      </c>
-      <c r="E85" s="2" t="s">
+      <c r="E85" s="6" t="s">
         <v>812</v>
       </c>
       <c r="F85" s="1" t="s">
@@ -6530,16 +6539,16 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>812</v>
       </c>
       <c r="D86" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>812</v>
@@ -6553,19 +6562,19 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>37</v>
+        <v>1164</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>38</v>
+        <v>1162</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>192</v>
+        <v>812</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1170</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>502</v>
+        <v>812</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>812</v>
@@ -6576,19 +6585,19 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>195</v>
+        <v>38</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>812</v>
@@ -6599,19 +6608,19 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>713</v>
+        <v>72</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>714</v>
+        <v>195</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>714</v>
+        <v>294</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>715</v>
+        <v>211</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>714</v>
+        <v>513</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>812</v>
@@ -6622,19 +6631,19 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>375</v>
+        <v>713</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>375</v>
+        <v>714</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>420</v>
+        <v>714</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>633</v>
+        <v>715</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>580</v>
+        <v>714</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>812</v>
@@ -6645,19 +6654,19 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>129</v>
+        <v>375</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>130</v>
+        <v>375</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>324</v>
+        <v>420</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>138</v>
+        <v>633</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>546</v>
+        <v>580</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>812</v>
@@ -6668,19 +6677,19 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>352</v>
+        <v>129</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>352</v>
+        <v>130</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>407</v>
+        <v>324</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>622</v>
+        <v>138</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>568</v>
+        <v>546</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>812</v>
@@ -6691,19 +6700,19 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>861</v>
+        <v>352</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>848</v>
+        <v>352</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>848</v>
+        <v>407</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>874</v>
+        <v>622</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>848</v>
+        <v>568</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>812</v>
@@ -6714,19 +6723,19 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>812</v>
@@ -6737,19 +6746,19 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>812</v>
@@ -6760,19 +6769,19 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>812</v>
@@ -6783,19 +6792,19 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>812</v>
@@ -6806,19 +6815,19 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>863</v>
+        <v>873</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>876</v>
+        <v>886</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>812</v>
@@ -6829,19 +6838,19 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>812</v>
@@ -6852,19 +6861,19 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>812</v>
@@ -6875,19 +6884,19 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>812</v>
@@ -6898,19 +6907,19 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>812</v>
@@ -6921,19 +6930,19 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>812</v>
@@ -6944,19 +6953,19 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>812</v>
@@ -6967,19 +6976,19 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>812</v>
@@ -6990,19 +6999,19 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>835</v>
+        <v>870</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>834</v>
+        <v>857</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>812</v>
+        <v>857</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>1312</v>
+        <v>883</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>812</v>
+        <v>857</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>812</v>
@@ -7013,16 +7022,16 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>812</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>844</v>
+        <v>1312</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>812</v>
@@ -7036,16 +7045,16 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>812</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>812</v>
@@ -7059,19 +7068,19 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>890</v>
+        <v>837</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>888</v>
+        <v>839</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>887</v>
+        <v>812</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>889</v>
+        <v>846</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>887</v>
+        <v>812</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>812</v>
@@ -7082,19 +7091,19 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>832</v>
+        <v>890</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>833</v>
+        <v>888</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>812</v>
+        <v>887</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>843</v>
+        <v>889</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>812</v>
+        <v>887</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>812</v>
@@ -7105,16 +7114,16 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>904</v>
+        <v>832</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>906</v>
+        <v>833</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>812</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>905</v>
+        <v>843</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>812</v>
@@ -7128,16 +7137,16 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>1122</v>
+        <v>904</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1123</v>
+        <v>906</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>812</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>1124</v>
+        <v>905</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>812</v>
@@ -7151,19 +7160,19 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>708</v>
+        <v>1122</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>684</v>
+        <v>1123</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>684</v>
+        <v>812</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>685</v>
+        <v>1124</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>913</v>
+        <v>812</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>812</v>
@@ -7174,19 +7183,19 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>252</v>
+        <v>708</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>251</v>
+        <v>684</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>320</v>
+        <v>684</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>1313</v>
+        <v>685</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>541</v>
+        <v>913</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>812</v>
@@ -7197,19 +7206,19 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>248</v>
+        <v>1313</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>812</v>
@@ -7220,19 +7229,19 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>1314</v>
+        <v>248</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>812</v>
@@ -7243,19 +7252,19 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>454</v>
+        <v>247</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>457</v>
+        <v>246</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>457</v>
+        <v>326</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>647</v>
+        <v>1314</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>599</v>
+        <v>543</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>812</v>
@@ -7266,19 +7275,19 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>812</v>
@@ -7289,19 +7298,19 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>812</v>
@@ -7312,19 +7321,19 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>172</v>
+        <v>456</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>319</v>
+        <v>459</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>1315</v>
+        <v>649</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>540</v>
+        <v>601</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>812</v>
@@ -7335,19 +7344,19 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>453</v>
+        <v>172</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>466</v>
+        <v>319</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>646</v>
+        <v>1315</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>598</v>
+        <v>540</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>812</v>
@@ -7358,19 +7367,19 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>119</v>
+        <v>466</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>318</v>
+        <v>466</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>228</v>
+        <v>646</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>539</v>
+        <v>598</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>812</v>
@@ -7381,19 +7390,19 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>452</v>
+        <v>119</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>452</v>
+        <v>318</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>645</v>
+        <v>228</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>597</v>
+        <v>539</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>812</v>
@@ -7404,19 +7413,19 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>1352</v>
+        <v>451</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>1353</v>
+        <v>452</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>812</v>
+        <v>452</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>1354</v>
+        <v>645</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>812</v>
+        <v>597</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>812</v>
@@ -7427,19 +7436,19 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>716</v>
+        <v>1352</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>1156</v>
+        <v>1353</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>1156</v>
+        <v>812</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>717</v>
+        <v>1354</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>1156</v>
+        <v>812</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>812</v>
@@ -7450,19 +7459,19 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>0</v>
+        <v>716</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>1</v>
+        <v>1156</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>259</v>
+        <v>1156</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>177</v>
+        <v>717</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>477</v>
+        <v>1156</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>812</v>
@@ -7473,19 +7482,19 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>812</v>
@@ -7496,19 +7505,19 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>812</v>
@@ -7519,19 +7528,19 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>812</v>
@@ -7542,19 +7551,19 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>257</v>
+        <v>33</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>812</v>
@@ -7565,19 +7574,19 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>29</v>
+        <v>257</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>812</v>
@@ -7588,19 +7597,19 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>692</v>
+        <v>28</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>692</v>
+        <v>29</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>692</v>
+        <v>278</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>697</v>
+        <v>188</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>917</v>
+        <v>496</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>812</v>
@@ -7611,19 +7620,19 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>688</v>
+        <v>917</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>812</v>
@@ -7634,19 +7643,19 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>243</v>
+        <v>689</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>244</v>
+        <v>688</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>262</v>
+        <v>688</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>608</v>
+        <v>698</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>479</v>
+        <v>688</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>812</v>
@@ -7657,19 +7666,19 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>120</v>
+        <v>243</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>120</v>
+        <v>244</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>322</v>
+        <v>262</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>229</v>
+        <v>608</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>544</v>
+        <v>479</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>812</v>
@@ -7680,19 +7689,19 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>265</v>
+        <v>322</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>483</v>
+        <v>544</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>812</v>
@@ -7703,19 +7712,19 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>365</v>
+        <v>50</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>363</v>
+        <v>171</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>414</v>
+        <v>265</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>1316</v>
+        <v>202</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>840</v>
+        <v>483</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>812</v>
@@ -7726,19 +7735,19 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>629</v>
+        <v>1316</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>575</v>
+        <v>840</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>812</v>
@@ -7749,19 +7758,19 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>812</v>
@@ -7772,19 +7781,19 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>51</v>
+        <v>367</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>55</v>
+        <v>368</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>263</v>
+        <v>415</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>201</v>
+        <v>630</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>480</v>
+        <v>576</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>812</v>
@@ -7795,19 +7804,19 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>182</v>
+        <v>55</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>609</v>
+        <v>201</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>812</v>
@@ -7818,19 +7827,19 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>245</v>
+        <v>182</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>438</v>
+        <v>264</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>812</v>
@@ -7841,19 +7850,19 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>3</v>
+        <v>245</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>261</v>
+        <v>438</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>181</v>
+        <v>610</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>812</v>
@@ -7864,19 +7873,19 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>812</v>
@@ -7887,19 +7896,19 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>349</v>
+        <v>39</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>348</v>
+        <v>40</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>406</v>
+        <v>285</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>620</v>
+        <v>207</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>566</v>
+        <v>503</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>812</v>
@@ -7910,19 +7919,19 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>718</v>
+        <v>349</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>718</v>
+        <v>348</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>718</v>
+        <v>406</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>718</v>
+        <v>620</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>718</v>
+        <v>566</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>812</v>
@@ -7933,19 +7942,19 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>44</v>
+        <v>718</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>918</v>
+        <v>718</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>288</v>
+        <v>718</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>919</v>
+        <v>718</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>507</v>
+        <v>718</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>812</v>
@@ -7956,19 +7965,19 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>892</v>
+        <v>44</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>891</v>
+        <v>918</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>891</v>
+        <v>288</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>893</v>
+        <v>919</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>891</v>
+        <v>507</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>812</v>
@@ -7979,19 +7988,19 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>66</v>
+        <v>892</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>67</v>
+        <v>891</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>291</v>
+        <v>891</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>193</v>
+        <v>893</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>510</v>
+        <v>891</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>812</v>
@@ -8002,19 +8011,19 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>1076</v>
+        <v>291</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>1077</v>
+        <v>193</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>510</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>812</v>
@@ -8025,19 +8034,19 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>42</v>
+        <v>1076</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>505</v>
+        <v>186</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>1077</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>812</v>
@@ -8048,19 +8057,19 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>325</v>
+        <v>42</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>547</v>
+        <v>505</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>812</v>
@@ -8071,19 +8080,19 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>516</v>
+        <v>547</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>812</v>
@@ -8094,19 +8103,19 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>391</v>
+        <v>77</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>427</v>
+        <v>297</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>638</v>
+        <v>196</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>589</v>
+        <v>516</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>812</v>
@@ -8117,19 +8126,19 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>60</v>
+        <v>391</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>183</v>
+        <v>93</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>266</v>
+        <v>427</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>184</v>
+        <v>638</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>484</v>
+        <v>589</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>812</v>
@@ -8140,19 +8149,19 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>611</v>
+        <v>184</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>812</v>
@@ -8163,19 +8172,19 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>346</v>
+        <v>63</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>347</v>
+        <v>62</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>405</v>
+        <v>267</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>565</v>
+        <v>485</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>812</v>
@@ -8186,19 +8195,19 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>1358</v>
+        <v>347</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>812</v>
@@ -8209,19 +8218,19 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>81</v>
+        <v>354</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>95</v>
+        <v>1358</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>299</v>
+        <v>409</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>214</v>
+        <v>624</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>519</v>
+        <v>570</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>812</v>
@@ -8232,19 +8241,19 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>924</v>
+        <v>81</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>925</v>
+        <v>95</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>925</v>
+        <v>299</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>926</v>
+        <v>214</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>925</v>
+        <v>519</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>812</v>
@@ -8255,19 +8264,19 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>700</v>
+        <v>924</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>693</v>
+        <v>925</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>693</v>
+        <v>925</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>699</v>
+        <v>926</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>914</v>
+        <v>925</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>812</v>
@@ -8278,19 +8287,19 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>686</v>
+        <v>700</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>812</v>
@@ -8301,19 +8310,19 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>21</v>
+        <v>686</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>22</v>
+        <v>687</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>22</v>
+        <v>687</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>22</v>
+        <v>694</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>22</v>
+        <v>915</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>812</v>
@@ -8324,19 +8333,19 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>287</v>
+        <v>22</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>506</v>
+        <v>22</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>812</v>
@@ -8347,19 +8356,19 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>240</v>
+        <v>137</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>545</v>
+        <v>506</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>812</v>
@@ -8370,19 +8379,19 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>787</v>
+        <v>127</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>788</v>
+        <v>128</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>812</v>
+        <v>323</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>813</v>
+        <v>240</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>812</v>
+        <v>545</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>812</v>
@@ -8393,16 +8402,16 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>802</v>
+        <v>787</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>803</v>
+        <v>788</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>812</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>812</v>
@@ -8416,16 +8425,16 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>812</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>812</v>
@@ -8439,16 +8448,16 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>812</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>812</v>
@@ -8462,16 +8471,16 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>812</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>812</v>
@@ -8485,108 +8494,108 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B172" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="D171" s="2" t="s">
+      <c r="C172" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D172" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="E171" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A172" s="2" t="s">
+      <c r="E172" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
         <v>1107</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B173" s="2" t="s">
         <v>1108</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="D172" s="6" t="s">
+      <c r="C173" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D173" s="6" t="s">
         <v>1351</v>
       </c>
-      <c r="E172" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A173" s="2" t="s">
+      <c r="E173" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
         <v>1186</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B174" s="2" t="s">
         <v>1184</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="D173" s="6" t="s">
+      <c r="C174" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D174" s="6" t="s">
         <v>1185</v>
       </c>
-      <c r="E173" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A174" s="2" t="s">
+      <c r="E174" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
         <v>1194</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B175" s="2" t="s">
         <v>1195</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="D174" s="6" t="s">
+      <c r="C175" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D175" s="6" t="s">
         <v>1196</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="G174" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>815</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>812</v>
@@ -8600,16 +8609,16 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>812</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>812</v>
@@ -8623,16 +8632,16 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>812</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>812</v>
@@ -8646,16 +8655,16 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>812</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>812</v>
@@ -8669,16 +8678,16 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>847</v>
+        <v>796</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>812</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>812</v>
@@ -8692,16 +8701,16 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>797</v>
+        <v>847</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>812</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>812</v>
@@ -8715,41 +8724,41 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B182" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="D181" s="2" t="s">
+      <c r="C182" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="E181" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="G181" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A182" s="1" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="D182" t="s">
-        <v>1302</v>
-      </c>
-      <c r="E182" s="1" t="s">
+      <c r="E182" s="2" t="s">
         <v>812</v>
       </c>
       <c r="F182" s="1" t="s">
@@ -8761,16 +8770,16 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1137</v>
+        <v>1301</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>812</v>
       </c>
       <c r="D183" t="s">
-        <v>1150</v>
+        <v>1302</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>812</v>
@@ -8784,16 +8793,16 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>812</v>
       </c>
       <c r="D184" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>812</v>
@@ -8807,16 +8816,16 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>812</v>
       </c>
       <c r="D185" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>812</v>
@@ -8830,62 +8839,62 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B187" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="C186" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="D186" t="s">
+      <c r="C187" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D187" t="s">
         <v>1153</v>
       </c>
-      <c r="E186" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="G186" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A187" s="8" t="s">
+      <c r="E187" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" s="8" t="s">
         <v>1144</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B188" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="C187" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="D187" t="s">
+      <c r="C188" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D188" t="s">
         <v>1317</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="G187" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A188" s="1" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="D188" t="s">
-        <v>1154</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>812</v>
@@ -8899,16 +8908,16 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>812</v>
       </c>
       <c r="D189" t="s">
-        <v>1131</v>
+        <v>1154</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>812</v>
@@ -8922,16 +8931,16 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="D190" s="1" t="s">
-        <v>1155</v>
+      <c r="D190" t="s">
+        <v>1131</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>812</v>
@@ -8945,16 +8954,16 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="D191" t="s">
-        <v>1146</v>
+      <c r="D191" s="1" t="s">
+        <v>1155</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>812</v>
@@ -8968,16 +8977,16 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>812</v>
       </c>
       <c r="D192" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>812</v>
@@ -8991,16 +9000,16 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>812</v>
       </c>
       <c r="D193" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>812</v>
@@ -9014,16 +9023,16 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>812</v>
       </c>
       <c r="D194" t="s">
-        <v>1318</v>
+        <v>1148</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>812</v>
@@ -9037,16 +9046,16 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>812</v>
       </c>
       <c r="D195" t="s">
-        <v>1149</v>
+        <v>1318</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>812</v>
@@ -9060,42 +9069,42 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
         <v>1145</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B197" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="C196" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="D196" t="s">
+      <c r="C197" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D197" t="s">
         <v>1319</v>
       </c>
-      <c r="E196" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="G196" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A197" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>1349</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>707</v>
+      <c r="E197" s="1" t="s">
+        <v>812</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>812</v>
@@ -9106,19 +9115,19 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>721</v>
+        <v>1349</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>812</v>
@@ -9129,19 +9138,19 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>1320</v>
+        <v>721</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>812</v>
@@ -9152,19 +9161,19 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>726</v>
+        <v>1320</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>812</v>
@@ -9175,19 +9184,19 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>1059</v>
+        <v>724</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>1060</v>
+        <v>725</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>1060</v>
+        <v>725</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>1061</v>
+        <v>726</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>1060</v>
+        <v>725</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>812</v>
@@ -9198,19 +9207,19 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>79</v>
+        <v>1059</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>79</v>
+        <v>1060</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>79</v>
+        <v>1060</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>198</v>
+        <v>1061</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>517</v>
+        <v>1060</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>812</v>
@@ -9221,19 +9230,19 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>792</v>
+        <v>79</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>792</v>
+        <v>79</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>812</v>
+        <v>79</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>816</v>
+        <v>198</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>812</v>
+        <v>517</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>812</v>
@@ -9244,19 +9253,19 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>167</v>
+        <v>792</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>168</v>
+        <v>792</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>332</v>
+        <v>812</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>235</v>
+        <v>816</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>556</v>
+        <v>812</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>812</v>
@@ -9267,19 +9276,19 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>1178</v>
+        <v>167</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>1179</v>
+        <v>168</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="D205" t="s">
-        <v>1298</v>
+        <v>332</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>812</v>
+        <v>556</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>812</v>
@@ -9290,16 +9299,16 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="D206" s="2" t="s">
-        <v>1182</v>
+      <c r="D206" t="s">
+        <v>1298</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>812</v>
@@ -9313,16 +9322,16 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>901</v>
+        <v>1180</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>902</v>
+        <v>1181</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>902</v>
+        <v>812</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>903</v>
+        <v>1182</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>812</v>
@@ -9336,65 +9345,65 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209" s="2" t="s">
         <v>1174</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B209" s="2" t="s">
         <v>1175</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="D208" s="2" t="s">
+      <c r="C209" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D209" s="2" t="s">
         <v>1299</v>
       </c>
-      <c r="E208" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="F208" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="G208" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A209" s="2" t="s">
+      <c r="E209" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A210" s="2" t="s">
         <v>1183</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B210" s="2" t="s">
         <v>1176</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="D209" s="6" t="s">
+      <c r="C210" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D210" s="6" t="s">
         <v>1321</v>
       </c>
-      <c r="E209" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="F209" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="G209" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A210" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="E210" s="2" t="s">
-        <v>501</v>
+        <v>812</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>812</v>
@@ -9405,19 +9414,19 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>351</v>
+        <v>35</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>350</v>
+        <v>36</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>408</v>
+        <v>284</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>621</v>
+        <v>191</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>567</v>
+        <v>501</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>812</v>
@@ -9428,19 +9437,19 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>176</v>
+        <v>351</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>237</v>
+        <v>621</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>812</v>
@@ -9451,19 +9460,19 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>812</v>
@@ -9474,19 +9483,19 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>329</v>
+        <v>418</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>812</v>
@@ -9497,19 +9506,19 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>441</v>
+        <v>329</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>1300</v>
+        <v>231</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>812</v>
@@ -9520,19 +9529,19 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>1322</v>
+        <v>1300</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>812</v>
@@ -9543,19 +9552,19 @@
     <